--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59522A48-AD4C-45DE-B802-08E3AFDD7523}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BA712D-7B34-49E1-9DCB-F1A2084C7058}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="314">
   <si>
     <t>Module Code</t>
   </si>
@@ -919,6 +919,72 @@
   <si>
     <t>Project Report (*)</t>
   </si>
+  <si>
+    <t>ENT610</t>
+  </si>
+  <si>
+    <t>High Frequency Device Physics and Design</t>
+  </si>
+  <si>
+    <t>ENT795</t>
+  </si>
+  <si>
+    <t>Optoelectronics</t>
+  </si>
+  <si>
+    <t>ENT871</t>
+  </si>
+  <si>
+    <t>Micro- and Nano-engineering</t>
+  </si>
+  <si>
+    <t>CMT307</t>
+  </si>
+  <si>
+    <t>CMT311</t>
+  </si>
+  <si>
+    <t>Applied Machine Learning</t>
+  </si>
+  <si>
+    <t>Principles of Machine Learning</t>
+  </si>
+  <si>
+    <t>MScDataPhys</t>
+  </si>
+  <si>
+    <t>MScDataAstro</t>
+  </si>
+  <si>
+    <t>PXT143</t>
+  </si>
+  <si>
+    <t>CDTCSPhysics</t>
+  </si>
+  <si>
+    <t>CA 1</t>
+  </si>
+  <si>
+    <t>CA 2</t>
+  </si>
+  <si>
+    <t>CA (TBC)</t>
+  </si>
+  <si>
+    <t>ML Project (TBC)</t>
+  </si>
+  <si>
+    <t>Class Test (TBC)</t>
+  </si>
+  <si>
+    <t>ML Methods (TBC)</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Pres (+/- 1 week)</t>
+  </si>
 </sst>
 </file>
 
@@ -1024,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1150,18 +1216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1184,34 +1238,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="103">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1292,6 +1319,22 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8769,7 +8812,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9218,56 +9261,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ149" totalsRowShown="0" headerRowDxfId="103" dataDxfId="101" headerRowBorderDxfId="102" tableBorderDxfId="100" totalsRowBorderDxfId="99">
-  <autoFilter ref="A1:AJ149" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ156" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99" totalsRowBorderDxfId="98">
+  <autoFilter ref="A1:AJ156" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH135">
     <sortCondition ref="A1:A135"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="96"/>
-    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="95">
+    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="96"/>
+    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="95"/>
+    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="94">
       <calculatedColumnFormula>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="94">
+    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="93">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="93"/>
-    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="92"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="91"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="90">
+    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="92"/>
+    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="91"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="90"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="89">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="74"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="73"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="72"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="71"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="70"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="69"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="68"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="67"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="66"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="65"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="64">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="88"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="86"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="85"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="83"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="76"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="75"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="74"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="73"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="72"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="71"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="70"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="69"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="68"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="67"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="66"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="65"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="64"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="63">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="63">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="62">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9276,49 +9319,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="55"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="54"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="53">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="53">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="52">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="52">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="51">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="35"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="31"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="30"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="27"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="26">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9327,32 +9370,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:R94" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
-  <autoFilter ref="A1:R94" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:U100" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
+  <autoFilter ref="A1:U100" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="A1:A62"/>
   </sortState>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="16"/>
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="20"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="9"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
+    <tableColumn id="21" xr3:uid="{3CC5C4CC-6537-4363-AB9D-6A0F69456D30}" name="CDTCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="9">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9677,30 +9723,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AJ149"/>
+  <dimension ref="A1:AJ156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V167" sqref="V167"/>
+      <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7265625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7265625" style="10" customWidth="1"/>
-    <col min="11" max="22" width="9.08984375" style="14" customWidth="1"/>
-    <col min="23" max="34" width="9.08984375" style="16"/>
+    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
+    <col min="11" max="22" width="9.06640625" style="14" customWidth="1"/>
+    <col min="23" max="34" width="9.06640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="44" customFormat="1" ht="29">
+    <row r="1" spans="1:36" s="44" customFormat="1" ht="28.5">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10709,31 +10755,31 @@
       <c r="B14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="11" t="s">
         <v>281</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="11">
         <v>3</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="11">
         <v>5</v>
       </c>
       <c r="K14" s="18"/>
@@ -10762,11 +10808,11 @@
       <c r="AF14" s="20"/>
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
-      <c r="AI14" s="48">
+      <c r="AI14" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0.2</v>
       </c>
-      <c r="AJ14" s="48">
+      <c r="AJ14" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
@@ -10826,10 +10872,10 @@
       <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
-      <c r="AF15" s="49">
+      <c r="AF15" s="45">
         <v>0.3</v>
       </c>
-      <c r="AG15" s="50">
+      <c r="AG15" s="46">
         <v>-0.3</v>
       </c>
       <c r="AH15" s="20"/>
@@ -11918,10 +11964,10 @@
       <c r="M30" s="18"/>
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
-      <c r="P30" s="49">
+      <c r="P30" s="45">
         <v>0.2</v>
       </c>
-      <c r="Q30" s="50">
+      <c r="Q30" s="46">
         <v>-0.2</v>
       </c>
       <c r="R30" s="19"/>
@@ -12057,17 +12103,17 @@
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="19"/>
-      <c r="O32" s="49">
+      <c r="O32" s="45">
         <v>0.2</v>
       </c>
-      <c r="P32" s="50">
+      <c r="P32" s="46">
         <v>-0.2</v>
       </c>
       <c r="Q32" s="19"/>
-      <c r="R32" s="49">
+      <c r="R32" s="45">
         <v>0.2</v>
       </c>
-      <c r="S32" s="50">
+      <c r="S32" s="46">
         <v>-0.2</v>
       </c>
       <c r="T32" s="18"/>
@@ -12214,18 +12260,18 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
-      <c r="N34" s="54">
+      <c r="N34" s="50">
         <v>-0.19</v>
       </c>
-      <c r="O34" s="53">
+      <c r="O34" s="49">
         <v>0.19</v>
       </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
-      <c r="R34" s="49">
+      <c r="R34" s="45">
         <v>0.19</v>
       </c>
-      <c r="S34" s="50">
+      <c r="S34" s="46">
         <v>-0.19</v>
       </c>
       <c r="T34" s="18"/>
@@ -12293,11 +12339,11 @@
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
-      <c r="R35" s="54">
+      <c r="R35" s="50">
         <v>-0.2</v>
       </c>
       <c r="S35" s="18"/>
-      <c r="T35" s="49">
+      <c r="T35" s="45">
         <v>0.2</v>
       </c>
       <c r="U35" s="18"/>
@@ -12616,31 +12662,31 @@
       <c r="B40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="11" t="s">
         <v>283</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="11">
         <v>3</v>
       </c>
-      <c r="I40" s="47">
+      <c r="I40" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="11">
         <v>6</v>
       </c>
       <c r="K40" s="18"/>
@@ -12657,33 +12703,33 @@
       <c r="V40" s="19"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
-      <c r="Y40" s="52">
+      <c r="Y40" s="48">
         <v>0.1</v>
       </c>
-      <c r="Z40" s="50">
+      <c r="Z40" s="46">
         <v>-0.1</v>
       </c>
       <c r="AA40" s="22"/>
-      <c r="AB40" s="49">
+      <c r="AB40" s="45">
         <v>0.1</v>
       </c>
-      <c r="AC40" s="51">
+      <c r="AC40" s="47">
         <v>-0.1</v>
       </c>
       <c r="AD40" s="20"/>
-      <c r="AE40" s="52">
+      <c r="AE40" s="48">
         <v>0.1</v>
       </c>
-      <c r="AF40" s="50">
+      <c r="AF40" s="46">
         <v>-0.1</v>
       </c>
       <c r="AG40" s="20"/>
       <c r="AH40" s="20"/>
-      <c r="AI40" s="48">
+      <c r="AI40" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="48">
+      <c r="AJ40" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>18</v>
       </c>
@@ -15906,7 +15952,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>234</v>
@@ -15973,7 +16019,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>210</v>
+        <v>313</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>234</v>
@@ -16812,10 +16858,10 @@
       <c r="AD97" s="20"/>
       <c r="AE97" s="20"/>
       <c r="AF97" s="20"/>
-      <c r="AG97" s="49">
+      <c r="AG97" s="45">
         <v>0.4</v>
       </c>
-      <c r="AH97" s="50">
+      <c r="AH97" s="46">
         <v>-0.4</v>
       </c>
       <c r="AI97" s="27">
@@ -16952,10 +16998,10 @@
       <c r="AD99" s="20"/>
       <c r="AE99" s="20"/>
       <c r="AF99" s="20"/>
-      <c r="AG99" s="49">
+      <c r="AG99" s="45">
         <v>0.4</v>
       </c>
-      <c r="AH99" s="50">
+      <c r="AH99" s="46">
         <v>-0.4</v>
       </c>
       <c r="AI99" s="27">
@@ -19404,10 +19450,10 @@
       <c r="AD132" s="20"/>
       <c r="AE132" s="20"/>
       <c r="AF132" s="20"/>
-      <c r="AG132" s="49">
+      <c r="AG132" s="45">
         <v>0.25</v>
       </c>
-      <c r="AH132" s="50">
+      <c r="AH132" s="46">
         <v>-0.25</v>
       </c>
       <c r="AI132" s="27">
@@ -19613,10 +19659,10 @@
       <c r="AD135" s="20"/>
       <c r="AE135" s="20"/>
       <c r="AF135" s="20"/>
-      <c r="AG135" s="49">
+      <c r="AG135" s="45">
         <v>0.4</v>
       </c>
-      <c r="AH135" s="50">
+      <c r="AH135" s="46">
         <v>-0.4</v>
       </c>
       <c r="AI135" s="27">
@@ -20571,6 +20617,475 @@
         <v>32</v>
       </c>
     </row>
+    <row r="150" spans="1:36">
+      <c r="A150" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>30</v>
+      </c>
+      <c r="E150" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>10</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="G150" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H150" s="11">
+        <v>4</v>
+      </c>
+      <c r="I150" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>4</v>
+      </c>
+      <c r="J150" s="11"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="R150" s="19"/>
+      <c r="S150" s="18"/>
+      <c r="T150" s="18"/>
+      <c r="U150" s="18"/>
+      <c r="V150" s="19"/>
+      <c r="W150" s="20"/>
+      <c r="X150" s="20"/>
+      <c r="Y150" s="20"/>
+      <c r="Z150" s="20"/>
+      <c r="AA150" s="20"/>
+      <c r="AB150" s="20"/>
+      <c r="AC150" s="20"/>
+      <c r="AD150" s="20"/>
+      <c r="AE150" s="20"/>
+      <c r="AF150" s="20"/>
+      <c r="AG150" s="20"/>
+      <c r="AH150" s="20"/>
+      <c r="AI150" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ150" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:36">
+      <c r="A151" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B151" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>30</v>
+      </c>
+      <c r="E151" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>10</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G151" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H151" s="11">
+        <v>6</v>
+      </c>
+      <c r="I151" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
+      </c>
+      <c r="J151" s="11"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="18"/>
+      <c r="T151" s="18"/>
+      <c r="U151" s="18"/>
+      <c r="V151" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="W151" s="20"/>
+      <c r="X151" s="20"/>
+      <c r="Y151" s="20"/>
+      <c r="Z151" s="20"/>
+      <c r="AA151" s="20"/>
+      <c r="AB151" s="20"/>
+      <c r="AC151" s="20"/>
+      <c r="AD151" s="20"/>
+      <c r="AE151" s="20"/>
+      <c r="AF151" s="20"/>
+      <c r="AG151" s="20"/>
+      <c r="AH151" s="20"/>
+      <c r="AI151" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.2</v>
+      </c>
+      <c r="AJ151" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:36">
+      <c r="A152" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B152" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E152" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>10</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H152" s="11">
+        <v>11</v>
+      </c>
+      <c r="I152" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="J152" s="11"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="18"/>
+      <c r="U152" s="18"/>
+      <c r="V152" s="19"/>
+      <c r="W152" s="20"/>
+      <c r="X152" s="20"/>
+      <c r="Y152" s="20"/>
+      <c r="Z152" s="20"/>
+      <c r="AA152" s="20"/>
+      <c r="AB152" s="20"/>
+      <c r="AC152" s="20"/>
+      <c r="AD152" s="20"/>
+      <c r="AE152" s="20"/>
+      <c r="AF152" s="20"/>
+      <c r="AG152" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH152" s="20"/>
+      <c r="AI152" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>1</v>
+      </c>
+      <c r="AJ152" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:36">
+      <c r="A153" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E153" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="G153" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H153" s="11">
+        <v>11</v>
+      </c>
+      <c r="I153" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="J153" s="11"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="18"/>
+      <c r="T153" s="18"/>
+      <c r="U153" s="18"/>
+      <c r="V153" s="19"/>
+      <c r="W153" s="20"/>
+      <c r="X153" s="20"/>
+      <c r="Y153" s="20"/>
+      <c r="Z153" s="20"/>
+      <c r="AA153" s="20"/>
+      <c r="AB153" s="20"/>
+      <c r="AC153" s="20"/>
+      <c r="AD153" s="20"/>
+      <c r="AE153" s="20"/>
+      <c r="AF153" s="20"/>
+      <c r="AG153" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AH153" s="20"/>
+      <c r="AI153" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ153" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:36">
+      <c r="A154" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D154" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E154" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H154" s="11">
+        <v>11</v>
+      </c>
+      <c r="I154" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="J154" s="11"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
+      <c r="V154" s="19"/>
+      <c r="W154" s="20"/>
+      <c r="X154" s="20"/>
+      <c r="Y154" s="20"/>
+      <c r="Z154" s="20"/>
+      <c r="AA154" s="20"/>
+      <c r="AB154" s="20"/>
+      <c r="AC154" s="20"/>
+      <c r="AD154" s="20"/>
+      <c r="AE154" s="20"/>
+      <c r="AF154" s="20"/>
+      <c r="AG154" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="AH154" s="20"/>
+      <c r="AI154" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ154" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:36">
+      <c r="A155" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B155" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E155" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G155" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H155" s="11">
+        <v>11</v>
+      </c>
+      <c r="I155" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="J155" s="11"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="18"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="18"/>
+      <c r="T155" s="18"/>
+      <c r="U155" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V155" s="19"/>
+      <c r="W155" s="20"/>
+      <c r="X155" s="20"/>
+      <c r="Y155" s="20"/>
+      <c r="Z155" s="20"/>
+      <c r="AA155" s="20"/>
+      <c r="AB155" s="20"/>
+      <c r="AC155" s="20"/>
+      <c r="AD155" s="20"/>
+      <c r="AE155" s="20"/>
+      <c r="AF155" s="20"/>
+      <c r="AG155" s="20"/>
+      <c r="AH155" s="20"/>
+      <c r="AI155" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ155" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:36">
+      <c r="A156" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B156" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E156" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H156" s="11">
+        <v>11</v>
+      </c>
+      <c r="I156" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="J156" s="11"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="18"/>
+      <c r="Q156" s="18"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="18"/>
+      <c r="T156" s="18"/>
+      <c r="U156" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="V156" s="19"/>
+      <c r="W156" s="20"/>
+      <c r="X156" s="20"/>
+      <c r="Y156" s="20"/>
+      <c r="Z156" s="20"/>
+      <c r="AA156" s="20"/>
+      <c r="AB156" s="20"/>
+      <c r="AC156" s="20"/>
+      <c r="AD156" s="20"/>
+      <c r="AE156" s="20"/>
+      <c r="AF156" s="20"/>
+      <c r="AG156" s="20"/>
+      <c r="AH156" s="20"/>
+      <c r="AI156" s="27">
+        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ156" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20592,16 +21107,16 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7265625" style="16"/>
+    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.73046875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26745,24 +27260,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
-    <sheetView topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S83" sqref="S83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -26803,22 +27318,31 @@
         <v>200</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:21">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -26850,22 +27374,22 @@
       <c r="K2" t="s">
         <v>146</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>60</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -26897,22 +27421,22 @@
       <c r="K3" t="s">
         <v>146</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>60</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -26944,22 +27468,22 @@
       <c r="K4" t="s">
         <v>146</v>
       </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
         <v>50</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:21">
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
@@ -26991,22 +27515,22 @@
       <c r="K5" t="s">
         <v>146</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:21">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -27038,22 +27562,22 @@
       <c r="K6" t="s">
         <v>146</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>4</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>70</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:21">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -27085,22 +27609,22 @@
       <c r="K7" t="s">
         <v>146</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:21">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -27133,22 +27657,25 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6">
-        <v>2</v>
-      </c>
-      <c r="P8">
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6">
+        <v>2</v>
+      </c>
+      <c r="S8">
         <v>70</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R8">
+      <c r="U8">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:21">
       <c r="A9" s="3" t="s">
         <v>87</v>
       </c>
@@ -27180,22 +27707,22 @@
       <c r="K9" t="s">
         <v>146</v>
       </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>60</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R9">
+      <c r="U9">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:21">
       <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
@@ -27223,22 +27750,22 @@
       <c r="K10" t="s">
         <v>146</v>
       </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
         <v>75</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>25</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:21">
       <c r="A11" s="3" t="s">
         <v>220</v>
       </c>
@@ -27270,22 +27797,22 @@
       <c r="K11" t="s">
         <v>146</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:21">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -27317,22 +27844,22 @@
       <c r="K12" t="s">
         <v>146</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>4</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>60</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R12">
+      <c r="U12">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:21">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -27364,22 +27891,22 @@
       <c r="K13" t="s">
         <v>146</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>60</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R13">
+      <c r="U13">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:21">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -27405,22 +27932,22 @@
       <c r="K14" t="s">
         <v>146</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>4</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R14">
+      <c r="U14">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:21">
       <c r="A15" s="4" t="s">
         <v>238</v>
       </c>
@@ -27452,22 +27979,22 @@
       <c r="K15" t="s">
         <v>146</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R15">
+      <c r="U15">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:21">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -27500,22 +28027,25 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="6">
-        <v>2</v>
-      </c>
-      <c r="P16">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>60</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R16">
+      <c r="U16">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:21">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -27546,22 +28076,25 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6">
-        <v>2</v>
-      </c>
-      <c r="P17">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6">
+        <v>2</v>
+      </c>
+      <c r="S17">
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R17">
+      <c r="U17">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:21">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -27591,22 +28124,22 @@
       <c r="K18" t="s">
         <v>146</v>
       </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18">
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
         <v>50</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:21">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -27635,22 +28168,25 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6">
         <v>4</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>0</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:21">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -27681,22 +28217,25 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="6">
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6">
         <v>3</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:21">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -27728,22 +28267,22 @@
       <c r="K21" t="s">
         <v>146</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>4</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>70</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R21">
+      <c r="U21">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:21">
       <c r="A22" s="3" t="s">
         <v>97</v>
       </c>
@@ -27775,22 +28314,22 @@
       <c r="K22" t="s">
         <v>146</v>
       </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
-      <c r="P22">
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
         <v>70</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R22">
+      <c r="U22">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:21">
       <c r="A23" s="3" t="s">
         <v>189</v>
       </c>
@@ -27822,22 +28361,22 @@
       <c r="K23" t="s">
         <v>146</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>70</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R23">
+      <c r="U23">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:21">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -27863,22 +28402,22 @@
       <c r="K24" t="s">
         <v>146</v>
       </c>
-      <c r="O24">
-        <v>2</v>
-      </c>
-      <c r="P24">
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
         <v>80</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R24">
+      <c r="U24">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:21">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -27908,22 +28447,22 @@
       <c r="K25" t="s">
         <v>146</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>3</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R25">
+      <c r="U25">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:21">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -27954,22 +28493,25 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6">
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6">
         <v>3</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>0</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:21">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -28001,22 +28543,22 @@
       <c r="K27" t="s">
         <v>146</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>4</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>80</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:21">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -28050,22 +28592,22 @@
       <c r="K28" t="s">
         <v>147</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>70</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:21">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -28099,22 +28641,22 @@
       <c r="K29" t="s">
         <v>147</v>
       </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-      <c r="P29">
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
         <v>0</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:21">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -28148,22 +28690,22 @@
       <c r="K30" t="s">
         <v>147</v>
       </c>
-      <c r="O30">
-        <v>2</v>
-      </c>
-      <c r="P30">
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
         <v>80</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:21">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -28197,22 +28739,22 @@
       <c r="K31" t="s">
         <v>147</v>
       </c>
-      <c r="O31">
-        <v>2</v>
-      </c>
-      <c r="P31">
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
         <v>0</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:21">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -28247,22 +28789,25 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="6">
-        <v>2</v>
-      </c>
-      <c r="P32">
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6">
+        <v>2</v>
+      </c>
+      <c r="S32">
         <v>0</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:21">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -28295,22 +28840,25 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="6">
-        <v>2</v>
-      </c>
-      <c r="P33">
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6">
+        <v>2</v>
+      </c>
+      <c r="S33">
         <v>70</v>
       </c>
-      <c r="Q33">
+      <c r="T33">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:21">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -28347,22 +28895,25 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="6">
-        <v>2</v>
-      </c>
-      <c r="P34">
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6">
+        <v>2</v>
+      </c>
+      <c r="S34">
         <v>60</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:21">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -28399,22 +28950,25 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="6">
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6">
         <v>3</v>
       </c>
-      <c r="P35">
+      <c r="S35">
         <v>0</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:21">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -28445,22 +28999,25 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="6">
-        <v>2</v>
-      </c>
-      <c r="P36">
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6">
+        <v>2</v>
+      </c>
+      <c r="S36">
         <v>80</v>
       </c>
-      <c r="Q36">
+      <c r="T36">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:21">
       <c r="A37" s="3" t="s">
         <v>109</v>
       </c>
@@ -28492,22 +29049,22 @@
       <c r="K37" t="s">
         <v>146</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>4</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>70</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:21">
       <c r="A38" s="3" t="s">
         <v>191</v>
       </c>
@@ -28539,22 +29096,22 @@
       <c r="K38" t="s">
         <v>147</v>
       </c>
-      <c r="O38">
-        <v>2</v>
-      </c>
-      <c r="P38">
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
         <v>80</v>
       </c>
-      <c r="Q38">
+      <c r="T38">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R38">
+      <c r="U38">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:21">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -28586,22 +29143,22 @@
       <c r="K39" t="s">
         <v>147</v>
       </c>
-      <c r="O39">
-        <v>2</v>
-      </c>
-      <c r="P39">
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
         <v>80</v>
       </c>
-      <c r="Q39">
+      <c r="T39">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R39">
+      <c r="U39">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:21">
       <c r="A40" s="3" t="s">
         <v>192</v>
       </c>
@@ -28634,22 +29191,25 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="6">
-        <v>2</v>
-      </c>
-      <c r="P40">
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6">
+        <v>2</v>
+      </c>
+      <c r="S40">
         <v>60</v>
       </c>
-      <c r="Q40">
+      <c r="T40">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R40">
+      <c r="U40">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:21">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -28683,22 +29243,22 @@
       <c r="K41" t="s">
         <v>147</v>
       </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-      <c r="P41">
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
         <v>0</v>
       </c>
-      <c r="Q41">
+      <c r="T41">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R41">
+      <c r="U41">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:21">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -28733,22 +29293,25 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6">
-        <v>2</v>
-      </c>
-      <c r="P42">
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6">
+        <v>2</v>
+      </c>
+      <c r="S42">
         <v>80</v>
       </c>
-      <c r="Q42">
+      <c r="T42">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R42">
+      <c r="U42">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:21">
       <c r="A43" s="3" t="s">
         <v>105</v>
       </c>
@@ -28781,22 +29344,25 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="6">
-        <v>2</v>
-      </c>
-      <c r="P43">
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6">
+        <v>2</v>
+      </c>
+      <c r="S43">
         <v>80</v>
       </c>
-      <c r="Q43">
+      <c r="T43">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R43">
+      <c r="U43">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:21">
       <c r="A44" s="3" t="s">
         <v>107</v>
       </c>
@@ -28829,22 +29395,25 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="6">
-        <v>2</v>
-      </c>
-      <c r="P44">
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6">
+        <v>2</v>
+      </c>
+      <c r="S44">
         <v>80</v>
       </c>
-      <c r="Q44">
+      <c r="T44">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R44">
+      <c r="U44">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:21">
       <c r="A45" s="9" t="s">
         <v>48</v>
       </c>
@@ -28876,22 +29445,22 @@
       <c r="K45" t="s">
         <v>146</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>0.5</v>
       </c>
-      <c r="P45">
+      <c r="S45">
         <v>0</v>
       </c>
-      <c r="Q45">
+      <c r="T45">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R45">
+      <c r="U45">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:21">
       <c r="A46" s="4" t="s">
         <v>64</v>
       </c>
@@ -28926,22 +29495,25 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="6">
-        <v>2</v>
-      </c>
-      <c r="P46">
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6">
+        <v>2</v>
+      </c>
+      <c r="S46">
         <v>70</v>
       </c>
-      <c r="Q46">
+      <c r="T46">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:21">
       <c r="A47" s="4" t="s">
         <v>242</v>
       </c>
@@ -28976,22 +29548,25 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="6">
-        <v>2</v>
-      </c>
-      <c r="P47">
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>60</v>
       </c>
-      <c r="Q47">
+      <c r="T47">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R47">
+      <c r="U47">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:21">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -29022,22 +29597,25 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="6">
-        <v>2</v>
-      </c>
-      <c r="P48">
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6">
+        <v>2</v>
+      </c>
+      <c r="S48">
         <v>65</v>
       </c>
-      <c r="Q48">
+      <c r="T48">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>35</v>
       </c>
-      <c r="R48">
+      <c r="U48">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:21">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -29072,22 +29650,25 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="6">
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6">
         <v>3</v>
       </c>
-      <c r="P49">
+      <c r="S49">
         <v>70</v>
       </c>
-      <c r="Q49">
+      <c r="T49">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R49">
+      <c r="U49">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:21">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -29122,22 +29703,25 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="6">
-        <v>2</v>
-      </c>
-      <c r="P50">
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6">
+        <v>2</v>
+      </c>
+      <c r="S50">
         <v>0</v>
       </c>
-      <c r="Q50">
+      <c r="T50">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R50">
+      <c r="U50">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:21">
       <c r="A51" s="4" t="s">
         <v>74</v>
       </c>
@@ -29172,22 +29756,25 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="6">
-        <v>2</v>
-      </c>
-      <c r="P51">
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>50</v>
       </c>
-      <c r="Q51">
+      <c r="T51">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R51">
+      <c r="U51">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:21">
       <c r="A52" s="3" t="s">
         <v>193</v>
       </c>
@@ -29218,22 +29805,25 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="6">
-        <v>2</v>
-      </c>
-      <c r="P52">
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6">
+        <v>2</v>
+      </c>
+      <c r="S52">
         <v>80</v>
       </c>
-      <c r="Q52">
+      <c r="T52">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R52">
+      <c r="U52">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:21">
       <c r="A53" s="3" t="s">
         <v>194</v>
       </c>
@@ -29268,22 +29858,25 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="6">
-        <v>2</v>
-      </c>
-      <c r="P53">
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6">
+        <v>2</v>
+      </c>
+      <c r="S53">
         <v>70</v>
       </c>
-      <c r="Q53">
+      <c r="T53">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R53">
+      <c r="U53">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:21">
       <c r="A54" s="3" t="s">
         <v>195</v>
       </c>
@@ -29318,22 +29911,25 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="6">
-        <v>2</v>
-      </c>
-      <c r="P54">
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6">
+        <v>2</v>
+      </c>
+      <c r="S54">
         <v>40</v>
       </c>
-      <c r="Q54">
+      <c r="T54">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>60</v>
       </c>
-      <c r="R54">
+      <c r="U54">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:21">
       <c r="A55" s="3" t="s">
         <v>196</v>
       </c>
@@ -29366,22 +29962,25 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="6">
-        <v>2</v>
-      </c>
-      <c r="P55">
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6">
+        <v>2</v>
+      </c>
+      <c r="S55">
         <v>80</v>
       </c>
-      <c r="Q55">
+      <c r="T55">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:21">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -29416,22 +30015,25 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="6">
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6">
         <v>3</v>
       </c>
-      <c r="P56">
+      <c r="S56">
         <v>0</v>
       </c>
-      <c r="Q56">
+      <c r="T56">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R56">
+      <c r="U56">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:21">
       <c r="A57" s="3" t="s">
         <v>119</v>
       </c>
@@ -29466,22 +30068,25 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="6">
-        <v>2</v>
-      </c>
-      <c r="P57">
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6">
+        <v>2</v>
+      </c>
+      <c r="S57">
         <v>60</v>
       </c>
-      <c r="Q57">
+      <c r="T57">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R57">
+      <c r="U57">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:21">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -29512,22 +30117,25 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="6">
-        <v>2</v>
-      </c>
-      <c r="P58">
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6">
+        <v>2</v>
+      </c>
+      <c r="S58">
         <v>0</v>
       </c>
-      <c r="Q58">
+      <c r="T58">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R58">
+      <c r="U58">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:21">
       <c r="A59" s="3" t="s">
         <v>197</v>
       </c>
@@ -29562,22 +30170,25 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="6">
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6">
         <v>3</v>
       </c>
-      <c r="P59">
+      <c r="S59">
         <v>50</v>
       </c>
-      <c r="Q59">
+      <c r="T59">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R59">
+      <c r="U59">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:21">
       <c r="A60" s="3" t="s">
         <v>198</v>
       </c>
@@ -29612,22 +30223,25 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="6">
-        <v>2</v>
-      </c>
-      <c r="P60">
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6">
+        <v>2</v>
+      </c>
+      <c r="S60">
         <v>0</v>
       </c>
-      <c r="Q60">
+      <c r="T60">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R60">
+      <c r="U60">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:21">
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
@@ -29662,22 +30276,25 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="6">
-        <v>2</v>
-      </c>
-      <c r="P61">
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6">
+        <v>2</v>
+      </c>
+      <c r="S61">
         <v>70</v>
       </c>
-      <c r="Q61">
+      <c r="T61">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R61">
+      <c r="U61">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:21">
       <c r="A62" s="4" t="s">
         <v>77</v>
       </c>
@@ -29710,22 +30327,25 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="6">
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6">
         <v>0.5</v>
       </c>
-      <c r="P62">
+      <c r="S62">
         <v>25</v>
       </c>
-      <c r="Q62">
+      <c r="T62">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>75</v>
       </c>
-      <c r="R62">
+      <c r="U62">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:21">
       <c r="A63" s="3" t="s">
         <v>253</v>
       </c>
@@ -29750,23 +30370,23 @@
       <c r="L63" t="s">
         <v>147</v>
       </c>
-      <c r="O63">
-        <f>INDEX(O2:O62,MATCH(Table2[[#This Row],[Alternative Module Code]],A2:A62,0))</f>
+      <c r="R63">
+        <f>INDEX(R2:R62,MATCH(Table2[[#This Row],[Alternative Module Code]],A2:A62,0))</f>
         <v>3</v>
       </c>
-      <c r="P63">
+      <c r="S63">
         <v>70</v>
       </c>
-      <c r="Q63">
+      <c r="T63">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R63">
+      <c r="U63">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:21">
       <c r="A64" s="3" t="s">
         <v>129</v>
       </c>
@@ -29794,26 +30414,26 @@
       <c r="M64" t="s">
         <v>147</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P64" t="s">
         <v>147</v>
       </c>
-      <c r="O64">
-        <f>INDEX(O3:O63,MATCH(Table2[[#This Row],[Alternative Module Code]],A3:A63,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P64">
+      <c r="R64">
+        <f>INDEX(R3:R63,MATCH(Table2[[#This Row],[Alternative Module Code]],A3:A63,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S64">
         <v>0</v>
       </c>
-      <c r="Q64">
+      <c r="T64">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R64">
+      <c r="U64">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:21">
       <c r="A65" s="3" t="s">
         <v>130</v>
       </c>
@@ -29838,23 +30458,26 @@
       <c r="M65" t="s">
         <v>147</v>
       </c>
-      <c r="O65">
-        <f>INDEX(O4:O64,MATCH(Table2[[#This Row],[Alternative Module Code]],A4:A64,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P65">
+      <c r="O65" t="s">
+        <v>147</v>
+      </c>
+      <c r="R65">
+        <f>INDEX(R4:R64,MATCH(Table2[[#This Row],[Alternative Module Code]],A4:A64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S65">
         <v>80</v>
       </c>
-      <c r="Q65">
+      <c r="T65">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R65">
+      <c r="U65">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:21">
       <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
@@ -29879,23 +30502,23 @@
       <c r="L66" t="s">
         <v>147</v>
       </c>
-      <c r="O66">
-        <f>INDEX(O5:O65,MATCH(Table2[[#This Row],[Alternative Module Code]],A5:A65,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P66">
+      <c r="R66">
+        <f>INDEX(R5:R65,MATCH(Table2[[#This Row],[Alternative Module Code]],A5:A65,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S66">
         <v>0</v>
       </c>
-      <c r="Q66">
+      <c r="T66">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R66">
+      <c r="U66">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:21">
       <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
@@ -29920,23 +30543,23 @@
       <c r="L67" t="s">
         <v>147</v>
       </c>
-      <c r="O67">
-        <f>INDEX(O6:O66,MATCH(Table2[[#This Row],[Alternative Module Code]],A6:A66,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P67">
+      <c r="R67">
+        <f>INDEX(R6:R66,MATCH(Table2[[#This Row],[Alternative Module Code]],A6:A66,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S67">
         <v>0</v>
       </c>
-      <c r="Q67">
+      <c r="T67">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R67">
+      <c r="U67">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:21">
       <c r="A68" s="3" t="s">
         <v>133</v>
       </c>
@@ -29961,23 +30584,26 @@
       <c r="M68" t="s">
         <v>147</v>
       </c>
-      <c r="O68">
-        <f>INDEX(O7:O67,MATCH(Table2[[#This Row],[Alternative Module Code]],A7:A67,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P68">
+      <c r="O68" t="s">
+        <v>147</v>
+      </c>
+      <c r="R68">
+        <f>INDEX(R7:R67,MATCH(Table2[[#This Row],[Alternative Module Code]],A7:A67,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S68">
         <v>70</v>
       </c>
-      <c r="Q68">
+      <c r="T68">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R68">
+      <c r="U68">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:21">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
@@ -30005,23 +30631,26 @@
       <c r="M69" t="s">
         <v>147</v>
       </c>
-      <c r="O69">
-        <f>INDEX(O8:O68,MATCH(Table2[[#This Row],[Alternative Module Code]],A8:A68,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P69">
+      <c r="N69" t="s">
+        <v>147</v>
+      </c>
+      <c r="R69">
+        <f>INDEX(R8:R68,MATCH(Table2[[#This Row],[Alternative Module Code]],A8:A68,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S69">
         <v>60</v>
       </c>
-      <c r="Q69">
+      <c r="T69">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R69">
+      <c r="U69">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:21">
       <c r="A70" s="3" t="s">
         <v>135</v>
       </c>
@@ -30049,26 +30678,26 @@
       <c r="M70" t="s">
         <v>147</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P70" t="s">
         <v>147</v>
       </c>
-      <c r="O70">
-        <f>INDEX(O9:O69,MATCH(Table2[[#This Row],[Alternative Module Code]],A9:A69,0))</f>
+      <c r="R70">
+        <f>INDEX(R9:R69,MATCH(Table2[[#This Row],[Alternative Module Code]],A9:A69,0))</f>
         <v>3</v>
       </c>
-      <c r="P70">
+      <c r="S70">
         <v>0</v>
       </c>
-      <c r="Q70">
+      <c r="T70">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R70">
+      <c r="U70">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:21">
       <c r="A71" s="3" t="s">
         <v>153</v>
       </c>
@@ -30093,23 +30722,26 @@
       <c r="M71" t="s">
         <v>147</v>
       </c>
-      <c r="O71">
-        <f>INDEX(O10:O70,MATCH(Table2[[#This Row],[Alternative Module Code]],A10:A70,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P71">
+      <c r="O71" t="s">
+        <v>147</v>
+      </c>
+      <c r="R71">
+        <f>INDEX(R10:R70,MATCH(Table2[[#This Row],[Alternative Module Code]],A10:A70,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S71">
         <v>50</v>
       </c>
-      <c r="Q71">
+      <c r="T71">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R71">
+      <c r="U71">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:21">
       <c r="A72" s="3" t="s">
         <v>154</v>
       </c>
@@ -30134,26 +30766,29 @@
       <c r="L72" t="s">
         <v>147</v>
       </c>
-      <c r="N72" t="s">
+      <c r="P72" t="s">
         <v>147</v>
       </c>
-      <c r="O72">
-        <f>INDEX(O13:O71,MATCH(Table2[[#This Row],[Alternative Module Code]],A13:A71,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P72">
+      <c r="Q72" t="s">
+        <v>147</v>
+      </c>
+      <c r="R72">
+        <f>INDEX(R13:R71,MATCH(Table2[[#This Row],[Alternative Module Code]],A13:A71,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S72">
         <v>0</v>
       </c>
-      <c r="Q72">
+      <c r="T72">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R72">
+      <c r="U72">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:21">
       <c r="A73" s="3" t="s">
         <v>155</v>
       </c>
@@ -30178,42 +30813,45 @@
       <c r="M73" t="s">
         <v>147</v>
       </c>
-      <c r="O73">
-        <f>INDEX(O14:O72,MATCH(Table2[[#This Row],[Alternative Module Code]],A14:A72,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P73">
+      <c r="O73" t="s">
+        <v>147</v>
+      </c>
+      <c r="R73">
+        <f>INDEX(R14:R72,MATCH(Table2[[#This Row],[Alternative Module Code]],A14:A72,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S73">
         <v>80</v>
       </c>
-      <c r="Q73">
+      <c r="T73">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R73">
+      <c r="U73">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:21">
       <c r="A74" s="3" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="D74" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F74" s="4">
         <v>7</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="28">
         <v>10</v>
       </c>
       <c r="L74" t="s">
@@ -30222,723 +30860,815 @@
       <c r="M74" t="s">
         <v>147</v>
       </c>
-      <c r="O74">
-        <f>INDEX(O16:O73,MATCH(Table2[[#This Row],[Alternative Module Code]],A16:A73,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P74">
+      <c r="N74" t="s">
+        <v>147</v>
+      </c>
+      <c r="O74" t="s">
+        <v>147</v>
+      </c>
+      <c r="P74" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>147</v>
+      </c>
+      <c r="T74">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="U74">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="4">
+        <v>7</v>
+      </c>
+      <c r="G75" s="2">
+        <v>10</v>
+      </c>
+      <c r="L75" t="s">
+        <v>147</v>
+      </c>
+      <c r="M75" t="s">
+        <v>147</v>
+      </c>
+      <c r="O75" t="s">
+        <v>147</v>
+      </c>
+      <c r="R75">
+        <f>INDEX(R16:R73,MATCH(Table2[[#This Row],[Alternative Module Code]],A16:A73,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S75">
         <v>70</v>
       </c>
-      <c r="Q74">
+      <c r="T75">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R74">
+      <c r="U75">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
-      <c r="A75" s="3" t="s">
+    <row r="76" spans="1:21">
+      <c r="A76" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D76" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F76" s="4">
         <v>7</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G76" s="2">
         <v>10</v>
       </c>
-      <c r="L75" t="s">
+      <c r="L76" t="s">
         <v>147</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M76" t="s">
         <v>147</v>
       </c>
-      <c r="O75">
-        <f>INDEX(O17:O74,MATCH(Table2[[#This Row],[Alternative Module Code]],A17:A74,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P75">
+      <c r="P76" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>147</v>
+      </c>
+      <c r="R76">
+        <f>INDEX(R17:R75,MATCH(Table2[[#This Row],[Alternative Module Code]],A17:A75,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S76">
         <v>50</v>
       </c>
-      <c r="Q75">
+      <c r="T76">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R75">
+      <c r="U76">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:21">
+      <c r="A77" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D77" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F77" s="4">
         <v>7</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G77" s="2">
         <v>10</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L77" t="s">
         <v>147</v>
       </c>
-      <c r="N76" t="s">
+      <c r="P77" t="s">
         <v>146</v>
       </c>
-      <c r="O76">
-        <f>INDEX(O18:O75,MATCH(Table2[[#This Row],[Alternative Module Code]],A18:A75,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P76">
+      <c r="Q77" t="s">
+        <v>146</v>
+      </c>
+      <c r="R77">
+        <f>INDEX(R18:R76,MATCH(Table2[[#This Row],[Alternative Module Code]],A18:A76,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S77">
         <v>50</v>
       </c>
-      <c r="Q76">
+      <c r="T77">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R76">
+      <c r="U77">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:21">
+      <c r="A78" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D78" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F78" s="4">
         <v>7</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="2">
         <v>10</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L78" t="s">
         <v>147</v>
       </c>
-      <c r="N77" t="s">
+      <c r="N78" t="s">
         <v>147</v>
       </c>
-      <c r="O77">
-        <f>INDEX(O20:O76,MATCH(Table2[[#This Row],[Alternative Module Code]],A20:A76,0))</f>
+      <c r="P78" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>147</v>
+      </c>
+      <c r="R78">
+        <f>INDEX(R20:R77,MATCH(Table2[[#This Row],[Alternative Module Code]],A20:A77,0))</f>
         <v>3</v>
       </c>
-      <c r="P77">
+      <c r="S78">
         <v>70</v>
       </c>
-      <c r="Q77">
+      <c r="T78">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="R77">
+      <c r="U78">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:21">
+      <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D79" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E79" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F79" s="4">
         <v>7</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G79" s="2">
         <v>10</v>
       </c>
-      <c r="L78" t="s">
+      <c r="L79" t="s">
         <v>147</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M79" t="s">
         <v>147</v>
       </c>
-      <c r="N78" t="s">
+      <c r="N79" t="s">
+        <v>146</v>
+      </c>
+      <c r="O79" t="s">
+        <v>146</v>
+      </c>
+      <c r="P79" t="s">
         <v>147</v>
       </c>
-      <c r="O78">
-        <f>INDEX(O21:O77,MATCH(Table2[[#This Row],[Alternative Module Code]],A21:A77,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P78">
+      <c r="Q79" t="s">
+        <v>147</v>
+      </c>
+      <c r="R79">
+        <f>INDEX(R21:R78,MATCH(Table2[[#This Row],[Alternative Module Code]],A21:A78,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S79">
         <v>0</v>
       </c>
-      <c r="Q78">
+      <c r="T79">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R78">
+      <c r="U79">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
-      <c r="A79" s="3" t="s">
+    <row r="80" spans="1:21">
+      <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D80" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>7</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>10</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L80" t="s">
         <v>147</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M80" t="s">
         <v>147</v>
       </c>
-      <c r="N79" t="s">
+      <c r="P80" t="s">
         <v>147</v>
       </c>
-      <c r="O79">
-        <f>INDEX(O22:O78,MATCH(Table2[[#This Row],[Alternative Module Code]],A22:A78,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P79">
+      <c r="Q80" t="s">
+        <v>147</v>
+      </c>
+      <c r="R80">
+        <f>INDEX(R22:R79,MATCH(Table2[[#This Row],[Alternative Module Code]],A22:A79,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S80">
         <v>50</v>
       </c>
-      <c r="Q79">
+      <c r="T80">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R79">
+      <c r="U80">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:21">
+      <c r="A81" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D81" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F81" s="4">
         <v>7</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G81" s="2">
         <v>10</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L81" t="s">
         <v>147</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N81" t="s">
         <v>147</v>
       </c>
-      <c r="O80">
-        <f>INDEX(O23:O79,MATCH(Table2[[#This Row],[Alternative Module Code]],A23:A79,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P80">
+      <c r="P81" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>147</v>
+      </c>
+      <c r="R81">
+        <f>INDEX(R23:R80,MATCH(Table2[[#This Row],[Alternative Module Code]],A23:A80,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S81">
         <v>80</v>
       </c>
-      <c r="Q80">
+      <c r="T81">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R80">
+      <c r="U81">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:21">
+      <c r="A82" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C82" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D82" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F82" s="4">
         <v>7</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G82" s="2">
         <v>10</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L82" t="s">
         <v>147</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M82" t="s">
         <v>147</v>
       </c>
-      <c r="O81">
-        <f>INDEX(O24:O80,MATCH(Table2[[#This Row],[Alternative Module Code]],A24:A80,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P81">
+      <c r="N82" t="s">
+        <v>147</v>
+      </c>
+      <c r="O82" t="s">
+        <v>147</v>
+      </c>
+      <c r="R82">
+        <f>INDEX(R24:R81,MATCH(Table2[[#This Row],[Alternative Module Code]],A24:A81,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S82">
         <v>60</v>
       </c>
-      <c r="Q81">
+      <c r="T82">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R81">
+      <c r="U82">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
-      <c r="A82" s="3" t="s">
+    <row r="83" spans="1:21">
+      <c r="A83" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D83" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F83" s="4">
         <v>7</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G83" s="2">
         <v>10</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L83" t="s">
         <v>147</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M83" t="s">
         <v>147</v>
       </c>
-      <c r="N82" t="s">
+      <c r="N83" t="s">
         <v>147</v>
       </c>
-      <c r="O82">
-        <f>INDEX(O25:O81,MATCH(Table2[[#This Row],[Alternative Module Code]],A25:A81,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P82">
+      <c r="O83" t="s">
+        <v>147</v>
+      </c>
+      <c r="P83" t="s">
+        <v>147</v>
+      </c>
+      <c r="R83">
+        <f>INDEX(R25:R82,MATCH(Table2[[#This Row],[Alternative Module Code]],A25:A82,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S83">
         <v>40</v>
       </c>
-      <c r="Q82">
+      <c r="T83">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>60</v>
       </c>
-      <c r="R82">
+      <c r="U83">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
-      <c r="A83" s="3" t="s">
+    <row r="84" spans="1:21">
+      <c r="A84" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D84" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F84" s="4">
         <v>7</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G84" s="2">
         <v>10</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M84" t="s">
         <v>147</v>
       </c>
-      <c r="O83">
-        <f>INDEX(O26:O82,MATCH(Table2[[#This Row],[Alternative Module Code]],A26:A82,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P83">
+      <c r="O84" t="s">
+        <v>147</v>
+      </c>
+      <c r="R84">
+        <f>INDEX(R26:R83,MATCH(Table2[[#This Row],[Alternative Module Code]],A26:A83,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S84">
         <v>80</v>
       </c>
-      <c r="Q83">
+      <c r="T84">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="R83">
+      <c r="U84">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:21">
+      <c r="A85" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C85" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D85" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E85" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F85" s="4">
         <v>7</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G85" s="2">
         <v>10</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L85" t="s">
         <v>147</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M85" t="s">
         <v>147</v>
       </c>
-      <c r="O84">
-        <f>INDEX(O27:O83,MATCH(Table2[[#This Row],[Alternative Module Code]],A27:A83,0))</f>
+      <c r="N85" t="s">
+        <v>147</v>
+      </c>
+      <c r="O85" t="s">
+        <v>147</v>
+      </c>
+      <c r="R85">
+        <f>INDEX(R27:R84,MATCH(Table2[[#This Row],[Alternative Module Code]],A27:A84,0))</f>
         <v>3</v>
       </c>
-      <c r="P84">
+      <c r="S85">
         <v>0</v>
       </c>
-      <c r="Q84">
+      <c r="T85">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R84">
+      <c r="U85">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:21">
+      <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D86" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F86" s="4">
         <v>7</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G86" s="2">
         <v>10</v>
       </c>
-      <c r="L85" t="s">
+      <c r="L86" t="s">
         <v>147</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M86" t="s">
         <v>147</v>
       </c>
-      <c r="O85">
-        <f>INDEX(O28:O84,MATCH(Table2[[#This Row],[Alternative Module Code]],A28:A84,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P85">
+      <c r="N86" t="s">
+        <v>147</v>
+      </c>
+      <c r="R86">
+        <f>INDEX(R28:R85,MATCH(Table2[[#This Row],[Alternative Module Code]],A28:A85,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S86">
         <v>60</v>
       </c>
-      <c r="Q85">
+      <c r="T86">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R85">
+      <c r="U86">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:21">
+      <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C87" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D86" s="28" t="s">
+      <c r="D87" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E87" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F87" s="4">
         <v>7</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G87" s="2">
         <v>10</v>
       </c>
-      <c r="O86">
-        <f>INDEX(O29:O85,MATCH(Table2[[#This Row],[Alternative Module Code]],A29:A85,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P86">
+      <c r="P87" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>146</v>
+      </c>
+      <c r="R87">
+        <f>INDEX(R29:R86,MATCH(Table2[[#This Row],[Alternative Module Code]],A29:A86,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>50</v>
       </c>
-      <c r="Q86">
+      <c r="T87">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="R86">
+      <c r="U87">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
-      <c r="A87" s="3" t="s">
+    <row r="88" spans="1:21">
+      <c r="A88" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C88" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D88" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F88" s="4">
         <v>7</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G88" s="2">
         <v>10</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M88" t="s">
         <v>147</v>
       </c>
-      <c r="O87">
-        <f>INDEX(O30:O86,MATCH(Table2[[#This Row],[Alternative Module Code]],A30:A86,0))</f>
+      <c r="O88" t="s">
+        <v>147</v>
+      </c>
+      <c r="R88">
+        <f>INDEX(R30:R87,MATCH(Table2[[#This Row],[Alternative Module Code]],A30:A87,0))</f>
         <v>3</v>
       </c>
-      <c r="P87">
+      <c r="S88">
         <v>60</v>
       </c>
-      <c r="Q87">
+      <c r="T88">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="R87">
+      <c r="U88">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
-      <c r="A88" s="3" t="s">
+    <row r="89" spans="1:21">
+      <c r="A89" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D89" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E89" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F89" s="4">
         <v>7</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G89" s="2">
         <v>10</v>
       </c>
-      <c r="L88" t="s">
+      <c r="L89" t="s">
         <v>147</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M89" t="s">
         <v>147</v>
       </c>
-      <c r="O88">
-        <f>INDEX(O31:O87,MATCH(Table2[[#This Row],[Alternative Module Code]],A31:A87,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P88">
+      <c r="N89" t="s">
+        <v>147</v>
+      </c>
+      <c r="O89" t="s">
+        <v>147</v>
+      </c>
+      <c r="R89">
+        <f>INDEX(R31:R88,MATCH(Table2[[#This Row],[Alternative Module Code]],A31:A88,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>0</v>
       </c>
-      <c r="Q88">
+      <c r="T89">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R88">
+      <c r="U89">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
-      <c r="A89" s="3" t="s">
+    <row r="90" spans="1:21">
+      <c r="A90" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C90" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D90" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E90" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F90" s="4">
         <v>7</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G90" s="28">
         <v>10</v>
       </c>
-      <c r="L89" t="s">
+      <c r="L90" t="s">
         <v>147</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M90" t="s">
         <v>147</v>
       </c>
-      <c r="O89">
-        <f>INDEX(O32:O88,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A88,0))</f>
-        <v>2</v>
-      </c>
-      <c r="P89">
-        <v>50</v>
-      </c>
-      <c r="Q89">
+      <c r="N90" t="s">
+        <v>147</v>
+      </c>
+      <c r="O90" t="s">
+        <v>147</v>
+      </c>
+      <c r="R90">
+        <f>INDEX(R32:R89,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A89,0))</f>
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>70</v>
+      </c>
+      <c r="T90">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>50</v>
-      </c>
-      <c r="R89">
+        <v>30</v>
+      </c>
+      <c r="U90">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
-      <c r="A90" s="3" t="s">
+    <row r="91" spans="1:21">
+      <c r="A91" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F90" s="4">
-        <v>7</v>
-      </c>
-      <c r="G90" s="28">
-        <v>10</v>
-      </c>
-      <c r="N90" t="s">
-        <v>147</v>
-      </c>
-      <c r="O90">
-        <v>2</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
-      </c>
-      <c r="R90">
-        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18">
-      <c r="A91" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="28" t="s">
@@ -30953,40 +31683,37 @@
       <c r="G91" s="28">
         <v>10</v>
       </c>
-      <c r="L91" t="s">
+      <c r="Q91" t="s">
         <v>147</v>
       </c>
-      <c r="N91" t="s">
-        <v>147</v>
-      </c>
-      <c r="O91">
-        <v>2</v>
-      </c>
-      <c r="P91">
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
         <v>0</v>
       </c>
-      <c r="Q91">
+      <c r="T91">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R91">
+      <c r="U91">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F92" s="4">
         <v>7</v>
@@ -30994,81 +31721,84 @@
       <c r="G92" s="28">
         <v>10</v>
       </c>
-      <c r="N92" t="s">
+      <c r="L92" t="s">
         <v>147</v>
       </c>
-      <c r="O92">
-        <v>2</v>
-      </c>
-      <c r="P92">
+      <c r="P92" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>147</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
         <v>0</v>
       </c>
-      <c r="Q92">
+      <c r="T92">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R92">
+      <c r="U92">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:21">
       <c r="A93" s="3" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F93" s="4">
         <v>7</v>
       </c>
-      <c r="G93" s="2">
-        <v>20</v>
-      </c>
-      <c r="L93" t="s">
-        <v>146</v>
-      </c>
-      <c r="M93" t="s">
-        <v>146</v>
-      </c>
-      <c r="N93" t="s">
-        <v>146</v>
-      </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93">
+      <c r="G93" s="28">
+        <v>10</v>
+      </c>
+      <c r="P93" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>147</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
         <v>0</v>
       </c>
-      <c r="Q93">
+      <c r="T93">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R93">
+      <c r="U93">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:21">
       <c r="A94" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="28" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F94" s="4">
         <v>7</v>
@@ -31085,213 +31815,435 @@
       <c r="N94" t="s">
         <v>146</v>
       </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
-      <c r="P94">
+      <c r="O94" t="s">
+        <v>146</v>
+      </c>
+      <c r="P94" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>146</v>
+      </c>
+      <c r="R94">
+        <v>3</v>
+      </c>
+      <c r="S94">
         <v>0</v>
       </c>
-      <c r="Q94">
+      <c r="T94">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="R94">
+      <c r="U94">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
-      <c r="A95"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
-      <c r="E95"/>
-      <c r="F95"/>
-      <c r="G95"/>
-    </row>
-    <row r="96" spans="1:18">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-    </row>
-    <row r="97" customFormat="1"/>
-    <row r="98" customFormat="1"/>
-    <row r="99" customFormat="1"/>
-    <row r="100" customFormat="1"/>
-    <row r="101" customFormat="1"/>
-    <row r="102" customFormat="1"/>
-    <row r="103" customFormat="1"/>
-    <row r="104" customFormat="1"/>
-    <row r="105" customFormat="1"/>
-    <row r="106" customFormat="1"/>
-    <row r="107" customFormat="1"/>
-    <row r="108" customFormat="1"/>
-    <row r="109" customFormat="1"/>
-    <row r="110" customFormat="1"/>
-    <row r="111" customFormat="1"/>
-    <row r="112" customFormat="1"/>
-    <row r="113" spans="1:7">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115"/>
-      <c r="G115"/>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116"/>
-      <c r="F116"/>
-      <c r="G116"/>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117"/>
-      <c r="E117"/>
-      <c r="F117"/>
-      <c r="G117"/>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
-      <c r="D118"/>
-      <c r="E118"/>
-      <c r="F118"/>
-      <c r="G118"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
-      <c r="D119"/>
-      <c r="E119"/>
-      <c r="F119"/>
-      <c r="G119"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123"/>
-      <c r="G123"/>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124"/>
-      <c r="G124"/>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125"/>
-      <c r="B125"/>
-      <c r="C125"/>
-      <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125"/>
-      <c r="G125"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126"/>
-      <c r="G126"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127"/>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127"/>
-      <c r="G127"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+    <row r="95" spans="1:21">
+      <c r="A95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F95" s="4">
+        <v>7</v>
+      </c>
+      <c r="G95" s="2">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s">
+        <v>146</v>
+      </c>
+      <c r="M95" t="s">
+        <v>146</v>
+      </c>
+      <c r="N95" t="s">
+        <v>146</v>
+      </c>
+      <c r="O95" t="s">
+        <v>146</v>
+      </c>
+      <c r="P95" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>146</v>
+      </c>
+      <c r="R95">
+        <v>4</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="U95">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
+      <c r="A96" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F96" s="4">
+        <v>7</v>
+      </c>
+      <c r="G96" s="28">
+        <v>10</v>
+      </c>
+      <c r="P96" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>147</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>70</v>
+      </c>
+      <c r="T96">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>30</v>
+      </c>
+      <c r="U96">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>30.000000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
+      <c r="A97" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" s="4">
+        <v>7</v>
+      </c>
+      <c r="G97" s="28">
+        <v>10</v>
+      </c>
+      <c r="P97" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>147</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>100</v>
+      </c>
+      <c r="T97">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
+      <c r="A98" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F98" s="4">
+        <v>7</v>
+      </c>
+      <c r="G98" s="28">
+        <v>10</v>
+      </c>
+      <c r="P98" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>147</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="U98">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
+      <c r="A99" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" s="4">
+        <v>7</v>
+      </c>
+      <c r="G99" s="28">
+        <v>20</v>
+      </c>
+      <c r="N99" t="s">
+        <v>146</v>
+      </c>
+      <c r="O99" t="s">
+        <v>146</v>
+      </c>
+      <c r="R99">
+        <v>4</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="U99">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
+      <c r="A100" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F100" s="4">
+        <v>7</v>
+      </c>
+      <c r="G100" s="28">
+        <v>20</v>
+      </c>
+      <c r="N100" t="s">
+        <v>146</v>
+      </c>
+      <c r="O100" t="s">
+        <v>146</v>
+      </c>
+      <c r="R100">
+        <v>4</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
+        <v>100</v>
+      </c>
+      <c r="U100">
+        <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="1:21">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+    </row>
+    <row r="103" spans="1:21">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+    </row>
+    <row r="104" spans="1:21">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+    </row>
+    <row r="105" spans="1:21">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+    </row>
+    <row r="106" spans="1:21">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+    </row>
+    <row r="107" spans="1:21">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+    </row>
+    <row r="108" spans="1:21">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+    </row>
+    <row r="109" spans="1:21">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+    </row>
+    <row r="110" spans="1:21">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+    </row>
+    <row r="111" spans="1:21">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+    </row>
+    <row r="112" spans="1:21">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+    </row>
+    <row r="113" customFormat="1"/>
+    <row r="114" customFormat="1"/>
+    <row r="115" customFormat="1"/>
+    <row r="116" customFormat="1"/>
+    <row r="117" customFormat="1"/>
+    <row r="118" customFormat="1"/>
+    <row r="119" customFormat="1"/>
+    <row r="120" customFormat="1"/>
+    <row r="121" customFormat="1"/>
+    <row r="122" customFormat="1"/>
+    <row r="123" customFormat="1"/>
+    <row r="124" customFormat="1"/>
+    <row r="125" customFormat="1"/>
+    <row r="126" customFormat="1"/>
+    <row r="127" customFormat="1"/>
+    <row r="128" customFormat="1"/>
+    <row r="129" spans="1:7">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E94">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="SEMD">
+  <conditionalFormatting sqref="E2:E121">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="SEMD">
       <formula>NOT(ISERROR(SEARCH("SEMD",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="SEM2">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="SEM2">
       <formula>NOT(ISERROR(SEARCH("SEM2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="SEM1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SEM1">
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F38 F40:F94">
+  <conditionalFormatting sqref="F2:F121">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -31301,17 +32253,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G38 G40:G94">
+  <conditionalFormatting sqref="G2:G121">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -31323,27 +32265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="num" val="10"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:N39">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",H39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:O38 H40:O94">
+  <conditionalFormatting sqref="H2:R121">
     <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
     </cfRule>
@@ -31360,20 +32282,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{3FB391C5-B3FE-43CF-822F-2C4A5C3D1798}">
-            <xm:f>NOT(ISERROR(SEARCH("-",H39)))</xm:f>
-            <xm:f>"-"</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>H39:N39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{AB48118A-1CFE-488B-B12E-453EA0CADD16}">
             <xm:f>NOT(ISERROR(SEARCH("-",H2)))</xm:f>
             <xm:f>"-"</xm:f>
@@ -31385,7 +32293,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:O38 H40:O94</xm:sqref>
+          <xm:sqref>H2:R121</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -31401,11 +32309,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4BA712D-7B34-49E1-9DCB-F1A2084C7058}"/>
+  <xr:revisionPtr revIDLastSave="399" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81B7D201-41E4-4C74-BD70-A61EF86F79AD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="316">
   <si>
     <t>Module Code</t>
   </si>
@@ -985,6 +985,12 @@
   <si>
     <t>Pres (+/- 1 week)</t>
   </si>
+  <si>
+    <t>AllUG</t>
+  </si>
+  <si>
+    <t>AllPG</t>
+  </si>
 </sst>
 </file>
 
@@ -1238,7 +1244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="110">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1295,6 +1301,82 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -8812,7 +8894,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9261,56 +9343,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ156" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99" totalsRowBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AJ156" totalsRowShown="0" headerRowDxfId="109" dataDxfId="107" headerRowBorderDxfId="108" tableBorderDxfId="106" totalsRowBorderDxfId="105">
   <autoFilter ref="A1:AJ156" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH135">
     <sortCondition ref="A1:A135"/>
   </sortState>
   <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="95"/>
-    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="103"/>
+    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="102"/>
+    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="101">
       <calculatedColumnFormula>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="93">
+    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="100">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="92"/>
-    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="91"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="90"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="89">
+    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="99"/>
+    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="98"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="97"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="96">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="76"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="75"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="74"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="73"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="72"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="71"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="70"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="69"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="68"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="67"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="66"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="65"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="64"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="63">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="95"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="94"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="91"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="90"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="89"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="87"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="86"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="85"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="84"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="83"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="82"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="81"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="80"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="79"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="78"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="77"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="76"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="75"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="74"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="73"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="72"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="71"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="70">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="62">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="69">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9319,49 +9401,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" totalsRowBorderDxfId="64">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="54"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="53">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="61"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="60">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="52">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="59">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="51">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="58">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="40"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="38"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="37"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="35"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="34"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="33"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="30"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="29"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="27"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="50"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="49"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="48"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="47"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="34"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="33">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9370,35 +9452,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:U100" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24">
-  <autoFilter ref="A1:U100" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31">
+  <autoFilter ref="A1:W100" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="A1:A62"/>
   </sortState>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="15"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="22"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{AF3E1EB3-2B73-43ED-85E9-1E8314E0F50D}" name="AllPG"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="18"/>
+    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="16"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="21" xr3:uid="{3CC5C4CC-6537-4363-AB9D-6A0F69456D30}" name="CDTCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="14">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="13">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9725,28 +9809,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AJ156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.73046875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.73046875" style="10" customWidth="1"/>
-    <col min="11" max="22" width="9.06640625" style="14" customWidth="1"/>
-    <col min="23" max="34" width="9.06640625" style="16"/>
+    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7265625" style="10" customWidth="1"/>
+    <col min="11" max="22" width="9.08984375" style="14" customWidth="1"/>
+    <col min="23" max="34" width="9.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="44" customFormat="1" ht="28.5">
+    <row r="1" spans="1:36" s="44" customFormat="1" ht="29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -21107,16 +21191,16 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -27260,24 +27344,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
-  <dimension ref="A1:U129"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S83" sqref="S83"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -27300,49 +27385,55 @@
         <v>143</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -27362,7 +27453,7 @@
       <c r="G2" s="2">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I2" t="s">
@@ -27374,22 +27465,25 @@
       <c r="K2" t="s">
         <v>146</v>
       </c>
-      <c r="R2">
+      <c r="L2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2">
         <v>4</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>60</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -27409,7 +27503,7 @@
       <c r="G3" s="2">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I3" t="s">
@@ -27421,22 +27515,25 @@
       <c r="K3" t="s">
         <v>146</v>
       </c>
-      <c r="R3">
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>60</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -27456,7 +27553,7 @@
       <c r="G4" s="2">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I4" t="s">
@@ -27468,22 +27565,25 @@
       <c r="K4" t="s">
         <v>146</v>
       </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4">
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
         <v>50</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:23">
       <c r="A5" s="4" t="s">
         <v>62</v>
       </c>
@@ -27503,7 +27603,7 @@
       <c r="G5" s="2">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I5" t="s">
@@ -27515,22 +27615,25 @@
       <c r="K5" t="s">
         <v>146</v>
       </c>
-      <c r="R5">
+      <c r="L5" t="s">
+        <v>146</v>
+      </c>
+      <c r="T5">
         <v>4</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23">
       <c r="A6" s="3" t="s">
         <v>84</v>
       </c>
@@ -27550,7 +27653,7 @@
       <c r="G6" s="2">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I6" t="s">
@@ -27562,22 +27665,25 @@
       <c r="K6" t="s">
         <v>146</v>
       </c>
-      <c r="R6">
+      <c r="L6" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>70</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7" s="3" t="s">
         <v>190</v>
       </c>
@@ -27597,7 +27703,7 @@
       <c r="G7" s="2">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I7" t="s">
@@ -27609,22 +27715,25 @@
       <c r="K7" t="s">
         <v>146</v>
       </c>
-      <c r="R7">
+      <c r="L7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7">
         <v>3</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8" s="3" t="s">
         <v>86</v>
       </c>
@@ -27644,38 +27753,42 @@
       <c r="G8" s="2">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6">
-        <v>2</v>
-      </c>
-      <c r="S8">
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
+        <v>2</v>
+      </c>
+      <c r="U8">
         <v>70</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9" s="3" t="s">
         <v>87</v>
       </c>
@@ -27695,7 +27808,7 @@
       <c r="G9" s="2">
         <v>10</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I9" t="s">
@@ -27707,22 +27820,25 @@
       <c r="K9" t="s">
         <v>146</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
+      <c r="L9" t="s">
+        <v>146</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <v>60</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23">
       <c r="A10" s="7" t="s">
         <v>85</v>
       </c>
@@ -27742,30 +27858,33 @@
       <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" t="s">
+        <v>147</v>
+      </c>
       <c r="J10" s="6"/>
-      <c r="K10" t="s">
+      <c r="K10" s="6"/>
+      <c r="L10" t="s">
         <v>146</v>
       </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
         <v>75</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>25</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:23">
       <c r="A11" s="3" t="s">
         <v>220</v>
       </c>
@@ -27785,34 +27904,37 @@
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" t="s">
         <v>146</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="R11">
+      <c r="L11" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11">
         <v>1</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:23">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
@@ -27832,7 +27954,7 @@
       <c r="G12" s="2">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I12" t="s">
@@ -27844,22 +27966,25 @@
       <c r="K12" t="s">
         <v>146</v>
       </c>
-      <c r="R12">
+      <c r="L12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12">
         <v>4</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>60</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:23">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -27879,7 +28004,7 @@
       <c r="G13" s="2">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I13" t="s">
@@ -27891,22 +28016,25 @@
       <c r="K13" t="s">
         <v>146</v>
       </c>
-      <c r="R13">
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="T13">
         <v>3</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>60</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:23">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -27926,28 +28054,31 @@
       <c r="G14" s="2">
         <v>10</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" t="s">
+      <c r="K14" s="6"/>
+      <c r="L14" t="s">
         <v>146</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>4</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:23">
       <c r="A15" s="4" t="s">
         <v>238</v>
       </c>
@@ -27967,7 +28098,7 @@
       <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I15" t="s">
@@ -27979,22 +28110,25 @@
       <c r="K15" t="s">
         <v>146</v>
       </c>
-      <c r="R15">
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15">
         <v>3</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:23">
       <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
@@ -28014,38 +28148,42 @@
       <c r="G16" s="2">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I16" t="s">
         <v>147</v>
       </c>
       <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
         <v>146</v>
       </c>
-      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="6">
-        <v>2</v>
-      </c>
-      <c r="S16">
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6">
+        <v>2</v>
+      </c>
+      <c r="U16">
         <v>60</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:23">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -28065,13 +28203,15 @@
       <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" t="s">
         <v>147</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -28079,22 +28219,24 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="6">
-        <v>2</v>
-      </c>
-      <c r="S17">
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:23">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -28114,32 +28256,35 @@
       <c r="G18" s="2">
         <v>10</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" t="s">
+      <c r="J18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" t="s">
         <v>146</v>
       </c>
-      <c r="R18">
-        <v>2</v>
-      </c>
-      <c r="S18">
+      <c r="T18">
+        <v>2</v>
+      </c>
+      <c r="U18">
         <v>50</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:23">
       <c r="A19" s="4" t="s">
         <v>52</v>
       </c>
@@ -28159,10 +28304,12 @@
       <c r="G19" s="2">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -28171,22 +28318,24 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
-      <c r="R19" s="6">
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6">
         <v>4</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>0</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:23">
       <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
@@ -28206,36 +28355,40 @@
       <c r="G20" s="2">
         <v>20</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" t="s">
-        <v>146</v>
-      </c>
+      <c r="H20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="6"/>
       <c r="J20" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="R20" s="6">
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6">
         <v>3</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>0</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:23">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
@@ -28255,7 +28408,7 @@
       <c r="G21" s="2">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I21" t="s">
@@ -28267,22 +28420,25 @@
       <c r="K21" t="s">
         <v>146</v>
       </c>
-      <c r="R21">
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+      <c r="T21">
         <v>4</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>70</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:23">
       <c r="A22" s="3" t="s">
         <v>97</v>
       </c>
@@ -28302,7 +28458,7 @@
       <c r="G22" s="2">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I22" t="s">
@@ -28314,22 +28470,25 @@
       <c r="K22" t="s">
         <v>146</v>
       </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
+      <c r="L22" t="s">
+        <v>146</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
         <v>70</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:23">
       <c r="A23" s="3" t="s">
         <v>189</v>
       </c>
@@ -28349,7 +28508,7 @@
       <c r="G23" s="2">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I23" t="s">
@@ -28361,22 +28520,25 @@
       <c r="K23" t="s">
         <v>146</v>
       </c>
-      <c r="R23">
+      <c r="L23" t="s">
+        <v>146</v>
+      </c>
+      <c r="T23">
         <v>3</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>70</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:23">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -28396,28 +28558,31 @@
       <c r="G24" s="2">
         <v>10</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" t="s">
+      <c r="K24" s="6"/>
+      <c r="L24" t="s">
         <v>146</v>
       </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
         <v>80</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
@@ -28437,32 +28602,35 @@
       <c r="G25" s="2">
         <v>10</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" t="s">
         <v>146</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" t="s">
+      <c r="K25" s="6"/>
+      <c r="L25" t="s">
         <v>146</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>0</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:23">
       <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
@@ -28482,36 +28650,40 @@
       <c r="G26" s="2">
         <v>10</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" t="s">
+      <c r="H26" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="I26" s="6"/>
       <c r="J26" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="6">
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
         <v>3</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>0</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>99.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:23">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -28531,7 +28703,7 @@
       <c r="G27" s="2">
         <v>20</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I27" t="s">
@@ -28543,22 +28715,25 @@
       <c r="K27" t="s">
         <v>146</v>
       </c>
-      <c r="R27">
+      <c r="L27" t="s">
+        <v>146</v>
+      </c>
+      <c r="T27">
         <v>4</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>80</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:23">
       <c r="A28" s="4" t="s">
         <v>252</v>
       </c>
@@ -28580,11 +28755,11 @@
       <c r="G28" s="2">
         <v>10</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
         <v>146</v>
-      </c>
-      <c r="I28" t="s">
-        <v>147</v>
       </c>
       <c r="J28" t="s">
         <v>147</v>
@@ -28592,22 +28767,25 @@
       <c r="K28" t="s">
         <v>147</v>
       </c>
-      <c r="R28">
+      <c r="L28" t="s">
+        <v>147</v>
+      </c>
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>70</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:23">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
@@ -28629,7 +28807,7 @@
       <c r="G29" s="2">
         <v>10</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I29" t="s">
@@ -28641,22 +28819,25 @@
       <c r="K29" t="s">
         <v>147</v>
       </c>
-      <c r="R29">
-        <v>2</v>
-      </c>
-      <c r="S29">
+      <c r="L29" t="s">
+        <v>147</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29">
         <v>0</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:23">
       <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
@@ -28678,34 +28859,37 @@
       <c r="G30" s="2">
         <v>10</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I30" t="s">
         <v>147</v>
       </c>
       <c r="J30" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" t="s">
         <v>146</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>147</v>
       </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>80</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:23">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -28727,7 +28911,7 @@
       <c r="G31" s="2">
         <v>10</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I31" t="s">
@@ -28739,22 +28923,25 @@
       <c r="K31" t="s">
         <v>147</v>
       </c>
-      <c r="R31">
-        <v>2</v>
-      </c>
-      <c r="S31">
+      <c r="L31" t="s">
+        <v>147</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
         <v>0</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:23">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -28776,38 +28963,42 @@
       <c r="G32" s="2">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6" t="s">
+      <c r="J32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
-      <c r="R32" s="6">
-        <v>2</v>
-      </c>
-      <c r="S32">
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6">
+        <v>2</v>
+      </c>
+      <c r="U32">
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:23">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -28829,36 +29020,40 @@
       <c r="G33" s="2">
         <v>10</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" t="s">
+      <c r="H33" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="I33" s="6"/>
       <c r="J33" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
-      <c r="R33" s="6">
-        <v>2</v>
-      </c>
-      <c r="S33">
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
+        <v>2</v>
+      </c>
+      <c r="U33">
         <v>70</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:23">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -28880,10 +29075,10 @@
       <c r="G34" s="2">
         <v>10</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" t="s">
         <v>147</v>
       </c>
       <c r="J34" s="6" t="s">
@@ -28892,28 +29087,32 @@
       <c r="K34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6">
-        <v>2</v>
-      </c>
-      <c r="S34">
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6">
+        <v>2</v>
+      </c>
+      <c r="U34">
         <v>60</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:23">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -28935,10 +29134,10 @@
       <c r="G35" s="2">
         <v>10</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" t="s">
         <v>147</v>
       </c>
       <c r="J35" s="6" t="s">
@@ -28947,28 +29146,32 @@
       <c r="K35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6">
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6">
         <v>3</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>0</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:23">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -28988,36 +29191,40 @@
       <c r="G36" s="2">
         <v>10</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I36" s="6"/>
+      <c r="I36" t="s">
+        <v>147</v>
+      </c>
       <c r="J36" s="6"/>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="6"/>
+      <c r="L36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="6">
-        <v>2</v>
-      </c>
-      <c r="S36">
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6">
+        <v>2</v>
+      </c>
+      <c r="U36">
         <v>80</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:23">
       <c r="A37" s="3" t="s">
         <v>109</v>
       </c>
@@ -29037,7 +29244,7 @@
       <c r="G37" s="2">
         <v>20</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I37" t="s">
@@ -29049,22 +29256,25 @@
       <c r="K37" t="s">
         <v>146</v>
       </c>
-      <c r="R37">
+      <c r="L37" t="s">
+        <v>146</v>
+      </c>
+      <c r="T37">
         <v>4</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <v>70</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:23">
       <c r="A38" s="3" t="s">
         <v>191</v>
       </c>
@@ -29084,7 +29294,7 @@
       <c r="G38" s="2">
         <v>10</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I38" t="s">
@@ -29096,22 +29306,25 @@
       <c r="K38" t="s">
         <v>147</v>
       </c>
-      <c r="R38">
-        <v>2</v>
-      </c>
-      <c r="S38">
+      <c r="L38" t="s">
+        <v>147</v>
+      </c>
+      <c r="T38">
+        <v>2</v>
+      </c>
+      <c r="U38">
         <v>80</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:23">
       <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
@@ -29131,7 +29344,7 @@
       <c r="G39" s="2">
         <v>10</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I39" t="s">
@@ -29143,22 +29356,25 @@
       <c r="K39" t="s">
         <v>147</v>
       </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="S39">
+      <c r="L39" t="s">
+        <v>147</v>
+      </c>
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>80</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:23">
       <c r="A40" s="3" t="s">
         <v>192</v>
       </c>
@@ -29180,36 +29396,40 @@
       <c r="G40" s="2">
         <v>10</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6" t="s">
+      <c r="H40" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="I40" s="6"/>
       <c r="J40" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
-      <c r="R40" s="6">
-        <v>2</v>
-      </c>
-      <c r="S40">
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6">
+        <v>2</v>
+      </c>
+      <c r="U40">
         <v>60</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:23">
       <c r="A41" s="3" t="s">
         <v>112</v>
       </c>
@@ -29231,7 +29451,7 @@
       <c r="G41" s="2">
         <v>10</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I41" t="s">
@@ -29243,22 +29463,25 @@
       <c r="K41" t="s">
         <v>147</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
+      <c r="L41" t="s">
+        <v>147</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
         <v>0</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:23">
       <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
@@ -29280,38 +29503,42 @@
       <c r="G42" s="2">
         <v>10</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I42" t="s">
         <v>147</v>
       </c>
       <c r="J42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" t="s">
         <v>146</v>
       </c>
-      <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="6">
-        <v>2</v>
-      </c>
-      <c r="S42">
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6">
+        <v>2</v>
+      </c>
+      <c r="U42">
         <v>80</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:23">
       <c r="A43" s="3" t="s">
         <v>105</v>
       </c>
@@ -29331,38 +29558,42 @@
       <c r="G43" s="2">
         <v>10</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" t="s">
         <v>147</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6" t="s">
+      <c r="J43" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
-      <c r="R43" s="6">
-        <v>2</v>
-      </c>
-      <c r="S43">
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6">
+        <v>2</v>
+      </c>
+      <c r="U43">
         <v>80</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:23">
       <c r="A44" s="3" t="s">
         <v>107</v>
       </c>
@@ -29382,38 +29613,42 @@
       <c r="G44" s="2">
         <v>10</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" t="s">
         <v>147</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6" t="s">
+      <c r="J44" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
-      <c r="R44" s="6">
-        <v>2</v>
-      </c>
-      <c r="S44">
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6">
+        <v>2</v>
+      </c>
+      <c r="U44">
         <v>80</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:23">
       <c r="A45" s="9" t="s">
         <v>48</v>
       </c>
@@ -29433,7 +29668,7 @@
       <c r="G45" s="2">
         <v>30</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I45" t="s">
@@ -29445,22 +29680,25 @@
       <c r="K45" t="s">
         <v>146</v>
       </c>
-      <c r="R45">
+      <c r="L45" t="s">
+        <v>146</v>
+      </c>
+      <c r="T45">
         <v>0.5</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <v>0</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:23">
       <c r="A46" s="4" t="s">
         <v>64</v>
       </c>
@@ -29482,38 +29720,42 @@
       <c r="G46" s="2">
         <v>10</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I46" t="s">
         <v>147</v>
       </c>
       <c r="J46" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6">
-        <v>2</v>
-      </c>
-      <c r="S46">
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6">
+        <v>2</v>
+      </c>
+      <c r="U46">
         <v>70</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:23">
       <c r="A47" s="4" t="s">
         <v>242</v>
       </c>
@@ -29535,7 +29777,7 @@
       <c r="G47" s="2">
         <v>10</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I47" t="s">
@@ -29544,29 +29786,33 @@
       <c r="J47" t="s">
         <v>147</v>
       </c>
-      <c r="K47" s="6"/>
+      <c r="K47" t="s">
+        <v>147</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
-      <c r="R47" s="6">
-        <v>2</v>
-      </c>
-      <c r="S47">
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
+        <v>2</v>
+      </c>
+      <c r="U47">
         <v>60</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:23">
       <c r="A48" s="4" t="s">
         <v>66</v>
       </c>
@@ -29588,10 +29834,12 @@
       <c r="G48" s="2">
         <v>10</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I48" s="6"/>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -29600,22 +29848,24 @@
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
-      <c r="R48" s="6">
-        <v>2</v>
-      </c>
-      <c r="S48">
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6">
+        <v>2</v>
+      </c>
+      <c r="U48">
         <v>65</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>35</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:23">
       <c r="A49" s="4" t="s">
         <v>69</v>
       </c>
@@ -29637,7 +29887,7 @@
       <c r="G49" s="2">
         <v>10</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I49" t="s">
@@ -29646,29 +29896,33 @@
       <c r="J49" t="s">
         <v>147</v>
       </c>
-      <c r="K49" s="6"/>
+      <c r="K49" t="s">
+        <v>147</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
-      <c r="R49" s="6">
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6">
         <v>3</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <v>70</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U49">
+      <c r="W49">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:23">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -29690,7 +29944,7 @@
       <c r="G50" s="2">
         <v>10</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I50" t="s">
@@ -29699,29 +29953,33 @@
       <c r="J50" t="s">
         <v>147</v>
       </c>
-      <c r="K50" s="6"/>
+      <c r="K50" t="s">
+        <v>147</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6">
-        <v>2</v>
-      </c>
-      <c r="S50">
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6">
+        <v>2</v>
+      </c>
+      <c r="U50">
         <v>0</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U50">
+      <c r="W50">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:23">
       <c r="A51" s="4" t="s">
         <v>74</v>
       </c>
@@ -29743,7 +30001,7 @@
       <c r="G51" s="2">
         <v>10</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I51" t="s">
@@ -29752,29 +30010,33 @@
       <c r="J51" t="s">
         <v>147</v>
       </c>
-      <c r="K51" s="6"/>
+      <c r="K51" t="s">
+        <v>147</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6">
-        <v>2</v>
-      </c>
-      <c r="S51">
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6">
+        <v>2</v>
+      </c>
+      <c r="U51">
         <v>50</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U51">
+      <c r="W51">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:23">
       <c r="A52" s="3" t="s">
         <v>193</v>
       </c>
@@ -29796,10 +30058,12 @@
       <c r="G52" s="2">
         <v>10</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" t="s">
+        <v>147</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
@@ -29808,22 +30072,24 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
-      <c r="R52" s="6">
-        <v>2</v>
-      </c>
-      <c r="S52">
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6">
+        <v>2</v>
+      </c>
+      <c r="U52">
         <v>80</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U52">
+      <c r="W52">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:23">
       <c r="A53" s="3" t="s">
         <v>194</v>
       </c>
@@ -29845,7 +30111,7 @@
       <c r="G53" s="2">
         <v>10</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I53" t="s">
@@ -29854,29 +30120,33 @@
       <c r="J53" t="s">
         <v>147</v>
       </c>
-      <c r="K53" s="6"/>
+      <c r="K53" t="s">
+        <v>147</v>
+      </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
-      <c r="R53" s="6">
-        <v>2</v>
-      </c>
-      <c r="S53">
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6">
+        <v>2</v>
+      </c>
+      <c r="U53">
         <v>70</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U53">
+      <c r="W53">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:23">
       <c r="A54" s="3" t="s">
         <v>195</v>
       </c>
@@ -29898,7 +30168,7 @@
       <c r="G54" s="2">
         <v>10</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I54" t="s">
@@ -29907,29 +30177,33 @@
       <c r="J54" t="s">
         <v>147</v>
       </c>
-      <c r="K54" s="6"/>
+      <c r="K54" t="s">
+        <v>147</v>
+      </c>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6">
-        <v>2</v>
-      </c>
-      <c r="S54">
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6">
+        <v>2</v>
+      </c>
+      <c r="U54">
         <v>40</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>60</v>
       </c>
-      <c r="U54">
+      <c r="W54">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:23">
       <c r="A55" s="3" t="s">
         <v>196</v>
       </c>
@@ -29951,36 +30225,40 @@
       <c r="G55" s="2">
         <v>10</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" t="s">
+      <c r="H55" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="I55" s="6"/>
       <c r="J55" t="s">
+        <v>147</v>
+      </c>
+      <c r="K55" t="s">
         <v>146</v>
       </c>
-      <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="6">
-        <v>2</v>
-      </c>
-      <c r="S55">
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6">
+        <v>2</v>
+      </c>
+      <c r="U55">
         <v>80</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U55">
+      <c r="W55">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:23">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
@@ -30002,7 +30280,7 @@
       <c r="G56" s="2">
         <v>10</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I56" t="s">
@@ -30011,29 +30289,33 @@
       <c r="J56" t="s">
         <v>147</v>
       </c>
-      <c r="K56" s="6"/>
+      <c r="K56" t="s">
+        <v>147</v>
+      </c>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="6">
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6">
         <v>3</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <v>0</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U56">
+      <c r="W56">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:23">
       <c r="A57" s="3" t="s">
         <v>119</v>
       </c>
@@ -30055,7 +30337,7 @@
       <c r="G57" s="2">
         <v>10</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I57" t="s">
@@ -30064,29 +30346,33 @@
       <c r="J57" t="s">
         <v>147</v>
       </c>
-      <c r="K57" s="6"/>
+      <c r="K57" t="s">
+        <v>147</v>
+      </c>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="6">
-        <v>2</v>
-      </c>
-      <c r="S57">
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6">
+        <v>2</v>
+      </c>
+      <c r="U57">
         <v>60</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U57">
+      <c r="W57">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:23">
       <c r="A58" s="3" t="s">
         <v>71</v>
       </c>
@@ -30108,10 +30394,12 @@
       <c r="G58" s="2">
         <v>10</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="I58" s="6"/>
+      <c r="I58" t="s">
+        <v>147</v>
+      </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
@@ -30120,22 +30408,24 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="6">
-        <v>2</v>
-      </c>
-      <c r="S58">
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6">
+        <v>2</v>
+      </c>
+      <c r="U58">
         <v>0</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U58">
+      <c r="W58">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:23">
       <c r="A59" s="3" t="s">
         <v>197</v>
       </c>
@@ -30157,7 +30447,7 @@
       <c r="G59" s="2">
         <v>10</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I59" t="s">
@@ -30166,29 +30456,33 @@
       <c r="J59" t="s">
         <v>147</v>
       </c>
-      <c r="K59" s="6"/>
+      <c r="K59" t="s">
+        <v>147</v>
+      </c>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
-      <c r="R59" s="6">
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6">
         <v>3</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <v>50</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U59">
+      <c r="W59">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:23">
       <c r="A60" s="3" t="s">
         <v>198</v>
       </c>
@@ -30210,7 +30504,7 @@
       <c r="G60" s="2">
         <v>10</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I60" t="s">
@@ -30219,29 +30513,33 @@
       <c r="J60" t="s">
         <v>147</v>
       </c>
-      <c r="K60" s="6"/>
+      <c r="K60" t="s">
+        <v>147</v>
+      </c>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="6">
-        <v>2</v>
-      </c>
-      <c r="S60">
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>0</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U60">
+      <c r="W60">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:23">
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
@@ -30263,7 +30561,7 @@
       <c r="G61" s="28">
         <v>10</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="28" t="s">
         <v>147</v>
       </c>
       <c r="I61" t="s">
@@ -30272,29 +30570,33 @@
       <c r="J61" t="s">
         <v>147</v>
       </c>
-      <c r="K61" s="6"/>
+      <c r="K61" t="s">
+        <v>147</v>
+      </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="6">
-        <v>2</v>
-      </c>
-      <c r="S61">
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6">
+        <v>2</v>
+      </c>
+      <c r="U61">
         <v>70</v>
       </c>
-      <c r="T61">
+      <c r="V61">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U61">
+      <c r="W61">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:23">
       <c r="A62" s="4" t="s">
         <v>77</v>
       </c>
@@ -30314,7 +30616,7 @@
       <c r="G62" s="2">
         <v>60</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I62" t="s">
@@ -30323,29 +30625,33 @@
       <c r="J62" t="s">
         <v>146</v>
       </c>
-      <c r="K62" s="6"/>
+      <c r="K62" t="s">
+        <v>146</v>
+      </c>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="6">
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6">
         <v>0.5</v>
       </c>
-      <c r="S62">
+      <c r="U62">
         <v>25</v>
       </c>
-      <c r="T62">
+      <c r="V62">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>75</v>
       </c>
-      <c r="U62">
+      <c r="W62">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:23">
       <c r="A63" s="3" t="s">
         <v>253</v>
       </c>
@@ -30367,26 +30673,30 @@
       <c r="G63" s="2">
         <v>10</v>
       </c>
-      <c r="L63" t="s">
+      <c r="H63" s="2"/>
+      <c r="M63" t="s">
         <v>147</v>
       </c>
-      <c r="R63">
-        <f>INDEX(R2:R62,MATCH(Table2[[#This Row],[Alternative Module Code]],A2:A62,0))</f>
+      <c r="N63" t="s">
+        <v>147</v>
+      </c>
+      <c r="T63">
+        <f>INDEX(T2:T62,MATCH(Table2[[#This Row],[Alternative Module Code]],A2:A62,0))</f>
         <v>3</v>
       </c>
-      <c r="S63">
+      <c r="U63">
         <v>70</v>
       </c>
-      <c r="T63">
+      <c r="V63">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U63">
+      <c r="W63">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:23">
       <c r="A64" s="3" t="s">
         <v>129</v>
       </c>
@@ -30408,32 +30718,36 @@
       <c r="G64" s="2">
         <v>10</v>
       </c>
-      <c r="L64" t="s">
-        <v>147</v>
-      </c>
+      <c r="H64" s="2"/>
       <c r="M64" t="s">
         <v>147</v>
       </c>
-      <c r="P64" t="s">
+      <c r="N64" t="s">
         <v>147</v>
       </c>
-      <c r="R64">
-        <f>INDEX(R3:R63,MATCH(Table2[[#This Row],[Alternative Module Code]],A3:A63,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S64">
+      <c r="O64" t="s">
+        <v>147</v>
+      </c>
+      <c r="R64" t="s">
+        <v>147</v>
+      </c>
+      <c r="T64">
+        <f>INDEX(T3:T63,MATCH(Table2[[#This Row],[Alternative Module Code]],A3:A63,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U64">
         <v>0</v>
       </c>
-      <c r="T64">
+      <c r="V64">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U64">
+      <c r="W64">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:23">
       <c r="A65" s="3" t="s">
         <v>130</v>
       </c>
@@ -30455,29 +30769,33 @@
       <c r="G65" s="2">
         <v>10</v>
       </c>
+      <c r="H65" s="2"/>
       <c r="M65" t="s">
         <v>147</v>
       </c>
       <c r="O65" t="s">
         <v>147</v>
       </c>
-      <c r="R65">
-        <f>INDEX(R4:R64,MATCH(Table2[[#This Row],[Alternative Module Code]],A4:A64,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S65">
+      <c r="Q65" t="s">
+        <v>147</v>
+      </c>
+      <c r="T65">
+        <f>INDEX(T4:T64,MATCH(Table2[[#This Row],[Alternative Module Code]],A4:A64,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U65">
         <v>80</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U65">
+      <c r="W65">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:23">
       <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
@@ -30499,26 +30817,30 @@
       <c r="G66" s="2">
         <v>10</v>
       </c>
-      <c r="L66" t="s">
+      <c r="H66" s="2"/>
+      <c r="M66" t="s">
         <v>147</v>
       </c>
-      <c r="R66">
-        <f>INDEX(R5:R65,MATCH(Table2[[#This Row],[Alternative Module Code]],A5:A65,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S66">
+      <c r="N66" t="s">
+        <v>147</v>
+      </c>
+      <c r="T66">
+        <f>INDEX(T5:T65,MATCH(Table2[[#This Row],[Alternative Module Code]],A5:A65,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U66">
         <v>0</v>
       </c>
-      <c r="T66">
+      <c r="V66">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U66">
+      <c r="W66">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:23">
       <c r="A67" s="3" t="s">
         <v>132</v>
       </c>
@@ -30540,26 +30862,30 @@
       <c r="G67" s="2">
         <v>10</v>
       </c>
-      <c r="L67" t="s">
+      <c r="H67" s="2"/>
+      <c r="M67" t="s">
         <v>147</v>
       </c>
-      <c r="R67">
-        <f>INDEX(R6:R66,MATCH(Table2[[#This Row],[Alternative Module Code]],A6:A66,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S67">
+      <c r="N67" t="s">
+        <v>147</v>
+      </c>
+      <c r="T67">
+        <f>INDEX(T6:T66,MATCH(Table2[[#This Row],[Alternative Module Code]],A6:A66,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U67">
         <v>0</v>
       </c>
-      <c r="T67">
+      <c r="V67">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U67">
+      <c r="W67">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:23">
       <c r="A68" s="3" t="s">
         <v>133</v>
       </c>
@@ -30581,29 +30907,33 @@
       <c r="G68" s="2">
         <v>10</v>
       </c>
+      <c r="H68" s="2"/>
       <c r="M68" t="s">
         <v>147</v>
       </c>
       <c r="O68" t="s">
         <v>147</v>
       </c>
-      <c r="R68">
-        <f>INDEX(R7:R67,MATCH(Table2[[#This Row],[Alternative Module Code]],A7:A67,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S68">
+      <c r="Q68" t="s">
+        <v>147</v>
+      </c>
+      <c r="T68">
+        <f>INDEX(T7:T67,MATCH(Table2[[#This Row],[Alternative Module Code]],A7:A67,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U68">
         <v>70</v>
       </c>
-      <c r="T68">
+      <c r="V68">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U68">
+      <c r="W68">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:23">
       <c r="A69" s="3" t="s">
         <v>134</v>
       </c>
@@ -30625,32 +30955,36 @@
       <c r="G69" s="2">
         <v>10</v>
       </c>
-      <c r="L69" t="s">
-        <v>147</v>
-      </c>
+      <c r="H69" s="2"/>
       <c r="M69" t="s">
         <v>147</v>
       </c>
       <c r="N69" t="s">
         <v>147</v>
       </c>
-      <c r="R69">
-        <f>INDEX(R8:R68,MATCH(Table2[[#This Row],[Alternative Module Code]],A8:A68,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S69">
+      <c r="O69" t="s">
+        <v>147</v>
+      </c>
+      <c r="P69" t="s">
+        <v>147</v>
+      </c>
+      <c r="T69">
+        <f>INDEX(T8:T68,MATCH(Table2[[#This Row],[Alternative Module Code]],A8:A68,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U69">
         <v>60</v>
       </c>
-      <c r="T69">
+      <c r="V69">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U69">
+      <c r="W69">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:23">
       <c r="A70" s="3" t="s">
         <v>135</v>
       </c>
@@ -30672,32 +31006,36 @@
       <c r="G70" s="2">
         <v>10</v>
       </c>
-      <c r="L70" t="s">
-        <v>147</v>
-      </c>
+      <c r="H70" s="2"/>
       <c r="M70" t="s">
         <v>147</v>
       </c>
-      <c r="P70" t="s">
+      <c r="N70" t="s">
         <v>147</v>
       </c>
-      <c r="R70">
-        <f>INDEX(R9:R69,MATCH(Table2[[#This Row],[Alternative Module Code]],A9:A69,0))</f>
+      <c r="O70" t="s">
+        <v>147</v>
+      </c>
+      <c r="R70" t="s">
+        <v>147</v>
+      </c>
+      <c r="T70">
+        <f>INDEX(T9:T69,MATCH(Table2[[#This Row],[Alternative Module Code]],A9:A69,0))</f>
         <v>3</v>
       </c>
-      <c r="S70">
+      <c r="U70">
         <v>0</v>
       </c>
-      <c r="T70">
+      <c r="V70">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U70">
+      <c r="W70">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:23">
       <c r="A71" s="3" t="s">
         <v>153</v>
       </c>
@@ -30719,29 +31057,33 @@
       <c r="G71" s="2">
         <v>10</v>
       </c>
+      <c r="H71" s="2"/>
       <c r="M71" t="s">
         <v>147</v>
       </c>
       <c r="O71" t="s">
         <v>147</v>
       </c>
-      <c r="R71">
-        <f>INDEX(R10:R70,MATCH(Table2[[#This Row],[Alternative Module Code]],A10:A70,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S71">
+      <c r="Q71" t="s">
+        <v>147</v>
+      </c>
+      <c r="T71">
+        <f>INDEX(T10:T70,MATCH(Table2[[#This Row],[Alternative Module Code]],A10:A70,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U71">
         <v>50</v>
       </c>
-      <c r="T71">
+      <c r="V71">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U71">
+      <c r="W71">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:23">
       <c r="A72" s="3" t="s">
         <v>154</v>
       </c>
@@ -30763,32 +31105,36 @@
       <c r="G72" s="2">
         <v>10</v>
       </c>
-      <c r="L72" t="s">
+      <c r="H72" s="2"/>
+      <c r="M72" t="s">
         <v>147</v>
       </c>
-      <c r="P72" t="s">
+      <c r="N72" t="s">
         <v>147</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>147</v>
       </c>
-      <c r="R72">
-        <f>INDEX(R13:R71,MATCH(Table2[[#This Row],[Alternative Module Code]],A13:A71,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S72">
+      <c r="S72" t="s">
+        <v>147</v>
+      </c>
+      <c r="T72">
+        <f>INDEX(T13:T71,MATCH(Table2[[#This Row],[Alternative Module Code]],A13:A71,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U72">
         <v>0</v>
       </c>
-      <c r="T72">
+      <c r="V72">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U72">
+      <c r="W72">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:23">
       <c r="A73" s="3" t="s">
         <v>155</v>
       </c>
@@ -30810,29 +31156,33 @@
       <c r="G73" s="2">
         <v>10</v>
       </c>
+      <c r="H73" s="2"/>
       <c r="M73" t="s">
         <v>147</v>
       </c>
       <c r="O73" t="s">
         <v>147</v>
       </c>
-      <c r="R73">
-        <f>INDEX(R14:R72,MATCH(Table2[[#This Row],[Alternative Module Code]],A14:A72,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S73">
+      <c r="Q73" t="s">
+        <v>147</v>
+      </c>
+      <c r="T73">
+        <f>INDEX(T14:T72,MATCH(Table2[[#This Row],[Alternative Module Code]],A14:A72,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>80</v>
       </c>
-      <c r="T73">
+      <c r="V73">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U73">
+      <c r="W73">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:23">
       <c r="A74" s="3" t="s">
         <v>304</v>
       </c>
@@ -30854,9 +31204,7 @@
       <c r="G74" s="28">
         <v>10</v>
       </c>
-      <c r="L74" t="s">
-        <v>147</v>
-      </c>
+      <c r="H74" s="28"/>
       <c r="M74" t="s">
         <v>147</v>
       </c>
@@ -30872,16 +31220,22 @@
       <c r="Q74" t="s">
         <v>147</v>
       </c>
-      <c r="T74">
+      <c r="R74" t="s">
+        <v>147</v>
+      </c>
+      <c r="S74" t="s">
+        <v>147</v>
+      </c>
+      <c r="V74">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U74">
+      <c r="W74">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:23">
       <c r="A75" s="3" t="s">
         <v>136</v>
       </c>
@@ -30903,32 +31257,36 @@
       <c r="G75" s="2">
         <v>10</v>
       </c>
-      <c r="L75" t="s">
-        <v>147</v>
-      </c>
+      <c r="H75" s="2"/>
       <c r="M75" t="s">
         <v>147</v>
       </c>
+      <c r="N75" t="s">
+        <v>147</v>
+      </c>
       <c r="O75" t="s">
         <v>147</v>
       </c>
-      <c r="R75">
-        <f>INDEX(R16:R73,MATCH(Table2[[#This Row],[Alternative Module Code]],A16:A73,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S75">
+      <c r="Q75" t="s">
+        <v>147</v>
+      </c>
+      <c r="T75">
+        <f>INDEX(T16:T73,MATCH(Table2[[#This Row],[Alternative Module Code]],A16:A73,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U75">
         <v>70</v>
       </c>
-      <c r="T75">
+      <c r="V75">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U75">
+      <c r="W75">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:23">
       <c r="A76" s="3" t="s">
         <v>255</v>
       </c>
@@ -30950,35 +31308,39 @@
       <c r="G76" s="2">
         <v>10</v>
       </c>
-      <c r="L76" t="s">
-        <v>147</v>
-      </c>
+      <c r="H76" s="2"/>
       <c r="M76" t="s">
         <v>147</v>
       </c>
-      <c r="P76" t="s">
+      <c r="N76" t="s">
         <v>147</v>
       </c>
-      <c r="Q76" t="s">
+      <c r="O76" t="s">
         <v>147</v>
       </c>
-      <c r="R76">
-        <f>INDEX(R17:R75,MATCH(Table2[[#This Row],[Alternative Module Code]],A17:A75,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S76">
+      <c r="R76" t="s">
+        <v>147</v>
+      </c>
+      <c r="S76" t="s">
+        <v>147</v>
+      </c>
+      <c r="T76">
+        <f>INDEX(T17:T75,MATCH(Table2[[#This Row],[Alternative Module Code]],A17:A75,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U76">
         <v>50</v>
       </c>
-      <c r="T76">
+      <c r="V76">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U76">
+      <c r="W76">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:23">
       <c r="A77" s="3" t="s">
         <v>137</v>
       </c>
@@ -31000,32 +31362,36 @@
       <c r="G77" s="2">
         <v>10</v>
       </c>
-      <c r="L77" t="s">
+      <c r="H77" s="2"/>
+      <c r="M77" t="s">
         <v>147</v>
       </c>
-      <c r="P77" t="s">
+      <c r="N77" t="s">
+        <v>147</v>
+      </c>
+      <c r="R77" t="s">
         <v>146</v>
       </c>
-      <c r="Q77" t="s">
+      <c r="S77" t="s">
         <v>146</v>
       </c>
-      <c r="R77">
-        <f>INDEX(R18:R76,MATCH(Table2[[#This Row],[Alternative Module Code]],A18:A76,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S77">
+      <c r="T77">
+        <f>INDEX(T18:T76,MATCH(Table2[[#This Row],[Alternative Module Code]],A18:A76,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U77">
         <v>50</v>
       </c>
-      <c r="T77">
+      <c r="V77">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U77">
+      <c r="W77">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:23">
       <c r="A78" s="3" t="s">
         <v>138</v>
       </c>
@@ -31047,7 +31413,8 @@
       <c r="G78" s="2">
         <v>10</v>
       </c>
-      <c r="L78" t="s">
+      <c r="H78" s="2"/>
+      <c r="M78" t="s">
         <v>147</v>
       </c>
       <c r="N78" t="s">
@@ -31056,26 +31423,29 @@
       <c r="P78" t="s">
         <v>147</v>
       </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
         <v>147</v>
       </c>
-      <c r="R78">
-        <f>INDEX(R20:R77,MATCH(Table2[[#This Row],[Alternative Module Code]],A20:A77,0))</f>
+      <c r="S78" t="s">
+        <v>147</v>
+      </c>
+      <c r="T78">
+        <f>INDEX(T20:T77,MATCH(Table2[[#This Row],[Alternative Module Code]],A20:A77,0))</f>
         <v>3</v>
       </c>
-      <c r="S78">
+      <c r="U78">
         <v>70</v>
       </c>
-      <c r="T78">
+      <c r="V78">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U78">
+      <c r="W78">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:23">
       <c r="A79" s="3" t="s">
         <v>139</v>
       </c>
@@ -31097,41 +31467,45 @@
       <c r="G79" s="2">
         <v>10</v>
       </c>
-      <c r="L79" t="s">
-        <v>147</v>
-      </c>
+      <c r="H79" s="2"/>
       <c r="M79" t="s">
         <v>147</v>
       </c>
       <c r="N79" t="s">
+        <v>147</v>
+      </c>
+      <c r="O79" t="s">
+        <v>147</v>
+      </c>
+      <c r="P79" t="s">
         <v>146</v>
       </c>
-      <c r="O79" t="s">
+      <c r="Q79" t="s">
         <v>146</v>
       </c>
-      <c r="P79" t="s">
+      <c r="R79" t="s">
         <v>147</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="S79" t="s">
         <v>147</v>
       </c>
-      <c r="R79">
-        <f>INDEX(R21:R78,MATCH(Table2[[#This Row],[Alternative Module Code]],A21:A78,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S79">
+      <c r="T79">
+        <f>INDEX(T21:T78,MATCH(Table2[[#This Row],[Alternative Module Code]],A21:A78,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U79">
         <v>0</v>
       </c>
-      <c r="T79">
+      <c r="V79">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U79">
+      <c r="W79">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:23">
       <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
@@ -31153,35 +31527,39 @@
       <c r="G80" s="2">
         <v>10</v>
       </c>
-      <c r="L80" t="s">
-        <v>147</v>
-      </c>
+      <c r="H80" s="2"/>
       <c r="M80" t="s">
         <v>147</v>
       </c>
-      <c r="P80" t="s">
+      <c r="N80" t="s">
         <v>147</v>
       </c>
-      <c r="Q80" t="s">
+      <c r="O80" t="s">
         <v>147</v>
       </c>
-      <c r="R80">
-        <f>INDEX(R22:R79,MATCH(Table2[[#This Row],[Alternative Module Code]],A22:A79,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S80">
+      <c r="R80" t="s">
+        <v>147</v>
+      </c>
+      <c r="S80" t="s">
+        <v>147</v>
+      </c>
+      <c r="T80">
+        <f>INDEX(T22:T79,MATCH(Table2[[#This Row],[Alternative Module Code]],A22:A79,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U80">
         <v>50</v>
       </c>
-      <c r="T80">
+      <c r="V80">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U80">
+      <c r="W80">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:23">
       <c r="A81" s="3" t="s">
         <v>157</v>
       </c>
@@ -31203,7 +31581,8 @@
       <c r="G81" s="2">
         <v>10</v>
       </c>
-      <c r="L81" t="s">
+      <c r="H81" s="2"/>
+      <c r="M81" t="s">
         <v>147</v>
       </c>
       <c r="N81" t="s">
@@ -31212,26 +31591,29 @@
       <c r="P81" t="s">
         <v>147</v>
       </c>
-      <c r="Q81" t="s">
+      <c r="R81" t="s">
         <v>147</v>
       </c>
-      <c r="R81">
-        <f>INDEX(R23:R80,MATCH(Table2[[#This Row],[Alternative Module Code]],A23:A80,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S81">
+      <c r="S81" t="s">
+        <v>147</v>
+      </c>
+      <c r="T81">
+        <f>INDEX(T23:T80,MATCH(Table2[[#This Row],[Alternative Module Code]],A23:A80,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U81">
         <v>80</v>
       </c>
-      <c r="T81">
+      <c r="V81">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U81">
+      <c r="W81">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:23">
       <c r="A82" s="3" t="s">
         <v>156</v>
       </c>
@@ -31253,9 +31635,7 @@
       <c r="G82" s="2">
         <v>10</v>
       </c>
-      <c r="L82" t="s">
-        <v>147</v>
-      </c>
+      <c r="H82" s="2"/>
       <c r="M82" t="s">
         <v>147</v>
       </c>
@@ -31265,23 +31645,29 @@
       <c r="O82" t="s">
         <v>147</v>
       </c>
-      <c r="R82">
-        <f>INDEX(R24:R81,MATCH(Table2[[#This Row],[Alternative Module Code]],A24:A81,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S82">
+      <c r="P82" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>147</v>
+      </c>
+      <c r="T82">
+        <f>INDEX(T24:T81,MATCH(Table2[[#This Row],[Alternative Module Code]],A24:A81,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U82">
         <v>60</v>
       </c>
-      <c r="T82">
+      <c r="V82">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U82">
+      <c r="W82">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:23">
       <c r="A83" s="3" t="s">
         <v>158</v>
       </c>
@@ -31303,9 +31689,7 @@
       <c r="G83" s="2">
         <v>10</v>
       </c>
-      <c r="L83" t="s">
-        <v>147</v>
-      </c>
+      <c r="H83" s="2"/>
       <c r="M83" t="s">
         <v>147</v>
       </c>
@@ -31318,23 +31702,29 @@
       <c r="P83" t="s">
         <v>147</v>
       </c>
-      <c r="R83">
-        <f>INDEX(R25:R82,MATCH(Table2[[#This Row],[Alternative Module Code]],A25:A82,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S83">
+      <c r="Q83" t="s">
+        <v>147</v>
+      </c>
+      <c r="R83" t="s">
+        <v>147</v>
+      </c>
+      <c r="T83">
+        <f>INDEX(T25:T82,MATCH(Table2[[#This Row],[Alternative Module Code]],A25:A82,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U83">
         <v>40</v>
       </c>
-      <c r="T83">
+      <c r="V83">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>60</v>
       </c>
-      <c r="U83">
+      <c r="W83">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:23">
       <c r="A84" s="3" t="s">
         <v>159</v>
       </c>
@@ -31356,29 +31746,33 @@
       <c r="G84" s="2">
         <v>10</v>
       </c>
+      <c r="H84" s="2"/>
       <c r="M84" t="s">
         <v>147</v>
       </c>
       <c r="O84" t="s">
         <v>147</v>
       </c>
-      <c r="R84">
-        <f>INDEX(R26:R83,MATCH(Table2[[#This Row],[Alternative Module Code]],A26:A83,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S84">
+      <c r="Q84" t="s">
+        <v>147</v>
+      </c>
+      <c r="T84">
+        <f>INDEX(T26:T83,MATCH(Table2[[#This Row],[Alternative Module Code]],A26:A83,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U84">
         <v>80</v>
       </c>
-      <c r="T84">
+      <c r="V84">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>20</v>
       </c>
-      <c r="U84">
+      <c r="W84">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:23">
       <c r="A85" s="3" t="s">
         <v>160</v>
       </c>
@@ -31400,9 +31794,7 @@
       <c r="G85" s="2">
         <v>10</v>
       </c>
-      <c r="L85" t="s">
-        <v>147</v>
-      </c>
+      <c r="H85" s="2"/>
       <c r="M85" t="s">
         <v>147</v>
       </c>
@@ -31412,23 +31804,29 @@
       <c r="O85" t="s">
         <v>147</v>
       </c>
-      <c r="R85">
-        <f>INDEX(R27:R84,MATCH(Table2[[#This Row],[Alternative Module Code]],A27:A84,0))</f>
+      <c r="P85" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>147</v>
+      </c>
+      <c r="T85">
+        <f>INDEX(T27:T84,MATCH(Table2[[#This Row],[Alternative Module Code]],A27:A84,0))</f>
         <v>3</v>
       </c>
-      <c r="S85">
+      <c r="U85">
         <v>0</v>
       </c>
-      <c r="T85">
+      <c r="V85">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U85">
+      <c r="W85">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:23">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -31450,32 +31848,36 @@
       <c r="G86" s="2">
         <v>10</v>
       </c>
-      <c r="L86" t="s">
-        <v>147</v>
-      </c>
+      <c r="H86" s="2"/>
       <c r="M86" t="s">
         <v>147</v>
       </c>
       <c r="N86" t="s">
         <v>147</v>
       </c>
-      <c r="R86">
-        <f>INDEX(R28:R85,MATCH(Table2[[#This Row],[Alternative Module Code]],A28:A85,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S86">
+      <c r="O86" t="s">
+        <v>147</v>
+      </c>
+      <c r="P86" t="s">
+        <v>147</v>
+      </c>
+      <c r="T86">
+        <f>INDEX(T28:T85,MATCH(Table2[[#This Row],[Alternative Module Code]],A28:A85,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U86">
         <v>60</v>
       </c>
-      <c r="T86">
+      <c r="V86">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U86">
+      <c r="W86">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:23">
       <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
@@ -31497,29 +31899,33 @@
       <c r="G87" s="2">
         <v>10</v>
       </c>
-      <c r="P87" t="s">
+      <c r="H87" s="2"/>
+      <c r="M87" t="s">
+        <v>147</v>
+      </c>
+      <c r="R87" t="s">
         <v>146</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="S87" t="s">
         <v>146</v>
       </c>
-      <c r="R87">
-        <f>INDEX(R29:R86,MATCH(Table2[[#This Row],[Alternative Module Code]],A29:A86,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S87">
+      <c r="T87">
+        <f>INDEX(T29:T86,MATCH(Table2[[#This Row],[Alternative Module Code]],A29:A86,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U87">
         <v>50</v>
       </c>
-      <c r="T87">
+      <c r="V87">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>50</v>
       </c>
-      <c r="U87">
+      <c r="W87">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:23">
       <c r="A88" s="3" t="s">
         <v>164</v>
       </c>
@@ -31541,29 +31947,33 @@
       <c r="G88" s="2">
         <v>10</v>
       </c>
+      <c r="H88" s="2"/>
       <c r="M88" t="s">
         <v>147</v>
       </c>
       <c r="O88" t="s">
         <v>147</v>
       </c>
-      <c r="R88">
-        <f>INDEX(R30:R87,MATCH(Table2[[#This Row],[Alternative Module Code]],A30:A87,0))</f>
+      <c r="Q88" t="s">
+        <v>147</v>
+      </c>
+      <c r="T88">
+        <f>INDEX(T30:T87,MATCH(Table2[[#This Row],[Alternative Module Code]],A30:A87,0))</f>
         <v>3</v>
       </c>
-      <c r="S88">
+      <c r="U88">
         <v>60</v>
       </c>
-      <c r="T88">
+      <c r="V88">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>40</v>
       </c>
-      <c r="U88">
+      <c r="W88">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:23">
       <c r="A89" s="3" t="s">
         <v>165</v>
       </c>
@@ -31585,9 +31995,7 @@
       <c r="G89" s="2">
         <v>10</v>
       </c>
-      <c r="L89" t="s">
-        <v>147</v>
-      </c>
+      <c r="H89" s="2"/>
       <c r="M89" t="s">
         <v>147</v>
       </c>
@@ -31597,23 +32005,29 @@
       <c r="O89" t="s">
         <v>147</v>
       </c>
-      <c r="R89">
-        <f>INDEX(R31:R88,MATCH(Table2[[#This Row],[Alternative Module Code]],A31:A88,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S89">
+      <c r="P89" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>147</v>
+      </c>
+      <c r="T89">
+        <f>INDEX(T31:T88,MATCH(Table2[[#This Row],[Alternative Module Code]],A31:A88,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U89">
         <v>0</v>
       </c>
-      <c r="T89">
+      <c r="V89">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U89">
+      <c r="W89">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:23">
       <c r="A90" s="3" t="s">
         <v>254</v>
       </c>
@@ -31635,9 +32049,7 @@
       <c r="G90" s="28">
         <v>10</v>
       </c>
-      <c r="L90" t="s">
-        <v>147</v>
-      </c>
+      <c r="H90" s="28"/>
       <c r="M90" t="s">
         <v>147</v>
       </c>
@@ -31647,23 +32059,29 @@
       <c r="O90" t="s">
         <v>147</v>
       </c>
-      <c r="R90">
-        <f>INDEX(R32:R89,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A89,0))</f>
-        <v>2</v>
-      </c>
-      <c r="S90">
+      <c r="P90" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>147</v>
+      </c>
+      <c r="T90">
+        <f>INDEX(T32:T89,MATCH(Table2[[#This Row],[Alternative Module Code]],A32:A89,0))</f>
+        <v>2</v>
+      </c>
+      <c r="U90">
         <v>70</v>
       </c>
-      <c r="T90">
+      <c r="V90">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U90">
+      <c r="W90">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:23">
       <c r="A91" s="3" t="s">
         <v>246</v>
       </c>
@@ -31683,25 +32101,29 @@
       <c r="G91" s="28">
         <v>10</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="H91" s="28"/>
+      <c r="M91" t="s">
         <v>147</v>
       </c>
-      <c r="R91">
-        <v>2</v>
-      </c>
-      <c r="S91">
+      <c r="S91" t="s">
+        <v>147</v>
+      </c>
+      <c r="T91">
+        <v>2</v>
+      </c>
+      <c r="U91">
         <v>0</v>
       </c>
-      <c r="T91">
+      <c r="V91">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U91">
+      <c r="W91">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:23">
       <c r="A92" s="3" t="s">
         <v>248</v>
       </c>
@@ -31721,31 +32143,35 @@
       <c r="G92" s="28">
         <v>10</v>
       </c>
-      <c r="L92" t="s">
+      <c r="H92" s="28"/>
+      <c r="M92" t="s">
         <v>147</v>
       </c>
-      <c r="P92" t="s">
+      <c r="N92" t="s">
         <v>147</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="R92" t="s">
         <v>147</v>
       </c>
-      <c r="R92">
-        <v>2</v>
-      </c>
-      <c r="S92">
+      <c r="S92" t="s">
+        <v>147</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
         <v>0</v>
       </c>
-      <c r="T92">
+      <c r="V92">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U92">
+      <c r="W92">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:23">
       <c r="A93" s="3" t="s">
         <v>250</v>
       </c>
@@ -31765,28 +32191,32 @@
       <c r="G93" s="28">
         <v>10</v>
       </c>
-      <c r="P93" t="s">
+      <c r="H93" s="28"/>
+      <c r="M93" t="s">
         <v>147</v>
       </c>
-      <c r="Q93" t="s">
+      <c r="R93" t="s">
         <v>147</v>
       </c>
-      <c r="R93">
-        <v>2</v>
-      </c>
-      <c r="S93">
+      <c r="S93" t="s">
+        <v>147</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
         <v>0</v>
       </c>
-      <c r="T93">
+      <c r="V93">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U93">
+      <c r="W93">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:23">
       <c r="A94" s="3" t="s">
         <v>184</v>
       </c>
@@ -31806,9 +32236,7 @@
       <c r="G94" s="2">
         <v>20</v>
       </c>
-      <c r="L94" t="s">
-        <v>146</v>
-      </c>
+      <c r="H94" s="2"/>
       <c r="M94" t="s">
         <v>146</v>
       </c>
@@ -31824,22 +32252,28 @@
       <c r="Q94" t="s">
         <v>146</v>
       </c>
-      <c r="R94">
+      <c r="R94" t="s">
+        <v>146</v>
+      </c>
+      <c r="S94" t="s">
+        <v>146</v>
+      </c>
+      <c r="T94">
         <v>3</v>
       </c>
-      <c r="S94">
+      <c r="U94">
         <v>0</v>
       </c>
-      <c r="T94">
+      <c r="V94">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U94">
+      <c r="W94">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:23">
       <c r="A95" s="3" t="s">
         <v>185</v>
       </c>
@@ -31859,9 +32293,7 @@
       <c r="G95" s="2">
         <v>20</v>
       </c>
-      <c r="L95" t="s">
-        <v>146</v>
-      </c>
+      <c r="H95" s="2"/>
       <c r="M95" t="s">
         <v>146</v>
       </c>
@@ -31877,22 +32309,28 @@
       <c r="Q95" t="s">
         <v>146</v>
       </c>
-      <c r="R95">
+      <c r="R95" t="s">
+        <v>146</v>
+      </c>
+      <c r="S95" t="s">
+        <v>146</v>
+      </c>
+      <c r="T95">
         <v>4</v>
       </c>
-      <c r="S95">
+      <c r="U95">
         <v>0</v>
       </c>
-      <c r="T95">
+      <c r="V95">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U95">
+      <c r="W95">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:23">
       <c r="A96" s="3" t="s">
         <v>292</v>
       </c>
@@ -31912,28 +32350,32 @@
       <c r="G96" s="28">
         <v>10</v>
       </c>
-      <c r="P96" t="s">
+      <c r="H96" s="28"/>
+      <c r="M96" t="s">
         <v>147</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>147</v>
       </c>
-      <c r="R96">
-        <v>2</v>
-      </c>
-      <c r="S96">
+      <c r="S96" t="s">
+        <v>147</v>
+      </c>
+      <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
         <v>70</v>
       </c>
-      <c r="T96">
+      <c r="V96">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>30</v>
       </c>
-      <c r="U96">
+      <c r="W96">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>30.000000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:23">
       <c r="A97" s="3" t="s">
         <v>294</v>
       </c>
@@ -31953,28 +32395,32 @@
       <c r="G97" s="28">
         <v>10</v>
       </c>
-      <c r="P97" t="s">
+      <c r="H97" s="28"/>
+      <c r="M97" t="s">
         <v>147</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>147</v>
       </c>
-      <c r="R97">
-        <v>2</v>
-      </c>
-      <c r="S97">
+      <c r="S97" t="s">
+        <v>147</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
         <v>100</v>
       </c>
-      <c r="T97">
+      <c r="V97">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>0</v>
       </c>
-      <c r="U97">
+      <c r="W97">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:23">
       <c r="A98" s="3" t="s">
         <v>296</v>
       </c>
@@ -31994,28 +32440,32 @@
       <c r="G98" s="28">
         <v>10</v>
       </c>
-      <c r="P98" t="s">
+      <c r="H98" s="28"/>
+      <c r="M98" t="s">
         <v>147</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="R98" t="s">
         <v>147</v>
       </c>
-      <c r="R98">
-        <v>2</v>
-      </c>
-      <c r="S98">
+      <c r="S98" t="s">
+        <v>147</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
         <v>0</v>
       </c>
-      <c r="T98">
+      <c r="V98">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U98">
+      <c r="W98">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:23">
       <c r="A99" s="3" t="s">
         <v>298</v>
       </c>
@@ -32035,28 +32485,32 @@
       <c r="G99" s="28">
         <v>20</v>
       </c>
-      <c r="N99" t="s">
+      <c r="H99" s="28"/>
+      <c r="M99" t="s">
+        <v>147</v>
+      </c>
+      <c r="P99" t="s">
         <v>146</v>
       </c>
-      <c r="O99" t="s">
+      <c r="Q99" t="s">
         <v>146</v>
       </c>
-      <c r="R99">
+      <c r="T99">
         <v>4</v>
       </c>
-      <c r="S99">
+      <c r="U99">
         <v>0</v>
       </c>
-      <c r="T99">
+      <c r="V99">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U99">
+      <c r="W99">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:23">
       <c r="A100" s="3" t="s">
         <v>299</v>
       </c>
@@ -32076,28 +32530,32 @@
       <c r="G100" s="28">
         <v>20</v>
       </c>
-      <c r="N100" t="s">
+      <c r="H100" s="28"/>
+      <c r="M100" t="s">
+        <v>147</v>
+      </c>
+      <c r="P100" t="s">
         <v>146</v>
       </c>
-      <c r="O100" t="s">
+      <c r="Q100" t="s">
         <v>146</v>
       </c>
-      <c r="R100">
+      <c r="T100">
         <v>4</v>
       </c>
-      <c r="S100">
+      <c r="U100">
         <v>0</v>
       </c>
-      <c r="T100">
+      <c r="V100">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
         <v>100</v>
       </c>
-      <c r="U100">
+      <c r="W100">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:23">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -32105,8 +32563,9 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101"/>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -32114,8 +32573,9 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102"/>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -32123,8 +32583,9 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103"/>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -32132,8 +32593,9 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104"/>
-    </row>
-    <row r="105" spans="1:21">
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -32141,8 +32603,9 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105"/>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -32150,8 +32613,9 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -32159,8 +32623,9 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -32168,8 +32633,9 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108"/>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -32177,8 +32643,9 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109"/>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -32186,8 +32653,9 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110"/>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -32195,8 +32663,9 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111"/>
-    </row>
-    <row r="112" spans="1:21">
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -32204,6 +32673,7 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112"/>
+      <c r="H112"/>
     </row>
     <row r="113" customFormat="1"/>
     <row r="114" customFormat="1"/>
@@ -32221,7 +32691,7 @@
     <row r="126" customFormat="1"/>
     <row r="127" customFormat="1"/>
     <row r="128" customFormat="1"/>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -32229,6 +32699,7 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32253,7 +32724,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G121">
+  <conditionalFormatting sqref="G2:H121">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="num" val="10"/>
@@ -32265,7 +32736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:R121">
+  <conditionalFormatting sqref="H2:T121">
     <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
     </cfRule>
@@ -32293,7 +32764,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H2:R121</xm:sqref>
+          <xm:sqref>H2:T121</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -32309,11 +32780,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="594" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B71A93BC-42E5-41AC-B525-42BC89F89980}"/>
+  <xr:revisionPtr revIDLastSave="606" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C384DBA-4A76-4992-9D41-C04B8BEAB2BC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="328">
   <si>
     <t>Module Code</t>
   </si>
@@ -1024,6 +1024,9 @@
   <si>
     <t>Su?</t>
   </si>
+  <si>
+    <t>AstroPhotograph</t>
+  </si>
 </sst>
 </file>
 
@@ -1129,7 +1132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1273,21 +1276,6 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1349,24 +1337,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3284,6 +3254,24 @@
         <name val="Calibri (Body)"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8903,7 +8891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9369,40 +9357,40 @@
     </tableColumn>
     <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="94"/>
     <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="93"/>
-    <tableColumn id="37" xr3:uid="{F2060C32-39B6-4ADB-B712-F0770A906BCC}" name="Day of Week" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="92"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="91">
+    <tableColumn id="37" xr3:uid="{F2060C32-39B6-4ADB-B712-F0770A906BCC}" name="Day of Week" dataDxfId="92"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="91"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="90">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="84"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="83"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="82"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="81"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="80"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="79"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="78"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="77"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="76"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="75"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="74"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="73"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="72"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="71"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="70"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="69"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="68"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="67"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="66"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="65">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="82"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="81"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="80"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="77"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="76"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="75"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="74"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="73"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="72"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="71"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="70"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="69"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="68"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="67"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="66"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="65"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="64">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="64">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="63">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9411,49 +9399,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="56"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="55"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="54">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="54">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="53">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="53">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="52">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="41"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="40"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="39"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="38"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="36"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="34"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="33"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="31"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="30"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="29"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="28">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="27">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9462,37 +9450,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
   <autoFilter ref="A1:W100" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="13"/>
     <tableColumn id="23" xr3:uid="{AF3E1EB3-2B73-43ED-85E9-1E8314E0F50D}" name="AllPG"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="13"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="9"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="21" xr3:uid="{3CC5C4CC-6537-4363-AB9D-6A0F69456D30}" name="CDTCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9820,27 +9808,27 @@
   <dimension ref="A1:AK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H153" sqref="H153"/>
+      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.08984375" style="14" customWidth="1"/>
-    <col min="24" max="35" width="9.08984375" style="16"/>
+    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.73046875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.06640625" style="14" customWidth="1"/>
+    <col min="24" max="35" width="9.06640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="44" customFormat="1" ht="29">
+    <row r="1" spans="1:37" s="44" customFormat="1" ht="28.5">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10978,7 +10966,7 @@
         <v>234</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I15" s="11">
         <v>2</v>
@@ -11011,13 +10999,13 @@
       <c r="AD15" s="20"/>
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
-      <c r="AG15" s="45">
-        <v>0.3</v>
-      </c>
+      <c r="AG15" s="20"/>
       <c r="AH15" s="46">
         <v>-0.3</v>
       </c>
-      <c r="AI15" s="20"/>
+      <c r="AI15" s="45">
+        <v>0.3</v>
+      </c>
       <c r="AJ15" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
         <v>0</v>
@@ -11184,34 +11172,34 @@
       <c r="B18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>30</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>307</v>
+      <c r="F18" s="12" t="s">
+        <v>327</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="I18" s="53">
+        <v>322</v>
+      </c>
+      <c r="I18" s="11">
         <v>4</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="K18" s="53"/>
+        <v>-18</v>
+      </c>
+      <c r="K18" s="11"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
@@ -11233,18 +11221,20 @@
       <c r="AD18" s="20"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20">
+      <c r="AG18" s="45">
         <v>0.1</v>
       </c>
-      <c r="AJ18" s="55">
+      <c r="AH18" s="46">
+        <v>-1</v>
+      </c>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="27">
         <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
-      </c>
-      <c r="AK18" s="55">
+        <v>-0.9</v>
+      </c>
+      <c r="AK18" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="19" spans="1:37">
@@ -21751,16 +21741,16 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7265625" style="16"/>
+    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.73046875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -27910,14 +27900,14 @@
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -28345,7 +28335,7 @@
       </c>
       <c r="W8">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30.000000000000004</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -33340,11 +33330,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -33520,7 +33510,7 @@
       </c>
       <c r="C10">
         <f>SUMIF(Table1[Module Code],Sheet2!A10,Table1[Total Hours])</f>
-        <v>10.5</v>
+        <v>-11.5</v>
       </c>
       <c r="D10">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A10,Table14[Module Code],0))</f>
@@ -33528,11 +33518,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>32.5</v>
+        <v>10.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="606" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C384DBA-4A76-4992-9D41-C04B8BEAB2BC}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D85C26C7-4EDA-4407-B4C3-455302990678}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="331">
   <si>
     <t>Module Code</t>
   </si>
@@ -1027,6 +1027,15 @@
   <si>
     <t>AstroPhotograph</t>
   </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Spring Exams</t>
+  </si>
+  <si>
+    <t>Viva</t>
+  </si>
 </sst>
 </file>
 
@@ -1132,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1276,11 +1285,76 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1337,6 +1411,31 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2540,31 +2639,6 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -3187,31 +3261,6 @@
         <name val="Calibri (Body)"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8891,7 +8940,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9340,57 +9389,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AK157" totalsRowShown="0" headerRowDxfId="104" dataDxfId="102" headerRowBorderDxfId="103" tableBorderDxfId="101" totalsRowBorderDxfId="100">
-  <autoFilter ref="A1:AK157" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL159" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+  <autoFilter ref="A1:AL159" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI136">
     <sortCondition ref="A1:A136"/>
   </sortState>
-  <tableColumns count="37">
-    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="97"/>
-    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="96">
+  <tableColumns count="38">
+    <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{D2290F36-B8B3-427A-AEFE-45FD22901411}" name="Module Title" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{31165455-2AA3-4532-A0A0-C942837C0F79}" name="CA type" dataDxfId="98"/>
+    <tableColumn id="33" xr3:uid="{B83E0E3E-2B28-42F1-BC64-5D7177EC4229}" name="CA Weight" dataDxfId="97">
       <calculatedColumnFormula>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="95">
+    <tableColumn id="34" xr3:uid="{AEA2048C-138D-450A-BE52-3FCBDE03C67D}" name="Credits" dataDxfId="96">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="94"/>
-    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="93"/>
-    <tableColumn id="37" xr3:uid="{F2060C32-39B6-4ADB-B712-F0770A906BCC}" name="Day of Week" dataDxfId="92"/>
-    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="91"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="90">
-      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
+    <tableColumn id="30" xr3:uid="{82DD5B5B-C808-4E6E-849C-7A03DC6D0B69}" name="Description" dataDxfId="95"/>
+    <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="94"/>
+    <tableColumn id="37" xr3:uid="{F2060C32-39B6-4ADB-B712-F0770A906BCC}" name="Day of Week" dataDxfId="93"/>
+    <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="92"/>
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="82"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="81"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="80"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="79"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="78"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="77"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="76"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="75"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="74"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="73"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="72"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="71"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="70"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="69"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="68"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="67"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="66"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="65"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="64">
-      <calculatedColumnFormula>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="85"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="84"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="82"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="81"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="80"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="79"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="78"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="77"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="76"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="75"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="74"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="73"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="72"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="71"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="70"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="69"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="68"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="67"/>
+    <tableColumn id="38" xr3:uid="{5C4AEC3F-25E0-4753-84A1-AE07BF1BFF93}" name="Spring Exams" dataDxfId="8"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="1">
+      <calculatedColumnFormula>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="63">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="66">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9399,49 +9449,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="55"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="54">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="58"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="57">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="53">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="56">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="52">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="55">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="40"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="39"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="38"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="35"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="28"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="27">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="43"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="42"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="41"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="40"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="38"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="37"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="36"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="35"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="34"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="33"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="32"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="30">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9450,37 +9500,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
   <autoFilter ref="A1:W100" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="25"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="20"/>
+    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="18"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="16"/>
     <tableColumn id="23" xr3:uid="{AF3E1EB3-2B73-43ED-85E9-1E8314E0F50D}" name="AllPG"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="14"/>
+    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="12"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="21" xr3:uid="{3CC5C4CC-6537-4363-AB9D-6A0F69456D30}" name="CDTCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="10">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="9">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9805,13 +9855,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AK157"/>
+  <dimension ref="A1:AL159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC12" sqref="AC12"/>
+      <selection pane="bottomRight" activeCell="K138" sqref="K138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9825,10 +9875,10 @@
     <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
     <col min="12" max="23" width="9.06640625" style="14" customWidth="1"/>
-    <col min="24" max="35" width="9.06640625" style="16"/>
+    <col min="24" max="36" width="9.06640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="44" customFormat="1" ht="28.5">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="28.5">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -9934,14 +9984,17 @@
       <c r="AI1" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="AJ1" s="43" t="s">
+      <c r="AJ1" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK1" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AL1" s="43" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -9972,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K2" s="11">
@@ -10010,16 +10063,17 @@
       <c r="AG2" s="20"/>
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
-      <c r="AJ2" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="AL2" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -10050,7 +10104,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K3" s="11"/>
@@ -10082,16 +10136,17 @@
       <c r="AG3" s="20"/>
       <c r="AH3" s="20"/>
       <c r="AI3" s="20"/>
-      <c r="AJ3" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK3" s="27">
+      <c r="AL3" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -10122,7 +10177,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K4" s="11"/>
@@ -10154,16 +10209,17 @@
       <c r="AG4" s="20"/>
       <c r="AH4" s="20"/>
       <c r="AI4" s="20"/>
-      <c r="AJ4" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK4" s="27">
+      <c r="AL4" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -10194,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="K5" s="11">
@@ -10240,16 +10296,17 @@
       <c r="AG5" s="20"/>
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
-      <c r="AJ5" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AK5" s="27">
+      <c r="AL5" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -10280,7 +10337,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4.0000000000000009</v>
       </c>
       <c r="K6" s="11">
@@ -10316,16 +10373,17 @@
       <c r="AG6" s="20"/>
       <c r="AH6" s="20"/>
       <c r="AI6" s="20"/>
-      <c r="AJ6" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK6" s="27">
+      <c r="AL6" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -10356,7 +10414,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K7" s="11"/>
@@ -10386,16 +10444,17 @@
       <c r="AG7" s="20"/>
       <c r="AH7" s="20"/>
       <c r="AI7" s="20"/>
-      <c r="AJ7" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK7" s="27">
+      <c r="AL7" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -10426,7 +10485,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K8" s="11"/>
@@ -10456,16 +10515,17 @@
       <c r="AG8" s="20"/>
       <c r="AH8" s="20"/>
       <c r="AI8" s="20"/>
-      <c r="AJ8" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK8" s="27">
+      <c r="AL8" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -10496,7 +10556,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="K9" s="11"/>
@@ -10526,16 +10586,17 @@
       <c r="AG9" s="20"/>
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
-      <c r="AJ9" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.09</v>
       </c>
-      <c r="AK9" s="27">
+      <c r="AL9" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -10566,7 +10627,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>7.1999999999999984</v>
       </c>
       <c r="K10" s="11">
@@ -10608,16 +10669,17 @@
       <c r="AG10" s="21"/>
       <c r="AH10" s="21"/>
       <c r="AI10" s="20"/>
-      <c r="AJ10" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.53999999999999992</v>
       </c>
-      <c r="AK10" s="27">
+      <c r="AL10" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:38">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -10648,7 +10710,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>14.8</v>
       </c>
       <c r="K11" s="11"/>
@@ -10680,16 +10742,17 @@
         <v>0.27</v>
       </c>
       <c r="AI11" s="20"/>
-      <c r="AJ11" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.37</v>
       </c>
-      <c r="AK11" s="27">
+      <c r="AL11" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>29.6</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -10720,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="K12" s="11">
@@ -10770,16 +10833,17 @@
         <v>0.03</v>
       </c>
       <c r="AI12" s="20"/>
-      <c r="AJ12" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK12" s="27">
+      <c r="AL12" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:38">
       <c r="A13" s="3" t="s">
         <v>190</v>
       </c>
@@ -10810,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.9999999999999998</v>
       </c>
       <c r="K13" s="11">
@@ -10860,16 +10924,17 @@
       </c>
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
-      <c r="AJ13" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="AK13" s="27">
+      <c r="AL13" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:38">
       <c r="A14" s="3" t="s">
         <v>190</v>
       </c>
@@ -10900,7 +10965,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K14" s="11">
@@ -10932,16 +10997,17 @@
       <c r="AG14" s="20"/>
       <c r="AH14" s="20"/>
       <c r="AI14" s="20"/>
-      <c r="AJ14" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK14" s="27">
+      <c r="AL14" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:38">
       <c r="A15" s="3" t="s">
         <v>190</v>
       </c>
@@ -10972,7 +11038,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K15" s="11">
@@ -11006,16 +11072,17 @@
       <c r="AI15" s="45">
         <v>0.3</v>
       </c>
-      <c r="AJ15" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ15" s="20"/>
       <c r="AK15" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL15" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:38">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -11046,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.8</v>
       </c>
       <c r="K16" s="11">
@@ -11086,16 +11153,17 @@
         <v>0.02</v>
       </c>
       <c r="AI16" s="20"/>
-      <c r="AJ16" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK16" s="27">
+      <c r="AL16" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:38">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -11126,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K17" s="11"/>
@@ -11156,16 +11224,17 @@
       <c r="AG17" s="20"/>
       <c r="AH17" s="20"/>
       <c r="AI17" s="20"/>
-      <c r="AJ17" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK17" s="27">
+      <c r="AL17" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:38">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -11196,7 +11265,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>-18</v>
       </c>
       <c r="K18" s="11"/>
@@ -11228,16 +11297,17 @@
         <v>-1</v>
       </c>
       <c r="AI18" s="20"/>
-      <c r="AJ18" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>-0.9</v>
-      </c>
+      <c r="AJ18" s="20"/>
       <c r="AK18" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL18" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>-18</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:38">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -11268,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K19" s="11"/>
@@ -11304,16 +11374,17 @@
       </c>
       <c r="AH19" s="20"/>
       <c r="AI19" s="20"/>
-      <c r="AJ19" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AK19" s="27">
+      <c r="AL19" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:38">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -11344,7 +11415,7 @@
         <v>6</v>
       </c>
       <c r="J20" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
       <c r="K20" s="11"/>
@@ -11374,16 +11445,17 @@
       <c r="AG20" s="20"/>
       <c r="AH20" s="20"/>
       <c r="AI20" s="20"/>
-      <c r="AJ20" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.05</v>
       </c>
-      <c r="AK20" s="27">
+      <c r="AL20" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:38">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -11414,7 +11486,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K21" s="11"/>
@@ -11444,16 +11516,17 @@
         <v>0.2</v>
       </c>
       <c r="AI21" s="20"/>
-      <c r="AJ21" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK21" s="27">
+      <c r="AL21" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:38">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -11484,7 +11557,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="K22" s="11">
@@ -11534,16 +11607,17 @@
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
       <c r="AI22" s="20"/>
-      <c r="AJ22" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK22" s="27">
+      <c r="AL22" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:38">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -11574,7 +11648,7 @@
         <v>3</v>
       </c>
       <c r="J23" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>12</v>
       </c>
       <c r="K23" s="11">
@@ -11608,16 +11682,17 @@
       <c r="AG23" s="20"/>
       <c r="AH23" s="20"/>
       <c r="AI23" s="20"/>
-      <c r="AJ23" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK23" s="27">
+      <c r="AL23" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:38">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -11648,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.88888888888888895</v>
       </c>
       <c r="K24" s="11">
@@ -11705,16 +11780,17 @@
       <c r="AG24" s="20"/>
       <c r="AH24" s="20"/>
       <c r="AI24" s="20"/>
-      <c r="AJ24" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK24" s="27">
+      <c r="AL24" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:38">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -11745,7 +11821,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K25" s="11">
@@ -11777,16 +11853,17 @@
       <c r="AG25" s="20"/>
       <c r="AH25" s="20"/>
       <c r="AI25" s="20"/>
-      <c r="AJ25" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK25" s="27">
+      <c r="AL25" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:38">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -11817,7 +11894,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10.8</v>
       </c>
       <c r="K26" s="11">
@@ -11851,16 +11928,17 @@
       <c r="AG26" s="20"/>
       <c r="AH26" s="20"/>
       <c r="AI26" s="20"/>
-      <c r="AJ26" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.54</v>
       </c>
-      <c r="AK26" s="27">
+      <c r="AL26" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:38">
       <c r="A27" s="4" t="s">
         <v>50</v>
       </c>
@@ -11891,7 +11969,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K27" s="11">
@@ -11923,16 +12001,17 @@
       <c r="AG27" s="20"/>
       <c r="AH27" s="20"/>
       <c r="AI27" s="20"/>
-      <c r="AJ27" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK27" s="27">
+      <c r="AL27" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:38">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -11963,7 +12042,7 @@
         <v>3</v>
       </c>
       <c r="J28" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>12</v>
       </c>
       <c r="K28" s="11">
@@ -11995,16 +12074,17 @@
       <c r="AG28" s="20"/>
       <c r="AH28" s="20"/>
       <c r="AI28" s="20"/>
-      <c r="AJ28" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK28" s="27">
+      <c r="AL28" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:38">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -12035,7 +12115,7 @@
         <v>11</v>
       </c>
       <c r="J29" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2.4</v>
       </c>
       <c r="K29" s="11">
@@ -12067,16 +12147,17 @@
       <c r="AG29" s="20"/>
       <c r="AH29" s="20"/>
       <c r="AI29" s="20"/>
-      <c r="AJ29" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.06</v>
       </c>
-      <c r="AK29" s="27">
+      <c r="AL29" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:38">
       <c r="A30" s="4" t="s">
         <v>238</v>
       </c>
@@ -12107,7 +12188,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="K30" s="11">
@@ -12157,16 +12238,17 @@
       <c r="AG30" s="20"/>
       <c r="AH30" s="20"/>
       <c r="AI30" s="20"/>
-      <c r="AJ30" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK30" s="27">
+      <c r="AL30" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:38">
       <c r="A31" s="4" t="s">
         <v>238</v>
       </c>
@@ -12197,7 +12279,7 @@
         <v>3</v>
       </c>
       <c r="J31" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="K31" s="11">
@@ -12233,16 +12315,17 @@
       <c r="AG31" s="20"/>
       <c r="AH31" s="20"/>
       <c r="AI31" s="20"/>
-      <c r="AJ31" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ31" s="20"/>
       <c r="AK31" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL31" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:38">
       <c r="A32" s="4" t="s">
         <v>238</v>
       </c>
@@ -12271,7 +12354,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>20</v>
       </c>
       <c r="K32" s="11">
@@ -12303,16 +12386,17 @@
       <c r="AG32" s="20"/>
       <c r="AH32" s="20"/>
       <c r="AI32" s="20"/>
-      <c r="AJ32" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.5</v>
       </c>
-      <c r="AK32" s="27">
+      <c r="AL32" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:38">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12343,7 +12427,7 @@
         <v>3</v>
       </c>
       <c r="J33" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K33" s="11">
@@ -12381,16 +12465,17 @@
       <c r="AG33" s="20"/>
       <c r="AH33" s="20"/>
       <c r="AI33" s="20"/>
-      <c r="AJ33" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ33" s="20"/>
       <c r="AK33" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL33" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:38">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -12421,7 +12506,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="K34" s="11"/>
@@ -12467,16 +12552,17 @@
       <c r="AG34" s="20"/>
       <c r="AH34" s="20"/>
       <c r="AI34" s="20"/>
-      <c r="AJ34" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.27</v>
-      </c>
+      <c r="AJ34" s="20"/>
       <c r="AK34" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10.8</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:38">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -12507,7 +12593,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K35" s="11">
@@ -12545,16 +12631,17 @@
       <c r="AG35" s="20"/>
       <c r="AH35" s="20"/>
       <c r="AI35" s="20"/>
-      <c r="AJ35" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ35" s="20"/>
       <c r="AK35" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.38</v>
+      </c>
+      <c r="AL35" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:38">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -12585,7 +12672,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K36" s="11">
@@ -12619,16 +12706,17 @@
       <c r="AG36" s="20"/>
       <c r="AH36" s="20"/>
       <c r="AI36" s="20"/>
-      <c r="AJ36" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ36" s="20"/>
       <c r="AK36" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL36" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:38">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -12659,7 +12747,7 @@
         <v>9</v>
       </c>
       <c r="J37" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>6</v>
       </c>
       <c r="K37" s="11">
@@ -12691,16 +12779,17 @@
       <c r="AG37" s="20"/>
       <c r="AH37" s="20"/>
       <c r="AI37" s="20"/>
-      <c r="AJ37" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.15</v>
       </c>
-      <c r="AK37" s="27">
+      <c r="AL37" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="14.65" customHeight="1">
+    <row r="38" spans="1:38" ht="14.65" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
@@ -12731,7 +12820,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
       <c r="K38" s="11">
@@ -12771,16 +12860,17 @@
       <c r="AG38" s="20"/>
       <c r="AH38" s="20"/>
       <c r="AI38" s="20"/>
-      <c r="AJ38" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.25</v>
       </c>
-      <c r="AK38" s="27">
+      <c r="AL38" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -12811,7 +12901,7 @@
         <v>5</v>
       </c>
       <c r="J39" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10</v>
       </c>
       <c r="K39" s="11"/>
@@ -12841,16 +12931,17 @@
       <c r="AG39" s="20"/>
       <c r="AH39" s="20"/>
       <c r="AI39" s="20"/>
-      <c r="AJ39" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.25</v>
       </c>
-      <c r="AK39" s="27">
+      <c r="AL39" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -12881,7 +12972,7 @@
         <v>3</v>
       </c>
       <c r="J40" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8.0000000000000018</v>
       </c>
       <c r="K40" s="11">
@@ -12917,16 +13008,17 @@
       <c r="AG40" s="22"/>
       <c r="AH40" s="22"/>
       <c r="AI40" s="20"/>
-      <c r="AJ40" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK40" s="27">
+      <c r="AL40" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:38">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
@@ -12957,7 +13049,7 @@
         <v>3</v>
       </c>
       <c r="J41" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K41" s="11">
@@ -12999,16 +13091,17 @@
       </c>
       <c r="AH41" s="20"/>
       <c r="AI41" s="20"/>
-      <c r="AJ41" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ41" s="20"/>
       <c r="AK41" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AL41" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:38">
       <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
@@ -13039,7 +13132,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K42" s="11">
@@ -13071,16 +13164,17 @@
       <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
       <c r="AI42" s="20"/>
-      <c r="AJ42" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.05</v>
       </c>
-      <c r="AK42" s="27">
+      <c r="AL42" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:38">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -13111,7 +13205,7 @@
         <v>11</v>
       </c>
       <c r="J43" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K43" s="11">
@@ -13143,16 +13237,17 @@
         <v>0.05</v>
       </c>
       <c r="AI43" s="20"/>
-      <c r="AJ43" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.05</v>
       </c>
-      <c r="AK43" s="27">
+      <c r="AL43" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:38">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -13183,7 +13278,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="K44" s="11">
@@ -13215,16 +13310,17 @@
         <v>0.3</v>
       </c>
       <c r="AI44" s="20"/>
-      <c r="AJ44" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK44" s="27">
+      <c r="AL44" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:38">
       <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
@@ -13255,7 +13351,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K45" s="11">
@@ -13293,16 +13389,17 @@
       <c r="AG45" s="22"/>
       <c r="AH45" s="22"/>
       <c r="AI45" s="22"/>
-      <c r="AJ45" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AK45" s="27">
+      <c r="AL45" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:38">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -13333,7 +13430,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K46" s="11"/>
@@ -13363,16 +13460,17 @@
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
       <c r="AI46" s="20"/>
-      <c r="AJ46" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK46" s="27">
+      <c r="AL46" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:38">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
@@ -13403,7 +13501,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
       <c r="K47" s="11">
@@ -13435,16 +13533,17 @@
       <c r="AG47" s="20"/>
       <c r="AH47" s="20"/>
       <c r="AI47" s="20"/>
-      <c r="AJ47" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK47" s="27">
+      <c r="AL47" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:38">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -13475,7 +13574,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="K48" s="11"/>
@@ -13505,16 +13604,17 @@
         <v>0.3</v>
       </c>
       <c r="AI48" s="20"/>
-      <c r="AJ48" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK48" s="27">
+      <c r="AL48" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:38">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -13545,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="K49" s="11">
@@ -13595,16 +13695,17 @@
       </c>
       <c r="AH49" s="20"/>
       <c r="AI49" s="20"/>
-      <c r="AJ49" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ49" s="20"/>
+      <c r="AK49" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK49" s="27">
+      <c r="AL49" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:38">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -13635,7 +13736,7 @@
         <v>3</v>
       </c>
       <c r="J50" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K50" s="11">
@@ -13669,16 +13770,17 @@
       <c r="AG50" s="20"/>
       <c r="AH50" s="20"/>
       <c r="AI50" s="20"/>
-      <c r="AJ50" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK50" s="27">
+      <c r="AL50" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:38">
       <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
@@ -13709,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4.0000000000000009</v>
       </c>
       <c r="K51" s="11"/>
@@ -13743,16 +13845,17 @@
       <c r="AG51" s="20"/>
       <c r="AH51" s="20"/>
       <c r="AI51" s="20"/>
-      <c r="AJ51" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK51" s="27">
+      <c r="AL51" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>12.000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:38">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -13783,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="J52" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="K52" s="11">
@@ -13833,16 +13936,17 @@
         <v>0.03</v>
       </c>
       <c r="AI52" s="20"/>
-      <c r="AJ52" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ52" s="20"/>
+      <c r="AK52" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK52" s="27">
+      <c r="AL52" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:38">
       <c r="A53" s="3" t="s">
         <v>92</v>
       </c>
@@ -13873,7 +13977,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K53" s="11"/>
@@ -13903,16 +14007,17 @@
       <c r="AG53" s="20"/>
       <c r="AH53" s="20"/>
       <c r="AI53" s="20"/>
-      <c r="AJ53" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ53" s="20"/>
+      <c r="AK53" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK53" s="27">
+      <c r="AL53" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:38">
       <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
@@ -13943,7 +14048,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K54" s="11"/>
@@ -13973,16 +14078,17 @@
       <c r="AI54" s="20">
         <v>0.1</v>
       </c>
-      <c r="AJ54" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ54" s="20"/>
+      <c r="AK54" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK54" s="27">
+      <c r="AL54" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:38">
       <c r="A55" s="3" t="s">
         <v>94</v>
       </c>
@@ -14013,7 +14119,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>3.5999999999999992</v>
       </c>
       <c r="K55" s="11">
@@ -14059,16 +14165,17 @@
       </c>
       <c r="AH55" s="20"/>
       <c r="AI55" s="20"/>
-      <c r="AJ55" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.71999999999999986</v>
       </c>
-      <c r="AK55" s="27">
+      <c r="AL55" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:38">
       <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
@@ -14099,7 +14206,7 @@
         <v>6</v>
       </c>
       <c r="J56" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>5.2</v>
       </c>
       <c r="K56" s="11"/>
@@ -14129,16 +14236,17 @@
       </c>
       <c r="AH56" s="20"/>
       <c r="AI56" s="20"/>
-      <c r="AJ56" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.13</v>
       </c>
-      <c r="AK56" s="27">
+      <c r="AL56" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5.2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="14.65" customHeight="1">
+    <row r="57" spans="1:38" ht="14.65" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>94</v>
       </c>
@@ -14169,7 +14277,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
       <c r="K57" s="11">
@@ -14201,16 +14309,17 @@
         <v>0.05</v>
       </c>
       <c r="AI57" s="20"/>
-      <c r="AJ57" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ57" s="20"/>
+      <c r="AK57" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.05</v>
       </c>
-      <c r="AK57" s="27">
+      <c r="AL57" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:38">
       <c r="A58" s="3" t="s">
         <v>94</v>
       </c>
@@ -14241,7 +14350,7 @@
         <v>9</v>
       </c>
       <c r="J58" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K58" s="11"/>
@@ -14271,16 +14380,17 @@
       </c>
       <c r="AH58" s="20"/>
       <c r="AI58" s="20"/>
-      <c r="AJ58" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ58" s="20"/>
+      <c r="AK58" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK58" s="27">
+      <c r="AL58" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="14.65" customHeight="1">
+    <row r="59" spans="1:38" ht="14.65" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>98</v>
       </c>
@@ -14311,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="J59" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>3.5999999999999992</v>
       </c>
       <c r="K59" s="11">
@@ -14357,16 +14467,17 @@
       </c>
       <c r="AH59" s="20"/>
       <c r="AI59" s="20"/>
-      <c r="AJ59" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ59" s="20"/>
+      <c r="AK59" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.71999999999999986</v>
       </c>
-      <c r="AK59" s="27">
+      <c r="AL59" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:38">
       <c r="A60" s="3" t="s">
         <v>98</v>
       </c>
@@ -14397,7 +14508,7 @@
         <v>6</v>
       </c>
       <c r="J60" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>5.2</v>
       </c>
       <c r="K60" s="11"/>
@@ -14427,16 +14538,17 @@
       </c>
       <c r="AH60" s="20"/>
       <c r="AI60" s="20"/>
-      <c r="AJ60" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ60" s="20"/>
+      <c r="AK60" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.13</v>
       </c>
-      <c r="AK60" s="27">
+      <c r="AL60" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5.2</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:38">
       <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
@@ -14467,7 +14579,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
       <c r="K61" s="11">
@@ -14499,16 +14611,17 @@
         <v>0.05</v>
       </c>
       <c r="AI61" s="20"/>
-      <c r="AJ61" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ61" s="20"/>
+      <c r="AK61" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.05</v>
       </c>
-      <c r="AK61" s="27">
+      <c r="AL61" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:38">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -14539,7 +14652,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K62" s="11"/>
@@ -14569,16 +14682,17 @@
       </c>
       <c r="AH62" s="20"/>
       <c r="AI62" s="20"/>
-      <c r="AJ62" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ62" s="20"/>
+      <c r="AK62" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK62" s="27">
+      <c r="AL62" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:38">
       <c r="A63" s="4" t="s">
         <v>1</v>
       </c>
@@ -14609,7 +14723,7 @@
         <v>1</v>
       </c>
       <c r="J63" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="K63" s="11">
@@ -14659,16 +14773,17 @@
       <c r="AG63" s="20"/>
       <c r="AH63" s="20"/>
       <c r="AI63" s="20"/>
-      <c r="AJ63" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ63" s="20"/>
+      <c r="AK63" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK63" s="27">
+      <c r="AL63" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:38">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
@@ -14699,7 +14814,7 @@
         <v>4</v>
       </c>
       <c r="J64" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K64" s="11"/>
@@ -14729,16 +14844,17 @@
       <c r="AG64" s="20"/>
       <c r="AH64" s="20"/>
       <c r="AI64" s="20"/>
-      <c r="AJ64" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ64" s="20"/>
+      <c r="AK64" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK64" s="27">
+      <c r="AL64" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:38">
       <c r="A65" s="4" t="s">
         <v>252</v>
       </c>
@@ -14769,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="K65" s="11">
@@ -14826,16 +14942,17 @@
       <c r="AG65" s="20"/>
       <c r="AH65" s="20"/>
       <c r="AI65" s="20"/>
-      <c r="AJ65" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ65" s="20"/>
+      <c r="AK65" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK65" s="27">
+      <c r="AL65" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:38">
       <c r="A66" s="4" t="s">
         <v>8</v>
       </c>
@@ -14866,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="K66" s="11">
@@ -14912,16 +15029,17 @@
       <c r="AG66" s="20"/>
       <c r="AH66" s="20"/>
       <c r="AI66" s="20"/>
-      <c r="AJ66" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AK66" s="27">
+      <c r="AL66" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:38">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -14952,7 +15070,7 @@
         <v>4</v>
       </c>
       <c r="J67" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
       <c r="K67" s="11">
@@ -14986,16 +15104,17 @@
       <c r="AG67" s="20"/>
       <c r="AH67" s="20"/>
       <c r="AI67" s="20"/>
-      <c r="AJ67" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ67" s="20"/>
+      <c r="AK67" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.8</v>
       </c>
-      <c r="AK67" s="27">
+      <c r="AL67" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:38">
       <c r="A68" s="4" t="s">
         <v>10</v>
       </c>
@@ -15026,7 +15145,7 @@
         <v>4</v>
       </c>
       <c r="J68" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K68" s="11"/>
@@ -15058,16 +15177,17 @@
       <c r="AG68" s="20"/>
       <c r="AH68" s="20"/>
       <c r="AI68" s="20"/>
-      <c r="AJ68" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ68" s="20"/>
+      <c r="AK68" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK68" s="27">
+      <c r="AL68" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:38">
       <c r="A69" s="4" t="s">
         <v>14</v>
       </c>
@@ -15098,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10</v>
       </c>
       <c r="K69" s="11"/>
@@ -15132,16 +15252,17 @@
       <c r="AG69" s="20"/>
       <c r="AH69" s="20"/>
       <c r="AI69" s="20"/>
-      <c r="AJ69" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ69" s="20"/>
+      <c r="AK69" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.75</v>
       </c>
-      <c r="AK69" s="27">
+      <c r="AL69" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:38">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -15172,7 +15293,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K70" s="11">
@@ -15204,16 +15325,17 @@
       <c r="AG70" s="20"/>
       <c r="AH70" s="20"/>
       <c r="AI70" s="20"/>
-      <c r="AJ70" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ70" s="20"/>
+      <c r="AK70" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK70" s="27">
+      <c r="AL70" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:38">
       <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
@@ -15244,7 +15366,7 @@
         <v>5</v>
       </c>
       <c r="J71" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>6</v>
       </c>
       <c r="K71" s="11">
@@ -15276,16 +15398,17 @@
       <c r="AG71" s="20"/>
       <c r="AH71" s="20"/>
       <c r="AI71" s="20"/>
-      <c r="AJ71" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ71" s="20"/>
+      <c r="AK71" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.15</v>
       </c>
-      <c r="AK71" s="27">
+      <c r="AL71" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:38">
       <c r="A72" s="4" t="s">
         <v>15</v>
       </c>
@@ -15316,7 +15439,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="K72" s="11">
@@ -15362,16 +15485,17 @@
       <c r="AG72" s="20"/>
       <c r="AH72" s="20"/>
       <c r="AI72" s="20"/>
-      <c r="AJ72" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AK72" s="27">
+      <c r="AL72" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:38">
       <c r="A73" s="4" t="s">
         <v>15</v>
       </c>
@@ -15402,7 +15526,7 @@
         <v>4</v>
       </c>
       <c r="J73" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
       <c r="K73" s="11">
@@ -15436,16 +15560,17 @@
       <c r="AG73" s="20"/>
       <c r="AH73" s="20"/>
       <c r="AI73" s="20"/>
-      <c r="AJ73" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.8</v>
       </c>
-      <c r="AK73" s="27">
+      <c r="AL73" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:38">
       <c r="A74" s="4" t="s">
         <v>16</v>
       </c>
@@ -15476,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.8</v>
       </c>
       <c r="K74" s="11">
@@ -15516,16 +15641,17 @@
       <c r="AG74" s="20"/>
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
-      <c r="AJ74" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK74" s="27">
+      <c r="AL74" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:38">
       <c r="A75" s="4" t="s">
         <v>16</v>
       </c>
@@ -15556,7 +15682,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K75" s="13"/>
@@ -15586,16 +15712,17 @@
       <c r="AG75" s="20"/>
       <c r="AH75" s="20"/>
       <c r="AI75" s="20"/>
-      <c r="AJ75" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK75" s="27">
+      <c r="AL75" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:38">
       <c r="A76" s="4" t="s">
         <v>18</v>
       </c>
@@ -15626,7 +15753,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="K76" s="11">
@@ -15676,16 +15803,17 @@
       <c r="AG76" s="20"/>
       <c r="AH76" s="20"/>
       <c r="AI76" s="20"/>
-      <c r="AJ76" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ76" s="20"/>
+      <c r="AK76" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AK76" s="27">
+      <c r="AL76" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:38">
       <c r="A77" s="4" t="s">
         <v>24</v>
       </c>
@@ -15716,7 +15844,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K77" s="11">
@@ -15748,16 +15876,17 @@
       <c r="AG77" s="20"/>
       <c r="AH77" s="20"/>
       <c r="AI77" s="20"/>
-      <c r="AJ77" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ77" s="20"/>
+      <c r="AK77" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK77" s="27">
+      <c r="AL77" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:38">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
@@ -15788,7 +15917,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K78" s="11">
@@ -15820,16 +15949,17 @@
       <c r="AG78" s="20"/>
       <c r="AH78" s="20"/>
       <c r="AI78" s="20"/>
-      <c r="AJ78" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ78" s="20"/>
+      <c r="AK78" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK78" s="27">
+      <c r="AL78" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:38">
       <c r="A79" s="4" t="s">
         <v>24</v>
       </c>
@@ -15860,7 +15990,7 @@
         <v>2</v>
       </c>
       <c r="J79" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K79" s="11">
@@ -15892,16 +16022,17 @@
       <c r="AG79" s="20"/>
       <c r="AH79" s="20"/>
       <c r="AI79" s="20"/>
-      <c r="AJ79" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ79" s="20"/>
+      <c r="AK79" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK79" s="27">
+      <c r="AL79" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:38">
       <c r="A80" s="4" t="s">
         <v>24</v>
       </c>
@@ -15932,7 +16063,7 @@
         <v>11</v>
       </c>
       <c r="J80" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
       <c r="K80" s="11">
@@ -15964,16 +16095,17 @@
       <c r="AG80" s="20"/>
       <c r="AH80" s="20"/>
       <c r="AI80" s="20"/>
-      <c r="AJ80" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ80" s="20"/>
+      <c r="AK80" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AK80" s="27">
+      <c r="AL80" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:38">
       <c r="A81" s="8" t="s">
         <v>21</v>
       </c>
@@ -16004,7 +16136,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K81" s="11"/>
@@ -16034,16 +16166,17 @@
       <c r="AG81" s="20"/>
       <c r="AH81" s="20"/>
       <c r="AI81" s="20"/>
-      <c r="AJ81" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ81" s="20"/>
+      <c r="AK81" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK81" s="27">
+      <c r="AL81" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:38">
       <c r="A82" s="8" t="s">
         <v>21</v>
       </c>
@@ -16074,7 +16207,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K82" s="11"/>
@@ -16104,16 +16237,17 @@
       <c r="AG82" s="20"/>
       <c r="AH82" s="20"/>
       <c r="AI82" s="20"/>
-      <c r="AJ82" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ82" s="20"/>
+      <c r="AK82" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK82" s="27">
+      <c r="AL82" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:38">
       <c r="A83" s="3" t="s">
         <v>109</v>
       </c>
@@ -16144,7 +16278,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="K83" s="11">
@@ -16194,16 +16328,17 @@
       </c>
       <c r="AH83" s="20"/>
       <c r="AI83" s="20"/>
-      <c r="AJ83" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ83" s="20"/>
+      <c r="AK83" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AK83" s="27">
+      <c r="AL83" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:38">
       <c r="A84" s="3" t="s">
         <v>109</v>
       </c>
@@ -16234,7 +16369,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>6.1333333333333337</v>
       </c>
       <c r="K84" s="11"/>
@@ -16268,16 +16403,17 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AI84" s="20"/>
-      <c r="AJ84" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.23</v>
       </c>
-      <c r="AK84" s="27">
+      <c r="AL84" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:38">
       <c r="A85" s="3" t="s">
         <v>191</v>
       </c>
@@ -16308,7 +16444,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K85" s="11"/>
@@ -16338,16 +16474,17 @@
       </c>
       <c r="AH85" s="20"/>
       <c r="AI85" s="20"/>
-      <c r="AJ85" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ85" s="20"/>
+      <c r="AK85" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK85" s="27">
+      <c r="AL85" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:38">
       <c r="A86" s="3" t="s">
         <v>111</v>
       </c>
@@ -16378,7 +16515,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.6</v>
       </c>
       <c r="K86" s="11"/>
@@ -16408,16 +16545,17 @@
       <c r="AG86" s="20"/>
       <c r="AH86" s="20"/>
       <c r="AI86" s="20"/>
-      <c r="AJ86" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ86" s="20"/>
+      <c r="AK86" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.04</v>
       </c>
-      <c r="AK86" s="27">
+      <c r="AL86" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1.6</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:38">
       <c r="A87" s="3" t="s">
         <v>111</v>
       </c>
@@ -16448,7 +16586,7 @@
         <v>2</v>
       </c>
       <c r="J87" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>6.4</v>
       </c>
       <c r="K87" s="11"/>
@@ -16478,16 +16616,17 @@
       <c r="AG87" s="20"/>
       <c r="AH87" s="20"/>
       <c r="AI87" s="20"/>
-      <c r="AJ87" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ87" s="20"/>
+      <c r="AK87" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.16</v>
       </c>
-      <c r="AK87" s="27">
+      <c r="AL87" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>6.4</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:38">
       <c r="A88" s="3" t="s">
         <v>192</v>
       </c>
@@ -16518,7 +16657,7 @@
         <v>6</v>
       </c>
       <c r="J88" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K88" s="11">
@@ -16550,16 +16689,17 @@
       <c r="AG88" s="20"/>
       <c r="AH88" s="20"/>
       <c r="AI88" s="20"/>
-      <c r="AJ88" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ88" s="20"/>
+      <c r="AK88" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK88" s="27">
+      <c r="AL88" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:38">
       <c r="A89" s="3" t="s">
         <v>192</v>
       </c>
@@ -16590,7 +16730,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K89" s="11">
@@ -16622,16 +16762,17 @@
         <v>0.2</v>
       </c>
       <c r="AI89" s="20"/>
-      <c r="AJ89" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ89" s="20"/>
+      <c r="AK89" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK89" s="27">
+      <c r="AL89" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:38">
       <c r="A90" s="3" t="s">
         <v>112</v>
       </c>
@@ -16662,7 +16803,7 @@
         <v>11</v>
       </c>
       <c r="J90" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>25.6</v>
       </c>
       <c r="K90" s="11">
@@ -16694,16 +16835,17 @@
       <c r="AI90" s="20">
         <v>0.64</v>
       </c>
-      <c r="AJ90" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ90" s="20"/>
+      <c r="AK90" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.64</v>
       </c>
-      <c r="AK90" s="27">
+      <c r="AL90" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:38">
       <c r="A91" s="3" t="s">
         <v>112</v>
       </c>
@@ -16734,7 +16876,7 @@
         <v>11</v>
       </c>
       <c r="J91" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K91" s="11">
@@ -16766,16 +16908,17 @@
       <c r="AI91" s="20">
         <v>0.1</v>
       </c>
-      <c r="AJ91" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ91" s="20"/>
+      <c r="AK91" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK91" s="27">
+      <c r="AL91" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:38">
       <c r="A92" s="3" t="s">
         <v>112</v>
       </c>
@@ -16806,7 +16949,7 @@
         <v>11</v>
       </c>
       <c r="J92" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K92" s="11">
@@ -16838,16 +16981,17 @@
       <c r="AI92" s="20">
         <v>0.1</v>
       </c>
-      <c r="AJ92" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK92" s="27">
+      <c r="AL92" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:38">
       <c r="A93" s="3" t="s">
         <v>103</v>
       </c>
@@ -16878,7 +17022,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K93" s="11"/>
@@ -16908,16 +17052,17 @@
       <c r="AG93" s="20"/>
       <c r="AH93" s="20"/>
       <c r="AI93" s="20"/>
-      <c r="AJ93" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ93" s="20"/>
+      <c r="AK93" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK93" s="27">
+      <c r="AL93" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:38">
       <c r="A94" s="3" t="s">
         <v>105</v>
       </c>
@@ -16948,7 +17093,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K94" s="11"/>
@@ -16978,16 +17123,17 @@
       <c r="AG94" s="20"/>
       <c r="AH94" s="20"/>
       <c r="AI94" s="20"/>
-      <c r="AJ94" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ94" s="20"/>
+      <c r="AK94" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK94" s="27">
+      <c r="AL94" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:38">
       <c r="A95" s="3" t="s">
         <v>107</v>
       </c>
@@ -17018,7 +17164,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K95" s="11">
@@ -17050,16 +17196,17 @@
       <c r="AG95" s="20"/>
       <c r="AH95" s="20"/>
       <c r="AI95" s="20"/>
-      <c r="AJ95" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ95" s="20"/>
+      <c r="AK95" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK95" s="27">
+      <c r="AL95" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:38">
       <c r="A96" s="3" t="s">
         <v>48</v>
       </c>
@@ -17090,7 +17237,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4.9999999999999982</v>
       </c>
       <c r="K96" s="11">
@@ -17169,16 +17316,17 @@
       <c r="AI96" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AJ96" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.99999999999999956</v>
-      </c>
+      <c r="AJ96" s="20"/>
       <c r="AK96" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL96" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:38">
       <c r="A97" s="9" t="s">
         <v>48</v>
       </c>
@@ -17207,7 +17355,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K97" s="11">
@@ -17243,16 +17391,17 @@
       <c r="AG97" s="20"/>
       <c r="AH97" s="20"/>
       <c r="AI97" s="20"/>
-      <c r="AJ97" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ97" s="20"/>
       <c r="AK97" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL97" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:38">
       <c r="A98" s="9" t="s">
         <v>48</v>
       </c>
@@ -17283,7 +17432,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K98" s="13">
@@ -17317,16 +17466,17 @@
       <c r="AI98" s="46">
         <v>-0.4</v>
       </c>
-      <c r="AJ98" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ98" s="20"/>
       <c r="AK98" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL98" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:38">
       <c r="A99" s="9" t="s">
         <v>48</v>
       </c>
@@ -17357,7 +17507,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="K99" s="11">
@@ -17389,16 +17539,17 @@
       <c r="AG99" s="20"/>
       <c r="AH99" s="20"/>
       <c r="AI99" s="20"/>
-      <c r="AJ99" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ99" s="20"/>
       <c r="AK99" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL99" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:38">
       <c r="A100" s="9" t="s">
         <v>48</v>
       </c>
@@ -17429,7 +17580,7 @@
         <v>11</v>
       </c>
       <c r="J100" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K100" s="11">
@@ -17463,16 +17614,17 @@
       <c r="AI100" s="46">
         <v>-0.4</v>
       </c>
-      <c r="AJ100" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ100" s="20"/>
       <c r="AK100" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL100" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:38">
       <c r="A101" s="9" t="s">
         <v>48</v>
       </c>
@@ -17503,7 +17655,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="K101" s="11">
@@ -17535,16 +17687,17 @@
       </c>
       <c r="AH101" s="20"/>
       <c r="AI101" s="20"/>
-      <c r="AJ101" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ101" s="20"/>
+      <c r="AK101" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK101" s="27">
+      <c r="AL101" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:38">
       <c r="A102" s="4" t="s">
         <v>64</v>
       </c>
@@ -17575,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="K102" s="11">
@@ -17635,16 +17788,17 @@
       <c r="AG102" s="20"/>
       <c r="AH102" s="20"/>
       <c r="AI102" s="20"/>
-      <c r="AJ102" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ102" s="20"/>
+      <c r="AK102" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK102" s="27">
+      <c r="AL102" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:38">
       <c r="A103" s="4" t="s">
         <v>64</v>
       </c>
@@ -17675,7 +17829,7 @@
         <v>4</v>
       </c>
       <c r="J103" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K103" s="11"/>
@@ -17705,16 +17859,17 @@
       <c r="AG103" s="20"/>
       <c r="AH103" s="20"/>
       <c r="AI103" s="20"/>
-      <c r="AJ103" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK103" s="27">
+      <c r="AL103" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:38">
       <c r="A104" s="4" t="s">
         <v>242</v>
       </c>
@@ -17745,7 +17900,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K104" s="11"/>
@@ -17775,16 +17930,17 @@
       <c r="AG104" s="20"/>
       <c r="AH104" s="20"/>
       <c r="AI104" s="20"/>
-      <c r="AJ104" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ104" s="20"/>
+      <c r="AK104" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK104" s="27">
+      <c r="AL104" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:38">
       <c r="A105" s="4" t="s">
         <v>242</v>
       </c>
@@ -17815,7 +17971,7 @@
         <v>3</v>
       </c>
       <c r="J105" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K105" s="11"/>
@@ -17845,16 +18001,17 @@
       <c r="AG105" s="20"/>
       <c r="AH105" s="20"/>
       <c r="AI105" s="20"/>
-      <c r="AJ105" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ105" s="20"/>
+      <c r="AK105" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK105" s="27">
+      <c r="AL105" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:38">
       <c r="A106" s="4" t="s">
         <v>66</v>
       </c>
@@ -17885,7 +18042,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10</v>
       </c>
       <c r="K106" s="11">
@@ -17917,16 +18074,17 @@
       <c r="AG106" s="20"/>
       <c r="AH106" s="20"/>
       <c r="AI106" s="20"/>
-      <c r="AJ106" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ106" s="20"/>
+      <c r="AK106" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.25</v>
       </c>
-      <c r="AK106" s="27">
+      <c r="AL106" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:38">
       <c r="A107" s="4" t="s">
         <v>66</v>
       </c>
@@ -17957,7 +18115,7 @@
         <v>4</v>
       </c>
       <c r="J107" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K107" s="11"/>
@@ -17987,16 +18145,17 @@
       <c r="AG107" s="20"/>
       <c r="AH107" s="20"/>
       <c r="AI107" s="20"/>
-      <c r="AJ107" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ107" s="20"/>
+      <c r="AK107" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK107" s="27">
+      <c r="AL107" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:38">
       <c r="A108" s="4" t="s">
         <v>69</v>
       </c>
@@ -18027,7 +18186,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="K108" s="11">
@@ -18077,16 +18236,17 @@
       <c r="AG108" s="20"/>
       <c r="AH108" s="20"/>
       <c r="AI108" s="20"/>
-      <c r="AJ108" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ108" s="20"/>
+      <c r="AK108" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK108" s="27">
+      <c r="AL108" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:38">
       <c r="A109" s="4" t="s">
         <v>69</v>
       </c>
@@ -18117,7 +18277,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4.8</v>
       </c>
       <c r="K109" s="11"/>
@@ -18149,16 +18309,17 @@
       <c r="AG109" s="20"/>
       <c r="AH109" s="20"/>
       <c r="AI109" s="20"/>
-      <c r="AJ109" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ109" s="20"/>
+      <c r="AK109" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.24</v>
       </c>
-      <c r="AK109" s="27">
+      <c r="AL109" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>9.6</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:38">
       <c r="A110" s="4" t="s">
         <v>72</v>
       </c>
@@ -18189,7 +18350,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.49999999999999994</v>
       </c>
       <c r="K110" s="11">
@@ -18235,16 +18396,17 @@
       <c r="AG110" s="20"/>
       <c r="AH110" s="20"/>
       <c r="AI110" s="20"/>
-      <c r="AJ110" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ110" s="20"/>
+      <c r="AK110" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK110" s="27">
+      <c r="AL110" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:38">
       <c r="A111" s="4" t="s">
         <v>72</v>
       </c>
@@ -18275,7 +18437,7 @@
         <v>4</v>
       </c>
       <c r="J111" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>14</v>
       </c>
       <c r="K111" s="11"/>
@@ -18305,16 +18467,17 @@
       <c r="AG111" s="20"/>
       <c r="AH111" s="20"/>
       <c r="AI111" s="20"/>
-      <c r="AJ111" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ111" s="20"/>
+      <c r="AK111" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.35</v>
       </c>
-      <c r="AK111" s="27">
+      <c r="AL111" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:38">
       <c r="A112" s="4" t="s">
         <v>72</v>
       </c>
@@ -18345,7 +18508,7 @@
         <v>4</v>
       </c>
       <c r="J112" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>20</v>
       </c>
       <c r="K112" s="11">
@@ -18377,16 +18540,17 @@
       <c r="AG112" s="20"/>
       <c r="AH112" s="20"/>
       <c r="AI112" s="20"/>
-      <c r="AJ112" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ112" s="20"/>
+      <c r="AK112" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.5</v>
       </c>
-      <c r="AK112" s="27">
+      <c r="AL112" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:37">
+    <row r="113" spans="1:38">
       <c r="A113" s="4" t="s">
         <v>74</v>
       </c>
@@ -18417,7 +18581,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="K113" s="11">
@@ -18467,16 +18631,17 @@
       <c r="AG113" s="20"/>
       <c r="AH113" s="20"/>
       <c r="AI113" s="20"/>
-      <c r="AJ113" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK113" s="27">
+      <c r="AL113" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:37">
+    <row r="114" spans="1:38">
       <c r="A114" s="4" t="s">
         <v>74</v>
       </c>
@@ -18507,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="J114" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K114" s="11"/>
@@ -18543,16 +18708,17 @@
       <c r="AG114" s="20"/>
       <c r="AH114" s="20"/>
       <c r="AI114" s="20"/>
-      <c r="AJ114" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ114" s="20"/>
+      <c r="AK114" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AK114" s="27">
+      <c r="AL114" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:37">
+    <row r="115" spans="1:38">
       <c r="A115" s="3" t="s">
         <v>193</v>
       </c>
@@ -18583,7 +18749,7 @@
         <v>3</v>
       </c>
       <c r="J115" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K115" s="11"/>
@@ -18613,16 +18779,17 @@
       <c r="AG115" s="20"/>
       <c r="AH115" s="20"/>
       <c r="AI115" s="20"/>
-      <c r="AJ115" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ115" s="20"/>
+      <c r="AK115" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK115" s="27">
+      <c r="AL115" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:37">
+    <row r="116" spans="1:38">
       <c r="A116" s="3" t="s">
         <v>194</v>
       </c>
@@ -18653,7 +18820,7 @@
         <v>4</v>
       </c>
       <c r="J116" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>6</v>
       </c>
       <c r="K116" s="11"/>
@@ -18685,16 +18852,17 @@
       <c r="AG116" s="20"/>
       <c r="AH116" s="20"/>
       <c r="AI116" s="20"/>
-      <c r="AJ116" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ116" s="20"/>
+      <c r="AK116" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK116" s="27">
+      <c r="AL116" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:37">
+    <row r="117" spans="1:38">
       <c r="A117" s="3" t="s">
         <v>195</v>
       </c>
@@ -18725,7 +18893,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="K117" s="11">
@@ -18775,16 +18943,17 @@
         <v>0.01</v>
       </c>
       <c r="AI117" s="20"/>
-      <c r="AJ117" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ117" s="20"/>
+      <c r="AK117" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK117" s="27">
+      <c r="AL117" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:37">
+    <row r="118" spans="1:38">
       <c r="A118" s="3" t="s">
         <v>195</v>
       </c>
@@ -18815,7 +18984,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K118" s="11"/>
@@ -18845,16 +19014,17 @@
       <c r="AG118" s="20"/>
       <c r="AH118" s="20"/>
       <c r="AI118" s="20"/>
-      <c r="AJ118" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ118" s="20"/>
+      <c r="AK118" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK118" s="27">
+      <c r="AL118" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:37">
+    <row r="119" spans="1:38">
       <c r="A119" s="3" t="s">
         <v>195</v>
       </c>
@@ -18885,7 +19055,7 @@
         <v>2</v>
       </c>
       <c r="J119" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>12</v>
       </c>
       <c r="K119" s="11">
@@ -18917,16 +19087,17 @@
       <c r="AG119" s="20"/>
       <c r="AH119" s="20"/>
       <c r="AI119" s="20"/>
-      <c r="AJ119" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ119" s="20"/>
+      <c r="AK119" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK119" s="27">
+      <c r="AL119" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:37">
+    <row r="120" spans="1:38">
       <c r="A120" s="3" t="s">
         <v>196</v>
       </c>
@@ -18957,7 +19128,7 @@
         <v>1</v>
       </c>
       <c r="J120" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.79999999999999982</v>
       </c>
       <c r="K120" s="11">
@@ -19007,16 +19178,17 @@
         <v>0.02</v>
       </c>
       <c r="AI120" s="20"/>
-      <c r="AJ120" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ120" s="20"/>
+      <c r="AK120" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.19999999999999998</v>
       </c>
-      <c r="AK120" s="27">
+      <c r="AL120" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:37">
+    <row r="121" spans="1:38">
       <c r="A121" s="3" t="s">
         <v>117</v>
       </c>
@@ -19047,7 +19219,7 @@
         <v>3</v>
       </c>
       <c r="J121" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
       <c r="K121" s="11"/>
@@ -19077,16 +19249,17 @@
       <c r="AG121" s="20"/>
       <c r="AH121" s="20"/>
       <c r="AI121" s="20"/>
-      <c r="AJ121" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ121" s="20"/>
+      <c r="AK121" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AK121" s="27">
+      <c r="AL121" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:37">
+    <row r="122" spans="1:38">
       <c r="A122" s="3" t="s">
         <v>117</v>
       </c>
@@ -19117,7 +19290,7 @@
         <v>3</v>
       </c>
       <c r="J122" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>22</v>
       </c>
       <c r="K122" s="11"/>
@@ -19147,16 +19320,17 @@
       </c>
       <c r="AH122" s="20"/>
       <c r="AI122" s="20"/>
-      <c r="AJ122" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AK122" s="27">
+      <c r="AL122" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:37">
+    <row r="123" spans="1:38">
       <c r="A123" s="3" t="s">
         <v>117</v>
       </c>
@@ -19187,7 +19361,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
       <c r="K123" s="11"/>
@@ -19217,16 +19391,17 @@
         <v>0.05</v>
       </c>
       <c r="AI123" s="20"/>
-      <c r="AJ123" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ123" s="20"/>
+      <c r="AK123" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.05</v>
       </c>
-      <c r="AK123" s="27">
+      <c r="AL123" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:37">
+    <row r="124" spans="1:38">
       <c r="A124" s="3" t="s">
         <v>243</v>
       </c>
@@ -19255,7 +19430,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="K124" s="11">
@@ -19305,16 +19480,17 @@
       </c>
       <c r="AH124" s="20"/>
       <c r="AI124" s="20"/>
-      <c r="AJ124" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ124" s="20"/>
+      <c r="AK124" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AK124" s="27">
+      <c r="AL124" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:37">
+    <row r="125" spans="1:38">
       <c r="A125" s="3" t="s">
         <v>243</v>
       </c>
@@ -19343,7 +19519,7 @@
         <v>4</v>
       </c>
       <c r="J125" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K125" s="11"/>
@@ -19375,16 +19551,17 @@
         <v>0.1</v>
       </c>
       <c r="AI125" s="20"/>
-      <c r="AJ125" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ125" s="20"/>
+      <c r="AK125" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK125" s="27">
+      <c r="AL125" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:37">
+    <row r="126" spans="1:38">
       <c r="A126" s="3" t="s">
         <v>119</v>
       </c>
@@ -19415,7 +19592,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1.5999999999999996</v>
       </c>
       <c r="K126" s="11">
@@ -19465,16 +19642,17 @@
         <v>0.04</v>
       </c>
       <c r="AI126" s="20"/>
-      <c r="AJ126" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ126" s="20"/>
+      <c r="AK126" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="AK126" s="27">
+      <c r="AL126" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:37">
+    <row r="127" spans="1:38">
       <c r="A127" s="3" t="s">
         <v>71</v>
       </c>
@@ -19503,7 +19681,7 @@
         <v>4</v>
       </c>
       <c r="J127" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>20</v>
       </c>
       <c r="K127" s="11">
@@ -19535,16 +19713,17 @@
       <c r="AI127" s="20">
         <v>0.5</v>
       </c>
-      <c r="AJ127" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ127" s="20"/>
+      <c r="AK127" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.5</v>
       </c>
-      <c r="AK127" s="27">
+      <c r="AL127" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:37">
+    <row r="128" spans="1:38">
       <c r="A128" s="3" t="s">
         <v>197</v>
       </c>
@@ -19575,7 +19754,7 @@
         <v>3</v>
       </c>
       <c r="J128" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
       <c r="K128" s="11"/>
@@ -19607,16 +19786,17 @@
         <v>0.1</v>
       </c>
       <c r="AI128" s="20"/>
-      <c r="AJ128" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ128" s="20"/>
+      <c r="AK128" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK128" s="27">
+      <c r="AL128" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:38">
       <c r="A129" s="3" t="s">
         <v>197</v>
       </c>
@@ -19647,7 +19827,7 @@
         <v>1</v>
       </c>
       <c r="J129" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K129" s="11"/>
@@ -19677,16 +19857,17 @@
       <c r="AG129" s="20"/>
       <c r="AH129" s="20"/>
       <c r="AI129" s="20"/>
-      <c r="AJ129" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ129" s="20"/>
+      <c r="AK129" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.2</v>
       </c>
-      <c r="AK129" s="27">
+      <c r="AL129" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:38">
       <c r="A130" s="3" t="s">
         <v>198</v>
       </c>
@@ -19715,7 +19896,7 @@
         <v>3</v>
       </c>
       <c r="J130" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>13.333333333333332</v>
       </c>
       <c r="K130" s="11"/>
@@ -19749,16 +19930,17 @@
         <v>0.4</v>
       </c>
       <c r="AI130" s="20"/>
-      <c r="AJ130" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ130" s="20"/>
+      <c r="AK130" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>1</v>
       </c>
-      <c r="AK130" s="27">
+      <c r="AL130" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:38">
       <c r="A131" s="3" t="s">
         <v>77</v>
       </c>
@@ -19770,7 +19952,7 @@
       </c>
       <c r="D131" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E131" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19789,7 +19971,7 @@
         <v>1</v>
       </c>
       <c r="J131" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>9.9999999999999964</v>
       </c>
       <c r="K131" s="11">
@@ -19868,16 +20050,17 @@
       <c r="AI131" s="20">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AJ131" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.99999999999999956</v>
-      </c>
+      <c r="AJ131" s="20"/>
       <c r="AK131" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL131" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>480</v>
       </c>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:38">
       <c r="A132" s="4" t="s">
         <v>77</v>
       </c>
@@ -19889,7 +20072,7 @@
       </c>
       <c r="D132" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E132" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19908,7 +20091,7 @@
         <v>1</v>
       </c>
       <c r="J132" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10</v>
       </c>
       <c r="K132" s="11">
@@ -19944,16 +20127,17 @@
       <c r="AG132" s="20"/>
       <c r="AH132" s="20"/>
       <c r="AI132" s="20"/>
-      <c r="AJ132" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.125</v>
-      </c>
+      <c r="AJ132" s="20"/>
       <c r="AK132" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL132" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:38">
       <c r="A133" s="4" t="s">
         <v>77</v>
       </c>
@@ -19965,7 +20149,7 @@
       </c>
       <c r="D133" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E133" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19984,7 +20168,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K133" s="11">
@@ -20018,16 +20202,17 @@
       <c r="AI133" s="46">
         <v>-0.25</v>
       </c>
-      <c r="AJ133" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ133" s="20"/>
       <c r="AK133" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AL133" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:38">
       <c r="A134" s="4" t="s">
         <v>77</v>
       </c>
@@ -20039,7 +20224,7 @@
       </c>
       <c r="D134" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E134" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20058,7 +20243,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="K134" s="11">
@@ -20090,16 +20275,17 @@
       <c r="AG134" s="20"/>
       <c r="AH134" s="20"/>
       <c r="AI134" s="20"/>
-      <c r="AJ134" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ134" s="20"/>
+      <c r="AK134" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK134" s="27">
+      <c r="AL134" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:37">
+    <row r="135" spans="1:38">
       <c r="A135" s="4" t="s">
         <v>77</v>
       </c>
@@ -20111,7 +20297,7 @@
       </c>
       <c r="D135" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E135" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20130,7 +20316,7 @@
         <v>11</v>
       </c>
       <c r="J135" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>48</v>
       </c>
       <c r="K135" s="11">
@@ -20162,16 +20348,17 @@
       <c r="AG135" s="20"/>
       <c r="AH135" s="20"/>
       <c r="AI135" s="20"/>
-      <c r="AJ135" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ135" s="20"/>
       <c r="AK135" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AL135" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:38">
       <c r="A136" s="4" t="s">
         <v>77</v>
       </c>
@@ -20183,7 +20370,7 @@
       </c>
       <c r="D136" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E136" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20202,7 +20389,7 @@
         <v>11</v>
       </c>
       <c r="J136" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0</v>
       </c>
       <c r="K136" s="11">
@@ -20236,82 +20423,62 @@
       <c r="AI136" s="46">
         <v>-0.4</v>
       </c>
-      <c r="AJ136" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0</v>
-      </c>
+      <c r="AJ136" s="20"/>
       <c r="AK136" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL136" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:38">
       <c r="A137" s="4" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C137" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D137" s="29">
+        <v>23</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137" s="52">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E137" s="29">
+      <c r="E137" s="52">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>256</v>
+        <v>60</v>
+      </c>
+      <c r="F137" s="51" t="s">
+        <v>210</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I137" s="11">
+        <v>321</v>
+      </c>
+      <c r="I137" s="51">
         <v>1</v>
       </c>
-      <c r="J137" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.142857142857143</v>
-      </c>
-      <c r="K137" s="11">
-        <v>0.5</v>
+      <c r="J137" s="53">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>36</v>
+      </c>
+      <c r="K137" s="51">
+        <v>15</v>
       </c>
       <c r="L137" s="18"/>
-      <c r="M137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="N137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="O137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="19"/>
       <c r="P137" s="18"/>
-      <c r="Q137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="R137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="S137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
-      <c r="T137" s="18">
-        <f>0.2/7</f>
-        <v>2.8571428571428574E-2</v>
-      </c>
+      <c r="Q137" s="18"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="18"/>
       <c r="U137" s="18"/>
       <c r="V137" s="18"/>
       <c r="W137" s="19"/>
@@ -20327,56 +20494,59 @@
       <c r="AG137" s="20"/>
       <c r="AH137" s="20"/>
       <c r="AI137" s="20"/>
-      <c r="AJ137" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AK137" s="27">
+      <c r="AJ137" s="20">
+        <v>0.15</v>
+      </c>
+      <c r="AK137" s="54">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="AL137" s="54">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:38">
       <c r="A138" s="4" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C138" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D138" s="29">
+        <v>23</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="D138" s="52">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E138" s="29">
+      <c r="E138" s="52">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>268</v>
+        <v>60</v>
+      </c>
+      <c r="F138" s="55" t="s">
+        <v>330</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="I138" s="11">
-        <v>2</v>
-      </c>
-      <c r="J138" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="K138" s="11"/>
+        <v>321</v>
+      </c>
+      <c r="I138" s="51">
+        <v>1</v>
+      </c>
+      <c r="J138" s="53">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>24</v>
+      </c>
+      <c r="K138" s="51">
+        <v>2</v>
+      </c>
       <c r="L138" s="18"/>
       <c r="M138" s="18"/>
       <c r="N138" s="18"/>
-      <c r="O138" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="O138" s="19"/>
       <c r="P138" s="18"/>
       <c r="Q138" s="18"/>
       <c r="R138" s="18"/>
@@ -20397,16 +20567,19 @@
       <c r="AG138" s="20"/>
       <c r="AH138" s="20"/>
       <c r="AI138" s="20"/>
-      <c r="AJ138" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
-      <c r="AK138" s="27">
+      <c r="AJ138" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="AK138" s="54">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL138" s="54">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:38">
       <c r="A139" s="4" t="s">
         <v>248</v>
       </c>
@@ -20414,7 +20587,7 @@
         <v>249</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D139" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20425,7 +20598,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>234</v>
@@ -20434,24 +20607,45 @@
         <v>319</v>
       </c>
       <c r="I139" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J139" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="K139" s="11"/>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>1.142857142857143</v>
+      </c>
+      <c r="K139" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="19"/>
+      <c r="M139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="N139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="O139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="T139" s="18"/>
+      <c r="Q139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="R139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="S139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
+      <c r="T139" s="18">
+        <f>0.2/7</f>
+        <v>2.8571428571428574E-2</v>
+      </c>
       <c r="U139" s="18"/>
       <c r="V139" s="18"/>
       <c r="W139" s="19"/>
@@ -20467,16 +20661,17 @@
       <c r="AG139" s="20"/>
       <c r="AH139" s="20"/>
       <c r="AI139" s="20"/>
-      <c r="AJ139" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ139" s="20"/>
       <c r="AK139" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AL139" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:37">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:38">
       <c r="A140" s="4" t="s">
         <v>248</v>
       </c>
@@ -20495,7 +20690,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>234</v>
@@ -20504,26 +20699,26 @@
         <v>319</v>
       </c>
       <c r="I140" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J140" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
       </c>
       <c r="K140" s="11"/>
       <c r="L140" s="18"/>
       <c r="M140" s="18"/>
       <c r="N140" s="18"/>
-      <c r="O140" s="19"/>
+      <c r="O140" s="19">
+        <v>0.2</v>
+      </c>
       <c r="P140" s="18"/>
       <c r="Q140" s="18"/>
       <c r="R140" s="18"/>
       <c r="S140" s="19"/>
       <c r="T140" s="18"/>
       <c r="U140" s="18"/>
-      <c r="V140" s="18">
-        <v>0.4</v>
-      </c>
+      <c r="V140" s="18"/>
       <c r="W140" s="19"/>
       <c r="X140" s="20"/>
       <c r="Y140" s="20"/>
@@ -20537,21 +20732,22 @@
       <c r="AG140" s="20"/>
       <c r="AH140" s="20"/>
       <c r="AI140" s="20"/>
-      <c r="AJ140" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
-      </c>
+      <c r="AJ140" s="20"/>
       <c r="AK140" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL140" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:38">
       <c r="A141" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>5</v>
@@ -20565,7 +20761,7 @@
         <v>10</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>234</v>
@@ -20574,11 +20770,11 @@
         <v>319</v>
       </c>
       <c r="I141" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J141" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
       </c>
       <c r="K141" s="11"/>
       <c r="L141" s="18"/>
@@ -20586,16 +20782,14 @@
       <c r="N141" s="18"/>
       <c r="O141" s="19"/>
       <c r="P141" s="18"/>
-      <c r="Q141" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="Q141" s="18"/>
       <c r="R141" s="18"/>
-      <c r="S141" s="19"/>
+      <c r="S141" s="19">
+        <v>0.2</v>
+      </c>
       <c r="T141" s="18"/>
       <c r="U141" s="18"/>
-      <c r="V141" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V141" s="18"/>
       <c r="W141" s="19"/>
       <c r="X141" s="20"/>
       <c r="Y141" s="20"/>
@@ -20609,21 +20803,22 @@
       <c r="AG141" s="20"/>
       <c r="AH141" s="20"/>
       <c r="AI141" s="20"/>
-      <c r="AJ141" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>1</v>
-      </c>
+      <c r="AJ141" s="20"/>
       <c r="AK141" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL141" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="1:37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:38">
       <c r="A142" s="4" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C142" s="11" t="s">
         <v>5</v>
@@ -20634,9 +20829,11 @@
       </c>
       <c r="E142" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F142" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>270</v>
+      </c>
       <c r="G142" s="11" t="s">
         <v>234</v>
       </c>
@@ -20644,18 +20841,16 @@
         <v>319</v>
       </c>
       <c r="I142" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>16</v>
       </c>
       <c r="K142" s="11"/>
       <c r="L142" s="18"/>
       <c r="M142" s="18"/>
-      <c r="N142" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="N142" s="18"/>
       <c r="O142" s="19"/>
       <c r="P142" s="18"/>
       <c r="Q142" s="18"/>
@@ -20663,7 +20858,9 @@
       <c r="S142" s="19"/>
       <c r="T142" s="18"/>
       <c r="U142" s="18"/>
-      <c r="V142" s="18"/>
+      <c r="V142" s="18">
+        <v>0.4</v>
+      </c>
       <c r="W142" s="19"/>
       <c r="X142" s="20"/>
       <c r="Y142" s="20"/>
@@ -20677,21 +20874,22 @@
       <c r="AG142" s="20"/>
       <c r="AH142" s="20"/>
       <c r="AI142" s="20"/>
-      <c r="AJ142" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
-      </c>
+      <c r="AJ142" s="20"/>
       <c r="AK142" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL142" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:38">
       <c r="A143" s="4" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="C143" s="11" t="s">
         <v>5</v>
@@ -20702,9 +20900,11 @@
       </c>
       <c r="E143" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
-      </c>
-      <c r="F143" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>208</v>
+      </c>
       <c r="G143" s="11" t="s">
         <v>234</v>
       </c>
@@ -20712,26 +20912,28 @@
         <v>319</v>
       </c>
       <c r="I143" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J143" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>20</v>
       </c>
       <c r="K143" s="11"/>
       <c r="L143" s="18"/>
       <c r="M143" s="18"/>
       <c r="N143" s="18"/>
       <c r="O143" s="19"/>
-      <c r="P143" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="Q143" s="18"/>
+      <c r="P143" s="18"/>
+      <c r="Q143" s="18">
+        <v>0.5</v>
+      </c>
       <c r="R143" s="18"/>
       <c r="S143" s="19"/>
       <c r="T143" s="18"/>
       <c r="U143" s="18"/>
-      <c r="V143" s="18"/>
+      <c r="V143" s="18">
+        <v>0.5</v>
+      </c>
       <c r="W143" s="19"/>
       <c r="X143" s="20"/>
       <c r="Y143" s="20"/>
@@ -20745,16 +20947,17 @@
       <c r="AG143" s="20"/>
       <c r="AH143" s="20"/>
       <c r="AI143" s="20"/>
-      <c r="AJ143" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
-      </c>
+      <c r="AJ143" s="20"/>
       <c r="AK143" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL143" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" spans="1:37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38">
       <c r="A144" s="4" t="s">
         <v>184</v>
       </c>
@@ -20780,21 +20983,21 @@
         <v>319</v>
       </c>
       <c r="I144" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
       <c r="K144" s="11"/>
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
+      <c r="N144" s="18">
+        <v>0.1</v>
+      </c>
       <c r="O144" s="19"/>
       <c r="P144" s="18"/>
-      <c r="Q144" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="Q144" s="18"/>
       <c r="R144" s="18"/>
       <c r="S144" s="19"/>
       <c r="T144" s="18"/>
@@ -20813,16 +21016,17 @@
       <c r="AG144" s="20"/>
       <c r="AH144" s="20"/>
       <c r="AI144" s="20"/>
-      <c r="AJ144" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ144" s="20"/>
+      <c r="AK144" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AK144" s="27">
+      <c r="AL144" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:38">
       <c r="A145" s="4" t="s">
         <v>184</v>
       </c>
@@ -20830,7 +21034,7 @@
         <v>187</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D145" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20848,10 +21052,10 @@
         <v>319</v>
       </c>
       <c r="I145" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J145" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
       <c r="K145" s="11"/>
@@ -20859,15 +21063,15 @@
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
       <c r="O145" s="19"/>
-      <c r="P145" s="18"/>
+      <c r="P145" s="18">
+        <v>0.3</v>
+      </c>
       <c r="Q145" s="18"/>
       <c r="R145" s="18"/>
       <c r="S145" s="19"/>
       <c r="T145" s="18"/>
       <c r="U145" s="18"/>
-      <c r="V145" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="V145" s="18"/>
       <c r="W145" s="19"/>
       <c r="X145" s="20"/>
       <c r="Y145" s="20"/>
@@ -20881,16 +21085,17 @@
       <c r="AG145" s="20"/>
       <c r="AH145" s="20"/>
       <c r="AI145" s="20"/>
-      <c r="AJ145" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ145" s="20"/>
+      <c r="AK145" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.3</v>
       </c>
-      <c r="AK145" s="27">
+      <c r="AL145" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:37">
+    <row r="146" spans="1:38">
       <c r="A146" s="4" t="s">
         <v>184</v>
       </c>
@@ -20898,7 +21103,7 @@
         <v>187</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D146" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20916,11 +21121,11 @@
         <v>319</v>
       </c>
       <c r="I146" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J146" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
       </c>
       <c r="K146" s="11"/>
       <c r="L146" s="18"/>
@@ -20928,14 +21133,14 @@
       <c r="N146" s="18"/>
       <c r="O146" s="19"/>
       <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
+      <c r="Q146" s="18">
+        <v>0.1</v>
+      </c>
       <c r="R146" s="18"/>
       <c r="S146" s="19"/>
       <c r="T146" s="18"/>
       <c r="U146" s="18"/>
-      <c r="V146" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="V146" s="18"/>
       <c r="W146" s="19"/>
       <c r="X146" s="20"/>
       <c r="Y146" s="20"/>
@@ -20949,24 +21154,25 @@
       <c r="AG146" s="20"/>
       <c r="AH146" s="20"/>
       <c r="AI146" s="20"/>
-      <c r="AJ146" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ146" s="20"/>
       <c r="AK146" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL146" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38">
       <c r="A147" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D147" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20984,11 +21190,11 @@
         <v>319</v>
       </c>
       <c r="I147" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J147" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>24</v>
       </c>
       <c r="K147" s="11"/>
       <c r="L147" s="18"/>
@@ -21001,13 +21207,13 @@
       <c r="S147" s="19"/>
       <c r="T147" s="18"/>
       <c r="U147" s="18"/>
-      <c r="V147" s="18"/>
+      <c r="V147" s="18">
+        <v>0.3</v>
+      </c>
       <c r="W147" s="19"/>
       <c r="X147" s="20"/>
       <c r="Y147" s="20"/>
-      <c r="Z147" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="Z147" s="20"/>
       <c r="AA147" s="20"/>
       <c r="AB147" s="20"/>
       <c r="AC147" s="20"/>
@@ -21017,24 +21223,25 @@
       <c r="AG147" s="20"/>
       <c r="AH147" s="20"/>
       <c r="AI147" s="20"/>
-      <c r="AJ147" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
-      </c>
+      <c r="AJ147" s="20"/>
       <c r="AK147" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL147" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="148" spans="1:37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38">
       <c r="A148" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D148" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21052,11 +21259,11 @@
         <v>319</v>
       </c>
       <c r="I148" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J148" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>16</v>
       </c>
       <c r="K148" s="11"/>
       <c r="L148" s="18"/>
@@ -21069,7 +21276,9 @@
       <c r="S148" s="19"/>
       <c r="T148" s="18"/>
       <c r="U148" s="18"/>
-      <c r="V148" s="18"/>
+      <c r="V148" s="18">
+        <v>0.2</v>
+      </c>
       <c r="W148" s="19"/>
       <c r="X148" s="20"/>
       <c r="Y148" s="20"/>
@@ -21077,24 +21286,23 @@
       <c r="AA148" s="20"/>
       <c r="AB148" s="20"/>
       <c r="AC148" s="20"/>
-      <c r="AD148" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AD148" s="20"/>
       <c r="AE148" s="20"/>
       <c r="AF148" s="20"/>
       <c r="AG148" s="20"/>
       <c r="AH148" s="20"/>
       <c r="AI148" s="20"/>
-      <c r="AJ148" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.3</v>
-      </c>
+      <c r="AJ148" s="20"/>
       <c r="AK148" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL148" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38">
       <c r="A149" s="4" t="s">
         <v>185</v>
       </c>
@@ -21102,7 +21310,7 @@
         <v>188</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="D149" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21120,11 +21328,11 @@
         <v>319</v>
       </c>
       <c r="I149" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J149" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
       </c>
       <c r="K149" s="11"/>
       <c r="L149" s="18"/>
@@ -21141,7 +21349,9 @@
       <c r="W149" s="19"/>
       <c r="X149" s="20"/>
       <c r="Y149" s="20"/>
-      <c r="Z149" s="20"/>
+      <c r="Z149" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AA149" s="20"/>
       <c r="AB149" s="20"/>
       <c r="AC149" s="20"/>
@@ -21149,20 +21359,19 @@
       <c r="AE149" s="20"/>
       <c r="AF149" s="20"/>
       <c r="AG149" s="20"/>
-      <c r="AH149" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AH149" s="20"/>
       <c r="AI149" s="20"/>
-      <c r="AJ149" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AJ149" s="20"/>
       <c r="AK149" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL149" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38">
       <c r="A150" s="4" t="s">
         <v>185</v>
       </c>
@@ -21188,11 +21397,11 @@
         <v>319</v>
       </c>
       <c r="I150" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J150" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>32</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>24</v>
       </c>
       <c r="K150" s="11"/>
       <c r="L150" s="18"/>
@@ -21213,56 +21422,55 @@
       <c r="AA150" s="20"/>
       <c r="AB150" s="20"/>
       <c r="AC150" s="20"/>
-      <c r="AD150" s="20"/>
+      <c r="AD150" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AE150" s="20"/>
       <c r="AF150" s="20"/>
       <c r="AG150" s="20"/>
       <c r="AH150" s="20"/>
-      <c r="AI150" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="AJ150" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.4</v>
-      </c>
+      <c r="AI150" s="20"/>
+      <c r="AJ150" s="20"/>
       <c r="AK150" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL150" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="151" spans="1:37">
-      <c r="A151" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B151" s="28" t="s">
-        <v>293</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38">
+      <c r="A151" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="D151" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E151" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>306</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F151" s="11"/>
       <c r="G151" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I151" s="11">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J151" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>16</v>
       </c>
       <c r="K151" s="11"/>
       <c r="L151" s="18"/>
@@ -21271,9 +21479,7 @@
       <c r="O151" s="19"/>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
-      <c r="R151" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="R151" s="18"/>
       <c r="S151" s="19"/>
       <c r="T151" s="18"/>
       <c r="U151" s="18"/>
@@ -21289,50 +21495,51 @@
       <c r="AE151" s="20"/>
       <c r="AF151" s="20"/>
       <c r="AG151" s="20"/>
-      <c r="AH151" s="20"/>
+      <c r="AH151" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AI151" s="20"/>
-      <c r="AJ151" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.1</v>
-      </c>
+      <c r="AJ151" s="20"/>
       <c r="AK151" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL151" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:37">
-      <c r="A152" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B152" s="28" t="s">
-        <v>293</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38">
+      <c r="A152" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C152" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D152" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E152" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>307</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F152" s="11"/>
       <c r="G152" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I152" s="11">
         <v>6</v>
       </c>
       <c r="J152" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>32</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="18"/>
@@ -21346,9 +21553,7 @@
       <c r="T152" s="18"/>
       <c r="U152" s="18"/>
       <c r="V152" s="18"/>
-      <c r="W152" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="W152" s="19"/>
       <c r="X152" s="20"/>
       <c r="Y152" s="20"/>
       <c r="Z152" s="20"/>
@@ -21360,49 +21565,52 @@
       <c r="AF152" s="20"/>
       <c r="AG152" s="20"/>
       <c r="AH152" s="20"/>
-      <c r="AI152" s="20"/>
-      <c r="AJ152" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.2</v>
-      </c>
+      <c r="AI152" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AJ152" s="20"/>
       <c r="AK152" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AL152" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:37">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38">
       <c r="A153" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D153" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E153" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I153" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J153" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>4</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="18"/>
@@ -21411,7 +21619,9 @@
       <c r="O153" s="19"/>
       <c r="P153" s="18"/>
       <c r="Q153" s="18"/>
-      <c r="R153" s="18"/>
+      <c r="R153" s="18">
+        <v>0.1</v>
+      </c>
       <c r="S153" s="19"/>
       <c r="T153" s="18"/>
       <c r="U153" s="18"/>
@@ -21427,52 +21637,51 @@
       <c r="AE153" s="20"/>
       <c r="AF153" s="20"/>
       <c r="AG153" s="20"/>
-      <c r="AH153" s="20">
-        <v>1</v>
-      </c>
+      <c r="AH153" s="20"/>
       <c r="AI153" s="20"/>
-      <c r="AJ153" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>1</v>
-      </c>
+      <c r="AJ153" s="20"/>
       <c r="AK153" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL153" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="154" spans="1:37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38">
       <c r="A154" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E154" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I154" s="11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J154" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>8</v>
       </c>
       <c r="K154" s="11"/>
       <c r="L154" s="18"/>
@@ -21486,7 +21695,9 @@
       <c r="T154" s="18"/>
       <c r="U154" s="18"/>
       <c r="V154" s="18"/>
-      <c r="W154" s="19"/>
+      <c r="W154" s="19">
+        <v>0.2</v>
+      </c>
       <c r="X154" s="20"/>
       <c r="Y154" s="20"/>
       <c r="Z154" s="20"/>
@@ -21497,28 +21708,27 @@
       <c r="AE154" s="20"/>
       <c r="AF154" s="20"/>
       <c r="AG154" s="20"/>
-      <c r="AH154" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AH154" s="20"/>
       <c r="AI154" s="20"/>
-      <c r="AJ154" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.5</v>
-      </c>
+      <c r="AJ154" s="20"/>
       <c r="AK154" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL154" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="155" spans="1:37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38">
       <c r="A155" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D155" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21526,10 +21736,10 @@
       </c>
       <c r="E155" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>234</v>
@@ -21541,7 +21751,7 @@
         <v>11</v>
       </c>
       <c r="J155" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K155" s="11"/>
@@ -21568,24 +21778,25 @@
       <c r="AF155" s="20"/>
       <c r="AG155" s="20"/>
       <c r="AH155" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI155" s="20"/>
-      <c r="AJ155" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>0.5</v>
-      </c>
+      <c r="AJ155" s="20"/>
       <c r="AK155" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL155" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:38">
       <c r="A156" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>5</v>
@@ -21599,7 +21810,7 @@
         <v>20</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>234</v>
@@ -21611,7 +21822,7 @@
         <v>11</v>
       </c>
       <c r="J156" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K156" s="11"/>
@@ -21625,9 +21836,7 @@
       <c r="S156" s="19"/>
       <c r="T156" s="18"/>
       <c r="U156" s="18"/>
-      <c r="V156" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V156" s="18"/>
       <c r="W156" s="19"/>
       <c r="X156" s="20"/>
       <c r="Y156" s="20"/>
@@ -21639,23 +21848,26 @@
       <c r="AE156" s="20"/>
       <c r="AF156" s="20"/>
       <c r="AG156" s="20"/>
-      <c r="AH156" s="20"/>
+      <c r="AH156" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AI156" s="20"/>
-      <c r="AJ156" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ156" s="20"/>
+      <c r="AK156" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.5</v>
       </c>
-      <c r="AK156" s="27">
+      <c r="AL156" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:38">
       <c r="A157" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>4</v>
@@ -21681,7 +21893,7 @@
         <v>11</v>
       </c>
       <c r="J157" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])*4*Table1[[#This Row],[Credits]]</f>
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K157" s="11"/>
@@ -21695,9 +21907,7 @@
       <c r="S157" s="19"/>
       <c r="T157" s="18"/>
       <c r="U157" s="18"/>
-      <c r="V157" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V157" s="18"/>
       <c r="W157" s="19"/>
       <c r="X157" s="20"/>
       <c r="Y157" s="20"/>
@@ -21709,13 +21919,158 @@
       <c r="AE157" s="20"/>
       <c r="AF157" s="20"/>
       <c r="AG157" s="20"/>
-      <c r="AH157" s="20"/>
+      <c r="AH157" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AI157" s="20"/>
-      <c r="AJ157" s="27">
-        <f>SUM(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
+      <c r="AJ157" s="20"/>
+      <c r="AK157" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.5</v>
       </c>
-      <c r="AK157" s="27">
+      <c r="AL157" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38">
+      <c r="A158" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B158" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E158" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I158" s="11">
+        <v>11</v>
+      </c>
+      <c r="J158" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="K158" s="11"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="18"/>
+      <c r="Q158" s="18"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="19"/>
+      <c r="T158" s="18"/>
+      <c r="U158" s="18"/>
+      <c r="V158" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W158" s="19"/>
+      <c r="X158" s="20"/>
+      <c r="Y158" s="20"/>
+      <c r="Z158" s="20"/>
+      <c r="AA158" s="20"/>
+      <c r="AB158" s="20"/>
+      <c r="AC158" s="20"/>
+      <c r="AD158" s="20"/>
+      <c r="AE158" s="20"/>
+      <c r="AF158" s="20"/>
+      <c r="AG158" s="20"/>
+      <c r="AH158" s="20"/>
+      <c r="AI158" s="20"/>
+      <c r="AJ158" s="20"/>
+      <c r="AK158" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL158" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38">
+      <c r="A159" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D159" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>100</v>
+      </c>
+      <c r="E159" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F159" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G159" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="I159" s="11">
+        <v>11</v>
+      </c>
+      <c r="J159" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="K159" s="11"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
+      <c r="N159" s="18"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="18"/>
+      <c r="Q159" s="18"/>
+      <c r="R159" s="18"/>
+      <c r="S159" s="19"/>
+      <c r="T159" s="18"/>
+      <c r="U159" s="18"/>
+      <c r="V159" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W159" s="19"/>
+      <c r="X159" s="20"/>
+      <c r="Y159" s="20"/>
+      <c r="Z159" s="20"/>
+      <c r="AA159" s="20"/>
+      <c r="AB159" s="20"/>
+      <c r="AC159" s="20"/>
+      <c r="AD159" s="20"/>
+      <c r="AE159" s="20"/>
+      <c r="AF159" s="20"/>
+      <c r="AG159" s="20"/>
+      <c r="AH159" s="20"/>
+      <c r="AI159" s="20"/>
+      <c r="AJ159" s="20"/>
+      <c r="AK159" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL159" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>40</v>
       </c>
@@ -27896,8 +28251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28280,7 +28635,7 @@
       </c>
       <c r="W7">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -28335,7 +28690,7 @@
       </c>
       <c r="W8">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>-70</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -28675,7 +29030,7 @@
       </c>
       <c r="W15">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -28730,7 +29085,7 @@
       </c>
       <c r="W16">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -28783,7 +29138,7 @@
       </c>
       <c r="W17">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>15</v>
+        <v>73.000000000000014</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -28882,7 +29237,7 @@
       </c>
       <c r="W19">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>70</v>
+        <v>100.00000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -30245,7 +30600,7 @@
       </c>
       <c r="W45">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -31190,15 +31545,15 @@
         <v>0.5</v>
       </c>
       <c r="U62">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V62">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="W62">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -33254,13 +33609,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:E121">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="SEMD">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="SEMD">
       <formula>NOT(ISERROR(SEARCH("SEMD",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="SEM2">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="SEM2">
       <formula>NOT(ISERROR(SEARCH("SEM2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SEM1">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="SEM1">
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33287,10 +33642,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:T121">
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="664" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D85C26C7-4EDA-4407-B4C3-455302990678}"/>
+  <xr:revisionPtr revIDLastSave="715" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00C2773-A011-487D-80D5-9C245D55A718}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="49" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -860,9 +860,6 @@
     <t>Poster Pres</t>
   </si>
   <si>
-    <t>Task</t>
-  </si>
-  <si>
     <t>Class Test</t>
   </si>
   <si>
@@ -897,9 +894,6 @@
   </si>
   <si>
     <t>CA (*)</t>
-  </si>
-  <si>
-    <t>Application (*)</t>
   </si>
   <si>
     <t>Presentation (*)</t>
@@ -1036,6 +1030,12 @@
   <si>
     <t>Viva</t>
   </si>
+  <si>
+    <t>Weekly Tasks</t>
+  </si>
+  <si>
+    <t>Reflections (*)</t>
+  </si>
 </sst>
 </file>
 
@@ -1141,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1279,82 +1279,14 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="106">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1411,31 +1343,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri (Body)"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2639,6 +2546,56 @@
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -3261,6 +3218,31 @@
         <name val="Calibri (Body)"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri (Body)"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -8940,7 +8922,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9408,39 +9390,39 @@
     <tableColumn id="36" xr3:uid="{A7BF30F6-C808-4B8F-B3FF-9FAF20E2145A}" name="Summative" dataDxfId="94"/>
     <tableColumn id="37" xr3:uid="{F2060C32-39B6-4ADB-B712-F0770A906BCC}" name="Day of Week" dataDxfId="93"/>
     <tableColumn id="16" xr3:uid="{E6637FEB-7F23-45F0-99D2-96D20DD2DAEF}" name="Duration" dataDxfId="92"/>
-    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="0">
+    <tableColumn id="31" xr3:uid="{FD1E9614-3960-4F72-BD42-711A4CC7BBA0}" name="Nominal Hours" dataDxfId="91">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="81"/>
-    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="80"/>
-    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="79"/>
-    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="78"/>
-    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="77"/>
-    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="76"/>
-    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="75"/>
-    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="74"/>
-    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="73"/>
-    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="72"/>
-    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="71"/>
-    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="70"/>
-    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="69"/>
-    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="68"/>
-    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="67"/>
-    <tableColumn id="38" xr3:uid="{5C4AEC3F-25E0-4753-84A1-AE07BF1BFF93}" name="Spring Exams" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="1">
+    <tableColumn id="32" xr3:uid="{E11C773A-511F-4D25-8636-C56C5B61ED90}" name="Hours" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{04E38F13-8347-412C-866C-6EFE6796253C}" name="Autumn Week 1" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{254D6A24-FC1B-44C7-A3DF-52DA2A250D31}" name="Autumn Week 2" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{9EB326C3-772E-4E56-89FB-BA3A00291293}" name="Autumn Week 3" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{94BC6C78-5A89-4267-B1C1-BFA70E5A9F34}" name="Autumn Week 4" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{CF3B6389-B559-4FE3-8B33-FEDB303382B1}" name="Autumn Week 5" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{8DD80B9C-D1B1-4CDE-A624-4CD3A15113DD}" name="Autumn Week 6" dataDxfId="84"/>
+    <tableColumn id="10" xr3:uid="{8C4EBEE4-01CB-4AD0-B594-F466CC36D370}" name="Autumn Week 7" dataDxfId="83"/>
+    <tableColumn id="11" xr3:uid="{7F8C91DE-BE61-47CF-A916-D06ED7B283E9}" name="Autumn Week 8" dataDxfId="82"/>
+    <tableColumn id="12" xr3:uid="{9D58139A-0F96-4203-8D22-58BC34744B87}" name="Autumn Week 9" dataDxfId="81"/>
+    <tableColumn id="13" xr3:uid="{43C545DF-9B9E-4080-8012-F9EFA0F01283}" name="Autumn Week 10" dataDxfId="80"/>
+    <tableColumn id="14" xr3:uid="{829AB976-2AB2-435C-8F11-DE08DACA4407}" name="Autumn Week 11" dataDxfId="79"/>
+    <tableColumn id="15" xr3:uid="{9126A0EA-FC34-4876-9D56-A0AC39C5526C}" name="Autumn Week 12" dataDxfId="78"/>
+    <tableColumn id="17" xr3:uid="{15B891EE-FCC8-4E53-A90D-3E10FFC1E9FA}" name="Spring Week 1" dataDxfId="77"/>
+    <tableColumn id="18" xr3:uid="{464CA212-3B53-4678-AFE4-8AF8308C1986}" name="Spring Week 2" dataDxfId="76"/>
+    <tableColumn id="19" xr3:uid="{B560E823-CC29-418C-B26C-52D9FFC8C72E}" name="Spring Week 3" dataDxfId="75"/>
+    <tableColumn id="20" xr3:uid="{D95606F3-E0A0-4907-91E0-4AD09D0C65CB}" name="Spring Week 4" dataDxfId="74"/>
+    <tableColumn id="21" xr3:uid="{E71FF892-9A4B-444C-8972-62D92F81B0E7}" name="Spring Week 5" dataDxfId="73"/>
+    <tableColumn id="22" xr3:uid="{C7775BA8-178A-4501-A8DE-2B2CF77A2451}" name="Spring Week 6" dataDxfId="72"/>
+    <tableColumn id="23" xr3:uid="{51A89A97-F839-4F50-88A9-65049D65C9B0}" name="Spring Week 7" dataDxfId="71"/>
+    <tableColumn id="24" xr3:uid="{26EE6D10-4FC4-49AE-8DE6-18AC556C293D}" name="Spring Week 8" dataDxfId="70"/>
+    <tableColumn id="25" xr3:uid="{FCB1B9FB-21DA-415A-86E6-C8E14F864E1B}" name="Spring Week 9" dataDxfId="69"/>
+    <tableColumn id="26" xr3:uid="{54402AE1-DC77-41BA-BCC7-28BCA7186B44}" name="Spring Week 10" dataDxfId="68"/>
+    <tableColumn id="27" xr3:uid="{31C092D1-BD77-4126-8E72-8E74D0D11509}" name="Spring Week 11" dataDxfId="67"/>
+    <tableColumn id="28" xr3:uid="{56D67770-E36A-46FE-97FA-76CD24229C51}" name="Spring Week 12" dataDxfId="66"/>
+    <tableColumn id="38" xr3:uid="{5C4AEC3F-25E0-4753-84A1-AE07BF1BFF93}" name="Spring Exams" dataDxfId="65"/>
+    <tableColumn id="29" xr3:uid="{785AD842-5ED0-4E27-B4B7-26E6FF9AC266}" name="Sub-total" dataDxfId="64">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="66">
+    <tableColumn id="35" xr3:uid="{EE5D0E71-7823-4EE2-9CC1-32BF500AB742}" name="Total Hours" dataDxfId="63">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9449,49 +9431,49 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A071F52D-AD51-4120-94C5-67D4117EBD07}" name="Table14" displayName="Table14" ref="A1:AE64" totalsRowShown="0" headerRowDxfId="62" dataDxfId="60" headerRowBorderDxfId="61" tableBorderDxfId="59" totalsRowBorderDxfId="58">
   <autoFilter ref="A1:AE64" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD64">
     <sortCondition ref="A1:A132"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="58"/>
-    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="57">
+    <tableColumn id="1" xr3:uid="{D7CE4D57-09F4-4B9D-B464-A087075D1C39}" name="Module Code" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{DE2920B2-70AC-48F3-99E7-07B70BC1E928}" name="Module Title" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{61946E7A-4C82-425B-89A6-3DBD530FCD55}" name="Contact type" dataDxfId="55"/>
+    <tableColumn id="34" xr3:uid="{55A68E2B-9324-4E9E-9629-6611EC7C904E}" name="Credits" dataDxfId="54">
       <calculatedColumnFormula>INDEX(Table2[Credits],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="56">
+    <tableColumn id="30" xr3:uid="{9C4C2C35-CE5A-4469-93FA-21FC6F57EDAD}" name="Semester" dataDxfId="53">
       <calculatedColumnFormula>INDEX(Table2[Semester],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="55">
+    <tableColumn id="31" xr3:uid="{A7B09E14-0C35-459D-A9D0-5143D8AFFE4E}" name="Nominal Hours" dataDxfId="52">
       <calculatedColumnFormula>INDEX(Table2[Contact Time],MATCH(Table14[[#This Row],[Module Code]],Table2[Module Code],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="48"/>
-    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="43"/>
-    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="42"/>
-    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="41"/>
-    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="40"/>
-    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="37"/>
-    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="35"/>
-    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="32"/>
-    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="31"/>
-    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{503822B3-8862-4FCD-9DD3-3B52F57A97BE}" name="Autumn Week 1" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{760391D0-3219-4B11-8E3D-3E00EEDFA9DD}" name="Autumn Week 2" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{6EE5E3E9-C4FB-49BE-932C-B84EA0A7970D}" name="Autumn Week 3" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{2C7AD515-480E-49A6-8076-95205ACF95EC}" name="Autumn Week 4" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{6FD8C5C6-433E-493B-BB28-5ADD15CFC7FB}" name="Autumn Week 5" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{801E6BE2-75F8-40A5-A263-0AAEFDAA63E7}" name="Autumn Week 6" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{976D463A-C6BC-4636-B732-53E6CDF3F6C7}" name="Autumn Week 7" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{D025F987-6302-4D7B-9A9A-636F867D1872}" name="Autumn Week 8" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{D30D10EE-2DE5-4659-AA67-2134D11D6119}" name="Autumn Week 9" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{35E8F713-2D13-47B7-9811-293DA89F0D62}" name="Autumn Week 10" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{5DD48606-F817-4B30-8BA1-A96457CBB489}" name="Autumn Week 11" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{9B982ED1-A4C5-4E87-99AB-70713F2B634E}" name="Autumn Week 12" dataDxfId="40"/>
+    <tableColumn id="17" xr3:uid="{3AFDFF11-D351-428A-AC16-E674EB9DD7CC}" name="Spring Week 1" dataDxfId="39"/>
+    <tableColumn id="18" xr3:uid="{1431E9F9-328E-4229-9377-39D94C660D67}" name="Spring Week 2" dataDxfId="38"/>
+    <tableColumn id="19" xr3:uid="{8E1051DB-2A93-4ABA-8317-8F9921CF483D}" name="Spring Week 3" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{98B745E4-C481-42FF-9D3B-0D0899BD3DB6}" name="Spring Week 4" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{2FC9B562-4622-444D-9372-5637BFE48E0A}" name="Spring Week 5" dataDxfId="35"/>
+    <tableColumn id="22" xr3:uid="{95778D77-82F1-4B00-8FED-6FEB2BF83C3D}" name="Spring Week 6" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{9A49A64C-9A09-47A0-BC65-A8C1C98DACA3}" name="Spring Week 7" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{191AACBA-3CF0-48E5-B522-FCD2CCE9AC99}" name="Spring Week 8" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{DC35B6C1-904B-4E6A-A04F-ADF850A50D85}" name="Spring Week 9" dataDxfId="31"/>
+    <tableColumn id="26" xr3:uid="{BEB9E86A-57BF-4A1E-A499-BADB9EAD1DE9}" name="Spring Week 10" dataDxfId="30"/>
+    <tableColumn id="27" xr3:uid="{D640FB81-F093-4E3F-B7A1-6995DDDD6305}" name="Spring Week 11" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{496FDC17-F0F2-4381-96DA-177DC578A786}" name="Spring Week 12" dataDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{65BCC67A-5DC9-4957-BB42-BCF5FCA71B17}" name="Total" dataDxfId="27">
       <calculatedColumnFormula>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9500,37 +9482,37 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}" name="Table2" displayName="Table2" ref="A1:W100" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25">
   <autoFilter ref="A1:W100" xr:uid="{4070B5A2-579F-42D6-AF31-642FC3F016DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="20"/>
-    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{A36A2B86-0F30-4188-9ECD-AE5BC71A59F4}" name="Module Code" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{D3F20037-EF35-4207-A530-484E1EB45719}" name="Module Title" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{40C22022-10B9-411F-9B76-B89140ABFFB2}" name="Alternative Module Code" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{CB12E405-1802-457C-AF17-F1B9CB3BBF13}" name="Source" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{EA737976-1AA7-49B6-8752-A388621554F4}" name="Semester" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{16DFC84F-5858-467D-B447-49992D721E4B}" name="Level" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{A17BC4BA-A3CB-442D-9BDC-D3B41B98B389}" name="Credits" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{FD7ED610-D6EC-4B93-B979-1E6C071D4AB2}" name="AllUG" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{7E25B4F4-1A7D-48D9-AAA2-AF5C97240797}" name="Physics" dataDxfId="15"/>
     <tableColumn id="17" xr3:uid="{AA3AE96F-2651-49D7-89AD-BA94806438AE}" name="PhysAstro"/>
-    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{9C7DD469-E550-411F-8467-246A1543FB38}" name="Astro" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{3C5D3AEB-487E-4678-A42F-BE4BA4D0E9AA}" name="MedPhys" dataDxfId="13"/>
     <tableColumn id="23" xr3:uid="{AF3E1EB3-2B73-43ED-85E9-1E8314E0F50D}" name="AllPG"/>
-    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{AE552873-9B31-41A6-B73C-D052477CA74C}" name="MScPhysics" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{8F51CE76-3A29-487A-A13C-FB63C79CF3E6}" name="MScAstro" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{443DB830-B47F-48D9-93EC-9DDA5086534B}" name="MScDataPhys" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{228F99C6-6D58-4321-9F11-706B965FD631}" name="MScDataAstro" dataDxfId="9"/>
     <tableColumn id="18" xr3:uid="{10668F71-1EDF-482E-86A5-46E1F3C15120}" name="MScCSPhysics"/>
     <tableColumn id="21" xr3:uid="{3CC5C4CC-6537-4363-AB9D-6A0F69456D30}" name="CDTCSPhysics"/>
     <tableColumn id="16" xr3:uid="{DB790F5F-BEF0-41CE-A68A-1AA9DF83D66B}" name="Contact Time"/>
-    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="10">
+    <tableColumn id="10" xr3:uid="{60774AFA-B365-4EB5-AAFF-6235868F8C97}" name="Exam Weight (%)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{537B7C75-E9C0-42F2-9F3C-6E960AB2D257}" name="CA weight" dataDxfId="7">
       <calculatedColumnFormula>100-Table2[[#This Row],[Exam Weight (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="9">
+    <tableColumn id="11" xr3:uid="{75DA2527-5A08-4ECE-B4E4-752A8F8BF059}" name="CA Check" dataDxfId="6">
       <calculatedColumnFormula>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9858,10 +9840,10 @@
   <dimension ref="A1:AL159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K138" sqref="K138"/>
+      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9901,7 +9883,7 @@
         <v>233</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>78</v>
@@ -9985,7 +9967,7 @@
         <v>177</v>
       </c>
       <c r="AJ1" s="42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AK1" s="43" t="s">
         <v>178</v>
@@ -10019,7 +10001,7 @@
         <v>234</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
@@ -10098,7 +10080,7 @@
         <v>234</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I3" s="11">
         <v>4</v>
@@ -10171,7 +10153,7 @@
         <v>234</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
@@ -10244,7 +10226,7 @@
         <v>234</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -10331,7 +10313,7 @@
         <v>234</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I6" s="11">
         <v>2</v>
@@ -10402,13 +10384,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I7" s="11">
         <v>3</v>
@@ -10479,7 +10461,7 @@
         <v>234</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I8" s="11">
         <v>3</v>
@@ -10550,7 +10532,7 @@
         <v>234</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I9" s="11">
         <v>1</v>
@@ -10621,7 +10603,7 @@
         <v>234</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I10" s="11">
         <v>2</v>
@@ -10704,7 +10686,7 @@
         <v>234</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I11" s="11">
         <v>3</v>
@@ -10777,7 +10759,7 @@
         <v>234</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I12" s="11">
         <v>4</v>
@@ -10868,7 +10850,7 @@
         <v>234</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
@@ -10953,13 +10935,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I14" s="11">
         <v>3</v>
@@ -11026,13 +11008,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I15" s="11">
         <v>2</v>
@@ -11107,7 +11089,7 @@
         <v>234</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I16" s="11">
         <v>1</v>
@@ -11182,13 +11164,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I17" s="11">
         <v>4</v>
@@ -11253,13 +11235,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I18" s="11">
         <v>4</v>
@@ -11332,7 +11314,7 @@
         <v>234</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I19" s="11">
         <v>2</v>
@@ -11409,7 +11391,7 @@
         <v>234</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I20" s="11">
         <v>6</v>
@@ -11480,7 +11462,7 @@
         <v>234</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I21" s="11">
         <v>6</v>
@@ -11551,7 +11533,7 @@
         <v>234</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I22" s="11">
         <v>1</v>
@@ -11642,7 +11624,7 @@
         <v>234</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I23" s="11">
         <v>3</v>
@@ -11717,7 +11699,7 @@
         <v>234</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I24" s="11">
         <v>1</v>
@@ -11815,7 +11797,7 @@
         <v>234</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I25" s="11">
         <v>3</v>
@@ -11888,7 +11870,7 @@
         <v>234</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I26" s="11">
         <v>3</v>
@@ -11963,7 +11945,7 @@
         <v>234</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I27" s="11">
         <v>1</v>
@@ -12036,7 +12018,7 @@
         <v>234</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I28" s="11">
         <v>3</v>
@@ -12109,7 +12091,7 @@
         <v>234</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I29" s="11">
         <v>11</v>
@@ -12182,7 +12164,7 @@
         <v>234</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I30" s="11">
         <v>1</v>
@@ -12267,13 +12249,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I31" s="11">
         <v>3</v>
@@ -12342,13 +12324,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I32" s="11">
         <v>1</v>
@@ -12415,13 +12397,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I33" s="11">
         <v>3</v>
@@ -12494,48 +12476,57 @@
         <v>10</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I34" s="11">
         <v>1</v>
       </c>
       <c r="J34" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.2000000000000002</v>
+        <v>0.44444444444444448</v>
       </c>
       <c r="K34" s="11"/>
       <c r="L34" s="18">
-        <v>0.03</v>
+        <f>0.1/9</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="M34" s="18">
-        <v>0.03</v>
+        <f t="shared" ref="M34:T34" si="0">0.1/9</f>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="N34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="O34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="P34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="Q34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="R34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="S34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="T34" s="18">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
@@ -12555,11 +12546,11 @@
       <c r="AJ34" s="20"/>
       <c r="AK34" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL34" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>10.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -12581,20 +12572,20 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I35" s="11">
         <v>2</v>
       </c>
       <c r="J35" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K35" s="11">
         <v>2</v>
@@ -12602,19 +12593,17 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
-      <c r="O35" s="50">
-        <v>-0.19</v>
-      </c>
-      <c r="P35" s="49">
-        <v>0.19</v>
-      </c>
+      <c r="O35" s="19">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P35" s="19"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
       <c r="S35" s="45">
-        <v>0.19</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="T35" s="46">
-        <v>-0.19</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
@@ -12634,7 +12623,7 @@
       <c r="AJ35" s="20"/>
       <c r="AK35" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="AL35" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -12660,13 +12649,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I36" s="11">
         <v>3</v>
@@ -12676,7 +12665,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -12684,14 +12673,14 @@
       <c r="O36" s="19"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="50">
+      <c r="R36" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="S36" s="49">
         <v>-0.2</v>
       </c>
       <c r="T36" s="18"/>
-      <c r="U36" s="45">
-        <v>0.2</v>
-      </c>
+      <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="19"/>
       <c r="X36" s="20"/>
@@ -12713,7 +12702,7 @@
       </c>
       <c r="AL36" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:38">
@@ -12735,23 +12724,23 @@
         <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I37" s="11">
         <v>9</v>
       </c>
       <c r="J37" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="K37" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -12763,10 +12752,10 @@
       <c r="S37" s="19"/>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
-      <c r="V37" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="W37" s="19"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="19">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
@@ -12782,11 +12771,11 @@
       <c r="AJ37" s="20"/>
       <c r="AK37" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AL37" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="14.65" customHeight="1">
@@ -12814,7 +12803,7 @@
         <v>234</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I38" s="11">
         <v>1</v>
@@ -12895,7 +12884,7 @@
         <v>234</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I39" s="11">
         <v>5</v>
@@ -12966,7 +12955,7 @@
         <v>234</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I40" s="11">
         <v>3</v>
@@ -13037,13 +13026,13 @@
         <v>20</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I41" s="11">
         <v>3</v>
@@ -13126,7 +13115,7 @@
         <v>234</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I42" s="11">
         <v>1</v>
@@ -13199,7 +13188,7 @@
         <v>234</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I43" s="11">
         <v>11</v>
@@ -13272,7 +13261,7 @@
         <v>234</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I44" s="11">
         <v>4</v>
@@ -13345,7 +13334,7 @@
         <v>234</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I45" s="11">
         <v>2</v>
@@ -13424,7 +13413,7 @@
         <v>234</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I46" s="11">
         <v>2</v>
@@ -13495,7 +13484,7 @@
         <v>234</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I47" s="11">
         <v>3</v>
@@ -13568,7 +13557,7 @@
         <v>234</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I48" s="11">
         <v>6</v>
@@ -13639,7 +13628,7 @@
         <v>234</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I49" s="11">
         <v>1</v>
@@ -13730,7 +13719,7 @@
         <v>234</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I50" s="11">
         <v>3</v>
@@ -13805,7 +13794,7 @@
         <v>234</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I51" s="11">
         <v>1</v>
@@ -13880,7 +13869,7 @@
         <v>234</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I52" s="11">
         <v>1</v>
@@ -13971,7 +13960,7 @@
         <v>234</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I53" s="11">
         <v>4</v>
@@ -14036,13 +14025,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I54" s="11">
         <v>4</v>
@@ -14113,7 +14102,7 @@
         <v>234</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I55" s="11">
         <v>1</v>
@@ -14200,7 +14189,7 @@
         <v>234</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I56" s="11">
         <v>6</v>
@@ -14271,7 +14260,7 @@
         <v>234</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I57" s="11">
         <v>1</v>
@@ -14344,7 +14333,7 @@
         <v>234</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I58" s="11">
         <v>9</v>
@@ -14415,7 +14404,7 @@
         <v>234</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I59" s="11">
         <v>1</v>
@@ -14502,7 +14491,7 @@
         <v>234</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I60" s="11">
         <v>6</v>
@@ -14573,7 +14562,7 @@
         <v>234</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I61" s="11">
         <v>1</v>
@@ -14646,7 +14635,7 @@
         <v>234</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I62" s="11">
         <v>1</v>
@@ -14717,7 +14706,7 @@
         <v>234</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I63" s="11">
         <v>1</v>
@@ -14808,7 +14797,7 @@
         <v>234</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I64" s="11">
         <v>4</v>
@@ -14879,7 +14868,7 @@
         <v>234</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I65" s="13">
         <v>1</v>
@@ -14897,35 +14886,35 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="N65" s="18">
-        <f t="shared" ref="N65:U65" si="0">0.3/9</f>
+        <f t="shared" ref="N65:U65" si="1">0.3/9</f>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="O65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="P65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="Q65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="R65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="S65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="T65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="U65" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="V65" s="18"/>
@@ -14977,7 +14966,7 @@
         <v>234</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I66" s="11">
         <v>1</v>
@@ -15064,7 +15053,7 @@
         <v>234</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I67" s="11">
         <v>4</v>
@@ -15139,7 +15128,7 @@
         <v>234</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I68" s="11">
         <v>4</v>
@@ -15212,7 +15201,7 @@
         <v>234</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I69" s="11">
         <v>1</v>
@@ -15287,7 +15276,7 @@
         <v>234</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I70" s="11">
         <v>1</v>
@@ -15360,7 +15349,7 @@
         <v>234</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I71" s="11">
         <v>5</v>
@@ -15433,7 +15422,7 @@
         <v>234</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I72" s="11">
         <v>1</v>
@@ -15520,7 +15509,7 @@
         <v>234</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="I73" s="11">
         <v>4</v>
@@ -15595,7 +15584,7 @@
         <v>234</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I74" s="13">
         <v>1</v>
@@ -15676,7 +15665,7 @@
         <v>234</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I75" s="13">
         <v>4</v>
@@ -15747,7 +15736,7 @@
         <v>234</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I76" s="11">
         <v>1</v>
@@ -15838,7 +15827,7 @@
         <v>234</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I77" s="11">
         <v>2</v>
@@ -15911,7 +15900,7 @@
         <v>234</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I78" s="11">
         <v>4</v>
@@ -15984,7 +15973,7 @@
         <v>234</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I79" s="11">
         <v>2</v>
@@ -16057,7 +16046,7 @@
         <v>234</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I80" s="11">
         <v>11</v>
@@ -16130,7 +16119,7 @@
         <v>234</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I81" s="11">
         <v>4</v>
@@ -16201,7 +16190,7 @@
         <v>234</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I82" s="11">
         <v>4</v>
@@ -16272,7 +16261,7 @@
         <v>234</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I83" s="11">
         <v>1</v>
@@ -16363,7 +16352,7 @@
         <v>234</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I84" s="11">
         <v>3</v>
@@ -16438,7 +16427,7 @@
         <v>234</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I85" s="11">
         <v>6</v>
@@ -16503,13 +16492,13 @@
         <v>10</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I86" s="11">
         <v>4</v>
@@ -16574,13 +16563,13 @@
         <v>10</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I87" s="11">
         <v>2</v>
@@ -16651,7 +16640,7 @@
         <v>234</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I88" s="11">
         <v>6</v>
@@ -16724,7 +16713,7 @@
         <v>234</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I89" s="11">
         <v>2</v>
@@ -16797,7 +16786,7 @@
         <v>234</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I90" s="11">
         <v>11</v>
@@ -16870,7 +16859,7 @@
         <v>234</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I91" s="11">
         <v>11</v>
@@ -16943,7 +16932,7 @@
         <v>234</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I92" s="11">
         <v>11</v>
@@ -17016,7 +17005,7 @@
         <v>234</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I93" s="11">
         <v>6</v>
@@ -17081,13 +17070,13 @@
         <v>10</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I94" s="11">
         <v>2</v>
@@ -17158,7 +17147,7 @@
         <v>234</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I95" s="11">
         <v>4</v>
@@ -17228,10 +17217,10 @@
         <v>235</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I96" s="11">
         <v>1</v>
@@ -17343,13 +17332,13 @@
         <v>30</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I97" s="11">
         <v>1</v>
@@ -17420,13 +17409,13 @@
         <v>30</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I98" s="13">
         <v>1</v>
@@ -17495,13 +17484,13 @@
         <v>30</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I99" s="11">
         <v>11</v>
@@ -17568,13 +17557,13 @@
         <v>30</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I100" s="11">
         <v>11</v>
@@ -17649,7 +17638,7 @@
         <v>234</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I101" s="11">
         <v>6</v>
@@ -17722,7 +17711,7 @@
         <v>234</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I102" s="11">
         <v>1</v>
@@ -17739,39 +17728,39 @@
         <v>0.01</v>
       </c>
       <c r="M102" s="18">
-        <f t="shared" ref="M102:U102" si="1">0.1/10</f>
+        <f t="shared" ref="M102:U102" si="2">0.1/10</f>
         <v>0.01</v>
       </c>
       <c r="N102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="O102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="P102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="Q102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="R102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="S102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="T102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="U102" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="V102" s="18"/>
@@ -17823,7 +17812,7 @@
         <v>234</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I103" s="11">
         <v>4</v>
@@ -17894,7 +17883,7 @@
         <v>234</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I104" s="11">
         <v>3</v>
@@ -17965,7 +17954,7 @@
         <v>234</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I105" s="11">
         <v>3</v>
@@ -18016,7 +18005,7 @@
         <v>66</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>124</v>
@@ -18036,7 +18025,7 @@
         <v>234</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I106" s="11">
         <v>2</v>
@@ -18089,7 +18078,7 @@
         <v>66</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>5</v>
@@ -18109,7 +18098,7 @@
         <v>234</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I107" s="11">
         <v>4</v>
@@ -18180,7 +18169,7 @@
         <v>234</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I108" s="11">
         <v>1</v>
@@ -18271,7 +18260,7 @@
         <v>234</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I109" s="11">
         <v>6</v>
@@ -18344,7 +18333,7 @@
         <v>234</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I110" s="11">
         <v>1</v>
@@ -18425,13 +18414,13 @@
         <v>10</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I111" s="11">
         <v>4</v>
@@ -18502,7 +18491,7 @@
         <v>234</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I112" s="11">
         <v>4</v>
@@ -18575,7 +18564,7 @@
         <v>234</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I113" s="11">
         <v>1</v>
@@ -18666,7 +18655,7 @@
         <v>234</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I114" s="11">
         <v>2</v>
@@ -18743,7 +18732,7 @@
         <v>234</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I115" s="11">
         <v>3</v>
@@ -18814,7 +18803,7 @@
         <v>234</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I116" s="11">
         <v>4</v>
@@ -18887,7 +18876,7 @@
         <v>234</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I117" s="11">
         <v>1</v>
@@ -18978,7 +18967,7 @@
         <v>234</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I118" s="11">
         <v>3</v>
@@ -19049,7 +19038,7 @@
         <v>234</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I119" s="11">
         <v>2</v>
@@ -19122,7 +19111,7 @@
         <v>234</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I120" s="11">
         <v>1</v>
@@ -19207,13 +19196,13 @@
         <v>10</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I121" s="11">
         <v>3</v>
@@ -19284,7 +19273,7 @@
         <v>234</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I122" s="11">
         <v>3</v>
@@ -19349,13 +19338,13 @@
         <v>10</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I123" s="11">
         <v>1</v>
@@ -19424,7 +19413,7 @@
         <v>234</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I124" s="11">
         <v>1</v>
@@ -19513,7 +19502,7 @@
         <v>234</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I125" s="11">
         <v>4</v>
@@ -19586,7 +19575,7 @@
         <v>234</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I126" s="11">
         <v>1</v>
@@ -19675,7 +19664,7 @@
         <v>234</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I127" s="11">
         <v>4</v>
@@ -19748,7 +19737,7 @@
         <v>234</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I128" s="11">
         <v>3</v>
@@ -19815,13 +19804,13 @@
         <v>10</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I129" s="11">
         <v>1</v>
@@ -19890,7 +19879,7 @@
         <v>234</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I130" s="11">
         <v>3</v>
@@ -19962,10 +19951,10 @@
         <v>236</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I131" s="11">
         <v>1</v>
@@ -20079,13 +20068,13 @@
         <v>60</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I132" s="11">
         <v>1</v>
@@ -20156,13 +20145,13 @@
         <v>60</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I133" s="11">
         <v>1</v>
@@ -20237,7 +20226,7 @@
         <v>234</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I134" s="11">
         <v>1</v>
@@ -20304,13 +20293,13 @@
         <v>60</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I135" s="11">
         <v>11</v>
@@ -20377,13 +20366,13 @@
         <v>60</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I136" s="11">
         <v>11</v>
@@ -20440,34 +20429,34 @@
       <c r="B137" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D137" s="52">
+      <c r="D137" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E137" s="52">
+      <c r="E137" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>60</v>
       </c>
-      <c r="F137" s="51" t="s">
+      <c r="F137" s="11" t="s">
         <v>210</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I137" s="51">
+        <v>319</v>
+      </c>
+      <c r="I137" s="11">
         <v>1</v>
       </c>
-      <c r="J137" s="53">
+      <c r="J137" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>36</v>
       </c>
-      <c r="K137" s="51">
+      <c r="K137" s="11">
         <v>15</v>
       </c>
       <c r="L137" s="18"/>
@@ -20497,11 +20486,11 @@
       <c r="AJ137" s="20">
         <v>0.15</v>
       </c>
-      <c r="AK137" s="54">
+      <c r="AK137" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.15</v>
       </c>
-      <c r="AL137" s="54">
+      <c r="AL137" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0</v>
       </c>
@@ -20513,34 +20502,34 @@
       <c r="B138" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C138" s="51" t="s">
-        <v>328</v>
-      </c>
-      <c r="D138" s="52">
+      <c r="C138" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D138" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E138" s="52">
+      <c r="E138" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>60</v>
       </c>
-      <c r="F138" s="55" t="s">
-        <v>330</v>
+      <c r="F138" s="37" t="s">
+        <v>328</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="I138" s="51">
+        <v>319</v>
+      </c>
+      <c r="I138" s="11">
         <v>1</v>
       </c>
-      <c r="J138" s="53">
+      <c r="J138" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>24</v>
       </c>
-      <c r="K138" s="51">
+      <c r="K138" s="11">
         <v>2</v>
       </c>
       <c r="L138" s="18"/>
@@ -20570,11 +20559,11 @@
       <c r="AJ138" s="20">
         <v>0.1</v>
       </c>
-      <c r="AK138" s="54">
+      <c r="AK138" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AL138" s="54">
+      <c r="AL138" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0</v>
       </c>
@@ -20604,7 +20593,7 @@
         <v>234</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I139" s="11">
         <v>1</v>
@@ -20696,7 +20685,7 @@
         <v>234</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I140" s="11">
         <v>2</v>
@@ -20767,7 +20756,7 @@
         <v>234</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I141" s="11">
         <v>4</v>
@@ -20838,7 +20827,7 @@
         <v>234</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I142" s="11">
         <v>3</v>
@@ -20909,7 +20898,7 @@
         <v>234</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I143" s="11">
         <v>5</v>
@@ -20980,7 +20969,7 @@
         <v>234</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I144" s="11">
         <v>2</v>
@@ -21049,7 +21038,7 @@
         <v>234</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I145" s="11">
         <v>4</v>
@@ -21118,7 +21107,7 @@
         <v>234</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I146" s="11">
         <v>3</v>
@@ -21187,7 +21176,7 @@
         <v>234</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I147" s="11">
         <v>6</v>
@@ -21256,7 +21245,7 @@
         <v>234</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I148" s="11">
         <v>6</v>
@@ -21325,7 +21314,7 @@
         <v>234</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I149" s="11">
         <v>3</v>
@@ -21394,7 +21383,7 @@
         <v>234</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I150" s="11">
         <v>7</v>
@@ -21463,7 +21452,7 @@
         <v>234</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I151" s="11">
         <v>11</v>
@@ -21532,7 +21521,7 @@
         <v>234</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I152" s="11">
         <v>6</v>
@@ -21580,10 +21569,10 @@
     </row>
     <row r="153" spans="1:38">
       <c r="A153" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>5</v>
@@ -21597,13 +21586,13 @@
         <v>10</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I153" s="11">
         <v>4</v>
@@ -21651,10 +21640,10 @@
     </row>
     <row r="154" spans="1:38">
       <c r="A154" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>5</v>
@@ -21668,13 +21657,13 @@
         <v>10</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I154" s="11">
         <v>6</v>
@@ -21722,10 +21711,10 @@
     </row>
     <row r="155" spans="1:38">
       <c r="A155" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>5</v>
@@ -21739,13 +21728,13 @@
         <v>10</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I155" s="11">
         <v>11</v>
@@ -21793,10 +21782,10 @@
     </row>
     <row r="156" spans="1:38">
       <c r="A156" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="B156" s="28" t="s">
-        <v>300</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>5</v>
@@ -21810,13 +21799,13 @@
         <v>20</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I156" s="11">
         <v>11</v>
@@ -21864,10 +21853,10 @@
     </row>
     <row r="157" spans="1:38">
       <c r="A157" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B157" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="B157" s="28" t="s">
-        <v>300</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>4</v>
@@ -21881,13 +21870,13 @@
         <v>20</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I157" s="11">
         <v>11</v>
@@ -21935,10 +21924,10 @@
     </row>
     <row r="158" spans="1:38">
       <c r="A158" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B158" s="28" t="s">
         <v>299</v>
-      </c>
-      <c r="B158" s="28" t="s">
-        <v>301</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>5</v>
@@ -21952,13 +21941,13 @@
         <v>20</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I158" s="11">
         <v>11</v>
@@ -22006,10 +21995,10 @@
     </row>
     <row r="159" spans="1:38">
       <c r="A159" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" s="28" t="s">
         <v>299</v>
-      </c>
-      <c r="B159" s="28" t="s">
-        <v>301</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>4</v>
@@ -22023,13 +22012,13 @@
         <v>20</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I159" s="11">
         <v>11</v>
@@ -28251,8 +28240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -28290,7 +28279,7 @@
         <v>143</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>141</v>
@@ -28305,7 +28294,7 @@
         <v>145</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>199</v>
@@ -28314,16 +28303,16 @@
         <v>200</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>245</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>217</v>
@@ -29138,7 +29127,7 @@
       </c>
       <c r="W17">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>73.000000000000014</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -30722,7 +30711,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>137</v>
@@ -32089,7 +32078,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>257</v>
@@ -33237,10 +33226,10 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="28" t="s">
@@ -33282,10 +33271,10 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="28" t="s">
@@ -33327,10 +33316,10 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="28" t="s">
@@ -33372,10 +33361,10 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>300</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="28" t="s">
@@ -33417,10 +33406,10 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="28" t="s">
@@ -33609,13 +33598,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:E121">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="SEMD">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="SEMD">
       <formula>NOT(ISERROR(SEARCH("SEMD",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="SEM2">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="SEM2">
       <formula>NOT(ISERROR(SEARCH("SEM2",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="SEM1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="SEM1">
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33642,10 +33631,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:T121">
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="16" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34057,7 +34046,7 @@
       </c>
       <c r="C18">
         <f>SUMIF(Table1[Module Code],Sheet2!A18,Table1[Total Hours])</f>
-        <v>38.799999999999997</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A18,Table14[Module Code],0))</f>
@@ -34065,11 +34054,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>60.8</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>6.08</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="715" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00C2773-A011-487D-80D5-9C245D55A718}"/>
+  <xr:revisionPtr revIDLastSave="932" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DA6460C-967D-4E04-903E-5136AFB530AC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="49" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="346">
   <si>
     <t>Module Code</t>
   </si>
@@ -827,9 +827,6 @@
     <t>Online test</t>
   </si>
   <si>
-    <t>sessions (prep)</t>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
@@ -837,12 +834,6 @@
   </si>
   <si>
     <t>Problem set</t>
-  </si>
-  <si>
-    <t>3min Pres</t>
-  </si>
-  <si>
-    <t>Group Pres</t>
   </si>
   <si>
     <t>Article</t>
@@ -855,9 +846,6 @@
   </si>
   <si>
     <t>Exercise 3</t>
-  </si>
-  <si>
-    <t>Poster Pres</t>
   </si>
   <si>
     <t>Class Test</t>
@@ -887,31 +875,10 @@
     <t>CA1</t>
   </si>
   <si>
-    <t>CA2 (*)</t>
-  </si>
-  <si>
     <t>Lab Diary (*)</t>
   </si>
   <si>
-    <t>CA (*)</t>
-  </si>
-  <si>
     <t>Presentation (*)</t>
-  </si>
-  <si>
-    <t>Assignment (*)</t>
-  </si>
-  <si>
-    <t>Final Report (*)</t>
-  </si>
-  <si>
-    <t>Final Diary (*)</t>
-  </si>
-  <si>
-    <t>Project Diary (*)</t>
-  </si>
-  <si>
-    <t>Project Report (*)</t>
   </si>
   <si>
     <t>ENT610</t>
@@ -962,22 +929,7 @@
     <t>CA 2</t>
   </si>
   <si>
-    <t>CA (TBC)</t>
-  </si>
-  <si>
-    <t>ML Project (TBC)</t>
-  </si>
-  <si>
-    <t>Class Test (TBC)</t>
-  </si>
-  <si>
-    <t>ML Methods (TBC)</t>
-  </si>
-  <si>
     <t>Abstract</t>
-  </si>
-  <si>
-    <t>Pres (+/- 1 week)</t>
   </si>
   <si>
     <t>AllUG</t>
@@ -998,28 +950,13 @@
     <t>Th</t>
   </si>
   <si>
-    <t>Presentation (Tutorial)</t>
-  </si>
-  <si>
     <t>(*)</t>
   </si>
   <si>
     <t>We</t>
   </si>
   <si>
-    <t>Pres</t>
-  </si>
-  <si>
     <t>Poster</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Su?</t>
-  </si>
-  <si>
-    <t>AstroPhotograph</t>
   </si>
   <si>
     <t>OA</t>
@@ -1028,13 +965,121 @@
     <t>Spring Exams</t>
   </si>
   <si>
-    <t>Viva</t>
+    <t>Fr</t>
   </si>
   <si>
-    <t>Weekly Tasks</t>
+    <t>Lab Report A</t>
   </si>
   <si>
-    <t>Reflections (*)</t>
+    <t>Lab Report B</t>
+  </si>
+  <si>
+    <t>Lab Report C</t>
+  </si>
+  <si>
+    <t>Pres (Tutorial) (*)</t>
+  </si>
+  <si>
+    <t>Data Analysis (*)</t>
+  </si>
+  <si>
+    <t>Workshop (*)</t>
+  </si>
+  <si>
+    <t>(TBC)</t>
+  </si>
+  <si>
+    <t>AstroPhoto (U/D)</t>
+  </si>
+  <si>
+    <t>CA2 (U/D)</t>
+  </si>
+  <si>
+    <t>Mo/Th</t>
+  </si>
+  <si>
+    <t>Assignment (U/D)</t>
+  </si>
+  <si>
+    <t>CA (U/D)</t>
+  </si>
+  <si>
+    <t>Reflections (U/D)</t>
+  </si>
+  <si>
+    <t>Presentation (U/D)</t>
+  </si>
+  <si>
+    <t>Poster Pres (*)</t>
+  </si>
+  <si>
+    <t>Th/Fr</t>
+  </si>
+  <si>
+    <t>Lab Diary (*) (U/D)</t>
+  </si>
+  <si>
+    <t>Workshops (*)</t>
+  </si>
+  <si>
+    <t>(Lab)</t>
+  </si>
+  <si>
+    <t>3min Pres (*)</t>
+  </si>
+  <si>
+    <t>Group Pres (*)</t>
+  </si>
+  <si>
+    <t>Lab Diary (P)</t>
+  </si>
+  <si>
+    <t>Weekly Tasks (P)</t>
+  </si>
+  <si>
+    <t>Workshop (P)</t>
+  </si>
+  <si>
+    <t>Pres (*) (+/- 1wk)</t>
+  </si>
+  <si>
+    <t>Final Diary (U/D)</t>
+  </si>
+  <si>
+    <t>Final Report (U/D)</t>
+  </si>
+  <si>
+    <t>Mo/We</t>
+  </si>
+  <si>
+    <t>Quiz (P)</t>
+  </si>
+  <si>
+    <t>Quiz (*)</t>
+  </si>
+  <si>
+    <t>Tu/Fr</t>
+  </si>
+  <si>
+    <t>Project Diary (U/D)</t>
+  </si>
+  <si>
+    <t>Project Report (U/D)</t>
+  </si>
+  <si>
+    <t>Viva (*)</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>ML Project</t>
+  </si>
+  <si>
+    <t>Class Test (*)</t>
+  </si>
+  <si>
+    <t>ML Methods</t>
   </si>
 </sst>
 </file>
@@ -8922,7 +8967,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9371,8 +9416,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL159" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
-  <autoFilter ref="A1:AL159" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL160" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+  <autoFilter ref="A1:AL160" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI136">
     <sortCondition ref="A1:A136"/>
   </sortState>
@@ -9837,30 +9882,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AL159"/>
+  <dimension ref="A1:AL160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.73046875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.06640625" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.06640625" style="16"/>
+    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.08984375" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.08984375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="28.5">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -9883,7 +9928,7 @@
         <v>233</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="I1" s="40" t="s">
         <v>78</v>
@@ -9967,7 +10012,7 @@
         <v>177</v>
       </c>
       <c r="AJ1" s="42" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="AK1" s="43" t="s">
         <v>178</v>
@@ -10001,7 +10046,7 @@
         <v>234</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I2" s="11">
         <v>1</v>
@@ -10074,13 +10119,13 @@
         <v>20</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I3" s="11">
         <v>4</v>
@@ -10153,7 +10198,7 @@
         <v>234</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I4" s="11">
         <v>3</v>
@@ -10226,7 +10271,7 @@
         <v>234</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -10313,7 +10358,7 @@
         <v>234</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I6" s="11">
         <v>2</v>
@@ -10384,13 +10429,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I7" s="11">
         <v>3</v>
@@ -10461,7 +10506,7 @@
         <v>234</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I8" s="11">
         <v>3</v>
@@ -10526,13 +10571,13 @@
         <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="I9" s="11">
         <v>1</v>
@@ -10597,13 +10642,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="I10" s="11">
         <v>2</v>
@@ -10686,7 +10731,7 @@
         <v>234</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I11" s="11">
         <v>3</v>
@@ -10759,7 +10804,7 @@
         <v>234</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I12" s="11">
         <v>4</v>
@@ -10844,13 +10889,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>222</v>
+        <v>313</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
@@ -10935,13 +10980,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="I14" s="11">
         <v>3</v>
@@ -11008,13 +11053,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I15" s="11">
         <v>2</v>
@@ -11089,7 +11134,7 @@
         <v>234</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I16" s="11">
         <v>1</v>
@@ -11164,13 +11209,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="I17" s="11">
         <v>4</v>
@@ -11235,13 +11280,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="I18" s="11">
         <v>4</v>
@@ -11314,7 +11359,7 @@
         <v>234</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I19" s="11">
         <v>2</v>
@@ -11385,13 +11430,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I20" s="11">
         <v>6</v>
@@ -11462,7 +11507,7 @@
         <v>234</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I21" s="11">
         <v>6</v>
@@ -11533,7 +11578,7 @@
         <v>234</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I22" s="11">
         <v>1</v>
@@ -11618,13 +11663,13 @@
         <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="I23" s="11">
         <v>3</v>
@@ -11699,7 +11744,7 @@
         <v>234</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I24" s="11">
         <v>1</v>
@@ -11791,13 +11836,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I25" s="11">
         <v>3</v>
@@ -11864,13 +11909,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I26" s="11">
         <v>3</v>
@@ -11939,13 +11984,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I27" s="11">
         <v>1</v>
@@ -12018,7 +12063,7 @@
         <v>234</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I28" s="11">
         <v>3</v>
@@ -12085,13 +12130,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I29" s="11">
         <v>11</v>
@@ -12158,13 +12203,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I30" s="11">
         <v>1</v>
@@ -12249,13 +12294,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I31" s="11">
         <v>3</v>
@@ -12314,7 +12359,9 @@
       <c r="B32" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="D32" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
@@ -12324,13 +12371,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I32" s="11">
         <v>1</v>
@@ -12397,13 +12444,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I33" s="11">
         <v>3</v>
@@ -12476,13 +12523,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="I34" s="11">
         <v>1</v>
@@ -12572,13 +12619,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I35" s="11">
         <v>2</v>
@@ -12649,13 +12696,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I36" s="11">
         <v>3</v>
@@ -12730,7 +12777,7 @@
         <v>234</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I37" s="11">
         <v>9</v>
@@ -12797,13 +12844,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="I38" s="11">
         <v>1</v>
@@ -12884,7 +12931,7 @@
         <v>234</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I39" s="11">
         <v>5</v>
@@ -12949,13 +12996,13 @@
         <v>20</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I40" s="11">
         <v>3</v>
@@ -13026,13 +13073,13 @@
         <v>20</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I41" s="11">
         <v>3</v>
@@ -13109,13 +13156,13 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I42" s="11">
         <v>1</v>
@@ -13182,13 +13229,13 @@
         <v>20</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I43" s="11">
         <v>11</v>
@@ -13261,7 +13308,7 @@
         <v>234</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I44" s="11">
         <v>4</v>
@@ -13334,7 +13381,7 @@
         <v>234</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I45" s="11">
         <v>2</v>
@@ -13413,7 +13460,7 @@
         <v>234</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I46" s="11">
         <v>2</v>
@@ -13484,7 +13531,7 @@
         <v>234</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I47" s="11">
         <v>3</v>
@@ -13557,7 +13604,7 @@
         <v>234</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I48" s="11">
         <v>6</v>
@@ -13628,7 +13675,7 @@
         <v>234</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I49" s="11">
         <v>1</v>
@@ -13719,7 +13766,7 @@
         <v>234</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I50" s="11">
         <v>3</v>
@@ -13788,13 +13835,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I51" s="11">
         <v>1</v>
@@ -13869,7 +13916,7 @@
         <v>234</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I52" s="11">
         <v>1</v>
@@ -13960,7 +14007,7 @@
         <v>234</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I53" s="11">
         <v>4</v>
@@ -14025,13 +14072,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I54" s="11">
         <v>4</v>
@@ -14096,13 +14143,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I55" s="11">
         <v>1</v>
@@ -14189,7 +14236,7 @@
         <v>234</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I56" s="11">
         <v>6</v>
@@ -14254,13 +14301,13 @@
         <v>10</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I57" s="11">
         <v>1</v>
@@ -14327,13 +14374,13 @@
         <v>10</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I58" s="11">
         <v>9</v>
@@ -14398,13 +14445,13 @@
         <v>10</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I59" s="11">
         <v>1</v>
@@ -14491,7 +14538,7 @@
         <v>234</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I60" s="11">
         <v>6</v>
@@ -14556,13 +14603,13 @@
         <v>10</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I61" s="11">
         <v>1</v>
@@ -14629,13 +14676,13 @@
         <v>10</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I62" s="11">
         <v>1</v>
@@ -14706,7 +14753,7 @@
         <v>234</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I63" s="11">
         <v>1</v>
@@ -14797,7 +14844,7 @@
         <v>234</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I64" s="11">
         <v>4</v>
@@ -14868,7 +14915,7 @@
         <v>234</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I65" s="13">
         <v>1</v>
@@ -14966,7 +15013,7 @@
         <v>234</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I66" s="11">
         <v>1</v>
@@ -15053,7 +15100,7 @@
         <v>234</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I67" s="11">
         <v>4</v>
@@ -15128,7 +15175,7 @@
         <v>234</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I68" s="11">
         <v>4</v>
@@ -15201,7 +15248,7 @@
         <v>234</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I69" s="11">
         <v>1</v>
@@ -15276,7 +15323,7 @@
         <v>234</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I70" s="11">
         <v>1</v>
@@ -15343,13 +15390,13 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="I71" s="11">
         <v>5</v>
@@ -15422,7 +15469,7 @@
         <v>234</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I72" s="11">
         <v>1</v>
@@ -15509,7 +15556,7 @@
         <v>234</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="I73" s="11">
         <v>4</v>
@@ -15584,7 +15631,7 @@
         <v>234</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I74" s="13">
         <v>1</v>
@@ -15665,7 +15712,7 @@
         <v>234</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I75" s="13">
         <v>4</v>
@@ -15736,7 +15783,7 @@
         <v>234</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I76" s="11">
         <v>1</v>
@@ -15821,13 +15868,13 @@
         <v>10</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I77" s="11">
         <v>2</v>
@@ -15894,13 +15941,13 @@
         <v>10</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I78" s="11">
         <v>4</v>
@@ -15967,13 +16014,13 @@
         <v>10</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I79" s="11">
         <v>2</v>
@@ -16046,7 +16093,7 @@
         <v>234</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I80" s="11">
         <v>11</v>
@@ -16119,7 +16166,7 @@
         <v>234</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I81" s="11">
         <v>4</v>
@@ -16190,7 +16237,7 @@
         <v>234</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I82" s="11">
         <v>4</v>
@@ -16261,7 +16308,7 @@
         <v>234</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I83" s="11">
         <v>1</v>
@@ -16352,7 +16399,7 @@
         <v>234</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I84" s="11">
         <v>3</v>
@@ -16427,7 +16474,7 @@
         <v>234</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I85" s="11">
         <v>6</v>
@@ -16492,13 +16539,13 @@
         <v>10</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I86" s="11">
         <v>4</v>
@@ -16563,13 +16610,13 @@
         <v>10</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I87" s="11">
         <v>2</v>
@@ -16640,7 +16687,7 @@
         <v>234</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I88" s="11">
         <v>6</v>
@@ -16713,7 +16760,7 @@
         <v>234</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I89" s="11">
         <v>2</v>
@@ -16786,7 +16833,7 @@
         <v>234</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I90" s="11">
         <v>11</v>
@@ -16859,7 +16906,7 @@
         <v>234</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I91" s="11">
         <v>11</v>
@@ -16926,13 +16973,13 @@
         <v>10</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I92" s="11">
         <v>11</v>
@@ -17005,7 +17052,7 @@
         <v>234</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I93" s="11">
         <v>6</v>
@@ -17070,13 +17117,13 @@
         <v>10</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I94" s="11">
         <v>2</v>
@@ -17141,13 +17188,13 @@
         <v>10</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I95" s="11">
         <v>4</v>
@@ -17217,10 +17264,10 @@
         <v>235</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="I96" s="11">
         <v>1</v>
@@ -17322,7 +17369,9 @@
       <c r="B97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="12"/>
+      <c r="C97" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="D97" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
@@ -17332,13 +17381,13 @@
         <v>30</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I97" s="11">
         <v>1</v>
@@ -17409,13 +17458,13 @@
         <v>30</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I98" s="13">
         <v>1</v>
@@ -17484,13 +17533,13 @@
         <v>30</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I99" s="11">
         <v>11</v>
@@ -17557,13 +17606,13 @@
         <v>30</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I100" s="11">
         <v>11</v>
@@ -17638,7 +17687,7 @@
         <v>234</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I101" s="11">
         <v>6</v>
@@ -17711,7 +17760,7 @@
         <v>234</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I102" s="11">
         <v>1</v>
@@ -17812,7 +17861,7 @@
         <v>234</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I103" s="11">
         <v>4</v>
@@ -17883,7 +17932,7 @@
         <v>234</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I104" s="11">
         <v>3</v>
@@ -17948,13 +17997,13 @@
         <v>10</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I105" s="11">
         <v>3</v>
@@ -18005,7 +18054,7 @@
         <v>66</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>124</v>
@@ -18019,13 +18068,13 @@
         <v>10</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="I106" s="11">
         <v>2</v>
@@ -18078,7 +18127,7 @@
         <v>66</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>5</v>
@@ -18098,7 +18147,7 @@
         <v>234</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I107" s="11">
         <v>4</v>
@@ -18169,7 +18218,7 @@
         <v>234</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I108" s="11">
         <v>1</v>
@@ -18260,7 +18309,7 @@
         <v>234</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I109" s="11">
         <v>6</v>
@@ -18327,13 +18376,13 @@
         <v>10</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I110" s="11">
         <v>1</v>
@@ -18414,13 +18463,13 @@
         <v>10</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I111" s="11">
         <v>4</v>
@@ -18491,7 +18540,7 @@
         <v>234</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I112" s="11">
         <v>4</v>
@@ -18558,13 +18607,13 @@
         <v>10</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="G113" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="I113" s="11">
         <v>1</v>
@@ -18655,7 +18704,7 @@
         <v>234</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I114" s="11">
         <v>2</v>
@@ -18732,7 +18781,7 @@
         <v>234</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I115" s="11">
         <v>3</v>
@@ -18803,7 +18852,7 @@
         <v>234</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I116" s="11">
         <v>4</v>
@@ -18876,7 +18925,7 @@
         <v>234</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I117" s="11">
         <v>1</v>
@@ -18967,7 +19016,7 @@
         <v>234</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I118" s="11">
         <v>3</v>
@@ -19032,13 +19081,13 @@
         <v>10</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="I119" s="11">
         <v>2</v>
@@ -19111,7 +19160,7 @@
         <v>234</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I120" s="11">
         <v>1</v>
@@ -19196,13 +19245,13 @@
         <v>10</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I121" s="11">
         <v>3</v>
@@ -19273,7 +19322,7 @@
         <v>234</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I122" s="11">
         <v>3</v>
@@ -19338,13 +19387,13 @@
         <v>10</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I123" s="11">
         <v>1</v>
@@ -19408,12 +19457,14 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F124" s="12"/>
+      <c r="F124" s="12" t="s">
+        <v>259</v>
+      </c>
       <c r="G124" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="I124" s="11">
         <v>1</v>
@@ -19497,12 +19548,14 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F125" s="12"/>
+      <c r="F125" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="G125" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I125" s="11">
         <v>4</v>
@@ -19575,7 +19628,7 @@
         <v>234</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I126" s="11">
         <v>1</v>
@@ -19659,12 +19712,14 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F127" s="12"/>
+      <c r="F127" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="G127" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I127" s="11">
         <v>4</v>
@@ -19737,7 +19792,7 @@
         <v>234</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I128" s="11">
         <v>3</v>
@@ -19804,13 +19859,13 @@
         <v>10</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I129" s="11">
         <v>1</v>
@@ -19874,12 +19929,14 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F130" s="12"/>
+      <c r="F130" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="G130" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I130" s="11">
         <v>3</v>
@@ -19951,10 +20008,10 @@
         <v>236</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="I131" s="11">
         <v>1</v>
@@ -20068,13 +20125,13 @@
         <v>60</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I132" s="11">
         <v>1</v>
@@ -20145,13 +20202,13 @@
         <v>60</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I133" s="11">
         <v>1</v>
@@ -20226,7 +20283,7 @@
         <v>234</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="I134" s="11">
         <v>1</v>
@@ -20293,13 +20350,13 @@
         <v>60</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I135" s="11">
         <v>11</v>
@@ -20366,13 +20423,13 @@
         <v>60</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I136" s="11">
         <v>11</v>
@@ -20441,13 +20498,13 @@
         <v>60</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I137" s="11">
         <v>1</v>
@@ -20503,7 +20560,7 @@
         <v>23</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D138" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20514,13 +20571,13 @@
         <v>60</v>
       </c>
       <c r="F138" s="37" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I138" s="11">
         <v>1</v>
@@ -20593,7 +20650,7 @@
         <v>234</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I139" s="11">
         <v>1</v>
@@ -20679,13 +20736,13 @@
         <v>10</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H140" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I140" s="11">
         <v>2</v>
@@ -20750,13 +20807,13 @@
         <v>10</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H141" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I141" s="11">
         <v>4</v>
@@ -20821,13 +20878,13 @@
         <v>10</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I142" s="11">
         <v>3</v>
@@ -20898,7 +20955,7 @@
         <v>234</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I143" s="11">
         <v>5</v>
@@ -20969,7 +21026,7 @@
         <v>234</v>
       </c>
       <c r="H144" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I144" s="11">
         <v>2</v>
@@ -21038,7 +21095,7 @@
         <v>234</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I145" s="11">
         <v>4</v>
@@ -21107,7 +21164,7 @@
         <v>234</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I146" s="11">
         <v>3</v>
@@ -21176,7 +21233,7 @@
         <v>234</v>
       </c>
       <c r="H147" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I147" s="11">
         <v>6</v>
@@ -21245,7 +21302,7 @@
         <v>234</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I148" s="11">
         <v>6</v>
@@ -21314,7 +21371,7 @@
         <v>234</v>
       </c>
       <c r="H149" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I149" s="11">
         <v>3</v>
@@ -21383,7 +21440,7 @@
         <v>234</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I150" s="11">
         <v>7</v>
@@ -21452,7 +21509,7 @@
         <v>234</v>
       </c>
       <c r="H151" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I151" s="11">
         <v>11</v>
@@ -21521,7 +21578,7 @@
         <v>234</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="I152" s="11">
         <v>6</v>
@@ -21569,10 +21626,10 @@
     </row>
     <row r="153" spans="1:38">
       <c r="A153" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>5</v>
@@ -21586,13 +21643,13 @@
         <v>10</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="I153" s="11">
         <v>4</v>
@@ -21640,10 +21697,10 @@
     </row>
     <row r="154" spans="1:38">
       <c r="A154" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>5</v>
@@ -21657,13 +21714,13 @@
         <v>10</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="I154" s="11">
         <v>6</v>
@@ -21711,10 +21768,10 @@
     </row>
     <row r="155" spans="1:38">
       <c r="A155" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C155" s="11" t="s">
         <v>5</v>
@@ -21728,20 +21785,20 @@
         <v>10</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H155" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I155" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J155" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="18"/>
@@ -21759,33 +21816,33 @@
       <c r="X155" s="20"/>
       <c r="Y155" s="20"/>
       <c r="Z155" s="20"/>
-      <c r="AA155" s="20"/>
+      <c r="AA155" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AB155" s="20"/>
       <c r="AC155" s="20"/>
       <c r="AD155" s="20"/>
       <c r="AE155" s="20"/>
       <c r="AF155" s="20"/>
       <c r="AG155" s="20"/>
-      <c r="AH155" s="20">
-        <v>1</v>
-      </c>
+      <c r="AH155" s="20"/>
       <c r="AI155" s="20"/>
       <c r="AJ155" s="20"/>
       <c r="AK155" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AL155" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:38">
       <c r="A156" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C156" s="11" t="s">
         <v>5</v>
@@ -21796,23 +21853,23 @@
       </c>
       <c r="E156" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I156" s="11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J156" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K156" s="11"/>
       <c r="L156" s="18"/>
@@ -21837,10 +21894,10 @@
       <c r="AE156" s="20"/>
       <c r="AF156" s="20"/>
       <c r="AG156" s="20"/>
-      <c r="AH156" s="20">
+      <c r="AH156" s="20"/>
+      <c r="AI156" s="20">
         <v>0.5</v>
       </c>
-      <c r="AI156" s="20"/>
       <c r="AJ156" s="20"/>
       <c r="AK156" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -21848,18 +21905,18 @@
       </c>
       <c r="AL156" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:38">
       <c r="A157" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D157" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21867,23 +21924,23 @@
       </c>
       <c r="E157" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I157" s="11">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J157" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="18"/>
@@ -21908,26 +21965,26 @@
       <c r="AE157" s="20"/>
       <c r="AF157" s="20"/>
       <c r="AG157" s="20"/>
-      <c r="AH157" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="AI157" s="20"/>
+      <c r="AH157" s="20"/>
+      <c r="AI157" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AJ157" s="20"/>
       <c r="AK157" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL157" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:38">
       <c r="A158" s="3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C158" s="11" t="s">
         <v>5</v>
@@ -21941,22 +21998,24 @@
         <v>20</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="I158" s="11">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J158" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
-      <c r="K158" s="11"/>
+      <c r="K158" s="11">
+        <v>20</v>
+      </c>
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
@@ -21967,9 +22026,7 @@
       <c r="S158" s="19"/>
       <c r="T158" s="18"/>
       <c r="U158" s="18"/>
-      <c r="V158" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V158" s="18"/>
       <c r="W158" s="19"/>
       <c r="X158" s="20"/>
       <c r="Y158" s="20"/>
@@ -21982,7 +22039,9 @@
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
       <c r="AH158" s="20"/>
-      <c r="AI158" s="20"/>
+      <c r="AI158" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AJ158" s="20"/>
       <c r="AK158" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -21990,15 +22049,15 @@
       </c>
       <c r="AL158" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:38">
       <c r="A159" s="3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C159" s="11" t="s">
         <v>4</v>
@@ -22012,22 +22071,24 @@
         <v>20</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I159" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J159" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
-      <c r="K159" s="11"/>
+      <c r="K159" s="11">
+        <v>1</v>
+      </c>
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
       <c r="N159" s="18"/>
@@ -22038,9 +22099,7 @@
       <c r="S159" s="19"/>
       <c r="T159" s="18"/>
       <c r="U159" s="18"/>
-      <c r="V159" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V159" s="18"/>
       <c r="W159" s="19"/>
       <c r="X159" s="20"/>
       <c r="Y159" s="20"/>
@@ -22048,7 +22107,9 @@
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
       <c r="AC159" s="20"/>
-      <c r="AD159" s="20"/>
+      <c r="AD159" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AE159" s="20"/>
       <c r="AF159" s="20"/>
       <c r="AG159" s="20"/>
@@ -22061,7 +22122,80 @@
       </c>
       <c r="AL159" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38">
+      <c r="A160" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B160" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D160" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>50</v>
+      </c>
+      <c r="E160" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="G160" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I160" s="11">
+        <v>2</v>
+      </c>
+      <c r="J160" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
+      </c>
+      <c r="K160" s="11">
+        <v>8</v>
+      </c>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
+      <c r="N160" s="18"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="18"/>
+      <c r="Q160" s="18"/>
+      <c r="R160" s="18"/>
+      <c r="S160" s="19"/>
+      <c r="T160" s="18"/>
+      <c r="U160" s="18"/>
+      <c r="V160" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W160" s="19"/>
+      <c r="X160" s="20"/>
+      <c r="Y160" s="20"/>
+      <c r="Z160" s="20"/>
+      <c r="AA160" s="20"/>
+      <c r="AB160" s="20"/>
+      <c r="AC160" s="20"/>
+      <c r="AD160" s="20"/>
+      <c r="AE160" s="20"/>
+      <c r="AF160" s="20"/>
+      <c r="AG160" s="20"/>
+      <c r="AH160" s="20"/>
+      <c r="AI160" s="20"/>
+      <c r="AJ160" s="20"/>
+      <c r="AK160" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL160" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -22085,16 +22219,16 @@
       <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -28240,18 +28374,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="I73" workbookViewId="0">
+      <selection activeCell="U101" sqref="U101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -28279,7 +28413,7 @@
         <v>143</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>141</v>
@@ -28294,7 +28428,7 @@
         <v>145</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>199</v>
@@ -28303,16 +28437,16 @@
         <v>200</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>245</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>217</v>
@@ -30711,7 +30845,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>137</v>
@@ -32078,7 +32212,7 @@
     </row>
     <row r="74" spans="1:23">
       <c r="A74" s="3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>257</v>
@@ -33226,10 +33360,10 @@
     </row>
     <row r="96" spans="1:23">
       <c r="A96" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="28" t="s">
@@ -33271,10 +33405,10 @@
     </row>
     <row r="97" spans="1:23">
       <c r="A97" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="28" t="s">
@@ -33316,10 +33450,10 @@
     </row>
     <row r="98" spans="1:23">
       <c r="A98" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="28" t="s">
@@ -33361,10 +33495,10 @@
     </row>
     <row r="99" spans="1:23">
       <c r="A99" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="28" t="s">
@@ -33406,10 +33540,10 @@
     </row>
     <row r="100" spans="1:23">
       <c r="A100" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="28" t="s">
@@ -33438,15 +33572,15 @@
         <v>4</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V100">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W100">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -33674,11 +33808,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1127" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D14445E1-5821-47AE-BDAD-E11D19FB04D9}"/>
+  <xr:revisionPtr revIDLastSave="1252" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35134493-AC8E-40D3-B5E8-571F6CF9358D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="367">
   <si>
     <t>Module Code</t>
   </si>
@@ -1112,13 +1112,37 @@
     <t>Gregynog (*)</t>
   </si>
   <si>
-    <t>Practical Skills</t>
-  </si>
-  <si>
     <t>Lab report</t>
   </si>
   <si>
-    <t>Performance</t>
+    <t>Online test 1</t>
+  </si>
+  <si>
+    <t>Online test 2</t>
+  </si>
+  <si>
+    <t>Reflective Statement</t>
+  </si>
+  <si>
+    <t>Supervisor Assess.</t>
+  </si>
+  <si>
+    <t>Microproject viva (*)</t>
+  </si>
+  <si>
+    <t>Online Training</t>
+  </si>
+  <si>
+    <t>Research paper</t>
+  </si>
+  <si>
+    <t>Project plan</t>
+  </si>
+  <si>
+    <t>Practical Skills (P)</t>
+  </si>
+  <si>
+    <t>Performance (P)</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1367,9 +1391,6 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1380,9 +1401,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9024,7 +9042,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9473,8 +9491,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL167" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
-  <autoFilter ref="A1:AL167" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL168" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+  <autoFilter ref="A1:AL168" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI141">
     <sortCondition ref="A1:A141"/>
   </sortState>
@@ -9939,13 +9957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AL167"/>
+  <dimension ref="A1:AL168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F150" sqref="F150"/>
+      <selection pane="bottomRight" activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15130,14 +15148,14 @@
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
@@ -15150,14 +15168,14 @@
       <c r="H67" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="I67" s="51">
+      <c r="I67" s="11">
         <v>1</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1</v>
       </c>
-      <c r="K67" s="51">
+      <c r="K67" s="11">
         <v>0.5</v>
       </c>
       <c r="L67" s="18"/>
@@ -15193,11 +15211,11 @@
       <c r="AH67" s="20"/>
       <c r="AI67" s="20"/>
       <c r="AJ67" s="20"/>
-      <c r="AK67" s="54">
+      <c r="AK67" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AL67" s="54">
+      <c r="AL67" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2</v>
       </c>
@@ -15384,7 +15402,9 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>10</v>
       </c>
-      <c r="K70" s="11"/>
+      <c r="K70" s="11">
+        <v>5</v>
+      </c>
       <c r="L70" s="18"/>
       <c r="M70" s="18"/>
       <c r="N70" s="18">
@@ -15422,7 +15442,7 @@
       </c>
       <c r="AL70" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:38">
@@ -15657,14 +15677,14 @@
       <c r="B74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E74" s="52">
+      <c r="E74" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
@@ -15677,14 +15697,14 @@
       <c r="H74" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I74" s="51">
+      <c r="I74" s="11">
         <v>1</v>
       </c>
-      <c r="J74" s="53">
+      <c r="J74" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>1</v>
       </c>
-      <c r="K74" s="51">
+      <c r="K74" s="11">
         <v>0.5</v>
       </c>
       <c r="L74" s="18"/>
@@ -15720,11 +15740,11 @@
       <c r="AH74" s="20"/>
       <c r="AI74" s="20"/>
       <c r="AJ74" s="20"/>
-      <c r="AK74" s="54">
+      <c r="AK74" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AL74" s="54">
+      <c r="AL74" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2</v>
       </c>
@@ -19417,18 +19437,18 @@
       <c r="B123" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C123" s="51" t="s">
+      <c r="C123" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D123" s="52">
+      <c r="D123" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="E123" s="52">
+      <c r="E123" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F123" s="51" t="s">
+      <c r="F123" s="11" t="s">
         <v>351</v>
       </c>
       <c r="G123" s="11" t="s">
@@ -19437,14 +19457,14 @@
       <c r="H123" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I123" s="51">
+      <c r="I123" s="11">
         <v>1</v>
       </c>
-      <c r="J123" s="53">
+      <c r="J123" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.8</v>
       </c>
-      <c r="K123" s="51">
+      <c r="K123" s="11">
         <v>0.5</v>
       </c>
       <c r="L123" s="18"/>
@@ -19482,11 +19502,11 @@
       </c>
       <c r="AI123" s="20"/>
       <c r="AJ123" s="20"/>
-      <c r="AK123" s="54">
+      <c r="AK123" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AL123" s="54">
+      <c r="AL123" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>2.5</v>
       </c>
@@ -20254,18 +20274,18 @@
       <c r="B134" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C134" s="55" t="s">
+      <c r="C134" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D134" s="52">
+      <c r="D134" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E134" s="52">
+      <c r="E134" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F134" s="55" t="s">
+      <c r="F134" s="12" t="s">
         <v>354</v>
       </c>
       <c r="G134" s="11" t="s">
@@ -20274,14 +20294,14 @@
       <c r="H134" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I134" s="51">
+      <c r="I134" s="11">
         <v>3</v>
       </c>
-      <c r="J134" s="53">
+      <c r="J134" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
-      <c r="K134" s="51"/>
+      <c r="K134" s="11"/>
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
@@ -20309,11 +20329,11 @@
       <c r="AH134" s="20"/>
       <c r="AI134" s="20"/>
       <c r="AJ134" s="20"/>
-      <c r="AK134" s="54">
+      <c r="AK134" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AL134" s="54">
+      <c r="AL134" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
@@ -20325,18 +20345,18 @@
       <c r="B135" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C135" s="55" t="s">
+      <c r="C135" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D135" s="52">
+      <c r="D135" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E135" s="52">
+      <c r="E135" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F135" s="55" t="s">
+      <c r="F135" s="12" t="s">
         <v>353</v>
       </c>
       <c r="G135" s="11" t="s">
@@ -20345,14 +20365,14 @@
       <c r="H135" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I135" s="51">
+      <c r="I135" s="11">
         <v>3</v>
       </c>
-      <c r="J135" s="53">
+      <c r="J135" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
-      <c r="K135" s="51"/>
+      <c r="K135" s="11"/>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
@@ -20380,11 +20400,11 @@
       </c>
       <c r="AI135" s="20"/>
       <c r="AJ135" s="20"/>
-      <c r="AK135" s="54">
+      <c r="AK135" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.4</v>
       </c>
-      <c r="AL135" s="54">
+      <c r="AL135" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>16</v>
       </c>
@@ -21281,28 +21301,28 @@
       <c r="N147" s="18"/>
       <c r="O147" s="19"/>
       <c r="P147" s="18"/>
-      <c r="Q147" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="Q147" s="18"/>
       <c r="R147" s="18"/>
       <c r="S147" s="19"/>
       <c r="T147" s="18"/>
       <c r="U147" s="18"/>
-      <c r="V147" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V147" s="18"/>
       <c r="W147" s="19"/>
       <c r="X147" s="20"/>
       <c r="Y147" s="20"/>
       <c r="Z147" s="20"/>
       <c r="AA147" s="20"/>
       <c r="AB147" s="20"/>
-      <c r="AC147" s="20"/>
+      <c r="AC147" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AD147" s="20"/>
       <c r="AE147" s="20"/>
       <c r="AF147" s="20"/>
       <c r="AG147" s="20"/>
-      <c r="AH147" s="20"/>
+      <c r="AH147" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AI147" s="20"/>
       <c r="AJ147" s="20"/>
       <c r="AK147" s="27">
@@ -21315,25 +21335,25 @@
       </c>
     </row>
     <row r="148" spans="1:38">
-      <c r="A148" s="50" t="s">
+      <c r="A148" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C148" s="51" t="s">
+      <c r="C148" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="52">
+      <c r="D148" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E148" s="52">
+      <c r="E148" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F148" s="51" t="s">
-        <v>356</v>
+      <c r="F148" s="11" t="s">
+        <v>365</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>231</v>
@@ -21341,27 +21361,45 @@
       <c r="H148" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I148" s="51">
-        <v>11</v>
-      </c>
-      <c r="J148" s="53">
+      <c r="I148" s="11">
+        <v>1</v>
+      </c>
+      <c r="J148" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
-      </c>
-      <c r="K148" s="51"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="18"/>
-      <c r="Q148" s="18"/>
-      <c r="R148" s="18"/>
-      <c r="S148" s="19"/>
-      <c r="T148" s="18"/>
-      <c r="U148" s="18"/>
-      <c r="V148" s="18">
-        <v>0.5</v>
-      </c>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="K148" s="11"/>
+      <c r="L148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="M148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="N148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="O148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="P148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="Q148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="R148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="S148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="T148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="U148" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="V148" s="18"/>
       <c r="W148" s="19"/>
       <c r="X148" s="20"/>
       <c r="Y148" s="20"/>
@@ -21376,35 +21414,35 @@
       <c r="AH148" s="20"/>
       <c r="AI148" s="20"/>
       <c r="AJ148" s="20"/>
-      <c r="AK148" s="54">
+      <c r="AK148" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AL148" s="54">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="AL148" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>19.999999999999996</v>
       </c>
     </row>
     <row r="149" spans="1:38">
-      <c r="A149" s="50" t="s">
+      <c r="A149" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C149" s="51" t="s">
+      <c r="C149" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D149" s="52">
+      <c r="D149" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E149" s="52">
+      <c r="E149" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F149" s="51" t="s">
-        <v>357</v>
+      <c r="F149" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>231</v>
@@ -21412,27 +21450,45 @@
       <c r="H149" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I149" s="51">
-        <v>11</v>
-      </c>
-      <c r="J149" s="53">
+      <c r="I149" s="11">
+        <v>1</v>
+      </c>
+      <c r="J149" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
-      </c>
-      <c r="K149" s="51"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="19"/>
-      <c r="P149" s="18"/>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="19"/>
-      <c r="T149" s="18"/>
-      <c r="U149" s="18"/>
-      <c r="V149" s="18">
-        <v>0.3</v>
-      </c>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="K149" s="11"/>
+      <c r="L149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="M149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="N149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="O149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="P149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="Q149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="R149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="S149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="U149" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="V149" s="18"/>
       <c r="W149" s="19"/>
       <c r="X149" s="20"/>
       <c r="Y149" s="20"/>
@@ -21447,35 +21503,35 @@
       <c r="AH149" s="20"/>
       <c r="AI149" s="20"/>
       <c r="AJ149" s="20"/>
-      <c r="AK149" s="54">
+      <c r="AK149" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
-      </c>
-      <c r="AL149" s="54">
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AL149" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>7.9999999999999982</v>
       </c>
     </row>
     <row r="150" spans="1:38">
-      <c r="A150" s="50" t="s">
+      <c r="A150" s="4" t="s">
         <v>243</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="52">
+      <c r="D150" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E150" s="52">
+      <c r="E150" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F150" s="51" t="s">
-        <v>358</v>
+      <c r="F150" s="11" t="s">
+        <v>356</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>231</v>
@@ -21483,14 +21539,14 @@
       <c r="H150" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I150" s="51">
+      <c r="I150" s="11">
         <v>11</v>
       </c>
-      <c r="J150" s="53">
+      <c r="J150" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="K150" s="51"/>
+        <v>12</v>
+      </c>
+      <c r="K150" s="11"/>
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
@@ -21502,7 +21558,7 @@
       <c r="T150" s="18"/>
       <c r="U150" s="18"/>
       <c r="V150" s="18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W150" s="19"/>
       <c r="X150" s="20"/>
@@ -21518,13 +21574,13 @@
       <c r="AH150" s="20"/>
       <c r="AI150" s="20"/>
       <c r="AJ150" s="20"/>
-      <c r="AK150" s="54">
+      <c r="AK150" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
-      </c>
-      <c r="AL150" s="54">
+        <v>0.3</v>
+      </c>
+      <c r="AL150" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:38">
@@ -21545,7 +21601,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F151" s="11"/>
+      <c r="F151" s="11" t="s">
+        <v>357</v>
+      </c>
       <c r="G151" s="11" t="s">
         <v>231</v>
       </c>
@@ -21557,13 +21615,13 @@
       </c>
       <c r="J151" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K151" s="11"/>
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="O151" s="19"/>
       <c r="P151" s="18"/>
@@ -21589,11 +21647,11 @@
       <c r="AJ151" s="20"/>
       <c r="AK151" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AL151" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:38">
@@ -21614,7 +21672,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F152" s="11"/>
+      <c r="F152" s="11" t="s">
+        <v>358</v>
+      </c>
       <c r="G152" s="11" t="s">
         <v>231</v>
       </c>
@@ -21622,20 +21682,20 @@
         <v>297</v>
       </c>
       <c r="I152" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J152" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="18"/>
       <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
+      <c r="N152" s="18">
+        <v>0.05</v>
+      </c>
       <c r="O152" s="19"/>
-      <c r="P152" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
       <c r="R152" s="18"/>
       <c r="S152" s="19"/>
@@ -21658,11 +21718,11 @@
       <c r="AJ152" s="20"/>
       <c r="AK152" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AL152" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:38">
@@ -21683,29 +21743,31 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>349</v>
+      </c>
       <c r="G153" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H153" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I153" s="11">
         <v>3</v>
       </c>
       <c r="J153" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="18"/>
       <c r="M153" s="18"/>
       <c r="N153" s="18"/>
       <c r="O153" s="19"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="P153" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="Q153" s="18"/>
       <c r="R153" s="18"/>
       <c r="S153" s="19"/>
       <c r="T153" s="18"/>
@@ -21727,11 +21789,11 @@
       <c r="AJ153" s="20"/>
       <c r="AK153" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AL153" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:38">
@@ -21752,7 +21814,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F154" s="11"/>
+      <c r="F154" s="11" t="s">
+        <v>359</v>
+      </c>
       <c r="G154" s="11" t="s">
         <v>231</v>
       </c>
@@ -21764,22 +21828,24 @@
       </c>
       <c r="J154" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
-      </c>
-      <c r="K154" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="K154" s="11">
+        <v>4</v>
+      </c>
       <c r="L154" s="18"/>
       <c r="M154" s="18"/>
       <c r="N154" s="18"/>
       <c r="O154" s="19"/>
       <c r="P154" s="18"/>
-      <c r="Q154" s="18"/>
+      <c r="Q154" s="18">
+        <v>0.1</v>
+      </c>
       <c r="R154" s="18"/>
       <c r="S154" s="19"/>
       <c r="T154" s="18"/>
       <c r="U154" s="18"/>
-      <c r="V154" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="V154" s="18"/>
       <c r="W154" s="19"/>
       <c r="X154" s="20"/>
       <c r="Y154" s="20"/>
@@ -21796,11 +21862,11 @@
       <c r="AJ154" s="20"/>
       <c r="AK154" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AL154" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:38">
@@ -21821,7 +21887,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F155" s="11"/>
+      <c r="F155" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="G155" s="11" t="s">
         <v>231</v>
       </c>
@@ -21833,9 +21901,11 @@
       </c>
       <c r="J155" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="K155" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="K155" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L155" s="18"/>
       <c r="M155" s="18"/>
       <c r="N155" s="18"/>
@@ -21847,7 +21917,7 @@
       <c r="T155" s="18"/>
       <c r="U155" s="18"/>
       <c r="V155" s="18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W155" s="19"/>
       <c r="X155" s="20"/>
@@ -21865,46 +21935,50 @@
       <c r="AJ155" s="20"/>
       <c r="AK155" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AL155" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:38">
       <c r="A156" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D156" s="29">
+        <v>187</v>
+      </c>
+      <c r="C156" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" s="51">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E156" s="29">
+      <c r="E156" s="51">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F156" s="11"/>
+      <c r="F156" s="50" t="s">
+        <v>361</v>
+      </c>
       <c r="G156" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="I156" s="11">
-        <v>3</v>
-      </c>
-      <c r="J156" s="11">
+        <v>310</v>
+      </c>
+      <c r="I156" s="50">
+        <v>1</v>
+      </c>
+      <c r="J156" s="52">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="K156" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="K156" s="50">
+        <v>1</v>
+      </c>
       <c r="L156" s="18"/>
       <c r="M156" s="18"/>
       <c r="N156" s="18"/>
@@ -21915,13 +21989,13 @@
       <c r="S156" s="19"/>
       <c r="T156" s="18"/>
       <c r="U156" s="18"/>
-      <c r="V156" s="18"/>
+      <c r="V156" s="18">
+        <v>0.2</v>
+      </c>
       <c r="W156" s="19"/>
       <c r="X156" s="20"/>
       <c r="Y156" s="20"/>
-      <c r="Z156" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="Z156" s="20"/>
       <c r="AA156" s="20"/>
       <c r="AB156" s="20"/>
       <c r="AC156" s="20"/>
@@ -21932,13 +22006,13 @@
       <c r="AH156" s="20"/>
       <c r="AI156" s="20"/>
       <c r="AJ156" s="20"/>
-      <c r="AK156" s="27">
+      <c r="AK156" s="53">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="AL156" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="AL156" s="53">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:38">
@@ -21949,7 +22023,7 @@
         <v>188</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D157" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21959,7 +22033,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F157" s="11"/>
+      <c r="F157" s="11" t="s">
+        <v>362</v>
+      </c>
       <c r="G157" s="11" t="s">
         <v>231</v>
       </c>
@@ -21967,11 +22043,11 @@
         <v>297</v>
       </c>
       <c r="I157" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J157" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="18"/>
@@ -21988,13 +22064,13 @@
       <c r="W157" s="19"/>
       <c r="X157" s="20"/>
       <c r="Y157" s="20"/>
-      <c r="Z157" s="20"/>
+      <c r="Z157" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AA157" s="20"/>
       <c r="AB157" s="20"/>
       <c r="AC157" s="20"/>
-      <c r="AD157" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AD157" s="20"/>
       <c r="AE157" s="20"/>
       <c r="AF157" s="20"/>
       <c r="AG157" s="20"/>
@@ -22003,11 +22079,11 @@
       <c r="AJ157" s="20"/>
       <c r="AK157" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AL157" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:38">
@@ -22018,7 +22094,7 @@
         <v>188</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D158" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22028,7 +22104,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F158" s="11"/>
+      <c r="F158" s="11" t="s">
+        <v>360</v>
+      </c>
       <c r="G158" s="11" t="s">
         <v>231</v>
       </c>
@@ -22036,13 +22114,15 @@
         <v>297</v>
       </c>
       <c r="I158" s="11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J158" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
-      <c r="K158" s="11"/>
+      <c r="K158" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L158" s="18"/>
       <c r="M158" s="18"/>
       <c r="N158" s="18"/>
@@ -22061,13 +22141,13 @@
       <c r="AA158" s="20"/>
       <c r="AB158" s="20"/>
       <c r="AC158" s="20"/>
-      <c r="AD158" s="20"/>
+      <c r="AD158" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AE158" s="20"/>
       <c r="AF158" s="20"/>
       <c r="AG158" s="20"/>
-      <c r="AH158" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AH158" s="20"/>
       <c r="AI158" s="20"/>
       <c r="AJ158" s="20"/>
       <c r="AK158" s="27">
@@ -22076,7 +22156,7 @@
       </c>
       <c r="AL158" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="159" spans="1:38">
@@ -22087,7 +22167,7 @@
         <v>188</v>
       </c>
       <c r="C159" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D159" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22097,7 +22177,9 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F159" s="11"/>
+      <c r="F159" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="G159" s="11" t="s">
         <v>231</v>
       </c>
@@ -22109,7 +22191,7 @@
       </c>
       <c r="J159" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="18"/>
@@ -22129,58 +22211,58 @@
       <c r="Z159" s="20"/>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
-      <c r="AC159" s="20"/>
+      <c r="AC159" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AD159" s="20"/>
       <c r="AE159" s="20"/>
       <c r="AF159" s="20"/>
       <c r="AG159" s="20"/>
       <c r="AH159" s="20"/>
-      <c r="AI159" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AI159" s="20"/>
       <c r="AJ159" s="20"/>
       <c r="AK159" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AL159" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" spans="1:38">
-      <c r="A160" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B160" s="28" t="s">
-        <v>276</v>
+      <c r="A160" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D160" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E160" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="I160" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J160" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K160" s="11"/>
       <c r="L160" s="18"/>
@@ -22189,9 +22271,7 @@
       <c r="O160" s="19"/>
       <c r="P160" s="18"/>
       <c r="Q160" s="18"/>
-      <c r="R160" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="R160" s="18"/>
       <c r="S160" s="19"/>
       <c r="T160" s="18"/>
       <c r="U160" s="18"/>
@@ -22208,15 +22288,17 @@
       <c r="AF160" s="20"/>
       <c r="AG160" s="20"/>
       <c r="AH160" s="20"/>
-      <c r="AI160" s="20"/>
+      <c r="AI160" s="20">
+        <v>0.45</v>
+      </c>
       <c r="AJ160" s="20"/>
       <c r="AK160" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="AL160" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161" spans="1:38">
@@ -22238,7 +22320,7 @@
         <v>10</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>231</v>
@@ -22247,11 +22329,11 @@
         <v>336</v>
       </c>
       <c r="I161" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J161" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K161" s="11"/>
       <c r="L161" s="18"/>
@@ -22260,14 +22342,14 @@
       <c r="O161" s="19"/>
       <c r="P161" s="18"/>
       <c r="Q161" s="18"/>
-      <c r="R161" s="18"/>
+      <c r="R161" s="18">
+        <v>0.1</v>
+      </c>
       <c r="S161" s="19"/>
       <c r="T161" s="18"/>
       <c r="U161" s="18"/>
       <c r="V161" s="18"/>
-      <c r="W161" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="W161" s="19"/>
       <c r="X161" s="20"/>
       <c r="Y161" s="20"/>
       <c r="Z161" s="20"/>
@@ -22283,42 +22365,42 @@
       <c r="AJ161" s="20"/>
       <c r="AK161" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AL161" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:38">
       <c r="A162" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C162" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D162" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E162" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="I162" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J162" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
@@ -22336,13 +22418,13 @@
       <c r="T162" s="18"/>
       <c r="U162" s="18"/>
       <c r="V162" s="18"/>
-      <c r="W162" s="19"/>
+      <c r="W162" s="19">
+        <v>0.2</v>
+      </c>
       <c r="X162" s="20"/>
       <c r="Y162" s="20"/>
       <c r="Z162" s="20"/>
-      <c r="AA162" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AA162" s="20"/>
       <c r="AB162" s="20"/>
       <c r="AC162" s="20"/>
       <c r="AD162" s="20"/>
@@ -22380,7 +22462,7 @@
         <v>10</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>231</v>
@@ -22389,11 +22471,11 @@
         <v>303</v>
       </c>
       <c r="I163" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J163" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K163" s="11"/>
       <c r="L163" s="18"/>
@@ -22411,7 +22493,9 @@
       <c r="X163" s="20"/>
       <c r="Y163" s="20"/>
       <c r="Z163" s="20"/>
-      <c r="AA163" s="20"/>
+      <c r="AA163" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AB163" s="20"/>
       <c r="AC163" s="20"/>
       <c r="AD163" s="20"/>
@@ -22419,17 +22503,15 @@
       <c r="AF163" s="20"/>
       <c r="AG163" s="20"/>
       <c r="AH163" s="20"/>
-      <c r="AI163" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AI163" s="20"/>
       <c r="AJ163" s="20"/>
       <c r="AK163" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL163" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:38">
@@ -22451,7 +22533,7 @@
         <v>10</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>231</v>
@@ -22460,11 +22542,11 @@
         <v>303</v>
       </c>
       <c r="I164" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J164" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K164" s="11"/>
       <c r="L164" s="18"/>
@@ -22491,24 +22573,24 @@
       <c r="AG164" s="20"/>
       <c r="AH164" s="20"/>
       <c r="AI164" s="20">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AJ164" s="20"/>
       <c r="AK164" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AL164" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:38">
       <c r="A165" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C165" s="11" t="s">
         <v>5</v>
@@ -22519,10 +22601,10 @@
       </c>
       <c r="E165" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>231</v>
@@ -22531,15 +22613,13 @@
         <v>303</v>
       </c>
       <c r="I165" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J165" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
-      </c>
-      <c r="K165" s="11">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K165" s="11"/>
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
@@ -22564,16 +22644,16 @@
       <c r="AG165" s="20"/>
       <c r="AH165" s="20"/>
       <c r="AI165" s="20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ165" s="20"/>
       <c r="AK165" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL165" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:38">
@@ -22584,7 +22664,7 @@
         <v>283</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D166" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22595,23 +22675,23 @@
         <v>20</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I166" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J166" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K166" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L166" s="18"/>
       <c r="M166" s="18"/>
@@ -22631,14 +22711,14 @@
       <c r="AA166" s="20"/>
       <c r="AB166" s="20"/>
       <c r="AC166" s="20"/>
-      <c r="AD166" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AD166" s="20"/>
       <c r="AE166" s="20"/>
       <c r="AF166" s="20"/>
       <c r="AG166" s="20"/>
       <c r="AH166" s="20"/>
-      <c r="AI166" s="20"/>
+      <c r="AI166" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AJ166" s="20"/>
       <c r="AK166" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -22646,45 +22726,45 @@
       </c>
       <c r="AL166" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:38">
       <c r="A167" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E167" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I167" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K167" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L167" s="18"/>
       <c r="M167" s="18"/>
@@ -22696,9 +22776,7 @@
       <c r="S167" s="19"/>
       <c r="T167" s="18"/>
       <c r="U167" s="18"/>
-      <c r="V167" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V167" s="18"/>
       <c r="W167" s="19"/>
       <c r="X167" s="20"/>
       <c r="Y167" s="20"/>
@@ -22706,7 +22784,9 @@
       <c r="AA167" s="20"/>
       <c r="AB167" s="20"/>
       <c r="AC167" s="20"/>
-      <c r="AD167" s="20"/>
+      <c r="AD167" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AE167" s="20"/>
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
@@ -22718,6 +22798,79 @@
         <v>0.5</v>
       </c>
       <c r="AL167" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38">
+      <c r="A168" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B168" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>50</v>
+      </c>
+      <c r="E168" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I168" s="11">
+        <v>2</v>
+      </c>
+      <c r="J168" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="K168" s="11">
+        <v>8</v>
+      </c>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="N168" s="18"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="18"/>
+      <c r="Q168" s="18"/>
+      <c r="R168" s="18"/>
+      <c r="S168" s="19"/>
+      <c r="T168" s="18"/>
+      <c r="U168" s="18"/>
+      <c r="V168" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W168" s="19"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="20"/>
+      <c r="AA168" s="20"/>
+      <c r="AB168" s="20"/>
+      <c r="AC168" s="20"/>
+      <c r="AD168" s="20"/>
+      <c r="AE168" s="20"/>
+      <c r="AF168" s="20"/>
+      <c r="AG168" s="20"/>
+      <c r="AH168" s="20"/>
+      <c r="AI168" s="20"/>
+      <c r="AJ168" s="20"/>
+      <c r="AK168" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL168" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
@@ -22737,10 +22890,10 @@
   <dimension ref="A1:AE141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
+      <selection pane="bottomRight" activeCell="X64" sqref="X64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -28656,22 +28809,22 @@
         <v>3</v>
       </c>
       <c r="L63" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N63" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O63" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P63" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R63" s="32"/>
       <c r="S63" s="33" t="s">
@@ -28710,7 +28863,7 @@
       <c r="AD63" s="33"/>
       <c r="AE63" s="37">
         <f>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -28788,24 +28941,24 @@
         <v>4</v>
       </c>
       <c r="Y64" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z64" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA64" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB64" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC64" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD64" s="33"/>
       <c r="AE64" s="37">
         <f>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" customFormat="1"/>
@@ -28898,8 +29051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -34266,14 +34419,6 @@
       <formula>NOT(ISERROR(SEARCH("SEM1",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:T121">
-    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
-      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="C">
-      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F121">
     <cfRule type="colorScale" priority="169">
       <colorScale>
@@ -34294,6 +34439,14 @@
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:T121">
+    <cfRule type="containsText" dxfId="1" priority="15" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",H2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="16" operator="containsText" text="C">
+      <formula>NOT(ISERROR(SEARCH("C",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35064,7 +35217,7 @@
       </c>
       <c r="C33">
         <f>SUMIF(Table1[Module Code],Sheet2!A33,Table1[Total Hours])</f>
-        <v>45.5</v>
+        <v>30.5</v>
       </c>
       <c r="D33">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A33,Table14[Module Code],0))</f>
@@ -35072,11 +35225,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>67.5</v>
+        <v>52.5</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -35904,19 +36057,19 @@
       </c>
       <c r="C68">
         <f>SUMIF(Table1[Module Code],Sheet2!A68,Table1[Total Hours])</f>
-        <v>80</v>
+        <v>37.5</v>
       </c>
       <c r="D68">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A68,Table14[Module Code],0))</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E68">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>76.5</v>
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>5.65</v>
+        <v>3.8250000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -35928,19 +36081,19 @@
       </c>
       <c r="C69">
         <f>SUMIF(Table1[Module Code],Sheet2!A69,Table1[Total Hours])</f>
-        <v>80</v>
+        <v>64.5</v>
       </c>
       <c r="D69">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A69,Table14[Module Code],0))</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E69">
         <f t="shared" ref="E69" si="2">SUM(C69:D69)</f>
-        <v>124</v>
+        <v>103.5</v>
       </c>
       <c r="F69">
         <f t="shared" ref="F69:F70" si="3">E69/B69</f>
-        <v>6.2</v>
+        <v>5.1749999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1444" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B177C1E-3597-454F-889E-74E955895744}"/>
+  <xr:revisionPtr revIDLastSave="1449" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6624DEAD-B975-46D5-9197-10F2020A97B4}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15370" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="376">
   <si>
     <t>Module Code</t>
   </si>
@@ -1146,9 +1146,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>:B</t>
   </si>
   <si>
     <t>Weekly tests</t>
@@ -1279,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1418,24 +1415,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -9078,7 +9057,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9996,10 +9975,10 @@
   <dimension ref="A1:AL174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H72" sqref="H72"/>
+      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -13710,7 +13689,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>231</v>
@@ -14841,24 +14820,24 @@
       </c>
     </row>
     <row r="63" spans="1:38">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D63" s="51">
+      <c r="D63" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="E63" s="51">
+      <c r="E63" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="F63" s="12" t="s">
         <v>365</v>
       </c>
       <c r="G63" s="11" t="s">
@@ -14867,14 +14846,14 @@
       <c r="H63" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="I63" s="50">
+      <c r="I63" s="11">
         <v>1</v>
       </c>
-      <c r="J63" s="52">
+      <c r="J63" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="K63" s="50">
+      <c r="K63" s="11">
         <v>0.5</v>
       </c>
       <c r="L63" s="18">
@@ -14922,11 +14901,11 @@
       <c r="AH63" s="20"/>
       <c r="AI63" s="20"/>
       <c r="AJ63" s="20"/>
-      <c r="AK63" s="53">
+      <c r="AK63" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0</v>
       </c>
-      <c r="AL63" s="53">
+      <c r="AL63" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5</v>
       </c>
@@ -15180,19 +15159,19 @@
       <c r="B67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="D67" s="51">
+      <c r="C67" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E67" s="51">
+      <c r="E67" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F67" s="50" t="s">
-        <v>369</v>
+      <c r="F67" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>222</v>
@@ -15200,14 +15179,14 @@
       <c r="H67" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="I67" s="50">
+      <c r="I67" s="11">
         <v>1</v>
       </c>
-      <c r="J67" s="52">
+      <c r="J67" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K67" s="50">
+      <c r="K67" s="11">
         <v>0.5</v>
       </c>
       <c r="L67" s="18"/>
@@ -15251,11 +15230,11 @@
       <c r="AH67" s="20"/>
       <c r="AI67" s="20"/>
       <c r="AJ67" s="20"/>
-      <c r="AK67" s="53">
+      <c r="AK67" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0</v>
       </c>
-      <c r="AL67" s="53">
+      <c r="AL67" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
@@ -15278,8 +15257,8 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F68" s="50" t="s">
-        <v>370</v>
+      <c r="F68" s="11" t="s">
+        <v>369</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>231</v>
@@ -15351,8 +15330,8 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F69" s="50" t="s">
-        <v>371</v>
+      <c r="F69" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>231</v>
@@ -15484,18 +15463,18 @@
       <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="51">
+      <c r="D71" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E71" s="51">
+      <c r="E71" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F71" s="50" t="s">
+      <c r="F71" s="11" t="s">
         <v>290</v>
       </c>
       <c r="G71" s="11" t="s">
@@ -15504,14 +15483,14 @@
       <c r="H71" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="I71" s="50">
+      <c r="I71" s="11">
         <v>4</v>
       </c>
-      <c r="J71" s="52">
+      <c r="J71" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>18</v>
       </c>
-      <c r="K71" s="50"/>
+      <c r="K71" s="11"/>
       <c r="L71" s="18"/>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
@@ -15539,11 +15518,11 @@
       <c r="AH71" s="20"/>
       <c r="AI71" s="20"/>
       <c r="AJ71" s="20"/>
-      <c r="AK71" s="53">
+      <c r="AK71" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.45</v>
       </c>
-      <c r="AL71" s="53">
+      <c r="AL71" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>18</v>
       </c>
@@ -15851,18 +15830,18 @@
       <c r="B76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D76" s="51">
+      <c r="D76" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E76" s="51">
+      <c r="E76" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="11" t="s">
         <v>365</v>
       </c>
       <c r="G76" s="11" t="s">
@@ -15871,14 +15850,14 @@
       <c r="H76" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="I76" s="50">
+      <c r="I76" s="11">
         <v>1</v>
       </c>
-      <c r="J76" s="52">
+      <c r="J76" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2.125</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="11">
         <v>0.5</v>
       </c>
       <c r="L76" s="18">
@@ -15922,11 +15901,11 @@
       <c r="AH76" s="20"/>
       <c r="AI76" s="20"/>
       <c r="AJ76" s="20"/>
-      <c r="AK76" s="53">
+      <c r="AK76" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0</v>
       </c>
-      <c r="AL76" s="53">
+      <c r="AL76" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>4</v>
       </c>
@@ -15938,19 +15917,19 @@
       <c r="B77" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D77" s="51">
+      <c r="D77" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E77" s="51">
+      <c r="E77" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F77" s="50" t="s">
-        <v>372</v>
+      <c r="F77" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>231</v>
@@ -15958,14 +15937,14 @@
       <c r="H77" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I77" s="50">
+      <c r="I77" s="11">
         <v>5</v>
       </c>
-      <c r="J77" s="52">
+      <c r="J77" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
-      <c r="K77" s="50">
+      <c r="K77" s="11">
         <v>0.5</v>
       </c>
       <c r="L77" s="18"/>
@@ -15995,11 +15974,11 @@
       <c r="AH77" s="20"/>
       <c r="AI77" s="20"/>
       <c r="AJ77" s="20"/>
-      <c r="AK77" s="53">
+      <c r="AK77" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AL77" s="53">
+      <c r="AL77" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
@@ -16011,19 +15990,19 @@
       <c r="B78" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="51">
+      <c r="D78" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E78" s="51">
+      <c r="E78" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F78" s="50" t="s">
-        <v>373</v>
+      <c r="F78" s="11" t="s">
+        <v>372</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>231</v>
@@ -16031,14 +16010,14 @@
       <c r="H78" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I78" s="50">
+      <c r="I78" s="11">
         <v>5</v>
       </c>
-      <c r="J78" s="52">
+      <c r="J78" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
-      <c r="K78" s="50">
+      <c r="K78" s="11">
         <v>0.5</v>
       </c>
       <c r="L78" s="18"/>
@@ -16068,11 +16047,11 @@
       <c r="AH78" s="20"/>
       <c r="AI78" s="20"/>
       <c r="AJ78" s="20"/>
-      <c r="AK78" s="53">
+      <c r="AK78" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.1</v>
       </c>
-      <c r="AL78" s="53">
+      <c r="AL78" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
@@ -16084,18 +16063,18 @@
       <c r="B79" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="51">
+      <c r="D79" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E79" s="51">
+      <c r="E79" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="11" t="s">
         <v>289</v>
       </c>
       <c r="G79" s="11" t="s">
@@ -16104,14 +16083,14 @@
       <c r="H79" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I79" s="50">
+      <c r="I79" s="11">
         <v>4</v>
       </c>
-      <c r="J79" s="52">
+      <c r="J79" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>14</v>
       </c>
-      <c r="K79" s="50"/>
+      <c r="K79" s="11"/>
       <c r="L79" s="18"/>
       <c r="M79" s="18"/>
       <c r="N79" s="18"/>
@@ -16139,11 +16118,11 @@
       <c r="AH79" s="20"/>
       <c r="AI79" s="20"/>
       <c r="AJ79" s="20"/>
-      <c r="AK79" s="53">
+      <c r="AK79" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0.35</v>
       </c>
-      <c r="AL79" s="53">
+      <c r="AL79" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>14</v>
       </c>
@@ -16915,7 +16894,7 @@
         <v>20</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>222</v>
@@ -16994,19 +16973,19 @@
       <c r="B91" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D91" s="51">
+      <c r="D91" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>30</v>
       </c>
-      <c r="E91" s="51">
+      <c r="E91" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F91" s="50" t="s">
-        <v>374</v>
+      <c r="F91" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>231</v>
@@ -17014,14 +16993,14 @@
       <c r="H91" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I91" s="50">
+      <c r="I91" s="11">
         <v>11</v>
       </c>
-      <c r="J91" s="52">
+      <c r="J91" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="K91" s="50"/>
+      <c r="K91" s="11"/>
       <c r="L91" s="18"/>
       <c r="M91" s="18"/>
       <c r="N91" s="18"/>
@@ -17049,11 +17028,11 @@
       </c>
       <c r="AI91" s="20"/>
       <c r="AJ91" s="20"/>
-      <c r="AK91" s="53">
+      <c r="AK91" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AL91" s="53">
+      <c r="AL91" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>5.6000000000000005</v>
       </c>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1449" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6624DEAD-B975-46D5-9197-10F2020A97B4}"/>
+  <xr:revisionPtr revIDLastSave="1456" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0B2FFB-31C4-44AA-A778-9A8AC9EBCF19}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="3" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9057,7 +9057,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9507,7 +9507,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL174" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
-  <autoFilter ref="A1:AL174" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+  <autoFilter ref="A1:AL174" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="LB"/>
+        <filter val="PJ"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI147">
     <sortCondition ref="A1:A147"/>
   </sortState>
@@ -9975,10 +9982,10 @@
   <dimension ref="A1:AL174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C67" sqref="C67"/>
+      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10111,7 +10118,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" hidden="1">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -10190,7 +10197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" hidden="1">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -10263,7 +10270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" hidden="1">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -10336,7 +10343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" hidden="1">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -10427,7 +10434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" hidden="1">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -10504,7 +10511,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" hidden="1">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -10575,7 +10582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" hidden="1">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -10802,7 +10809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" hidden="1">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -10875,7 +10882,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" hidden="1">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -11057,7 +11064,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" hidden="1">
       <c r="A14" s="3" t="s">
         <v>190</v>
       </c>
@@ -11130,7 +11137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" hidden="1">
       <c r="A15" s="3" t="s">
         <v>190</v>
       </c>
@@ -11205,7 +11212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" hidden="1">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -11286,7 +11293,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" hidden="1">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -11357,7 +11364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" hidden="1">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -11430,7 +11437,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" hidden="1">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -11507,7 +11514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" hidden="1">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -11578,7 +11585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" hidden="1">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -11649,7 +11656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" hidden="1">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" hidden="1">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -11815,7 +11822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" hidden="1">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -11913,7 +11920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" hidden="1">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -11986,7 +11993,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" hidden="1">
       <c r="A26" s="4" t="s">
         <v>235</v>
       </c>
@@ -12077,7 +12084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" hidden="1">
       <c r="A27" s="4" t="s">
         <v>235</v>
       </c>
@@ -12154,7 +12161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" hidden="1">
       <c r="A28" s="4" t="s">
         <v>235</v>
       </c>
@@ -12227,7 +12234,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" hidden="1">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -12375,7 +12382,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" hidden="1">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -12448,7 +12455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" hidden="1">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -12521,7 +12528,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" hidden="1">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12600,7 +12607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" hidden="1">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -12691,7 +12698,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" hidden="1">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -12768,7 +12775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" hidden="1">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -12843,7 +12850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" hidden="1">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -12997,7 +13004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" hidden="1">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13068,7 +13075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" hidden="1">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -13301,7 +13308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" hidden="1">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -13374,7 +13381,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" hidden="1">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -13526,7 +13533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" hidden="1">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -13597,7 +13604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" hidden="1">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
@@ -13670,7 +13677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" hidden="1">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -13741,7 +13748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" hidden="1">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -13832,7 +13839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" hidden="1">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -13907,7 +13914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" hidden="1">
       <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
@@ -13915,7 +13922,7 @@
         <v>89</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="D51" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -13982,7 +13989,7 @@
         <v>12.000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" hidden="1">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -14073,7 +14080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" hidden="1">
       <c r="A53" s="3" t="s">
         <v>92</v>
       </c>
@@ -14144,7 +14151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" hidden="1">
       <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
@@ -14302,7 +14309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" hidden="1">
       <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
@@ -14373,7 +14380,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="14.65" customHeight="1">
+    <row r="57" spans="1:38" ht="14.65" hidden="1" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>94</v>
       </c>
@@ -14446,7 +14453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" hidden="1">
       <c r="A58" s="3" t="s">
         <v>94</v>
       </c>
@@ -14604,7 +14611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" hidden="1">
       <c r="A60" s="3" t="s">
         <v>98</v>
       </c>
@@ -14675,7 +14682,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" hidden="1">
       <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
@@ -14748,7 +14755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" hidden="1">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -14819,7 +14826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" hidden="1">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
@@ -14910,7 +14917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" hidden="1">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
@@ -14983,7 +14990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" hidden="1">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -15054,7 +15061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" hidden="1">
       <c r="A66" s="4" t="s">
         <v>249</v>
       </c>
@@ -15152,7 +15159,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" hidden="1">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -15239,7 +15246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" hidden="1">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
@@ -15312,7 +15319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" hidden="1">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -15385,7 +15392,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" hidden="1">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -15456,7 +15463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" hidden="1">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -15527,7 +15534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" hidden="1">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
@@ -15600,7 +15607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" hidden="1">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -15677,7 +15684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" hidden="1">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -15750,7 +15757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" hidden="1">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -15823,7 +15830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" hidden="1">
       <c r="A76" s="4" t="s">
         <v>15</v>
       </c>
@@ -15910,7 +15917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" hidden="1">
       <c r="A77" s="4" t="s">
         <v>15</v>
       </c>
@@ -15983,7 +15990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" hidden="1">
       <c r="A78" s="4" t="s">
         <v>15</v>
       </c>
@@ -16056,7 +16063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" hidden="1">
       <c r="A79" s="4" t="s">
         <v>15</v>
       </c>
@@ -16127,7 +16134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" hidden="1">
       <c r="A80" s="4" t="s">
         <v>15</v>
       </c>
@@ -16198,7 +16205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" hidden="1">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -16279,7 +16286,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" hidden="1">
       <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
@@ -16350,7 +16357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" hidden="1">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -16441,7 +16448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" hidden="1">
       <c r="A84" s="4" t="s">
         <v>24</v>
       </c>
@@ -16514,7 +16521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" hidden="1">
       <c r="A85" s="4" t="s">
         <v>24</v>
       </c>
@@ -16587,7 +16594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:38" hidden="1">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
@@ -16660,7 +16667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:38" hidden="1">
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
@@ -16733,7 +16740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:38" hidden="1">
       <c r="A88" s="8" t="s">
         <v>21</v>
       </c>
@@ -16804,7 +16811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:38" hidden="1">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -16875,7 +16882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:38" hidden="1">
       <c r="A90" s="3" t="s">
         <v>109</v>
       </c>
@@ -16966,7 +16973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:38" hidden="1">
       <c r="A91" s="3" t="s">
         <v>109</v>
       </c>
@@ -17037,7 +17044,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" hidden="1">
       <c r="A92" s="3" t="s">
         <v>109</v>
       </c>
@@ -17112,7 +17119,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" hidden="1">
       <c r="A93" s="3" t="s">
         <v>191</v>
       </c>
@@ -17183,7 +17190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:38" hidden="1">
       <c r="A94" s="3" t="s">
         <v>111</v>
       </c>
@@ -17254,7 +17261,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:38" hidden="1">
       <c r="A95" s="3" t="s">
         <v>111</v>
       </c>
@@ -17325,7 +17332,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="96" spans="1:38">
+    <row r="96" spans="1:38" hidden="1">
       <c r="A96" s="3" t="s">
         <v>192</v>
       </c>
@@ -17398,7 +17405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:38">
+    <row r="97" spans="1:38" hidden="1">
       <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
@@ -17471,7 +17478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:38">
+    <row r="98" spans="1:38" hidden="1">
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
@@ -17544,7 +17551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:38">
+    <row r="99" spans="1:38" hidden="1">
       <c r="A99" s="3" t="s">
         <v>112</v>
       </c>
@@ -17617,7 +17624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:38">
+    <row r="100" spans="1:38" hidden="1">
       <c r="A100" s="3" t="s">
         <v>112</v>
       </c>
@@ -17690,7 +17697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:38">
+    <row r="101" spans="1:38" hidden="1">
       <c r="A101" s="3" t="s">
         <v>103</v>
       </c>
@@ -17761,7 +17768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:38">
+    <row r="102" spans="1:38" hidden="1">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -17832,7 +17839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:38">
+    <row r="103" spans="1:38" hidden="1">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -17913,7 +17920,7 @@
         <v>23</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D104" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -18025,7 +18032,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:38">
+    <row r="105" spans="1:38" hidden="1">
       <c r="A105" s="9" t="s">
         <v>48</v>
       </c>
@@ -18102,7 +18109,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:38">
+    <row r="106" spans="1:38" hidden="1">
       <c r="A106" s="9" t="s">
         <v>48</v>
       </c>
@@ -18325,7 +18332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:38">
+    <row r="109" spans="1:38" hidden="1">
       <c r="A109" s="9" t="s">
         <v>48</v>
       </c>
@@ -18398,7 +18405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:38">
+    <row r="110" spans="1:38" hidden="1">
       <c r="A110" s="4" t="s">
         <v>64</v>
       </c>
@@ -18499,7 +18506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:38">
+    <row r="111" spans="1:38" hidden="1">
       <c r="A111" s="4" t="s">
         <v>64</v>
       </c>
@@ -18570,7 +18577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:38">
+    <row r="112" spans="1:38" hidden="1">
       <c r="A112" s="4" t="s">
         <v>239</v>
       </c>
@@ -18641,7 +18648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:38">
+    <row r="113" spans="1:38" hidden="1">
       <c r="A113" s="4" t="s">
         <v>239</v>
       </c>
@@ -18712,7 +18719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:38">
+    <row r="114" spans="1:38" hidden="1">
       <c r="A114" s="4" t="s">
         <v>66</v>
       </c>
@@ -18785,7 +18792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:38">
+    <row r="115" spans="1:38" hidden="1">
       <c r="A115" s="4" t="s">
         <v>66</v>
       </c>
@@ -18856,7 +18863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:38">
+    <row r="116" spans="1:38" hidden="1">
       <c r="A116" s="4" t="s">
         <v>69</v>
       </c>
@@ -18943,7 +18950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:38">
+    <row r="117" spans="1:38" hidden="1">
       <c r="A117" s="4" t="s">
         <v>69</v>
       </c>
@@ -19016,7 +19023,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:38">
+    <row r="118" spans="1:38" hidden="1">
       <c r="A118" s="4" t="s">
         <v>72</v>
       </c>
@@ -19103,7 +19110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:38">
+    <row r="119" spans="1:38" hidden="1">
       <c r="A119" s="4" t="s">
         <v>72</v>
       </c>
@@ -19247,7 +19254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:38">
+    <row r="121" spans="1:38" hidden="1">
       <c r="A121" s="4" t="s">
         <v>74</v>
       </c>
@@ -19338,7 +19345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:38">
+    <row r="122" spans="1:38" hidden="1">
       <c r="A122" s="4" t="s">
         <v>74</v>
       </c>
@@ -19415,7 +19422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:38">
+    <row r="123" spans="1:38" hidden="1">
       <c r="A123" s="3" t="s">
         <v>193</v>
       </c>
@@ -19486,7 +19493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:38">
+    <row r="124" spans="1:38" hidden="1">
       <c r="A124" s="3" t="s">
         <v>194</v>
       </c>
@@ -19559,7 +19566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:38">
+    <row r="125" spans="1:38" hidden="1">
       <c r="A125" s="3" t="s">
         <v>195</v>
       </c>
@@ -19650,7 +19657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:38">
+    <row r="126" spans="1:38" hidden="1">
       <c r="A126" s="3" t="s">
         <v>195</v>
       </c>
@@ -19721,7 +19728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:38">
+    <row r="127" spans="1:38" hidden="1">
       <c r="A127" s="3" t="s">
         <v>195</v>
       </c>
@@ -19794,7 +19801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:38">
+    <row r="128" spans="1:38" hidden="1">
       <c r="A128" s="3" t="s">
         <v>196</v>
       </c>
@@ -19875,7 +19882,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" hidden="1">
       <c r="A129" s="3" t="s">
         <v>196</v>
       </c>
@@ -19956,7 +19963,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" hidden="1">
       <c r="A130" s="3" t="s">
         <v>117</v>
       </c>
@@ -20027,7 +20034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" hidden="1">
       <c r="A131" s="3" t="s">
         <v>117</v>
       </c>
@@ -20098,7 +20105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" hidden="1">
       <c r="A132" s="3" t="s">
         <v>117</v>
       </c>
@@ -20169,7 +20176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" hidden="1">
       <c r="A133" s="3" t="s">
         <v>240</v>
       </c>
@@ -20260,7 +20267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" hidden="1">
       <c r="A134" s="3" t="s">
         <v>240</v>
       </c>
@@ -20333,7 +20340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" hidden="1">
       <c r="A135" s="3" t="s">
         <v>119</v>
       </c>
@@ -20424,7 +20431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" hidden="1">
       <c r="A136" s="3" t="s">
         <v>71</v>
       </c>
@@ -20497,7 +20504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" hidden="1">
       <c r="A137" s="3" t="s">
         <v>197</v>
       </c>
@@ -20570,7 +20577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" hidden="1">
       <c r="A138" s="3" t="s">
         <v>197</v>
       </c>
@@ -20641,7 +20648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" hidden="1">
       <c r="A139" s="3" t="s">
         <v>198</v>
       </c>
@@ -20712,7 +20719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" hidden="1">
       <c r="A140" s="3" t="s">
         <v>198</v>
       </c>
@@ -20783,7 +20790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" hidden="1">
       <c r="A141" s="3" t="s">
         <v>198</v>
       </c>
@@ -20862,7 +20869,7 @@
         <v>23</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D142" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20974,7 +20981,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" hidden="1">
       <c r="A143" s="4" t="s">
         <v>77</v>
       </c>
@@ -21051,7 +21058,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" hidden="1">
       <c r="A144" s="4" t="s">
         <v>77</v>
       </c>
@@ -21347,7 +21354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:38">
+    <row r="148" spans="1:38" hidden="1">
       <c r="A148" s="4" t="s">
         <v>77</v>
       </c>
@@ -21420,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:38">
+    <row r="149" spans="1:38" hidden="1">
       <c r="A149" s="4" t="s">
         <v>77</v>
       </c>
@@ -21493,7 +21500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:38">
+    <row r="150" spans="1:38" hidden="1">
       <c r="A150" s="4" t="s">
         <v>245</v>
       </c>
@@ -21564,7 +21571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:38">
+    <row r="151" spans="1:38" hidden="1">
       <c r="A151" s="4" t="s">
         <v>245</v>
       </c>
@@ -21635,7 +21642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:38">
+    <row r="152" spans="1:38" hidden="1">
       <c r="A152" s="4" t="s">
         <v>245</v>
       </c>
@@ -21706,7 +21713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:38">
+    <row r="153" spans="1:38" hidden="1">
       <c r="A153" s="4" t="s">
         <v>247</v>
       </c>
@@ -21779,7 +21786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:38">
+    <row r="154" spans="1:38" hidden="1">
       <c r="A154" s="4" t="s">
         <v>243</v>
       </c>
@@ -21868,7 +21875,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:38">
+    <row r="155" spans="1:38" hidden="1">
       <c r="A155" s="4" t="s">
         <v>243</v>
       </c>
@@ -21957,7 +21964,7 @@
         <v>7.9999999999999982</v>
       </c>
     </row>
-    <row r="156" spans="1:38">
+    <row r="156" spans="1:38" hidden="1">
       <c r="A156" s="4" t="s">
         <v>243</v>
       </c>
@@ -22028,7 +22035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:38">
+    <row r="157" spans="1:38" hidden="1">
       <c r="A157" s="4" t="s">
         <v>184</v>
       </c>
@@ -22099,7 +22106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:38">
+    <row r="158" spans="1:38" hidden="1">
       <c r="A158" s="4" t="s">
         <v>184</v>
       </c>
@@ -22170,7 +22177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:38">
+    <row r="159" spans="1:38" hidden="1">
       <c r="A159" s="4" t="s">
         <v>184</v>
       </c>
@@ -22314,7 +22321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:38">
+    <row r="161" spans="1:38" hidden="1">
       <c r="A161" s="4" t="s">
         <v>184</v>
       </c>
@@ -22387,7 +22394,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:38">
+    <row r="162" spans="1:38" hidden="1">
       <c r="A162" s="4" t="s">
         <v>184</v>
       </c>
@@ -22460,7 +22467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38">
+    <row r="163" spans="1:38" hidden="1">
       <c r="A163" s="4" t="s">
         <v>185</v>
       </c>
@@ -22604,7 +22611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:38">
+    <row r="165" spans="1:38" hidden="1">
       <c r="A165" s="4" t="s">
         <v>185</v>
       </c>
@@ -22746,7 +22753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:38">
+    <row r="167" spans="1:38" hidden="1">
       <c r="A167" s="3" t="s">
         <v>275</v>
       </c>
@@ -22817,7 +22824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:38">
+    <row r="168" spans="1:38" hidden="1">
       <c r="A168" s="3" t="s">
         <v>275</v>
       </c>
@@ -22888,7 +22895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:38">
+    <row r="169" spans="1:38" hidden="1">
       <c r="A169" s="3" t="s">
         <v>279</v>
       </c>
@@ -22959,7 +22966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:38">
+    <row r="170" spans="1:38" hidden="1">
       <c r="A170" s="3" t="s">
         <v>279</v>
       </c>
@@ -23030,7 +23037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:38">
+    <row r="171" spans="1:38" hidden="1">
       <c r="A171" s="3" t="s">
         <v>279</v>
       </c>
@@ -23101,7 +23108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:38">
+    <row r="172" spans="1:38" hidden="1">
       <c r="A172" s="3" t="s">
         <v>281</v>
       </c>
@@ -23174,7 +23181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:38">
+    <row r="173" spans="1:38" hidden="1">
       <c r="A173" s="3" t="s">
         <v>281</v>
       </c>
@@ -23247,7 +23254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38">
+    <row r="174" spans="1:38" hidden="1">
       <c r="A174" s="3" t="s">
         <v>282</v>
       </c>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1456" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0B2FFB-31C4-44AA-A778-9A8AC9EBCF19}"/>
+  <xr:revisionPtr revIDLastSave="1457" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42778762-48F5-4964-8CB7-FB5F0158F282}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="5240" yWindow="5240" windowWidth="28800" windowHeight="15370" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9057,7 +9057,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9507,14 +9507,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL174" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
-  <autoFilter ref="A1:AL174" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LB"/>
-        <filter val="PJ"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL174" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI147">
     <sortCondition ref="A1:A147"/>
   </sortState>
@@ -9982,10 +9975,10 @@
   <dimension ref="A1:AL174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10118,7 +10111,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:38" hidden="1">
+    <row r="2" spans="1:38">
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
@@ -10197,7 +10190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" hidden="1">
+    <row r="3" spans="1:38">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
@@ -10270,7 +10263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:38" hidden="1">
+    <row r="4" spans="1:38">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -10343,7 +10336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:38" hidden="1">
+    <row r="5" spans="1:38">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -10434,7 +10427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:38" hidden="1">
+    <row r="6" spans="1:38">
       <c r="A6" s="4" t="s">
         <v>60</v>
       </c>
@@ -10511,7 +10504,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:38" hidden="1">
+    <row r="7" spans="1:38">
       <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
@@ -10582,7 +10575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:38" hidden="1">
+    <row r="8" spans="1:38">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -10809,7 +10802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:38" hidden="1">
+    <row r="11" spans="1:38">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
@@ -10882,7 +10875,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="12" spans="1:38" hidden="1">
+    <row r="12" spans="1:38">
       <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
@@ -11064,7 +11057,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:38" hidden="1">
+    <row r="14" spans="1:38">
       <c r="A14" s="3" t="s">
         <v>190</v>
       </c>
@@ -11137,7 +11130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:38" hidden="1">
+    <row r="15" spans="1:38">
       <c r="A15" s="3" t="s">
         <v>190</v>
       </c>
@@ -11212,7 +11205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:38" hidden="1">
+    <row r="16" spans="1:38">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -11293,7 +11286,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:38" hidden="1">
+    <row r="17" spans="1:38">
       <c r="A17" s="3" t="s">
         <v>86</v>
       </c>
@@ -11364,7 +11357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" hidden="1">
+    <row r="18" spans="1:38">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -11437,7 +11430,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="19" spans="1:38" hidden="1">
+    <row r="19" spans="1:38">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -11514,7 +11507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:38" hidden="1">
+    <row r="20" spans="1:38">
       <c r="A20" s="3" t="s">
         <v>85</v>
       </c>
@@ -11585,7 +11578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" hidden="1">
+    <row r="21" spans="1:38">
       <c r="A21" s="3" t="s">
         <v>85</v>
       </c>
@@ -11656,7 +11649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:38" hidden="1">
+    <row r="22" spans="1:38">
       <c r="A22" s="4" t="s">
         <v>37</v>
       </c>
@@ -11747,7 +11740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:38" hidden="1">
+    <row r="23" spans="1:38">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -11822,7 +11815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:38" hidden="1">
+    <row r="24" spans="1:38">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
@@ -11920,7 +11913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:38" hidden="1">
+    <row r="25" spans="1:38">
       <c r="A25" s="4" t="s">
         <v>47</v>
       </c>
@@ -11993,7 +11986,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:38" hidden="1">
+    <row r="26" spans="1:38">
       <c r="A26" s="4" t="s">
         <v>235</v>
       </c>
@@ -12084,7 +12077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:38" hidden="1">
+    <row r="27" spans="1:38">
       <c r="A27" s="4" t="s">
         <v>235</v>
       </c>
@@ -12161,7 +12154,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:38" hidden="1">
+    <row r="28" spans="1:38">
       <c r="A28" s="4" t="s">
         <v>235</v>
       </c>
@@ -12234,7 +12227,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:38" hidden="1">
+    <row r="29" spans="1:38">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -12382,7 +12375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:38" hidden="1">
+    <row r="31" spans="1:38">
       <c r="A31" s="4" t="s">
         <v>50</v>
       </c>
@@ -12455,7 +12448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:38" hidden="1">
+    <row r="32" spans="1:38">
       <c r="A32" s="4" t="s">
         <v>50</v>
       </c>
@@ -12528,7 +12521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1">
+    <row r="33" spans="1:38">
       <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12607,7 +12600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:38" hidden="1">
+    <row r="34" spans="1:38">
       <c r="A34" s="4" t="s">
         <v>45</v>
       </c>
@@ -12698,7 +12691,7 @@
         <v>2.0000000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:38" hidden="1">
+    <row r="35" spans="1:38">
       <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
@@ -12775,7 +12768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" hidden="1">
+    <row r="36" spans="1:38">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -12850,7 +12843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:38" hidden="1">
+    <row r="37" spans="1:38">
       <c r="A37" s="4" t="s">
         <v>45</v>
       </c>
@@ -13004,7 +12997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:38" hidden="1">
+    <row r="39" spans="1:38">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -13075,7 +13068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:38" hidden="1">
+    <row r="40" spans="1:38">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -13308,7 +13301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:38" hidden="1">
+    <row r="43" spans="1:38">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -13381,7 +13374,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:38" hidden="1">
+    <row r="44" spans="1:38">
       <c r="A44" s="4" t="s">
         <v>52</v>
       </c>
@@ -13533,7 +13526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:38" hidden="1">
+    <row r="46" spans="1:38">
       <c r="A46" s="4" t="s">
         <v>54</v>
       </c>
@@ -13604,7 +13597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:38" hidden="1">
+    <row r="47" spans="1:38">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
@@ -13677,7 +13670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:38" hidden="1">
+    <row r="48" spans="1:38">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -13748,7 +13741,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:38" hidden="1">
+    <row r="49" spans="1:38">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -13839,7 +13832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:38" hidden="1">
+    <row r="50" spans="1:38">
       <c r="A50" s="3" t="s">
         <v>96</v>
       </c>
@@ -13914,7 +13907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:38" hidden="1">
+    <row r="51" spans="1:38">
       <c r="A51" s="3" t="s">
         <v>97</v>
       </c>
@@ -13989,7 +13982,7 @@
         <v>12.000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:38" hidden="1">
+    <row r="52" spans="1:38">
       <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
@@ -14080,7 +14073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:38" hidden="1">
+    <row r="53" spans="1:38">
       <c r="A53" s="3" t="s">
         <v>92</v>
       </c>
@@ -14151,7 +14144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:38" hidden="1">
+    <row r="54" spans="1:38">
       <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
@@ -14309,7 +14302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" hidden="1">
+    <row r="56" spans="1:38">
       <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
@@ -14380,7 +14373,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="14.65" hidden="1" customHeight="1">
+    <row r="57" spans="1:38" ht="14.65" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>94</v>
       </c>
@@ -14453,7 +14446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:38" hidden="1">
+    <row r="58" spans="1:38">
       <c r="A58" s="3" t="s">
         <v>94</v>
       </c>
@@ -14611,7 +14604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" hidden="1">
+    <row r="60" spans="1:38">
       <c r="A60" s="3" t="s">
         <v>98</v>
       </c>
@@ -14682,7 +14675,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="61" spans="1:38" hidden="1">
+    <row r="61" spans="1:38">
       <c r="A61" s="3" t="s">
         <v>98</v>
       </c>
@@ -14755,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38" hidden="1">
+    <row r="62" spans="1:38">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -14826,7 +14819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" hidden="1">
+    <row r="63" spans="1:38">
       <c r="A63" s="3" t="s">
         <v>1</v>
       </c>
@@ -14917,7 +14910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:38" hidden="1">
+    <row r="64" spans="1:38">
       <c r="A64" s="4" t="s">
         <v>1</v>
       </c>
@@ -14990,7 +14983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:38" hidden="1">
+    <row r="65" spans="1:38">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -15061,7 +15054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:38" hidden="1">
+    <row r="66" spans="1:38">
       <c r="A66" s="4" t="s">
         <v>249</v>
       </c>
@@ -15159,7 +15152,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="67" spans="1:38" hidden="1">
+    <row r="67" spans="1:38">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -15246,7 +15239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:38" hidden="1">
+    <row r="68" spans="1:38">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
@@ -15319,7 +15312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:38" hidden="1">
+    <row r="69" spans="1:38">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -15392,7 +15385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" hidden="1">
+    <row r="70" spans="1:38">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
@@ -15463,7 +15456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:38" hidden="1">
+    <row r="71" spans="1:38">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -15534,7 +15527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:38" hidden="1">
+    <row r="72" spans="1:38">
       <c r="A72" s="4" t="s">
         <v>10</v>
       </c>
@@ -15607,7 +15600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:38" hidden="1">
+    <row r="73" spans="1:38">
       <c r="A73" s="4" t="s">
         <v>14</v>
       </c>
@@ -15684,7 +15677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:38" hidden="1">
+    <row r="74" spans="1:38">
       <c r="A74" s="4" t="s">
         <v>14</v>
       </c>
@@ -15757,7 +15750,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:38" hidden="1">
+    <row r="75" spans="1:38">
       <c r="A75" s="4" t="s">
         <v>14</v>
       </c>
@@ -15830,7 +15823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:38" hidden="1">
+    <row r="76" spans="1:38">
       <c r="A76" s="4" t="s">
         <v>15</v>
       </c>
@@ -15917,7 +15910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" hidden="1">
+    <row r="77" spans="1:38">
       <c r="A77" s="4" t="s">
         <v>15</v>
       </c>
@@ -15990,7 +15983,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:38" hidden="1">
+    <row r="78" spans="1:38">
       <c r="A78" s="4" t="s">
         <v>15</v>
       </c>
@@ -16063,7 +16056,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="79" spans="1:38" hidden="1">
+    <row r="79" spans="1:38">
       <c r="A79" s="4" t="s">
         <v>15</v>
       </c>
@@ -16134,7 +16127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:38" hidden="1">
+    <row r="80" spans="1:38">
       <c r="A80" s="4" t="s">
         <v>15</v>
       </c>
@@ -16205,7 +16198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:38" hidden="1">
+    <row r="81" spans="1:38">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -16286,7 +16279,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="82" spans="1:38" hidden="1">
+    <row r="82" spans="1:38">
       <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
@@ -16357,7 +16350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:38" hidden="1">
+    <row r="83" spans="1:38">
       <c r="A83" s="4" t="s">
         <v>18</v>
       </c>
@@ -16448,7 +16441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:38" hidden="1">
+    <row r="84" spans="1:38">
       <c r="A84" s="4" t="s">
         <v>24</v>
       </c>
@@ -16521,7 +16514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:38" hidden="1">
+    <row r="85" spans="1:38">
       <c r="A85" s="4" t="s">
         <v>24</v>
       </c>
@@ -16594,7 +16587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:38" hidden="1">
+    <row r="86" spans="1:38">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
@@ -16667,7 +16660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:38" hidden="1">
+    <row r="87" spans="1:38">
       <c r="A87" s="4" t="s">
         <v>24</v>
       </c>
@@ -16740,7 +16733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:38" hidden="1">
+    <row r="88" spans="1:38">
       <c r="A88" s="8" t="s">
         <v>21</v>
       </c>
@@ -16811,7 +16804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:38" hidden="1">
+    <row r="89" spans="1:38">
       <c r="A89" s="8" t="s">
         <v>21</v>
       </c>
@@ -16882,7 +16875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:38" hidden="1">
+    <row r="90" spans="1:38">
       <c r="A90" s="3" t="s">
         <v>109</v>
       </c>
@@ -16973,7 +16966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:38" hidden="1">
+    <row r="91" spans="1:38">
       <c r="A91" s="3" t="s">
         <v>109</v>
       </c>
@@ -17044,7 +17037,7 @@
         <v>5.6000000000000005</v>
       </c>
     </row>
-    <row r="92" spans="1:38" hidden="1">
+    <row r="92" spans="1:38">
       <c r="A92" s="3" t="s">
         <v>109</v>
       </c>
@@ -17119,7 +17112,7 @@
         <v>18.400000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:38" hidden="1">
+    <row r="93" spans="1:38">
       <c r="A93" s="3" t="s">
         <v>191</v>
       </c>
@@ -17190,7 +17183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:38" hidden="1">
+    <row r="94" spans="1:38">
       <c r="A94" s="3" t="s">
         <v>111</v>
       </c>
@@ -17261,7 +17254,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="95" spans="1:38" hidden="1">
+    <row r="95" spans="1:38">
       <c r="A95" s="3" t="s">
         <v>111</v>
       </c>
@@ -17332,7 +17325,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="96" spans="1:38" hidden="1">
+    <row r="96" spans="1:38">
       <c r="A96" s="3" t="s">
         <v>192</v>
       </c>
@@ -17405,7 +17398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:38" hidden="1">
+    <row r="97" spans="1:38">
       <c r="A97" s="3" t="s">
         <v>192</v>
       </c>
@@ -17478,7 +17471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:38" hidden="1">
+    <row r="98" spans="1:38">
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
@@ -17551,7 +17544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:38" hidden="1">
+    <row r="99" spans="1:38">
       <c r="A99" s="3" t="s">
         <v>112</v>
       </c>
@@ -17624,7 +17617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:38" hidden="1">
+    <row r="100" spans="1:38">
       <c r="A100" s="3" t="s">
         <v>112</v>
       </c>
@@ -17697,7 +17690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:38" hidden="1">
+    <row r="101" spans="1:38">
       <c r="A101" s="3" t="s">
         <v>103</v>
       </c>
@@ -17768,7 +17761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:38" hidden="1">
+    <row r="102" spans="1:38">
       <c r="A102" s="3" t="s">
         <v>105</v>
       </c>
@@ -17839,7 +17832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:38" hidden="1">
+    <row r="103" spans="1:38">
       <c r="A103" s="3" t="s">
         <v>107</v>
       </c>
@@ -18032,7 +18025,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="105" spans="1:38" hidden="1">
+    <row r="105" spans="1:38">
       <c r="A105" s="9" t="s">
         <v>48</v>
       </c>
@@ -18109,7 +18102,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="106" spans="1:38" hidden="1">
+    <row r="106" spans="1:38">
       <c r="A106" s="9" t="s">
         <v>48</v>
       </c>
@@ -18332,7 +18325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:38" hidden="1">
+    <row r="109" spans="1:38">
       <c r="A109" s="9" t="s">
         <v>48</v>
       </c>
@@ -18405,7 +18398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:38" hidden="1">
+    <row r="110" spans="1:38">
       <c r="A110" s="4" t="s">
         <v>64</v>
       </c>
@@ -18506,7 +18499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:38" hidden="1">
+    <row r="111" spans="1:38">
       <c r="A111" s="4" t="s">
         <v>64</v>
       </c>
@@ -18577,7 +18570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:38" hidden="1">
+    <row r="112" spans="1:38">
       <c r="A112" s="4" t="s">
         <v>239</v>
       </c>
@@ -18648,7 +18641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:38" hidden="1">
+    <row r="113" spans="1:38">
       <c r="A113" s="4" t="s">
         <v>239</v>
       </c>
@@ -18719,7 +18712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:38" hidden="1">
+    <row r="114" spans="1:38">
       <c r="A114" s="4" t="s">
         <v>66</v>
       </c>
@@ -18792,7 +18785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:38" hidden="1">
+    <row r="115" spans="1:38">
       <c r="A115" s="4" t="s">
         <v>66</v>
       </c>
@@ -18863,7 +18856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:38" hidden="1">
+    <row r="116" spans="1:38">
       <c r="A116" s="4" t="s">
         <v>69</v>
       </c>
@@ -18950,7 +18943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:38" hidden="1">
+    <row r="117" spans="1:38">
       <c r="A117" s="4" t="s">
         <v>69</v>
       </c>
@@ -19023,7 +19016,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="118" spans="1:38" hidden="1">
+    <row r="118" spans="1:38">
       <c r="A118" s="4" t="s">
         <v>72</v>
       </c>
@@ -19110,7 +19103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:38" hidden="1">
+    <row r="119" spans="1:38">
       <c r="A119" s="4" t="s">
         <v>72</v>
       </c>
@@ -19254,7 +19247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:38" hidden="1">
+    <row r="121" spans="1:38">
       <c r="A121" s="4" t="s">
         <v>74</v>
       </c>
@@ -19345,7 +19338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:38" hidden="1">
+    <row r="122" spans="1:38">
       <c r="A122" s="4" t="s">
         <v>74</v>
       </c>
@@ -19422,7 +19415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:38" hidden="1">
+    <row r="123" spans="1:38">
       <c r="A123" s="3" t="s">
         <v>193</v>
       </c>
@@ -19493,7 +19486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:38" hidden="1">
+    <row r="124" spans="1:38">
       <c r="A124" s="3" t="s">
         <v>194</v>
       </c>
@@ -19566,7 +19559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:38" hidden="1">
+    <row r="125" spans="1:38">
       <c r="A125" s="3" t="s">
         <v>195</v>
       </c>
@@ -19657,7 +19650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:38" hidden="1">
+    <row r="126" spans="1:38">
       <c r="A126" s="3" t="s">
         <v>195</v>
       </c>
@@ -19728,7 +19721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:38" hidden="1">
+    <row r="127" spans="1:38">
       <c r="A127" s="3" t="s">
         <v>195</v>
       </c>
@@ -19801,7 +19794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:38" hidden="1">
+    <row r="128" spans="1:38">
       <c r="A128" s="3" t="s">
         <v>196</v>
       </c>
@@ -19882,7 +19875,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="129" spans="1:38" hidden="1">
+    <row r="129" spans="1:38">
       <c r="A129" s="3" t="s">
         <v>196</v>
       </c>
@@ -19963,7 +19956,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="130" spans="1:38" hidden="1">
+    <row r="130" spans="1:38">
       <c r="A130" s="3" t="s">
         <v>117</v>
       </c>
@@ -20034,7 +20027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:38" hidden="1">
+    <row r="131" spans="1:38">
       <c r="A131" s="3" t="s">
         <v>117</v>
       </c>
@@ -20105,7 +20098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:38" hidden="1">
+    <row r="132" spans="1:38">
       <c r="A132" s="3" t="s">
         <v>117</v>
       </c>
@@ -20176,7 +20169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:38" hidden="1">
+    <row r="133" spans="1:38">
       <c r="A133" s="3" t="s">
         <v>240</v>
       </c>
@@ -20267,7 +20260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:38" hidden="1">
+    <row r="134" spans="1:38">
       <c r="A134" s="3" t="s">
         <v>240</v>
       </c>
@@ -20340,7 +20333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:38" hidden="1">
+    <row r="135" spans="1:38">
       <c r="A135" s="3" t="s">
         <v>119</v>
       </c>
@@ -20431,7 +20424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:38" hidden="1">
+    <row r="136" spans="1:38">
       <c r="A136" s="3" t="s">
         <v>71</v>
       </c>
@@ -20504,7 +20497,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:38" hidden="1">
+    <row r="137" spans="1:38">
       <c r="A137" s="3" t="s">
         <v>197</v>
       </c>
@@ -20577,7 +20570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:38" hidden="1">
+    <row r="138" spans="1:38">
       <c r="A138" s="3" t="s">
         <v>197</v>
       </c>
@@ -20648,7 +20641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:38" hidden="1">
+    <row r="139" spans="1:38">
       <c r="A139" s="3" t="s">
         <v>198</v>
       </c>
@@ -20719,7 +20712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:38" hidden="1">
+    <row r="140" spans="1:38">
       <c r="A140" s="3" t="s">
         <v>198</v>
       </c>
@@ -20790,7 +20783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:38" hidden="1">
+    <row r="141" spans="1:38">
       <c r="A141" s="3" t="s">
         <v>198</v>
       </c>
@@ -20981,7 +20974,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="143" spans="1:38" hidden="1">
+    <row r="143" spans="1:38">
       <c r="A143" s="4" t="s">
         <v>77</v>
       </c>
@@ -21058,7 +21051,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:38" hidden="1">
+    <row r="144" spans="1:38">
       <c r="A144" s="4" t="s">
         <v>77</v>
       </c>
@@ -21354,7 +21347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:38" hidden="1">
+    <row r="148" spans="1:38">
       <c r="A148" s="4" t="s">
         <v>77</v>
       </c>
@@ -21427,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:38" hidden="1">
+    <row r="149" spans="1:38">
       <c r="A149" s="4" t="s">
         <v>77</v>
       </c>
@@ -21500,7 +21493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:38" hidden="1">
+    <row r="150" spans="1:38">
       <c r="A150" s="4" t="s">
         <v>245</v>
       </c>
@@ -21571,7 +21564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:38" hidden="1">
+    <row r="151" spans="1:38">
       <c r="A151" s="4" t="s">
         <v>245</v>
       </c>
@@ -21642,7 +21635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:38" hidden="1">
+    <row r="152" spans="1:38">
       <c r="A152" s="4" t="s">
         <v>245</v>
       </c>
@@ -21713,7 +21706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:38" hidden="1">
+    <row r="153" spans="1:38">
       <c r="A153" s="4" t="s">
         <v>247</v>
       </c>
@@ -21786,7 +21779,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:38" hidden="1">
+    <row r="154" spans="1:38">
       <c r="A154" s="4" t="s">
         <v>243</v>
       </c>
@@ -21875,7 +21868,7 @@
         <v>19.999999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:38" hidden="1">
+    <row r="155" spans="1:38">
       <c r="A155" s="4" t="s">
         <v>243</v>
       </c>
@@ -21964,7 +21957,7 @@
         <v>7.9999999999999982</v>
       </c>
     </row>
-    <row r="156" spans="1:38" hidden="1">
+    <row r="156" spans="1:38">
       <c r="A156" s="4" t="s">
         <v>243</v>
       </c>
@@ -22035,7 +22028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:38" hidden="1">
+    <row r="157" spans="1:38">
       <c r="A157" s="4" t="s">
         <v>184</v>
       </c>
@@ -22106,7 +22099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:38" hidden="1">
+    <row r="158" spans="1:38">
       <c r="A158" s="4" t="s">
         <v>184</v>
       </c>
@@ -22177,7 +22170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:38" hidden="1">
+    <row r="159" spans="1:38">
       <c r="A159" s="4" t="s">
         <v>184</v>
       </c>
@@ -22321,7 +22314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:38" hidden="1">
+    <row r="161" spans="1:38">
       <c r="A161" s="4" t="s">
         <v>184</v>
       </c>
@@ -22394,7 +22387,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:38" hidden="1">
+    <row r="162" spans="1:38">
       <c r="A162" s="4" t="s">
         <v>184</v>
       </c>
@@ -22467,7 +22460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:38" hidden="1">
+    <row r="163" spans="1:38">
       <c r="A163" s="4" t="s">
         <v>185</v>
       </c>
@@ -22611,7 +22604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:38" hidden="1">
+    <row r="165" spans="1:38">
       <c r="A165" s="4" t="s">
         <v>185</v>
       </c>
@@ -22753,7 +22746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:38" hidden="1">
+    <row r="167" spans="1:38">
       <c r="A167" s="3" t="s">
         <v>275</v>
       </c>
@@ -22824,7 +22817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:38" hidden="1">
+    <row r="168" spans="1:38">
       <c r="A168" s="3" t="s">
         <v>275</v>
       </c>
@@ -22895,7 +22888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:38" hidden="1">
+    <row r="169" spans="1:38">
       <c r="A169" s="3" t="s">
         <v>279</v>
       </c>
@@ -22966,7 +22959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:38" hidden="1">
+    <row r="170" spans="1:38">
       <c r="A170" s="3" t="s">
         <v>279</v>
       </c>
@@ -23037,7 +23030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:38" hidden="1">
+    <row r="171" spans="1:38">
       <c r="A171" s="3" t="s">
         <v>279</v>
       </c>
@@ -23108,7 +23101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:38" hidden="1">
+    <row r="172" spans="1:38">
       <c r="A172" s="3" t="s">
         <v>281</v>
       </c>
@@ -23181,7 +23174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:38" hidden="1">
+    <row r="173" spans="1:38">
       <c r="A173" s="3" t="s">
         <v>281</v>
       </c>
@@ -23254,7 +23247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:38" hidden="1">
+    <row r="174" spans="1:38">
       <c r="A174" s="3" t="s">
         <v>282</v>
       </c>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1457" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42778762-48F5-4964-8CB7-FB5F0158F282}"/>
+  <xr:revisionPtr revIDLastSave="1458" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A05A02-0A38-4D46-9971-B5C990EA055C}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="5240" windowWidth="28800" windowHeight="15370" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="26" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9057,7 +9057,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9978,7 +9978,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10462,7 +10462,7 @@
         <v>4.0000000000000009</v>
       </c>
       <c r="K6" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="AL6" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -35014,7 +35014,7 @@
       </c>
       <c r="C6">
         <f>SUMIF(Table1[Module Code],Sheet2!A6,Table1[Total Hours])</f>
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A6,Table14[Module Code],0))</f>
@@ -35022,11 +35022,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1458" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89A05A02-0A38-4D46-9971-B5C990EA055C}"/>
+  <xr:revisionPtr revIDLastSave="1491" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C154A3DC-C41A-4573-85F8-1AF685401295}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId5"/>
+    <pivotCache cacheId="27" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="376">
   <si>
     <t>Module Code</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>Final Report (U/D)</t>
   </si>
   <si>
-    <t>Quiz (P)</t>
-  </si>
-  <si>
     <t>Quiz (*)</t>
   </si>
   <si>
@@ -1170,6 +1167,9 @@
   </si>
   <si>
     <t>Final Report</t>
+  </si>
+  <si>
+    <t>Weekly Quiz (P)</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1416,6 +1416,18 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9057,7 +9069,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9506,10 +9518,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL174" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
-  <autoFilter ref="A1:AL174" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI147">
-    <sortCondition ref="A1:A147"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}" name="Table1" displayName="Table1" ref="A1:AL175" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+  <autoFilter ref="A1:AL175" xr:uid="{FA69A777-C149-48BD-B248-35F32F0AC920}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI148">
+    <sortCondition ref="A1:A148"/>
   </sortState>
   <tableColumns count="38">
     <tableColumn id="1" xr3:uid="{7078548A-F011-4851-AB36-1F04238FA2FE}" name="Module Code" dataDxfId="100"/>
@@ -9972,13 +9984,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
-  <dimension ref="A1:AL174"/>
+  <dimension ref="A1:AL175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="T118" sqref="T118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10894,7 +10906,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>231</v>
@@ -10991,7 +11003,7 @@
         <v>231</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I13" s="11">
         <v>1</v>
@@ -12710,7 +12722,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>231</v>
@@ -12862,7 +12874,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>231</v>
@@ -13689,7 +13701,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>231</v>
@@ -14465,7 +14477,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>231</v>
@@ -14838,13 +14850,13 @@
         <v>20</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I63" s="11">
         <v>1</v>
@@ -14929,7 +14941,7 @@
         <v>20</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>231</v>
@@ -15073,7 +15085,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>231</v>
@@ -15171,13 +15183,13 @@
         <v>10</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I67" s="11">
         <v>1</v>
@@ -15258,7 +15270,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>231</v>
@@ -15331,7 +15343,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>231</v>
@@ -15842,13 +15854,13 @@
         <v>10</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I76" s="11">
         <v>1</v>
@@ -15929,7 +15941,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>231</v>
@@ -16002,7 +16014,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>231</v>
@@ -16449,7 +16461,7 @@
         <v>20</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D84" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16460,24 +16472,22 @@
         <v>10</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I84" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="K84" s="11">
-        <v>15</v>
-      </c>
+      <c r="K84" s="11"/>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
@@ -16511,7 +16521,7 @@
       </c>
       <c r="AL84" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:38">
@@ -16522,7 +16532,7 @@
         <v>20</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="D85" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -16533,13 +16543,13 @@
         <v>10</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>260</v>
+        <v>322</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I85" s="11">
         <v>2</v>
@@ -16548,19 +16558,17 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="K85" s="11">
-        <v>15</v>
-      </c>
+      <c r="K85" s="11"/>
       <c r="L85" s="18"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
       <c r="O85" s="19"/>
       <c r="P85" s="18"/>
       <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="19">
+      <c r="R85" s="18">
         <v>0.2</v>
       </c>
+      <c r="S85" s="19"/>
       <c r="T85" s="18"/>
       <c r="U85" s="18"/>
       <c r="V85" s="18"/>
@@ -16584,7 +16592,7 @@
       </c>
       <c r="AL85" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:38">
@@ -16621,9 +16629,7 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="K86" s="11">
-        <v>15</v>
-      </c>
+      <c r="K86" s="11"/>
       <c r="L86" s="18"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
@@ -16657,7 +16663,7 @@
       </c>
       <c r="AL86" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:38">
@@ -16679,7 +16685,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>231</v>
@@ -16694,9 +16700,7 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>16</v>
       </c>
-      <c r="K87" s="11">
-        <v>10</v>
-      </c>
+      <c r="K87" s="11"/>
       <c r="L87" s="18"/>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
@@ -16730,7 +16734,7 @@
       </c>
       <c r="AL87" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:38">
@@ -16894,13 +16898,13 @@
         <v>20</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I90" s="11">
         <v>1</v>
@@ -16985,7 +16989,7 @@
         <v>20</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>231</v>
@@ -17359,9 +17363,7 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="K96" s="11">
-        <v>15</v>
-      </c>
+      <c r="K96" s="11"/>
       <c r="L96" s="18"/>
       <c r="M96" s="18"/>
       <c r="N96" s="18"/>
@@ -17395,7 +17397,7 @@
       </c>
       <c r="AL96" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:38">
@@ -17417,7 +17419,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>231</v>
@@ -17432,9 +17434,7 @@
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>8</v>
       </c>
-      <c r="K97" s="11">
-        <v>15</v>
-      </c>
+      <c r="K97" s="11"/>
       <c r="L97" s="18"/>
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
@@ -17468,7 +17468,7 @@
       </c>
       <c r="AL97" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:38">
@@ -17490,7 +17490,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>231</v>
@@ -18875,7 +18875,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>231</v>
@@ -19035,10 +19035,10 @@
         <v>10</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H118" s="11" t="s">
         <v>297</v>
@@ -19096,7 +19096,7 @@
       <c r="AJ118" s="20"/>
       <c r="AK118" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0</v>
       </c>
       <c r="AL118" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -19110,19 +19110,19 @@
       <c r="B119" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="29">
+      <c r="C119" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119" s="51">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>100</v>
       </c>
-      <c r="E119" s="29">
+      <c r="E119" s="51">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F119" s="11" t="s">
-        <v>272</v>
+      <c r="F119" s="50" t="s">
+        <v>372</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>231</v>
@@ -19130,27 +19130,27 @@
       <c r="H119" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I119" s="11">
+      <c r="I119" s="50">
+        <v>10</v>
+      </c>
+      <c r="J119" s="52">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>4</v>
       </c>
-      <c r="J119" s="11">
-        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>14</v>
-      </c>
-      <c r="K119" s="11"/>
+      <c r="K119" s="50"/>
       <c r="L119" s="18"/>
       <c r="M119" s="18"/>
       <c r="N119" s="18"/>
       <c r="O119" s="19"/>
       <c r="P119" s="18"/>
-      <c r="Q119" s="18">
-        <v>0.35</v>
-      </c>
+      <c r="Q119" s="18"/>
       <c r="R119" s="18"/>
       <c r="S119" s="19"/>
       <c r="T119" s="18"/>
       <c r="U119" s="18"/>
-      <c r="V119" s="18"/>
+      <c r="V119" s="18">
+        <v>0.1</v>
+      </c>
       <c r="W119" s="19"/>
       <c r="X119" s="20"/>
       <c r="Y119" s="20"/>
@@ -19165,13 +19165,13 @@
       <c r="AH119" s="20"/>
       <c r="AI119" s="20"/>
       <c r="AJ119" s="20"/>
-      <c r="AK119" s="27">
+      <c r="AK119" s="53">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.35</v>
-      </c>
-      <c r="AL119" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="AL119" s="53">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:38">
@@ -19182,7 +19182,7 @@
         <v>73</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D120" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19193,7 +19193,7 @@
         <v>10</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>231</v>
@@ -19206,24 +19206,22 @@
       </c>
       <c r="J120" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
-      </c>
-      <c r="K120" s="11">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K120" s="11"/>
       <c r="L120" s="18"/>
       <c r="M120" s="18"/>
       <c r="N120" s="18"/>
       <c r="O120" s="19"/>
       <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
+      <c r="Q120" s="18">
+        <v>0.35</v>
+      </c>
       <c r="R120" s="18"/>
       <c r="S120" s="19"/>
       <c r="T120" s="18"/>
       <c r="U120" s="18"/>
-      <c r="V120" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V120" s="18"/>
       <c r="W120" s="19"/>
       <c r="X120" s="20"/>
       <c r="Y120" s="20"/>
@@ -19240,80 +19238,62 @@
       <c r="AJ120" s="20"/>
       <c r="AK120" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="AL120" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:38">
       <c r="A121" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="D121" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E121" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>331</v>
+        <v>204</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I121" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J121" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
+        <v>20</v>
       </c>
       <c r="K121" s="11">
+        <v>25</v>
+      </c>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="18"/>
+      <c r="U121" s="18"/>
+      <c r="V121" s="18">
         <v>0.5</v>
-      </c>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="N121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="O121" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="P121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="Q121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="R121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="S121" s="19">
-        <v>0.01</v>
-      </c>
-      <c r="T121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="U121" s="18">
-        <v>0.01</v>
-      </c>
-      <c r="V121" s="18">
-        <v>0.01</v>
       </c>
       <c r="W121" s="19"/>
       <c r="X121" s="20"/>
@@ -19331,11 +19311,11 @@
       <c r="AJ121" s="20"/>
       <c r="AK121" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.5</v>
       </c>
       <c r="AL121" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:38">
@@ -19346,7 +19326,7 @@
         <v>75</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="D122" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19357,41 +19337,55 @@
         <v>10</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I122" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="K122" s="11"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="K122" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
+      <c r="M122" s="18">
+        <v>0.01</v>
+      </c>
       <c r="N122" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="O122" s="19"/>
+        <v>0.01</v>
+      </c>
+      <c r="O122" s="19">
+        <v>0.01</v>
+      </c>
       <c r="P122" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Q122" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="Q122" s="18">
+        <v>0.01</v>
+      </c>
       <c r="R122" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="S122" s="19"/>
-      <c r="T122" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="S122" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="T122" s="18">
+        <v>0.01</v>
+      </c>
       <c r="U122" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="V122" s="18"/>
+        <v>0.01</v>
+      </c>
+      <c r="V122" s="18">
+        <v>0.01</v>
+      </c>
       <c r="W122" s="19"/>
       <c r="X122" s="20"/>
       <c r="Y122" s="20"/>
@@ -19408,32 +19402,32 @@
       <c r="AJ122" s="20"/>
       <c r="AK122" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.4</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AL122" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:38">
-      <c r="A123" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C123" s="12" t="s">
+      <c r="A123" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E123" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F123" s="12" t="s">
+      <c r="F123" s="11" t="s">
         <v>209</v>
       </c>
       <c r="G123" s="11" t="s">
@@ -19443,31 +19437,37 @@
         <v>297</v>
       </c>
       <c r="I123" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J123" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K123" s="11"/>
       <c r="L123" s="18"/>
       <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
+      <c r="N123" s="18">
+        <v>0.1</v>
+      </c>
       <c r="O123" s="19"/>
-      <c r="P123" s="18"/>
+      <c r="P123" s="18">
+        <v>0.1</v>
+      </c>
       <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
+      <c r="R123" s="18">
+        <v>0.1</v>
+      </c>
       <c r="S123" s="19"/>
       <c r="T123" s="18"/>
-      <c r="U123" s="18"/>
+      <c r="U123" s="18">
+        <v>0.1</v>
+      </c>
       <c r="V123" s="18"/>
       <c r="W123" s="19"/>
       <c r="X123" s="20"/>
       <c r="Y123" s="20"/>
       <c r="Z123" s="20"/>
-      <c r="AA123" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AA123" s="20"/>
       <c r="AB123" s="20"/>
       <c r="AC123" s="20"/>
       <c r="AD123" s="20"/>
@@ -19479,26 +19479,26 @@
       <c r="AJ123" s="20"/>
       <c r="AK123" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AL123" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:38">
       <c r="A124" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E124" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19514,11 +19514,11 @@
         <v>297</v>
       </c>
       <c r="I124" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J124" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K124" s="11"/>
       <c r="L124" s="18"/>
@@ -19536,14 +19536,12 @@
       <c r="X124" s="20"/>
       <c r="Y124" s="20"/>
       <c r="Z124" s="20"/>
-      <c r="AA124" s="20"/>
-      <c r="AB124" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AA124" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AB124" s="20"/>
       <c r="AC124" s="20"/>
-      <c r="AD124" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AD124" s="20"/>
       <c r="AE124" s="20"/>
       <c r="AF124" s="20"/>
       <c r="AG124" s="20"/>
@@ -19552,33 +19550,33 @@
       <c r="AJ124" s="20"/>
       <c r="AK124" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AL124" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:38">
       <c r="A125" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="11" t="s">
-        <v>128</v>
+        <v>114</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D125" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E125" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F125" s="11" t="s">
-        <v>255</v>
+      <c r="F125" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>231</v>
@@ -19587,15 +19585,13 @@
         <v>297</v>
       </c>
       <c r="I125" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J125" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="K125" s="11">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="K125" s="11"/>
       <c r="L125" s="18"/>
       <c r="M125" s="18"/>
       <c r="N125" s="18"/>
@@ -19609,45 +19605,29 @@
       <c r="V125" s="18"/>
       <c r="W125" s="19"/>
       <c r="X125" s="20"/>
-      <c r="Y125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Z125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AA125" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="Y125" s="20"/>
+      <c r="Z125" s="20"/>
+      <c r="AA125" s="20"/>
       <c r="AB125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AC125" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="AC125" s="20"/>
       <c r="AD125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AF125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AG125" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AH125" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="AE125" s="20"/>
+      <c r="AF125" s="20"/>
+      <c r="AG125" s="20"/>
+      <c r="AH125" s="20"/>
       <c r="AI125" s="20"/>
       <c r="AJ125" s="20"/>
       <c r="AK125" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.3</v>
       </c>
       <c r="AL125" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:38">
@@ -19657,8 +19637,8 @@
       <c r="B126" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>5</v>
+      <c r="C126" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D126" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19668,8 +19648,8 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F126" s="12" t="s">
-        <v>209</v>
+      <c r="F126" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>231</v>
@@ -19678,13 +19658,15 @@
         <v>297</v>
       </c>
       <c r="I126" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J126" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="K126" s="11"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="K126" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="18"/>
@@ -19698,27 +19680,45 @@
       <c r="V126" s="18"/>
       <c r="W126" s="19"/>
       <c r="X126" s="20"/>
-      <c r="Y126" s="20"/>
-      <c r="Z126" s="20"/>
-      <c r="AA126" s="20"/>
+      <c r="Y126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Z126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AA126" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AB126" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AC126" s="20"/>
-      <c r="AD126" s="20"/>
-      <c r="AE126" s="20"/>
-      <c r="AF126" s="20"/>
-      <c r="AG126" s="20"/>
-      <c r="AH126" s="20"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AD126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AE126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AF126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AG126" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AH126" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AI126" s="20"/>
       <c r="AJ126" s="20"/>
       <c r="AK126" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AL126" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:38">
@@ -19729,7 +19729,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D127" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -19740,24 +19740,22 @@
         <v>10</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I127" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J127" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
-      </c>
-      <c r="K127" s="11">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K127" s="11"/>
       <c r="L127" s="18"/>
       <c r="M127" s="18"/>
       <c r="N127" s="18"/>
@@ -19774,62 +19772,62 @@
       <c r="Y127" s="20"/>
       <c r="Z127" s="20"/>
       <c r="AA127" s="20"/>
-      <c r="AB127" s="20"/>
+      <c r="AB127" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AC127" s="20"/>
       <c r="AD127" s="20"/>
       <c r="AE127" s="20"/>
-      <c r="AF127" s="20">
-        <v>0.3</v>
-      </c>
+      <c r="AF127" s="20"/>
       <c r="AG127" s="20"/>
       <c r="AH127" s="20"/>
       <c r="AI127" s="20"/>
       <c r="AJ127" s="20"/>
       <c r="AK127" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AL127" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:38">
       <c r="A128" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="D128" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E128" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>347</v>
+      <c r="F128" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="G128" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="I128" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J128" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.8</v>
+        <v>12</v>
       </c>
       <c r="K128" s="11">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="L128" s="18"/>
       <c r="M128" s="18"/>
@@ -19844,35 +19842,27 @@
       <c r="V128" s="18"/>
       <c r="W128" s="19"/>
       <c r="X128" s="20"/>
-      <c r="Y128" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="Z128" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AA128" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AB128" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="AC128" s="20">
-        <v>0.02</v>
-      </c>
+      <c r="Y128" s="20"/>
+      <c r="Z128" s="20"/>
+      <c r="AA128" s="20"/>
+      <c r="AB128" s="20"/>
+      <c r="AC128" s="20"/>
       <c r="AD128" s="20"/>
       <c r="AE128" s="20"/>
-      <c r="AF128" s="20"/>
+      <c r="AF128" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AG128" s="20"/>
       <c r="AH128" s="20"/>
       <c r="AI128" s="20"/>
       <c r="AJ128" s="20"/>
       <c r="AK128" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AL128" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>2.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:38">
@@ -19894,7 +19884,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>231</v>
@@ -19925,26 +19915,26 @@
       <c r="V129" s="18"/>
       <c r="W129" s="19"/>
       <c r="X129" s="20"/>
-      <c r="Y129" s="20"/>
-      <c r="Z129" s="20"/>
-      <c r="AA129" s="20"/>
-      <c r="AB129" s="20"/>
-      <c r="AC129" s="20"/>
-      <c r="AD129" s="20">
+      <c r="Y129" s="20">
         <v>0.02</v>
       </c>
-      <c r="AE129" s="20">
+      <c r="Z129" s="20">
         <v>0.02</v>
       </c>
-      <c r="AF129" s="20">
+      <c r="AA129" s="20">
         <v>0.02</v>
       </c>
-      <c r="AG129" s="20">
+      <c r="AB129" s="20">
         <v>0.02</v>
       </c>
-      <c r="AH129" s="20">
+      <c r="AC129" s="20">
         <v>0.02</v>
       </c>
+      <c r="AD129" s="20"/>
+      <c r="AE129" s="20"/>
+      <c r="AF129" s="20"/>
+      <c r="AG129" s="20"/>
+      <c r="AH129" s="20"/>
       <c r="AI129" s="20"/>
       <c r="AJ129" s="20"/>
       <c r="AK129" s="27">
@@ -19958,24 +19948,24 @@
     </row>
     <row r="130" spans="1:38">
       <c r="A130" s="3" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>5</v>
+        <v>116</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D130" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E130" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F130" s="12" t="s">
-        <v>267</v>
+      <c r="F130" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>231</v>
@@ -19984,13 +19974,15 @@
         <v>297</v>
       </c>
       <c r="I130" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="K130" s="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="K130" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L130" s="18"/>
       <c r="M130" s="18"/>
       <c r="N130" s="18"/>
@@ -20010,21 +20002,29 @@
       <c r="AB130" s="20"/>
       <c r="AC130" s="20"/>
       <c r="AD130" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="AE130" s="20"/>
-      <c r="AF130" s="20"/>
-      <c r="AG130" s="20"/>
-      <c r="AH130" s="20"/>
+        <v>0.02</v>
+      </c>
+      <c r="AE130" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AF130" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AG130" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="AH130" s="20">
+        <v>0.02</v>
+      </c>
       <c r="AI130" s="20"/>
       <c r="AJ130" s="20"/>
       <c r="AK130" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AL130" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="131" spans="1:38">
@@ -20046,7 +20046,7 @@
         <v>10</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>231</v>
@@ -20059,7 +20059,7 @@
       </c>
       <c r="J131" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="K131" s="11"/>
       <c r="L131" s="18"/>
@@ -20080,22 +20080,22 @@
       <c r="AA131" s="20"/>
       <c r="AB131" s="20"/>
       <c r="AC131" s="20"/>
-      <c r="AD131" s="20"/>
+      <c r="AD131" s="20">
+        <v>0.4</v>
+      </c>
       <c r="AE131" s="20"/>
       <c r="AF131" s="20"/>
-      <c r="AG131" s="20">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="AG131" s="20"/>
       <c r="AH131" s="20"/>
       <c r="AI131" s="20"/>
       <c r="AJ131" s="20"/>
       <c r="AK131" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="AL131" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:38">
@@ -20106,7 +20106,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="D132" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20117,7 +20117,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>231</v>
@@ -20126,11 +20126,11 @@
         <v>297</v>
       </c>
       <c r="I132" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K132" s="11"/>
       <c r="L132" s="18"/>
@@ -20154,58 +20154,56 @@
       <c r="AD132" s="20"/>
       <c r="AE132" s="20"/>
       <c r="AF132" s="20"/>
-      <c r="AG132" s="20"/>
-      <c r="AH132" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="AG132" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH132" s="20"/>
       <c r="AI132" s="20"/>
       <c r="AJ132" s="20"/>
       <c r="AK132" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AL132" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:38">
       <c r="A133" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B133" s="28" t="s">
-        <v>241</v>
+        <v>117</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="D133" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E133" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I133" s="11">
         <v>1</v>
       </c>
       <c r="J133" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="K133" s="11">
-        <v>0.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="K133" s="11"/>
       <c r="L133" s="18"/>
       <c r="M133" s="18"/>
       <c r="N133" s="18"/>
@@ -20218,46 +20216,28 @@
       <c r="U133" s="18"/>
       <c r="V133" s="18"/>
       <c r="W133" s="19"/>
-      <c r="X133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Y133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Z133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AA133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AB133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AC133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AD133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AF133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AG133" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AH133" s="20"/>
+      <c r="X133" s="20"/>
+      <c r="Y133" s="20"/>
+      <c r="Z133" s="20"/>
+      <c r="AA133" s="20"/>
+      <c r="AB133" s="20"/>
+      <c r="AC133" s="20"/>
+      <c r="AD133" s="20"/>
+      <c r="AE133" s="20"/>
+      <c r="AF133" s="20"/>
+      <c r="AG133" s="20"/>
+      <c r="AH133" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AI133" s="20"/>
       <c r="AJ133" s="20"/>
       <c r="AK133" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AL133" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:38">
@@ -20268,7 +20248,7 @@
         <v>241</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D134" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20279,22 +20259,24 @@
         <v>10</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I134" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J134" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="K134" s="11"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="K134" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L134" s="18"/>
       <c r="M134" s="18"/>
       <c r="N134" s="18"/>
@@ -20307,69 +20289,83 @@
       <c r="U134" s="18"/>
       <c r="V134" s="18"/>
       <c r="W134" s="19"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="20"/>
-      <c r="Z134" s="20"/>
-      <c r="AA134" s="20"/>
-      <c r="AB134" s="20"/>
-      <c r="AC134" s="20"/>
+      <c r="X134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Y134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="Z134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AA134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AB134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AC134" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AD134" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AE134" s="20"/>
-      <c r="AF134" s="20"/>
-      <c r="AG134" s="20"/>
-      <c r="AH134" s="20">
-        <v>0.1</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="AE134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AF134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AG134" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="AH134" s="20"/>
       <c r="AI134" s="20"/>
       <c r="AJ134" s="20"/>
       <c r="AK134" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AL134" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:38">
       <c r="A135" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>128</v>
+        <v>240</v>
+      </c>
+      <c r="B135" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D135" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E135" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>255</v>
+      <c r="F135" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I135" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J135" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.5999999999999996</v>
-      </c>
-      <c r="K135" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K135" s="11"/>
       <c r="L135" s="18"/>
       <c r="M135" s="18"/>
       <c r="N135" s="18"/>
@@ -20383,67 +20379,51 @@
       <c r="V135" s="18"/>
       <c r="W135" s="19"/>
       <c r="X135" s="20"/>
-      <c r="Y135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="Z135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AA135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AB135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AC135" s="20">
-        <v>0.04</v>
-      </c>
+      <c r="Y135" s="20"/>
+      <c r="Z135" s="20"/>
+      <c r="AA135" s="20"/>
+      <c r="AB135" s="20"/>
+      <c r="AC135" s="20"/>
       <c r="AD135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AE135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AF135" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="AG135" s="20">
-        <v>0.04</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="AE135" s="20"/>
+      <c r="AF135" s="20"/>
+      <c r="AG135" s="20"/>
       <c r="AH135" s="20">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="AI135" s="20"/>
       <c r="AJ135" s="20"/>
       <c r="AK135" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.39999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="AL135" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:38">
       <c r="A136" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>5</v>
+        <v>120</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D136" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E136" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
-      <c r="F136" s="12" t="s">
-        <v>349</v>
+      <c r="F136" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>231</v>
@@ -20452,14 +20432,14 @@
         <v>297</v>
       </c>
       <c r="I136" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J136" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="K136" s="11">
-        <v>25</v>
+        <v>0.5</v>
       </c>
       <c r="L136" s="18"/>
       <c r="M136" s="18"/>
@@ -20474,49 +20454,67 @@
       <c r="V136" s="18"/>
       <c r="W136" s="19"/>
       <c r="X136" s="20"/>
-      <c r="Y136" s="20"/>
-      <c r="Z136" s="20"/>
-      <c r="AA136" s="20"/>
-      <c r="AB136" s="20"/>
-      <c r="AC136" s="20"/>
-      <c r="AD136" s="20"/>
-      <c r="AE136" s="20"/>
-      <c r="AF136" s="20"/>
-      <c r="AG136" s="20"/>
-      <c r="AH136" s="20"/>
-      <c r="AI136" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="Y136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="Z136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AA136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AB136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AC136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AD136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AE136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AF136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AG136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AH136" s="20">
+        <v>0.04</v>
+      </c>
+      <c r="AI136" s="20"/>
       <c r="AJ136" s="20"/>
       <c r="AK136" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="AL136" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:38">
       <c r="A137" s="3" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E137" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>256</v>
+        <v>348</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>231</v>
@@ -20525,13 +20523,15 @@
         <v>297</v>
       </c>
       <c r="I137" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J137" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="K137" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="K137" s="11">
+        <v>25</v>
+      </c>
       <c r="L137" s="18"/>
       <c r="M137" s="18"/>
       <c r="N137" s="18"/>
@@ -20547,27 +20547,25 @@
       <c r="X137" s="20"/>
       <c r="Y137" s="20"/>
       <c r="Z137" s="20"/>
-      <c r="AA137" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="AA137" s="20"/>
       <c r="AB137" s="20"/>
       <c r="AC137" s="20"/>
       <c r="AD137" s="20"/>
       <c r="AE137" s="20"/>
       <c r="AF137" s="20"/>
       <c r="AG137" s="20"/>
-      <c r="AH137" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="AI137" s="20"/>
+      <c r="AH137" s="20"/>
+      <c r="AI137" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AJ137" s="20"/>
       <c r="AK137" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AL137" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="138" spans="1:38">
@@ -20589,7 +20587,7 @@
         <v>10</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>231</v>
@@ -20598,11 +20596,11 @@
         <v>297</v>
       </c>
       <c r="I138" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K138" s="11"/>
       <c r="L138" s="18"/>
@@ -20620,16 +20618,18 @@
       <c r="X138" s="20"/>
       <c r="Y138" s="20"/>
       <c r="Z138" s="20"/>
-      <c r="AA138" s="20"/>
+      <c r="AA138" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AB138" s="20"/>
       <c r="AC138" s="20"/>
       <c r="AD138" s="20"/>
-      <c r="AE138" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AE138" s="20"/>
       <c r="AF138" s="20"/>
       <c r="AG138" s="20"/>
-      <c r="AH138" s="20"/>
+      <c r="AH138" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AI138" s="20"/>
       <c r="AJ138" s="20"/>
       <c r="AK138" s="27">
@@ -20643,24 +20643,24 @@
     </row>
     <row r="139" spans="1:38">
       <c r="A139" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D139" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E139" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>231</v>
@@ -20669,7 +20669,7 @@
         <v>297</v>
       </c>
       <c r="I139" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
@@ -20691,13 +20691,13 @@
       <c r="X139" s="20"/>
       <c r="Y139" s="20"/>
       <c r="Z139" s="20"/>
-      <c r="AA139" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AA139" s="20"/>
       <c r="AB139" s="20"/>
       <c r="AC139" s="20"/>
       <c r="AD139" s="20"/>
-      <c r="AE139" s="20"/>
+      <c r="AE139" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AF139" s="20"/>
       <c r="AG139" s="20"/>
       <c r="AH139" s="20"/>
@@ -20731,7 +20731,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>231</v>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="J140" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K140" s="11"/>
       <c r="L140" s="18"/>
@@ -20762,13 +20762,13 @@
       <c r="X140" s="20"/>
       <c r="Y140" s="20"/>
       <c r="Z140" s="20"/>
-      <c r="AA140" s="20"/>
+      <c r="AA140" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AB140" s="20"/>
       <c r="AC140" s="20"/>
       <c r="AD140" s="20"/>
-      <c r="AE140" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AE140" s="20"/>
       <c r="AF140" s="20"/>
       <c r="AG140" s="20"/>
       <c r="AH140" s="20"/>
@@ -20776,11 +20776,11 @@
       <c r="AJ140" s="20"/>
       <c r="AK140" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AL140" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:38">
@@ -20837,12 +20837,12 @@
       <c r="AB141" s="20"/>
       <c r="AC141" s="20"/>
       <c r="AD141" s="20"/>
-      <c r="AE141" s="20"/>
+      <c r="AE141" s="20">
+        <v>0.4</v>
+      </c>
       <c r="AF141" s="20"/>
       <c r="AG141" s="20"/>
-      <c r="AH141" s="20">
-        <v>0.4</v>
-      </c>
+      <c r="AH141" s="20"/>
       <c r="AI141" s="20"/>
       <c r="AJ141" s="20"/>
       <c r="AK141" s="27">
@@ -20856,13 +20856,13 @@
     </row>
     <row r="142" spans="1:38">
       <c r="A142" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B142" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C142" s="11" t="s">
-        <v>126</v>
+        <v>198</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="D142" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20870,119 +20870,70 @@
       </c>
       <c r="E142" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>60</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>233</v>
+        <v>10</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="H142" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I142" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>9.9999999999999964</v>
-      </c>
-      <c r="K142" s="11">
-        <v>20</v>
-      </c>
-      <c r="L142" s="18">
-        <f>1/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="N142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="O142" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="P142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Q142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="R142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="S142" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="T142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="U142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="V142" s="18">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="W142" s="19">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="X142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Y142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Z142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AA142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AB142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AC142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AD142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AE142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AG142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K142" s="11"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="19"/>
+      <c r="P142" s="18"/>
+      <c r="Q142" s="18"/>
+      <c r="R142" s="18"/>
+      <c r="S142" s="19"/>
+      <c r="T142" s="18"/>
+      <c r="U142" s="18"/>
+      <c r="V142" s="18"/>
+      <c r="W142" s="19"/>
+      <c r="X142" s="20"/>
+      <c r="Y142" s="20"/>
+      <c r="Z142" s="20"/>
+      <c r="AA142" s="20"/>
+      <c r="AB142" s="20"/>
+      <c r="AC142" s="20"/>
+      <c r="AD142" s="20"/>
+      <c r="AE142" s="20"/>
+      <c r="AF142" s="20"/>
+      <c r="AG142" s="20"/>
       <c r="AH142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AI142" s="20">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="AI142" s="20"/>
       <c r="AJ142" s="20"/>
       <c r="AK142" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AL142" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>480</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:38">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D143" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -20993,54 +20944,97 @@
         <v>60</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I143" s="11">
         <v>1</v>
       </c>
       <c r="J143" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>10</v>
+        <v>9.9999999999999964</v>
       </c>
       <c r="K143" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="19"/>
-      <c r="P143" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="L143" s="18">
+        <f>1/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M143" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N143" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="O143" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P143" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q143" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="R143" s="18"/>
-      <c r="S143" s="19"/>
-      <c r="T143" s="18"/>
-      <c r="U143" s="18"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="R143" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="S143" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="T143" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="U143" s="18">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="V143" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="W143" s="19"/>
-      <c r="X143" s="20"/>
-      <c r="Y143" s="20"/>
-      <c r="Z143" s="20"/>
-      <c r="AA143" s="20"/>
-      <c r="AB143" s="20"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="W143" s="19">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Y143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Z143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AA143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AB143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AC143" s="20">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD143" s="20"/>
-      <c r="AE143" s="20"/>
-      <c r="AF143" s="20"/>
-      <c r="AG143" s="20"/>
-      <c r="AH143" s="20"/>
-      <c r="AI143" s="20"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AD143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AE143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AG143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AH143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AI143" s="20">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AJ143" s="20"/>
       <c r="AK143" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -21048,7 +21042,7 @@
       </c>
       <c r="AL143" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.30000000000000004</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:38">
@@ -21070,10 +21064,10 @@
         <v>60</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H144" s="11" t="s">
         <v>297</v>
@@ -21083,7 +21077,7 @@
       </c>
       <c r="J144" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K144" s="11">
         <v>0.1</v>
@@ -21091,39 +21085,41 @@
       <c r="L144" s="18"/>
       <c r="M144" s="18"/>
       <c r="N144" s="18"/>
-      <c r="O144" s="18"/>
+      <c r="O144" s="19"/>
       <c r="P144" s="18"/>
-      <c r="Q144" s="18"/>
+      <c r="Q144" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
       <c r="R144" s="18"/>
-      <c r="S144" s="18"/>
+      <c r="S144" s="19"/>
       <c r="T144" s="18"/>
       <c r="U144" s="18"/>
-      <c r="V144" s="18"/>
-      <c r="W144" s="18"/>
+      <c r="V144" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W144" s="19"/>
       <c r="X144" s="20"/>
       <c r="Y144" s="20"/>
       <c r="Z144" s="20"/>
       <c r="AA144" s="20"/>
       <c r="AB144" s="20"/>
-      <c r="AC144" s="20"/>
+      <c r="AC144" s="20">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="AD144" s="20"/>
       <c r="AE144" s="20"/>
       <c r="AF144" s="20"/>
       <c r="AG144" s="20"/>
-      <c r="AH144" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="AI144" s="46">
-        <v>-0.25</v>
-      </c>
+      <c r="AH144" s="20"/>
+      <c r="AI144" s="20"/>
       <c r="AJ144" s="20"/>
       <c r="AK144" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AL144" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="145" spans="1:38">
@@ -21134,7 +21130,7 @@
         <v>23</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D145" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21145,39 +21141,37 @@
         <v>60</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H145" s="11" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I145" s="11">
         <v>1</v>
       </c>
       <c r="J145" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K145" s="11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L145" s="18"/>
       <c r="M145" s="18"/>
       <c r="N145" s="18"/>
-      <c r="O145" s="19"/>
+      <c r="O145" s="18"/>
       <c r="P145" s="18"/>
       <c r="Q145" s="18"/>
       <c r="R145" s="18"/>
-      <c r="S145" s="19"/>
+      <c r="S145" s="18"/>
       <c r="T145" s="18"/>
       <c r="U145" s="18"/>
       <c r="V145" s="18"/>
-      <c r="W145" s="19"/>
-      <c r="X145" s="20">
-        <v>0.1</v>
-      </c>
+      <c r="W145" s="18"/>
+      <c r="X145" s="20"/>
       <c r="Y145" s="20"/>
       <c r="Z145" s="20"/>
       <c r="AA145" s="20"/>
@@ -21187,16 +21181,20 @@
       <c r="AE145" s="20"/>
       <c r="AF145" s="20"/>
       <c r="AG145" s="20"/>
-      <c r="AH145" s="20"/>
-      <c r="AI145" s="20"/>
+      <c r="AH145" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="AI145" s="46">
+        <v>-0.25</v>
+      </c>
       <c r="AJ145" s="20"/>
       <c r="AK145" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="AL145" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="146" spans="1:38">
@@ -21207,7 +21205,7 @@
         <v>23</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D146" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21218,23 +21216,23 @@
         <v>60</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H146" s="11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I146" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J146" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K146" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L146" s="18"/>
       <c r="M146" s="18"/>
@@ -21246,11 +21244,11 @@
       <c r="S146" s="19"/>
       <c r="T146" s="18"/>
       <c r="U146" s="18"/>
-      <c r="V146" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="V146" s="18"/>
       <c r="W146" s="19"/>
-      <c r="X146" s="20"/>
+      <c r="X146" s="20">
+        <v>0.1</v>
+      </c>
       <c r="Y146" s="20"/>
       <c r="Z146" s="20"/>
       <c r="AA146" s="20"/>
@@ -21265,11 +21263,11 @@
       <c r="AJ146" s="20"/>
       <c r="AK146" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AL146" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:38">
@@ -21291,10 +21289,10 @@
         <v>60</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H147" s="11" t="s">
         <v>297</v>
@@ -21304,7 +21302,7 @@
       </c>
       <c r="J147" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K147" s="11">
         <v>10</v>
@@ -21319,7 +21317,9 @@
       <c r="S147" s="19"/>
       <c r="T147" s="18"/>
       <c r="U147" s="18"/>
-      <c r="V147" s="18"/>
+      <c r="V147" s="18">
+        <v>0.2</v>
+      </c>
       <c r="W147" s="19"/>
       <c r="X147" s="20"/>
       <c r="Y147" s="20"/>
@@ -21331,16 +21331,12 @@
       <c r="AE147" s="20"/>
       <c r="AF147" s="20"/>
       <c r="AG147" s="20"/>
-      <c r="AH147" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="AI147" s="46">
-        <v>-0.4</v>
-      </c>
+      <c r="AH147" s="20"/>
+      <c r="AI147" s="20"/>
       <c r="AJ147" s="20"/>
       <c r="AK147" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AL147" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -21355,7 +21351,7 @@
         <v>23</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D148" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21366,23 +21362,23 @@
         <v>60</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H148" s="11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I148" s="11">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J148" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K148" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L148" s="18"/>
       <c r="M148" s="18"/>
@@ -21406,18 +21402,20 @@
       <c r="AE148" s="20"/>
       <c r="AF148" s="20"/>
       <c r="AG148" s="20"/>
-      <c r="AH148" s="20"/>
-      <c r="AI148" s="20"/>
-      <c r="AJ148" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AH148" s="45">
+        <v>0.4</v>
+      </c>
+      <c r="AI148" s="46">
+        <v>-0.4</v>
+      </c>
+      <c r="AJ148" s="20"/>
       <c r="AK148" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="AL148" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:38">
@@ -21428,7 +21426,7 @@
         <v>23</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="D149" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21438,8 +21436,8 @@
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>60</v>
       </c>
-      <c r="F149" s="37" t="s">
-        <v>335</v>
+      <c r="F149" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>231</v>
@@ -21452,10 +21450,10 @@
       </c>
       <c r="J149" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K149" s="11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L149" s="18"/>
       <c r="M149" s="18"/>
@@ -21482,11 +21480,11 @@
       <c r="AH149" s="20"/>
       <c r="AI149" s="20"/>
       <c r="AJ149" s="20">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AK149" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AL149" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -21495,13 +21493,13 @@
     </row>
     <row r="150" spans="1:38">
       <c r="A150" s="4" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="C150" s="11" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D150" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -21509,31 +21507,31 @@
       </c>
       <c r="E150" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>261</v>
+        <v>60</v>
+      </c>
+      <c r="F150" s="37" t="s">
+        <v>334</v>
       </c>
       <c r="G150" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H150" s="11" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="I150" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J150" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="K150" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="K150" s="11">
+        <v>2</v>
+      </c>
       <c r="L150" s="18"/>
       <c r="M150" s="18"/>
       <c r="N150" s="18"/>
-      <c r="O150" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="O150" s="19"/>
       <c r="P150" s="18"/>
       <c r="Q150" s="18"/>
       <c r="R150" s="18"/>
@@ -21554,14 +21552,16 @@
       <c r="AG150" s="20"/>
       <c r="AH150" s="20"/>
       <c r="AI150" s="20"/>
-      <c r="AJ150" s="20"/>
+      <c r="AJ150" s="20">
+        <v>0.1</v>
+      </c>
       <c r="AK150" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AL150" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:38">
@@ -21583,7 +21583,7 @@
         <v>10</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>231</v>
@@ -21592,7 +21592,7 @@
         <v>297</v>
       </c>
       <c r="I151" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J151" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
@@ -21602,13 +21602,13 @@
       <c r="L151" s="18"/>
       <c r="M151" s="18"/>
       <c r="N151" s="18"/>
-      <c r="O151" s="19"/>
+      <c r="O151" s="19">
+        <v>0.4</v>
+      </c>
       <c r="P151" s="18"/>
       <c r="Q151" s="18"/>
       <c r="R151" s="18"/>
-      <c r="S151" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="S151" s="19"/>
       <c r="T151" s="18"/>
       <c r="U151" s="18"/>
       <c r="V151" s="18"/>
@@ -21654,7 +21654,7 @@
         <v>10</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>231</v>
@@ -21663,11 +21663,11 @@
         <v>297</v>
       </c>
       <c r="I152" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J152" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K152" s="11"/>
       <c r="L152" s="18"/>
@@ -21677,12 +21677,12 @@
       <c r="P152" s="18"/>
       <c r="Q152" s="18"/>
       <c r="R152" s="18"/>
-      <c r="S152" s="19"/>
+      <c r="S152" s="19">
+        <v>0.4</v>
+      </c>
       <c r="T152" s="18"/>
       <c r="U152" s="18"/>
-      <c r="V152" s="18">
-        <v>0.2</v>
-      </c>
+      <c r="V152" s="18"/>
       <c r="W152" s="19"/>
       <c r="X152" s="20"/>
       <c r="Y152" s="20"/>
@@ -21699,19 +21699,19 @@
       <c r="AJ152" s="20"/>
       <c r="AK152" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AL152" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:38">
       <c r="A153" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C153" s="11" t="s">
         <v>5</v>
@@ -21725,7 +21725,7 @@
         <v>10</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>231</v>
@@ -21734,11 +21734,11 @@
         <v>297</v>
       </c>
       <c r="I153" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J153" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K153" s="11"/>
       <c r="L153" s="18"/>
@@ -21751,40 +21751,38 @@
       <c r="S153" s="19"/>
       <c r="T153" s="18"/>
       <c r="U153" s="18"/>
-      <c r="V153" s="18"/>
+      <c r="V153" s="18">
+        <v>0.2</v>
+      </c>
       <c r="W153" s="19"/>
       <c r="X153" s="20"/>
       <c r="Y153" s="20"/>
       <c r="Z153" s="20"/>
       <c r="AA153" s="20"/>
       <c r="AB153" s="20"/>
-      <c r="AC153" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AC153" s="20"/>
       <c r="AD153" s="20"/>
       <c r="AE153" s="20"/>
       <c r="AF153" s="20"/>
       <c r="AG153" s="20"/>
-      <c r="AH153" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AH153" s="20"/>
       <c r="AI153" s="20"/>
       <c r="AJ153" s="20"/>
       <c r="AK153" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="AL153" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:38">
       <c r="A154" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="C154" s="11" t="s">
         <v>5</v>
@@ -21798,7 +21796,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>231</v>
@@ -21807,43 +21805,23 @@
         <v>297</v>
       </c>
       <c r="I154" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J154" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>1.9999999999999998</v>
+        <v>20</v>
       </c>
       <c r="K154" s="11"/>
-      <c r="L154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="M154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="N154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="P154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="Q154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="R154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="S154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="T154" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="U154" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="19"/>
+      <c r="T154" s="18"/>
+      <c r="U154" s="18"/>
       <c r="V154" s="18"/>
       <c r="W154" s="19"/>
       <c r="X154" s="20"/>
@@ -21851,21 +21829,25 @@
       <c r="Z154" s="20"/>
       <c r="AA154" s="20"/>
       <c r="AB154" s="20"/>
-      <c r="AC154" s="20"/>
+      <c r="AC154" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AD154" s="20"/>
       <c r="AE154" s="20"/>
       <c r="AF154" s="20"/>
       <c r="AG154" s="20"/>
-      <c r="AH154" s="20"/>
+      <c r="AH154" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AI154" s="20"/>
       <c r="AJ154" s="20"/>
       <c r="AK154" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.49999999999999994</v>
+        <v>1</v>
       </c>
       <c r="AL154" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>19.999999999999996</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:38">
@@ -21887,7 +21869,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>231</v>
@@ -21900,38 +21882,38 @@
       </c>
       <c r="J155" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="K155" s="11"/>
       <c r="L155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="N155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="O155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="P155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="R155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="S155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="T155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="U155" s="18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="V155" s="18"/>
       <c r="W155" s="19"/>
@@ -21950,11 +21932,11 @@
       <c r="AJ155" s="20"/>
       <c r="AK155" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.19999999999999998</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="AL155" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>7.9999999999999982</v>
+        <v>19.999999999999996</v>
       </c>
     </row>
     <row r="156" spans="1:38">
@@ -21976,7 +21958,7 @@
         <v>10</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>231</v>
@@ -21985,26 +21967,44 @@
         <v>297</v>
       </c>
       <c r="I156" s="11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J156" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
+        <v>0.79999999999999982</v>
       </c>
       <c r="K156" s="11"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="18"/>
-      <c r="Q156" s="18"/>
-      <c r="R156" s="18"/>
-      <c r="S156" s="19"/>
-      <c r="T156" s="18"/>
-      <c r="U156" s="18"/>
-      <c r="V156" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="L156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="M156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="N156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="O156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="P156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="Q156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="R156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="S156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="T156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="U156" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="V156" s="18"/>
       <c r="W156" s="19"/>
       <c r="X156" s="20"/>
       <c r="Y156" s="20"/>
@@ -22021,19 +22021,19 @@
       <c r="AJ156" s="20"/>
       <c r="AK156" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AL156" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>7.9999999999999982</v>
       </c>
     </row>
     <row r="157" spans="1:38">
       <c r="A157" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>187</v>
+        <v>243</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="C157" s="11" t="s">
         <v>5</v>
@@ -22044,10 +22044,10 @@
       </c>
       <c r="E157" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>231</v>
@@ -22056,18 +22056,16 @@
         <v>297</v>
       </c>
       <c r="I157" s="11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J157" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K157" s="11"/>
       <c r="L157" s="18"/>
       <c r="M157" s="18"/>
-      <c r="N157" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="N157" s="18"/>
       <c r="O157" s="19"/>
       <c r="P157" s="18"/>
       <c r="Q157" s="18"/>
@@ -22075,7 +22073,9 @@
       <c r="S157" s="19"/>
       <c r="T157" s="18"/>
       <c r="U157" s="18"/>
-      <c r="V157" s="18"/>
+      <c r="V157" s="18">
+        <v>0.3</v>
+      </c>
       <c r="W157" s="19"/>
       <c r="X157" s="20"/>
       <c r="Y157" s="20"/>
@@ -22092,11 +22092,11 @@
       <c r="AJ157" s="20"/>
       <c r="AK157" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="AL157" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:38">
@@ -22118,7 +22118,7 @@
         <v>20</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>231</v>
@@ -22189,29 +22189,29 @@
         <v>20</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I159" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J159" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K159" s="11"/>
       <c r="L159" s="18"/>
       <c r="M159" s="18"/>
-      <c r="N159" s="18"/>
+      <c r="N159" s="18">
+        <v>0.05</v>
+      </c>
       <c r="O159" s="19"/>
-      <c r="P159" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="P159" s="18"/>
       <c r="Q159" s="18"/>
       <c r="R159" s="18"/>
       <c r="S159" s="19"/>
@@ -22234,11 +22234,11 @@
       <c r="AJ159" s="20"/>
       <c r="AK159" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AL159" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:38">
@@ -22249,7 +22249,7 @@
         <v>187</v>
       </c>
       <c r="C160" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D160" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22260,32 +22260,30 @@
         <v>20</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I160" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J160" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
-      </c>
-      <c r="K160" s="11">
-        <v>4</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="K160" s="11"/>
       <c r="L160" s="18"/>
       <c r="M160" s="18"/>
       <c r="N160" s="18"/>
       <c r="O160" s="19"/>
-      <c r="P160" s="18"/>
-      <c r="Q160" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="P160" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="Q160" s="18"/>
       <c r="R160" s="18"/>
       <c r="S160" s="19"/>
       <c r="T160" s="18"/>
@@ -22307,11 +22305,11 @@
       <c r="AJ160" s="20"/>
       <c r="AK160" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AL160" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:38">
@@ -22322,7 +22320,7 @@
         <v>187</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D161" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22333,7 +22331,7 @@
         <v>20</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>231</v>
@@ -22346,24 +22344,24 @@
       </c>
       <c r="J161" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="K161" s="11">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="L161" s="18"/>
       <c r="M161" s="18"/>
       <c r="N161" s="18"/>
       <c r="O161" s="19"/>
       <c r="P161" s="18"/>
-      <c r="Q161" s="18"/>
+      <c r="Q161" s="18">
+        <v>0.1</v>
+      </c>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
       <c r="T161" s="18"/>
       <c r="U161" s="18"/>
-      <c r="V161" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="V161" s="18"/>
       <c r="W161" s="19"/>
       <c r="X161" s="20"/>
       <c r="Y161" s="20"/>
@@ -22380,11 +22378,11 @@
       <c r="AJ161" s="20"/>
       <c r="AK161" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AL161" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:38">
@@ -22395,7 +22393,7 @@
         <v>187</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="D162" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22406,23 +22404,23 @@
         <v>20</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I162" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J162" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K162" s="11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L162" s="18"/>
       <c r="M162" s="18"/>
@@ -22435,7 +22433,7 @@
       <c r="T162" s="18"/>
       <c r="U162" s="18"/>
       <c r="V162" s="18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W162" s="19"/>
       <c r="X162" s="20"/>
@@ -22453,22 +22451,22 @@
       <c r="AJ162" s="20"/>
       <c r="AK162" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AL162" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163" spans="1:38">
       <c r="A163" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>5</v>
+        <v>301</v>
       </c>
       <c r="D163" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22479,22 +22477,24 @@
         <v>20</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H163" s="11" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="I163" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J163" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
-      </c>
-      <c r="K163" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="K163" s="11">
+        <v>1</v>
+      </c>
       <c r="L163" s="18"/>
       <c r="M163" s="18"/>
       <c r="N163" s="18"/>
@@ -22505,13 +22505,13 @@
       <c r="S163" s="19"/>
       <c r="T163" s="18"/>
       <c r="U163" s="18"/>
-      <c r="V163" s="18"/>
+      <c r="V163" s="18">
+        <v>0.2</v>
+      </c>
       <c r="W163" s="19"/>
       <c r="X163" s="20"/>
       <c r="Y163" s="20"/>
-      <c r="Z163" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="Z163" s="20"/>
       <c r="AA163" s="20"/>
       <c r="AB163" s="20"/>
       <c r="AC163" s="20"/>
@@ -22524,11 +22524,11 @@
       <c r="AJ163" s="20"/>
       <c r="AK163" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AL163" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:38">
@@ -22539,7 +22539,7 @@
         <v>188</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="D164" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22550,7 +22550,7 @@
         <v>20</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>231</v>
@@ -22559,15 +22559,13 @@
         <v>297</v>
       </c>
       <c r="I164" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J164" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>16</v>
-      </c>
-      <c r="K164" s="11">
-        <v>0.5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K164" s="11"/>
       <c r="L164" s="18"/>
       <c r="M164" s="18"/>
       <c r="N164" s="18"/>
@@ -22582,13 +22580,13 @@
       <c r="W164" s="19"/>
       <c r="X164" s="20"/>
       <c r="Y164" s="20"/>
-      <c r="Z164" s="20"/>
+      <c r="Z164" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AA164" s="20"/>
       <c r="AB164" s="20"/>
       <c r="AC164" s="20"/>
-      <c r="AD164" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AD164" s="20"/>
       <c r="AE164" s="20"/>
       <c r="AF164" s="20"/>
       <c r="AG164" s="20"/>
@@ -22597,11 +22595,11 @@
       <c r="AJ164" s="20"/>
       <c r="AK164" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="AL164" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:38">
@@ -22612,7 +22610,7 @@
         <v>188</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D165" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22623,7 +22621,7 @@
         <v>20</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>231</v>
@@ -22632,13 +22630,15 @@
         <v>297</v>
       </c>
       <c r="I165" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J165" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>24</v>
-      </c>
-      <c r="K165" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="K165" s="11">
+        <v>0.5</v>
+      </c>
       <c r="L165" s="18"/>
       <c r="M165" s="18"/>
       <c r="N165" s="18"/>
@@ -22656,10 +22656,10 @@
       <c r="Z165" s="20"/>
       <c r="AA165" s="20"/>
       <c r="AB165" s="20"/>
-      <c r="AC165" s="20">
-        <v>0.3</v>
-      </c>
-      <c r="AD165" s="20"/>
+      <c r="AC165" s="20"/>
+      <c r="AD165" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AE165" s="20"/>
       <c r="AF165" s="20"/>
       <c r="AG165" s="20"/>
@@ -22668,11 +22668,11 @@
       <c r="AJ165" s="20"/>
       <c r="AK165" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AL165" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>24</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:38">
@@ -22683,7 +22683,7 @@
         <v>188</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D166" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -22694,7 +22694,7 @@
         <v>20</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>231</v>
@@ -22707,7 +22707,7 @@
       </c>
       <c r="J166" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K166" s="11"/>
       <c r="L166" s="18"/>
@@ -22727,58 +22727,58 @@
       <c r="Z166" s="20"/>
       <c r="AA166" s="20"/>
       <c r="AB166" s="20"/>
-      <c r="AC166" s="20"/>
+      <c r="AC166" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AD166" s="20"/>
       <c r="AE166" s="20"/>
       <c r="AF166" s="20"/>
       <c r="AG166" s="20"/>
       <c r="AH166" s="20"/>
-      <c r="AI166" s="20">
-        <v>0.45</v>
-      </c>
+      <c r="AI166" s="20"/>
       <c r="AJ166" s="20"/>
       <c r="AK166" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="AL166" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" spans="1:38">
-      <c r="A167" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>276</v>
+      <c r="A167" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D167" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E167" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="I167" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J167" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K167" s="11"/>
       <c r="L167" s="18"/>
@@ -22787,9 +22787,7 @@
       <c r="O167" s="19"/>
       <c r="P167" s="18"/>
       <c r="Q167" s="18"/>
-      <c r="R167" s="18">
-        <v>0.1</v>
-      </c>
+      <c r="R167" s="18"/>
       <c r="S167" s="19"/>
       <c r="T167" s="18"/>
       <c r="U167" s="18"/>
@@ -22806,15 +22804,17 @@
       <c r="AF167" s="20"/>
       <c r="AG167" s="20"/>
       <c r="AH167" s="20"/>
-      <c r="AI167" s="20"/>
+      <c r="AI167" s="20">
+        <v>0.45</v>
+      </c>
       <c r="AJ167" s="20"/>
       <c r="AK167" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="AL167" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:38">
@@ -22836,20 +22836,20 @@
         <v>10</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H168" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I168" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J168" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K168" s="11"/>
       <c r="L168" s="18"/>
@@ -22858,14 +22858,14 @@
       <c r="O168" s="19"/>
       <c r="P168" s="18"/>
       <c r="Q168" s="18"/>
-      <c r="R168" s="18"/>
+      <c r="R168" s="18">
+        <v>0.1</v>
+      </c>
       <c r="S168" s="19"/>
       <c r="T168" s="18"/>
       <c r="U168" s="18"/>
       <c r="V168" s="18"/>
-      <c r="W168" s="19">
-        <v>0.2</v>
-      </c>
+      <c r="W168" s="19"/>
       <c r="X168" s="20"/>
       <c r="Y168" s="20"/>
       <c r="Z168" s="20"/>
@@ -22881,42 +22881,42 @@
       <c r="AJ168" s="20"/>
       <c r="AK168" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AL168" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:38">
       <c r="A169" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E169" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>10</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H169" s="11" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="I169" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J169" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
@@ -22934,13 +22934,13 @@
       <c r="T169" s="18"/>
       <c r="U169" s="18"/>
       <c r="V169" s="18"/>
-      <c r="W169" s="19"/>
+      <c r="W169" s="19">
+        <v>0.2</v>
+      </c>
       <c r="X169" s="20"/>
       <c r="Y169" s="20"/>
       <c r="Z169" s="20"/>
-      <c r="AA169" s="20">
-        <v>0.2</v>
-      </c>
+      <c r="AA169" s="20"/>
       <c r="AB169" s="20"/>
       <c r="AC169" s="20"/>
       <c r="AD169" s="20"/>
@@ -22978,7 +22978,7 @@
         <v>10</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>231</v>
@@ -22987,11 +22987,11 @@
         <v>303</v>
       </c>
       <c r="I170" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J170" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K170" s="11"/>
       <c r="L170" s="18"/>
@@ -23009,7 +23009,9 @@
       <c r="X170" s="20"/>
       <c r="Y170" s="20"/>
       <c r="Z170" s="20"/>
-      <c r="AA170" s="20"/>
+      <c r="AA170" s="20">
+        <v>0.2</v>
+      </c>
       <c r="AB170" s="20"/>
       <c r="AC170" s="20"/>
       <c r="AD170" s="20"/>
@@ -23017,17 +23019,15 @@
       <c r="AF170" s="20"/>
       <c r="AG170" s="20"/>
       <c r="AH170" s="20"/>
-      <c r="AI170" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AI170" s="20"/>
       <c r="AJ170" s="20"/>
       <c r="AK170" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AL170" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:38">
@@ -23049,7 +23049,7 @@
         <v>10</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G171" s="11" t="s">
         <v>231</v>
@@ -23058,11 +23058,11 @@
         <v>303</v>
       </c>
       <c r="I171" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J171" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K171" s="11"/>
       <c r="L171" s="18"/>
@@ -23089,24 +23089,24 @@
       <c r="AG171" s="20"/>
       <c r="AH171" s="20"/>
       <c r="AI171" s="20">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AJ171" s="20"/>
       <c r="AK171" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AL171" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:38">
       <c r="A172" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C172" s="11" t="s">
         <v>5</v>
@@ -23117,10 +23117,10 @@
       </c>
       <c r="E172" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>231</v>
@@ -23129,15 +23129,13 @@
         <v>303</v>
       </c>
       <c r="I172" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J172" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>40</v>
-      </c>
-      <c r="K172" s="11">
-        <v>20</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K172" s="11"/>
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
       <c r="N172" s="18"/>
@@ -23162,16 +23160,16 @@
       <c r="AG172" s="20"/>
       <c r="AH172" s="20"/>
       <c r="AI172" s="20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AJ172" s="20"/>
       <c r="AK172" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="AL172" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:38">
@@ -23182,7 +23180,7 @@
         <v>283</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D173" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -23193,23 +23191,23 @@
         <v>20</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H173" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I173" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J173" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K173" s="11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L173" s="18"/>
       <c r="M173" s="18"/>
@@ -23229,14 +23227,14 @@
       <c r="AA173" s="20"/>
       <c r="AB173" s="20"/>
       <c r="AC173" s="20"/>
-      <c r="AD173" s="20">
-        <v>0.5</v>
-      </c>
+      <c r="AD173" s="20"/>
       <c r="AE173" s="20"/>
       <c r="AF173" s="20"/>
       <c r="AG173" s="20"/>
       <c r="AH173" s="20"/>
-      <c r="AI173" s="20"/>
+      <c r="AI173" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AJ173" s="20"/>
       <c r="AK173" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -23244,45 +23242,45 @@
       </c>
       <c r="AL173" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:38">
       <c r="A174" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D174" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E174" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G174" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H174" s="11" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I174" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>40</v>
       </c>
       <c r="K174" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L174" s="18"/>
       <c r="M174" s="18"/>
@@ -23294,9 +23292,7 @@
       <c r="S174" s="19"/>
       <c r="T174" s="18"/>
       <c r="U174" s="18"/>
-      <c r="V174" s="18">
-        <v>0.5</v>
-      </c>
+      <c r="V174" s="18"/>
       <c r="W174" s="19"/>
       <c r="X174" s="20"/>
       <c r="Y174" s="20"/>
@@ -23304,7 +23300,9 @@
       <c r="AA174" s="20"/>
       <c r="AB174" s="20"/>
       <c r="AC174" s="20"/>
-      <c r="AD174" s="20"/>
+      <c r="AD174" s="20">
+        <v>0.5</v>
+      </c>
       <c r="AE174" s="20"/>
       <c r="AF174" s="20"/>
       <c r="AG174" s="20"/>
@@ -23316,6 +23314,79 @@
         <v>0.5</v>
       </c>
       <c r="AL174" s="27">
+        <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38">
+      <c r="A175" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" s="29">
+        <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>50</v>
+      </c>
+      <c r="E175" s="29">
+        <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
+        <v>20</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="G175" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I175" s="11">
+        <v>2</v>
+      </c>
+      <c r="J175" s="11">
+        <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
+        <v>40</v>
+      </c>
+      <c r="K175" s="11">
+        <v>8</v>
+      </c>
+      <c r="L175" s="18"/>
+      <c r="M175" s="18"/>
+      <c r="N175" s="18"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="18"/>
+      <c r="Q175" s="18"/>
+      <c r="R175" s="18"/>
+      <c r="S175" s="19"/>
+      <c r="T175" s="18"/>
+      <c r="U175" s="18"/>
+      <c r="V175" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="W175" s="19"/>
+      <c r="X175" s="20"/>
+      <c r="Y175" s="20"/>
+      <c r="Z175" s="20"/>
+      <c r="AA175" s="20"/>
+      <c r="AB175" s="20"/>
+      <c r="AC175" s="20"/>
+      <c r="AD175" s="20"/>
+      <c r="AE175" s="20"/>
+      <c r="AF175" s="20"/>
+      <c r="AG175" s="20"/>
+      <c r="AH175" s="20"/>
+      <c r="AI175" s="20"/>
+      <c r="AJ175" s="20"/>
+      <c r="AK175" s="27">
+        <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
+        <v>0.5</v>
+      </c>
+      <c r="AL175" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>8</v>
       </c>
@@ -35758,7 +35829,7 @@
       </c>
       <c r="C37">
         <f>SUMIF(Table1[Module Code],Sheet2!A37,Table1[Total Hours])</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D37">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A37,Table14[Module Code],0))</f>
@@ -35766,11 +35837,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -35878,7 +35949,7 @@
       </c>
       <c r="C42">
         <f>SUMIF(Table1[Module Code],Sheet2!A42,Table1[Total Hours])</f>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A42,Table14[Module Code],0))</f>
@@ -35886,11 +35957,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -36190,7 +36261,7 @@
       </c>
       <c r="C55">
         <f>SUMIF(Table1[Module Code],Sheet2!A55,Table1[Total Hours])</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D55">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A55,Table14[Module Code],0))</f>
@@ -36198,11 +36269,11 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="56" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1595" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2169555-E1CA-4F60-9BDA-433277FEC2C7}"/>
+  <xr:revisionPtr revIDLastSave="1597" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88961667-058C-436B-B343-B9958A234E38}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="26115" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="380">
   <si>
     <t>Module Code</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>Formative Quiz</t>
+  </si>
+  <si>
+    <t>CA1 (*)</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1425,18 +1428,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9078,7 +9069,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9996,10 +9987,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H134" sqref="H134"/>
+      <selection pane="bottomRight" activeCell="K123" sqref="K123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10364,18 +10355,18 @@
       <c r="B5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>40</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
         <v>20</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="11" t="s">
         <v>378</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -10384,14 +10375,14 @@
       <c r="H5" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="52">
+      <c r="J5" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
         <v>2</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="11">
         <v>0.5</v>
       </c>
       <c r="L5" s="18"/>
@@ -10421,11 +10412,11 @@
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
       <c r="AJ5" s="20"/>
-      <c r="AK5" s="53">
+      <c r="AK5" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="53">
+      <c r="AL5" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
         <v>0.5</v>
       </c>
@@ -19516,13 +19507,13 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I123" s="11">
         <v>4</v>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1597" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88961667-058C-436B-B343-B9958A234E38}"/>
+  <xr:revisionPtr revIDLastSave="1601" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401D57D5-BC21-4268-9572-FD6793AE0922}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="26115" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1136,18 +1136,12 @@
     <t>Weekly task</t>
   </si>
   <si>
-    <t>Weekly Tests</t>
-  </si>
-  <si>
     <t>Tests Portfolio</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Weekly tests</t>
-  </si>
-  <si>
     <t>Tests Portfolio 1</t>
   </si>
   <si>
@@ -1163,9 +1157,6 @@
     <t>Quiz Deadline</t>
   </si>
   <si>
-    <t>Weekly Quizzez</t>
-  </si>
-  <si>
     <t>Final Report</t>
   </si>
   <si>
@@ -1182,6 +1173,15 @@
   </si>
   <si>
     <t>CA1 (*)</t>
+  </si>
+  <si>
+    <t>Weekly Tests (P)</t>
+  </si>
+  <si>
+    <t>Weekly tests (P)</t>
+  </si>
+  <si>
+    <t>Weekly Quizzes (P)</t>
   </si>
 </sst>
 </file>
@@ -9069,7 +9069,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9987,10 +9987,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K123" sqref="K123"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10367,7 +10367,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>222</v>
@@ -10440,7 +10440,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>231</v>
@@ -10746,7 +10746,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>222</v>
@@ -13264,7 +13264,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>222</v>
@@ -13752,7 +13752,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>222</v>
@@ -14086,7 +14086,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>231</v>
@@ -15235,13 +15235,13 @@
         <v>20</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I67" s="11">
         <v>1</v>
@@ -15326,7 +15326,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>231</v>
@@ -15568,13 +15568,13 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
@@ -15655,7 +15655,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>231</v>
@@ -15728,7 +15728,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>231</v>
@@ -16239,13 +16239,13 @@
         <v>10</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I80" s="11">
         <v>1</v>
@@ -16326,7 +16326,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>231</v>
@@ -16399,7 +16399,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>231</v>
@@ -17283,13 +17283,13 @@
         <v>20</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I94" s="11">
         <v>1</v>
@@ -17374,7 +17374,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>231</v>
@@ -19349,7 +19349,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>222</v>
@@ -19436,7 +19436,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>231</v>
@@ -19507,7 +19507,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>231</v>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1601" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{401D57D5-BC21-4268-9572-FD6793AE0922}"/>
+  <xr:revisionPtr revIDLastSave="1607" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86BB3883-1612-4C30-AB0C-C4914339E050}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="19" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="381">
   <si>
     <t>Module Code</t>
   </si>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>Weekly Quizzes (P)</t>
+  </si>
+  <si>
+    <t>Python exercise (*)</t>
   </si>
 </sst>
 </file>
@@ -9069,7 +9072,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9987,10 +9990,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10857,7 +10860,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>231</v>
@@ -10866,49 +10869,59 @@
         <v>321</v>
       </c>
       <c r="I11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>7.1999999999999993</v>
+        <v>7.1999999999999984</v>
       </c>
       <c r="K11" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L11" s="18"/>
-      <c r="M11" s="18">
-        <v>0.09</v>
-      </c>
+      <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="18"/>
+      <c r="P11" s="18">
+        <v>0.09</v>
+      </c>
       <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="18">
+        <v>0.09</v>
+      </c>
       <c r="S11" s="19"/>
-      <c r="T11" s="18"/>
+      <c r="T11" s="18">
+        <v>0.09</v>
+      </c>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="19"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="20">
+        <v>0.09</v>
+      </c>
+      <c r="AE11" s="21"/>
       <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
       <c r="AI11" s="20"/>
       <c r="AJ11" s="20"/>
       <c r="AK11" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.09</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="AL11" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -10930,7 +10943,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>273</v>
+        <v>380</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>231</v>
@@ -10939,59 +10952,49 @@
         <v>321</v>
       </c>
       <c r="I12" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>7.1999999999999984</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="K12" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="18">
-        <v>0.09</v>
-      </c>
+      <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="18">
-        <v>0.09</v>
-      </c>
+      <c r="R12" s="18"/>
       <c r="S12" s="19"/>
-      <c r="T12" s="18">
-        <v>0.09</v>
-      </c>
+      <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="19"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="20">
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <v>0.09</v>
       </c>
-      <c r="AA12" s="21"/>
-      <c r="AB12" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="AC12" s="21"/>
-      <c r="AD12" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="AE12" s="21"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="21"/>
-      <c r="AH12" s="21"/>
+      <c r="AG12" s="20"/>
+      <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
       <c r="AJ12" s="20"/>
       <c r="AK12" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.53999999999999992</v>
+        <v>0.09</v>
       </c>
       <c r="AL12" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:38">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1607" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86BB3883-1612-4C30-AB0C-C4914339E050}"/>
+  <xr:revisionPtr revIDLastSave="1628" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5E8C72-59EA-4D03-9092-9C67FC1377AB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="12877" yWindow="0" windowWidth="13125" windowHeight="15563" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="385">
   <si>
     <t>Module Code</t>
   </si>
@@ -1034,9 +1034,6 @@
     <t>Final Report (U/D)</t>
   </si>
   <si>
-    <t>Quiz (*)</t>
-  </si>
-  <si>
     <t>Tu/Fr</t>
   </si>
   <si>
@@ -1061,9 +1058,6 @@
     <t>ML Methods</t>
   </si>
   <si>
-    <t>Wiley Test</t>
-  </si>
-  <si>
     <t>Portfolio (P)</t>
   </si>
   <si>
@@ -1082,12 +1076,6 @@
     <t>Group Project</t>
   </si>
   <si>
-    <t>Weekly Tests 1</t>
-  </si>
-  <si>
-    <t>Weekly Tests 2</t>
-  </si>
-  <si>
     <t>Mini Project</t>
   </si>
   <si>
@@ -1133,9 +1121,6 @@
     <t>Performance (P)</t>
   </si>
   <si>
-    <t>Weekly task</t>
-  </si>
-  <si>
     <t>Tests Portfolio</t>
   </si>
   <si>
@@ -1163,12 +1148,6 @@
     <t>Weekly Quiz (P)</t>
   </si>
   <si>
-    <t>Lab Attendance</t>
-  </si>
-  <si>
-    <t>Wiley Quiz</t>
-  </si>
-  <si>
     <t>Formative Quiz</t>
   </si>
   <si>
@@ -1181,10 +1160,43 @@
     <t>Weekly tests (P)</t>
   </si>
   <si>
-    <t>Weekly Quizzes (P)</t>
-  </si>
-  <si>
     <t>Python exercise (*)</t>
+  </si>
+  <si>
+    <t>Wiley Quiz (6 of 9)</t>
+  </si>
+  <si>
+    <t>Wiley Test (best 8)</t>
+  </si>
+  <si>
+    <t>Quiz (best 6)</t>
+  </si>
+  <si>
+    <t>Weekly task (best 6)</t>
+  </si>
+  <si>
+    <t>Quiz (best 3)</t>
+  </si>
+  <si>
+    <t>Quiz (best 5)</t>
+  </si>
+  <si>
+    <t>Weekly Quiz (best 7)</t>
+  </si>
+  <si>
+    <t>Quiz (*) (best 5)</t>
+  </si>
+  <si>
+    <t>Weekly Test 1 (best 3)</t>
+  </si>
+  <si>
+    <t>Weekly Test 2 (best 3)</t>
+  </si>
+  <si>
+    <t>Quiz (best 65)</t>
+  </si>
+  <si>
+    <t>Lab Engagement</t>
   </si>
 </sst>
 </file>
@@ -9072,7 +9084,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9990,27 +10002,27 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.08984375" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.08984375" style="16"/>
+    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="29">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="30">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10370,7 +10382,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>222</v>
@@ -10443,7 +10455,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>231</v>
@@ -10749,7 +10761,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>222</v>
@@ -10943,7 +10955,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>231</v>
@@ -11089,7 +11101,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>231</v>
@@ -11186,7 +11198,7 @@
         <v>231</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I15" s="11">
         <v>1</v>
@@ -11863,7 +11875,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>231</v>
@@ -12890,7 +12902,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>231</v>
@@ -13042,7 +13054,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>231</v>
@@ -13267,7 +13279,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>222</v>
@@ -13755,7 +13767,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>222</v>
@@ -14089,7 +14101,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>231</v>
@@ -14160,7 +14172,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>231</v>
@@ -14401,7 +14413,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>231</v>
@@ -14865,7 +14877,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>231</v>
@@ -15238,13 +15250,13 @@
         <v>20</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I67" s="11">
         <v>1</v>
@@ -15329,7 +15341,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>231</v>
@@ -15473,7 +15485,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>231</v>
@@ -15571,13 +15583,13 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
@@ -15658,7 +15670,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>231</v>
@@ -15731,7 +15743,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>231</v>
@@ -16242,13 +16254,13 @@
         <v>10</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I80" s="11">
         <v>1</v>
@@ -16329,7 +16341,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>231</v>
@@ -16402,7 +16414,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>231</v>
@@ -16617,7 +16629,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>231</v>
@@ -16769,7 +16781,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>231</v>
@@ -17073,7 +17085,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>231</v>
@@ -17125,7 +17137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" ht="28.5">
       <c r="A92" s="8" t="s">
         <v>21</v>
       </c>
@@ -17196,7 +17208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" ht="28.5">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
@@ -17292,7 +17304,7 @@
         <v>222</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="I94" s="11">
         <v>1</v>
@@ -17377,7 +17389,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>231</v>
@@ -17807,7 +17819,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>231</v>
@@ -17878,7 +17890,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>231</v>
@@ -18805,7 +18817,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>231</v>
@@ -19192,7 +19204,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>231</v>
@@ -19352,7 +19364,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>222</v>
@@ -19439,7 +19451,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>231</v>
@@ -19510,7 +19522,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>231</v>
@@ -19654,7 +19666,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>231</v>
@@ -19966,7 +19978,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>231</v>
@@ -20201,7 +20213,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>231</v>
@@ -20282,7 +20294,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>231</v>
@@ -20576,7 +20588,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>231</v>
@@ -20740,7 +20752,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>255</v>
+        <v>383</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>231</v>
@@ -20831,7 +20843,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>231</v>
@@ -21119,7 +21131,7 @@
         <v>10</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>231</v>
@@ -21190,7 +21202,7 @@
         <v>10</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>231</v>
@@ -21458,7 +21470,7 @@
         <v>60</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>231</v>
@@ -21531,7 +21543,7 @@
         <v>60</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>231</v>
@@ -21677,7 +21689,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>231</v>
@@ -21823,7 +21835,7 @@
         <v>60</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>231</v>
@@ -22182,7 +22194,7 @@
         <v>10</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>231</v>
@@ -22271,7 +22283,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>231</v>
@@ -22360,7 +22372,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>231</v>
@@ -22431,7 +22443,7 @@
         <v>20</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>231</v>
@@ -22502,7 +22514,7 @@
         <v>20</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>231</v>
@@ -22573,7 +22585,7 @@
         <v>20</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>231</v>
@@ -22644,7 +22656,7 @@
         <v>20</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>231</v>
@@ -22717,7 +22729,7 @@
         <v>20</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>231</v>
@@ -22790,7 +22802,7 @@
         <v>20</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>231</v>
@@ -22863,7 +22875,7 @@
         <v>20</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>231</v>
@@ -22934,7 +22946,7 @@
         <v>20</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>231</v>
@@ -23007,7 +23019,7 @@
         <v>20</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>231</v>
@@ -23078,7 +23090,7 @@
         <v>20</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>231</v>
@@ -23155,7 +23167,7 @@
         <v>231</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I171" s="11">
         <v>4</v>
@@ -23226,7 +23238,7 @@
         <v>231</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I172" s="11">
         <v>6</v>
@@ -23504,7 +23516,7 @@
         <v>20</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>231</v>
@@ -23577,7 +23589,7 @@
         <v>20</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>231</v>
@@ -23650,7 +23662,7 @@
         <v>20</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G178" s="11" t="s">
         <v>231</v>
@@ -23725,16 +23737,16 @@
       <selection pane="bottomRight" activeCell="X64" sqref="X64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7265625" style="16"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -27056,7 +27068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -29884,14 +29896,14 @@
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -31705,7 +31717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -35314,11 +35326,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1628" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F5E8C72-59EA-4D03-9092-9C67FC1377AB}"/>
+  <xr:revisionPtr revIDLastSave="1643" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F52F4F-F15D-473F-BA92-783EA6922A6B}"/>
   <bookViews>
     <workbookView xWindow="12877" yWindow="0" windowWidth="13125" windowHeight="15563" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="386">
   <si>
     <t>Module Code</t>
   </si>
@@ -1166,37 +1166,40 @@
     <t>Wiley Quiz (6 of 9)</t>
   </si>
   <si>
-    <t>Wiley Test (best 8)</t>
-  </si>
-  <si>
     <t>Quiz (best 6)</t>
   </si>
   <si>
-    <t>Weekly task (best 6)</t>
-  </si>
-  <si>
-    <t>Quiz (best 3)</t>
-  </si>
-  <si>
-    <t>Quiz (best 5)</t>
-  </si>
-  <si>
-    <t>Weekly Quiz (best 7)</t>
-  </si>
-  <si>
-    <t>Quiz (*) (best 5)</t>
-  </si>
-  <si>
-    <t>Weekly Test 1 (best 3)</t>
-  </si>
-  <si>
-    <t>Weekly Test 2 (best 3)</t>
-  </si>
-  <si>
-    <t>Quiz (best 65)</t>
-  </si>
-  <si>
     <t>Lab Engagement</t>
+  </si>
+  <si>
+    <t>Wiley Test (8 of 10)</t>
+  </si>
+  <si>
+    <t>Quiz (6 of 10)</t>
+  </si>
+  <si>
+    <t>Weekly task (6 of 9)</t>
+  </si>
+  <si>
+    <t>Quiz (3 of 5)</t>
+  </si>
+  <si>
+    <t>Quiz (5 of 10)</t>
+  </si>
+  <si>
+    <t>Weekly Quiz (7 of 10)</t>
+  </si>
+  <si>
+    <t>Weekly task (6 of 8)</t>
+  </si>
+  <si>
+    <t>Quiz (*) (5 of 10)</t>
+  </si>
+  <si>
+    <t>Weekly Test 1 (3 of 5)</t>
+  </si>
+  <si>
+    <t>Weekly Test 2 (3 of 5)</t>
   </si>
 </sst>
 </file>
@@ -10002,10 +10005,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10761,7 +10764,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>222</v>
@@ -11101,7 +11104,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>231</v>
@@ -11875,7 +11878,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>231</v>
@@ -13279,7 +13282,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>222</v>
@@ -13767,7 +13770,7 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>222</v>
@@ -14172,7 +14175,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>231</v>
@@ -14413,7 +14416,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>231</v>
@@ -15485,7 +15488,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>231</v>
@@ -16629,7 +16632,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>231</v>
@@ -16781,7 +16784,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>231</v>
@@ -17298,7 +17301,7 @@
         <v>20</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>222</v>
@@ -18817,7 +18820,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>231</v>
@@ -19204,7 +19207,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>231</v>
@@ -19666,7 +19669,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>231</v>
@@ -19978,7 +19981,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>231</v>
@@ -20213,7 +20216,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>231</v>
@@ -20294,7 +20297,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>231</v>
@@ -20588,7 +20591,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>231</v>
@@ -20752,7 +20755,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>231</v>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1643" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F52F4F-F15D-473F-BA92-783EA6922A6B}"/>
+  <xr:revisionPtr revIDLastSave="1644" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C08CAA0-3ABD-4891-9927-8D5D256A39D0}"/>
   <bookViews>
-    <workbookView xWindow="12877" yWindow="0" windowWidth="13125" windowHeight="15563" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="1" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -10004,8 +10004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AL178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F114" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
@@ -23733,11 +23733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0482654D-1732-43E5-85EC-021407B07CE5}">
   <dimension ref="A1:AE141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X64" sqref="X64"/>
+      <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29472,7 +29472,7 @@
         <v>0.5</v>
       </c>
       <c r="G61" s="31">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H61" s="31">
         <v>1</v>
@@ -29543,7 +29543,7 @@
       </c>
       <c r="AE61" s="37">
         <f>SUM(Table14[[#This Row],[Autumn Week 1]:[Spring Week 12]])</f>
-        <v>29.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -36881,15 +36881,15 @@
       </c>
       <c r="D67">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A67,Table14[Module Code],0))</f>
-        <v>29.5</v>
+        <v>12.5</v>
       </c>
       <c r="E67">
         <f t="shared" si="0"/>
-        <v>530.90000000000009</v>
+        <v>513.90000000000009</v>
       </c>
       <c r="F67">
         <f t="shared" si="1"/>
-        <v>8.8483333333333345</v>
+        <v>8.5650000000000013</v>
       </c>
     </row>
     <row r="68" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1644" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C08CAA0-3ABD-4891-9927-8D5D256A39D0}"/>
+  <xr:revisionPtr revIDLastSave="1645" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711C39C6-B380-4E26-9F69-4126CAF905F1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="1" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294962941" uniqueCount="386">
   <si>
     <t>Module Code</t>
   </si>
@@ -10004,11 +10004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AL178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F126" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F140" sqref="F140"/>
+      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21001,7 +21001,7 @@
         <v>297</v>
       </c>
       <c r="I142" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
@@ -23733,8 +23733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0482654D-1732-43E5-85EC-021407B07CE5}">
   <dimension ref="A1:AE141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1645" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711C39C6-B380-4E26-9F69-4126CAF905F1}"/>
+  <xr:revisionPtr revIDLastSave="1647" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB13DD57-D680-47C8-935D-EB6FCBBDD55A}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="2" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
+    <pivotCache cacheId="269" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4294962941" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="386">
   <si>
     <t>Module Code</t>
   </si>
@@ -9087,7 +9087,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="269" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10004,8 +10004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AL178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C126" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
@@ -29895,8 +29895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33775,9 +33775,15 @@
       <c r="S74" t="s">
         <v>147</v>
       </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
+        <v>80</v>
+      </c>
       <c r="V74">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="W74">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1647" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB13DD57-D680-47C8-935D-EB6FCBBDD55A}"/>
+  <xr:revisionPtr revIDLastSave="1656" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C133DB0C-B249-4B27-8DCF-17BA242244FC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="2" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="269" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="382">
   <si>
     <t>Module Code</t>
   </si>
@@ -977,33 +977,21 @@
     <t>(TBC)</t>
   </si>
   <si>
-    <t>AstroPhoto (U/D)</t>
-  </si>
-  <si>
     <t>CA2 (U/D)</t>
   </si>
   <si>
     <t>Mo/Th</t>
   </si>
   <si>
-    <t>Assignment (U/D)</t>
-  </si>
-  <si>
     <t>CA (U/D)</t>
   </si>
   <si>
-    <t>Presentation (U/D)</t>
-  </si>
-  <si>
     <t>Poster Pres (*)</t>
   </si>
   <si>
     <t>Th/Fr</t>
   </si>
   <si>
-    <t>Lab Diary (*) (U/D)</t>
-  </si>
-  <si>
     <t>Workshops (*)</t>
   </si>
   <si>
@@ -1028,21 +1016,9 @@
     <t>Pres (*) (+/- 1wk)</t>
   </si>
   <si>
-    <t>Final Diary (U/D)</t>
-  </si>
-  <si>
-    <t>Final Report (U/D)</t>
-  </si>
-  <si>
     <t>Tu/Fr</t>
   </si>
   <si>
-    <t>Project Diary (U/D)</t>
-  </si>
-  <si>
-    <t>Project Report (U/D)</t>
-  </si>
-  <si>
     <t>Viva (*)</t>
   </si>
   <si>
@@ -1200,6 +1176,18 @@
   </si>
   <si>
     <t>Weekly Test 2 (3 of 5)</t>
+  </si>
+  <si>
+    <t>Project Report</t>
+  </si>
+  <si>
+    <t>Project Diary</t>
+  </si>
+  <si>
+    <t>Final Diary</t>
+  </si>
+  <si>
+    <t>AstroPhoto</t>
   </si>
 </sst>
 </file>
@@ -9087,7 +9075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="269" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10004,28 +9992,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
   <dimension ref="A1:AL178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C152" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I143" sqref="I143"/>
+      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.140625" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.140625" style="16"/>
+    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.1796875" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="30">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10385,7 +10373,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>222</v>
@@ -10458,7 +10446,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>231</v>
@@ -10764,13 +10752,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
@@ -10881,7 +10869,7 @@
         <v>231</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I11" s="11">
         <v>2</v>
@@ -10958,13 +10946,13 @@
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
@@ -11104,7 +11092,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>231</v>
@@ -11201,7 +11189,7 @@
         <v>231</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I15" s="11">
         <v>1</v>
@@ -11359,7 +11347,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>231</v>
@@ -11586,7 +11574,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>231</v>
@@ -11878,7 +11866,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>231</v>
@@ -12127,7 +12115,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>231</v>
@@ -12200,7 +12188,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>231</v>
@@ -12291,7 +12279,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>231</v>
@@ -12447,7 +12435,7 @@
         <v>231</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I31" s="11">
         <v>1</v>
@@ -12520,7 +12508,7 @@
         <v>231</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I32" s="11">
         <v>3</v>
@@ -12735,7 +12723,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>231</v>
@@ -12814,7 +12802,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>231</v>
@@ -12905,7 +12893,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>231</v>
@@ -12982,7 +12970,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>231</v>
@@ -13057,7 +13045,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>231</v>
@@ -13130,7 +13118,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>231</v>
@@ -13282,13 +13270,13 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I42" s="11">
         <v>1</v>
@@ -13397,7 +13385,7 @@
         <v>231</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I43" s="11">
         <v>1</v>
@@ -13470,7 +13458,7 @@
         <v>231</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I44" s="11">
         <v>3</v>
@@ -13541,13 +13529,13 @@
         <v>20</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I45" s="11">
         <v>3</v>
@@ -13770,13 +13758,13 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I48" s="11">
         <v>1</v>
@@ -13887,7 +13875,7 @@
         <v>231</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I49" s="11">
         <v>2</v>
@@ -13966,7 +13954,7 @@
         <v>231</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I50" s="11">
         <v>2</v>
@@ -14104,7 +14092,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>231</v>
@@ -14175,7 +14163,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>231</v>
@@ -14416,7 +14404,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>231</v>
@@ -14649,7 +14637,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>231</v>
@@ -14880,7 +14868,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>231</v>
@@ -14951,7 +14939,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>231</v>
@@ -15253,13 +15241,13 @@
         <v>20</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I67" s="11">
         <v>1</v>
@@ -15344,7 +15332,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>231</v>
@@ -15488,7 +15476,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>231</v>
@@ -15586,13 +15574,13 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
@@ -15673,7 +15661,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>231</v>
@@ -15746,7 +15734,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>231</v>
@@ -16257,13 +16245,13 @@
         <v>10</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I80" s="11">
         <v>1</v>
@@ -16344,13 +16332,13 @@
         <v>10</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I81" s="11">
         <v>5</v>
@@ -16417,7 +16405,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>231</v>
@@ -16632,7 +16620,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>231</v>
@@ -16784,7 +16772,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>231</v>
@@ -16946,7 +16934,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>231</v>
@@ -17017,7 +17005,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>231</v>
@@ -17088,7 +17076,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>231</v>
@@ -17140,7 +17128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="28.5">
+    <row r="92" spans="1:38">
       <c r="A92" s="8" t="s">
         <v>21</v>
       </c>
@@ -17211,7 +17199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="28.5">
+    <row r="93" spans="1:38">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
@@ -17301,13 +17289,13 @@
         <v>20</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I94" s="11">
         <v>1</v>
@@ -17392,7 +17380,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>231</v>
@@ -17680,7 +17668,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>231</v>
@@ -17822,7 +17810,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>231</v>
@@ -17893,7 +17881,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>231</v>
@@ -17966,7 +17954,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>231</v>
@@ -18524,7 +18512,7 @@
         <v>30</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>231</v>
@@ -18672,7 +18660,7 @@
         <v>30</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>231</v>
@@ -18820,7 +18808,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>231</v>
@@ -19063,7 +19051,7 @@
         <v>10</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>231</v>
@@ -19207,7 +19195,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>231</v>
@@ -19367,7 +19355,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>222</v>
@@ -19454,7 +19442,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>231</v>
@@ -19525,7 +19513,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>231</v>
@@ -19669,7 +19657,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>231</v>
@@ -19981,7 +19969,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>231</v>
@@ -20216,7 +20204,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>231</v>
@@ -20297,7 +20285,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>231</v>
@@ -20591,7 +20579,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>231</v>
@@ -20755,7 +20743,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>231</v>
@@ -20846,7 +20834,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>231</v>
@@ -21134,7 +21122,7 @@
         <v>10</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>231</v>
@@ -21205,7 +21193,7 @@
         <v>10</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>231</v>
@@ -21473,7 +21461,7 @@
         <v>60</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>231</v>
@@ -21546,7 +21534,7 @@
         <v>60</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>231</v>
@@ -21692,7 +21680,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>231</v>
@@ -21838,7 +21826,7 @@
         <v>60</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>231</v>
@@ -22197,7 +22185,7 @@
         <v>10</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>231</v>
@@ -22286,7 +22274,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>231</v>
@@ -22375,7 +22363,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>231</v>
@@ -22446,7 +22434,7 @@
         <v>20</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>231</v>
@@ -22517,7 +22505,7 @@
         <v>20</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>231</v>
@@ -22588,7 +22576,7 @@
         <v>20</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>231</v>
@@ -22659,7 +22647,7 @@
         <v>20</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>231</v>
@@ -22732,7 +22720,7 @@
         <v>20</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>231</v>
@@ -22805,7 +22793,7 @@
         <v>20</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>231</v>
@@ -22878,7 +22866,7 @@
         <v>20</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>231</v>
@@ -22949,7 +22937,7 @@
         <v>20</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>231</v>
@@ -23022,7 +23010,7 @@
         <v>20</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>231</v>
@@ -23093,7 +23081,7 @@
         <v>20</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>231</v>
@@ -23170,7 +23158,7 @@
         <v>231</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I171" s="11">
         <v>4</v>
@@ -23241,7 +23229,7 @@
         <v>231</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I172" s="11">
         <v>6</v>
@@ -23519,7 +23507,7 @@
         <v>20</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>231</v>
@@ -23592,7 +23580,7 @@
         <v>20</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>231</v>
@@ -23665,7 +23653,7 @@
         <v>20</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G178" s="11" t="s">
         <v>231</v>
@@ -23740,16 +23728,16 @@
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7109375" style="16"/>
+    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -27071,7 +27059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="28.5">
+    <row r="36" spans="1:31">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -29895,18 +29883,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -31720,7 +31708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="28.5">
+    <row r="36" spans="1:23">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -35335,11 +35323,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1656" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C133DB0C-B249-4B27-8DCF-17BA242244FC}"/>
+  <xr:revisionPtr revIDLastSave="1659" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90771DB5-2E25-4391-8958-F86A5E011A76}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9075,7 +9075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9993,10 +9993,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15426,11 +15426,11 @@
       <c r="N69" s="19"/>
       <c r="O69" s="19"/>
       <c r="P69" s="19"/>
-      <c r="Q69" s="19">
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19">
         <v>0.1</v>
       </c>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
       <c r="T69" s="19"/>
       <c r="U69" s="18"/>
       <c r="V69" s="18"/>
@@ -16484,7 +16484,7 @@
         <v>231</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I83" s="11">
         <v>4</v>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1659" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90771DB5-2E25-4391-8958-F86A5E011A76}"/>
+  <xr:revisionPtr revIDLastSave="1661" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107916D0-1B77-496C-8415-39B0FFE99FFA}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -9075,7 +9075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9993,10 +9993,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I83" sqref="I83"/>
+      <selection pane="bottomRight" activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -19211,7 +19211,7 @@
         <v>0.4</v>
       </c>
       <c r="K119" s="11">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L119" s="18"/>
       <c r="M119" s="18">
@@ -19260,7 +19260,7 @@
       </c>
       <c r="AL119" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:38">
@@ -36559,7 +36559,7 @@
       </c>
       <c r="C54">
         <f>SUMIF(Table1[Module Code],Sheet2!A54,Table1[Total Hours])</f>
-        <v>12.8</v>
+        <v>24.8</v>
       </c>
       <c r="D54">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A54,Table14[Module Code],0))</f>
@@ -36567,11 +36567,11 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>45.8</v>
+        <v>57.8</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>4.58</v>
+        <v>5.7799999999999994</v>
       </c>
     </row>
     <row r="55" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1661" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{107916D0-1B77-496C-8415-39B0FFE99FFA}"/>
+  <xr:revisionPtr revIDLastSave="1686" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3250231A-954E-4B31-A7A3-61FA4BFBD406}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1237,7 +1237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,18 +1253,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1419,21 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9075,7 +9048,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9993,27 +9966,27 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K120" sqref="K120"/>
+      <selection pane="bottomRight" activeCell="AF39" sqref="AF39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.1796875" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.73046875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.19921875" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.19921875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="29">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="28.5">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -11360,7 +11333,7 @@
       </c>
       <c r="J17" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K17" s="11">
         <v>5</v>
@@ -11387,10 +11360,8 @@
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
       <c r="AG17" s="20"/>
-      <c r="AH17" s="46">
-        <v>-0.3</v>
-      </c>
-      <c r="AI17" s="45">
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20">
         <v>0.3</v>
       </c>
       <c r="AJ17" s="20"/>
@@ -11587,7 +11558,7 @@
       </c>
       <c r="J20" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="18"/>
@@ -11611,12 +11582,10 @@
       <c r="AD20" s="20"/>
       <c r="AE20" s="20"/>
       <c r="AF20" s="20"/>
-      <c r="AG20" s="45">
+      <c r="AG20" s="20">
         <v>0.1</v>
       </c>
-      <c r="AH20" s="46">
-        <v>-1</v>
-      </c>
+      <c r="AH20" s="20"/>
       <c r="AI20" s="20"/>
       <c r="AJ20" s="20"/>
       <c r="AK20" s="27">
@@ -11625,7 +11594,7 @@
       </c>
       <c r="AL20" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>-18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -12292,7 +12261,7 @@
       </c>
       <c r="J29" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>2.6666666666666665</v>
+        <v>8</v>
       </c>
       <c r="K29" s="11">
         <v>15</v>
@@ -12302,12 +12271,10 @@
       <c r="N29" s="18"/>
       <c r="O29" s="19"/>
       <c r="P29" s="18"/>
-      <c r="Q29" s="45">
+      <c r="Q29" s="18">
         <v>0.2</v>
       </c>
-      <c r="R29" s="46">
-        <v>-0.2</v>
-      </c>
+      <c r="R29" s="18"/>
       <c r="S29" s="19"/>
       <c r="T29" s="18"/>
       <c r="U29" s="18">
@@ -12736,7 +12703,7 @@
       </c>
       <c r="J35" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K35" s="11">
         <v>6</v>
@@ -12744,20 +12711,16 @@
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="45">
+      <c r="O35" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q35" s="46">
-        <v>-0.2</v>
-      </c>
-      <c r="R35" s="19"/>
-      <c r="S35" s="45">
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="19">
         <v>0.2</v>
       </c>
-      <c r="T35" s="46">
-        <v>-0.2</v>
-      </c>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="19"/>
@@ -12906,7 +12869,7 @@
       </c>
       <c r="J37" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.99999999999999989</v>
+        <v>3</v>
       </c>
       <c r="K37" s="11">
         <v>2</v>
@@ -12920,12 +12883,10 @@
       <c r="P37" s="19"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
-      <c r="S37" s="45">
+      <c r="S37" s="18">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="T37" s="46">
-        <v>-7.4999999999999997E-2</v>
-      </c>
+      <c r="T37" s="18"/>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="19"/>
@@ -12983,7 +12944,7 @@
       </c>
       <c r="J38" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K38" s="11">
         <v>10</v>
@@ -12994,12 +12955,10 @@
       <c r="O38" s="19"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
-      <c r="R38" s="45">
+      <c r="R38" s="18">
         <v>0.2</v>
       </c>
-      <c r="S38" s="49">
-        <v>-0.2</v>
-      </c>
+      <c r="S38" s="19"/>
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
@@ -13473,20 +13432,20 @@
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="18">
+      <c r="O44" s="19">
         <v>0.1</v>
       </c>
+      <c r="P44" s="18"/>
       <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="19">
+      <c r="R44" s="18">
         <v>0.1</v>
       </c>
+      <c r="S44" s="19"/>
       <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18">
+      <c r="U44" s="18">
         <v>0.1</v>
       </c>
+      <c r="V44" s="18"/>
       <c r="W44" s="19"/>
       <c r="X44" s="22"/>
       <c r="Y44" s="22"/>
@@ -13542,7 +13501,7 @@
       </c>
       <c r="J45" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>8.0000000000000018</v>
       </c>
       <c r="K45" s="11">
         <v>6</v>
@@ -13561,26 +13520,20 @@
       <c r="W45" s="19"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
-      <c r="Z45" s="48">
+      <c r="Z45" s="22">
         <v>0.1</v>
       </c>
-      <c r="AA45" s="46">
-        <v>-0.1</v>
-      </c>
+      <c r="AA45" s="20"/>
       <c r="AB45" s="22"/>
-      <c r="AC45" s="45">
+      <c r="AC45" s="20">
         <v>0.1</v>
       </c>
-      <c r="AD45" s="47">
-        <v>-0.1</v>
-      </c>
+      <c r="AD45" s="22"/>
       <c r="AE45" s="20"/>
-      <c r="AF45" s="48">
+      <c r="AF45" s="22">
         <v>0.1</v>
       </c>
-      <c r="AG45" s="46">
-        <v>-0.1</v>
-      </c>
+      <c r="AG45" s="20"/>
       <c r="AH45" s="20"/>
       <c r="AI45" s="20"/>
       <c r="AJ45" s="20"/>
@@ -17603,7 +17556,7 @@
         <v>231</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I98" s="11">
         <v>4</v>
@@ -18525,7 +18478,7 @@
       </c>
       <c r="J110" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K110" s="13">
         <v>0.1</v>
@@ -18552,12 +18505,10 @@
       <c r="AE110" s="20"/>
       <c r="AF110" s="20"/>
       <c r="AG110" s="20"/>
-      <c r="AH110" s="45">
+      <c r="AH110" s="20">
         <v>0.4</v>
       </c>
-      <c r="AI110" s="46">
-        <v>-0.4</v>
-      </c>
+      <c r="AI110" s="20"/>
       <c r="AJ110" s="20"/>
       <c r="AK110" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -18673,7 +18624,7 @@
       </c>
       <c r="J112" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K112" s="11">
         <v>10</v>
@@ -18700,12 +18651,10 @@
       <c r="AE112" s="20"/>
       <c r="AF112" s="20"/>
       <c r="AG112" s="20"/>
-      <c r="AH112" s="45">
+      <c r="AH112" s="20">
         <v>0.4</v>
       </c>
-      <c r="AI112" s="46">
-        <v>-0.4</v>
-      </c>
+      <c r="AI112" s="20"/>
       <c r="AJ112" s="20"/>
       <c r="AK112" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
@@ -19831,7 +19780,7 @@
         <v>231</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I127" s="11">
         <v>3</v>
@@ -23728,16 +23677,16 @@
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7265625" style="16"/>
+    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.73046875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -29887,14 +29836,14 @@
       <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -35323,11 +35272,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -35503,7 +35452,7 @@
       </c>
       <c r="C10">
         <f>SUMIF(Table1[Module Code],Sheet2!A10,Table1[Total Hours])</f>
-        <v>-11.5</v>
+        <v>10.5</v>
       </c>
       <c r="D10">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A10,Table14[Module Code],0))</f>
@@ -35511,11 +35460,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>32.5</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>1.05</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1686" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3250231A-954E-4B31-A7A3-61FA4BFBD406}"/>
+  <xr:revisionPtr revIDLastSave="1701" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61AC6022-B2DB-4B86-A5F8-C208B226DB98}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="381">
   <si>
     <t>Module Code</t>
   </si>
@@ -977,15 +977,9 @@
     <t>(TBC)</t>
   </si>
   <si>
-    <t>CA2 (U/D)</t>
-  </si>
-  <si>
     <t>Mo/Th</t>
   </si>
   <si>
-    <t>CA (U/D)</t>
-  </si>
-  <si>
     <t>Poster Pres (*)</t>
   </si>
   <si>
@@ -1188,6 +1182,9 @@
   </si>
   <si>
     <t>AstroPhoto</t>
+  </si>
+  <si>
+    <t>CA2</t>
   </si>
 </sst>
 </file>
@@ -9048,7 +9045,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F344565-A902-475D-ACD8-7DA2FB255CBD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B70" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9963,30 +9960,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66039B40-29AD-4D93-B125-EAF72A7B3996}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF39" sqref="AF39"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.73046875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.19921875" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.19921875" style="16"/>
+    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.1796875" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="28.5">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="29">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -10346,7 +10344,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>222</v>
@@ -10419,7 +10417,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>231</v>
@@ -10725,13 +10723,13 @@
         <v>20</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
@@ -10842,7 +10840,7 @@
         <v>231</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I11" s="11">
         <v>2</v>
@@ -10919,13 +10917,13 @@
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>231</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I12" s="11">
         <v>1</v>
@@ -11065,7 +11063,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>231</v>
@@ -11162,7 +11160,7 @@
         <v>231</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I15" s="11">
         <v>1</v>
@@ -11320,7 +11318,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>231</v>
@@ -11545,7 +11543,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>231</v>
@@ -11835,7 +11833,7 @@
         <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>231</v>
@@ -12084,7 +12082,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>231</v>
@@ -12157,7 +12155,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>231</v>
@@ -12402,7 +12400,7 @@
         <v>231</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I31" s="11">
         <v>1</v>
@@ -12475,7 +12473,7 @@
         <v>231</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I32" s="11">
         <v>3</v>
@@ -12690,7 +12688,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>231</v>
@@ -12765,7 +12763,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>231</v>
@@ -12856,7 +12854,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>231</v>
@@ -13004,7 +13002,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>231</v>
@@ -13077,7 +13075,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>231</v>
@@ -13229,13 +13227,13 @@
         <v>20</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I42" s="11">
         <v>1</v>
@@ -13344,7 +13342,7 @@
         <v>231</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I43" s="11">
         <v>1</v>
@@ -13417,7 +13415,7 @@
         <v>231</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I44" s="11">
         <v>3</v>
@@ -13494,7 +13492,7 @@
         <v>231</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I45" s="11">
         <v>3</v>
@@ -13711,13 +13709,13 @@
         <v>20</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I48" s="11">
         <v>1</v>
@@ -13828,7 +13826,7 @@
         <v>231</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I49" s="11">
         <v>2</v>
@@ -13907,7 +13905,7 @@
         <v>231</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I50" s="11">
         <v>2</v>
@@ -14045,7 +14043,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>231</v>
@@ -14116,7 +14114,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>231</v>
@@ -14125,14 +14123,14 @@
         <v>297</v>
       </c>
       <c r="I53" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>0.79999999999999982</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="K53" s="11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L53" s="18"/>
       <c r="M53" s="18"/>
@@ -14146,42 +14144,32 @@
       <c r="U53" s="18"/>
       <c r="V53" s="18"/>
       <c r="W53" s="19"/>
-      <c r="X53" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="X53" s="20"/>
       <c r="Y53" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="Z53" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="Z53" s="20"/>
       <c r="AA53" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AB53" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="AB53" s="20"/>
       <c r="AC53" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AD53" s="20">
-        <v>0.01</v>
-      </c>
-      <c r="AE53" s="20">
-        <v>0.01</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="AD53" s="20"/>
+      <c r="AE53" s="20"/>
       <c r="AF53" s="20">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AG53" s="20">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="AH53" s="20"/>
       <c r="AI53" s="20"/>
       <c r="AJ53" s="20"/>
       <c r="AK53" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>9.9999999999999992E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AL53" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -14357,7 +14345,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>231</v>
@@ -14590,7 +14578,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>231</v>
@@ -14821,7 +14809,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>231</v>
@@ -14892,7 +14880,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>231</v>
@@ -15194,13 +15182,13 @@
         <v>20</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I67" s="11">
         <v>1</v>
@@ -15285,7 +15273,7 @@
         <v>20</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>231</v>
@@ -15429,7 +15417,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>231</v>
@@ -15527,13 +15515,13 @@
         <v>10</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I71" s="11">
         <v>1</v>
@@ -15614,7 +15602,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>231</v>
@@ -15687,7 +15675,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>231</v>
@@ -16198,13 +16186,13 @@
         <v>10</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I80" s="11">
         <v>1</v>
@@ -16285,7 +16273,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>231</v>
@@ -16358,7 +16346,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>231</v>
@@ -16573,7 +16561,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>231</v>
@@ -16725,7 +16713,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>231</v>
@@ -16887,7 +16875,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G89" s="11" t="s">
         <v>231</v>
@@ -16958,7 +16946,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>231</v>
@@ -17029,7 +17017,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>231</v>
@@ -17242,13 +17230,13 @@
         <v>20</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>222</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="I94" s="11">
         <v>1</v>
@@ -17333,7 +17321,7 @@
         <v>20</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G95" s="11" t="s">
         <v>231</v>
@@ -17621,7 +17609,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G99" s="11" t="s">
         <v>231</v>
@@ -17763,7 +17751,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>231</v>
@@ -17834,7 +17822,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>231</v>
@@ -17907,7 +17895,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>231</v>
@@ -18465,7 +18453,7 @@
         <v>30</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>231</v>
@@ -18611,7 +18599,7 @@
         <v>30</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>231</v>
@@ -18757,7 +18745,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>231</v>
@@ -19000,7 +18988,7 @@
         <v>10</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>231</v>
@@ -19144,7 +19132,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G119" s="11" t="s">
         <v>231</v>
@@ -19304,7 +19292,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>222</v>
@@ -19391,7 +19379,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>231</v>
@@ -19462,7 +19450,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>231</v>
@@ -19606,7 +19594,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>231</v>
@@ -19858,7 +19846,7 @@
       </c>
       <c r="J128" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="18"/>
@@ -19877,15 +19865,13 @@
       <c r="Y128" s="20"/>
       <c r="Z128" s="20"/>
       <c r="AA128" s="20"/>
-      <c r="AB128" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AB128" s="20"/>
       <c r="AC128" s="20"/>
-      <c r="AD128" s="20">
-        <v>0.15</v>
-      </c>
+      <c r="AD128" s="20"/>
       <c r="AE128" s="20"/>
-      <c r="AF128" s="20"/>
+      <c r="AF128" s="20">
+        <v>0.3</v>
+      </c>
       <c r="AG128" s="20"/>
       <c r="AH128" s="20"/>
       <c r="AI128" s="20"/>
@@ -19918,7 +19904,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>231</v>
@@ -20153,7 +20139,7 @@
         <v>10</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>231</v>
@@ -20234,7 +20220,7 @@
         <v>10</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>231</v>
@@ -20528,7 +20514,7 @@
         <v>10</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G137" s="11" t="s">
         <v>231</v>
@@ -20692,7 +20678,7 @@
         <v>10</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>231</v>
@@ -20783,7 +20769,7 @@
         <v>10</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G140" s="11" t="s">
         <v>231</v>
@@ -21071,7 +21057,7 @@
         <v>10</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>231</v>
@@ -21142,7 +21128,7 @@
         <v>10</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G145" s="11" t="s">
         <v>231</v>
@@ -21410,7 +21396,7 @@
         <v>60</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G148" s="11" t="s">
         <v>231</v>
@@ -21483,7 +21469,7 @@
         <v>60</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>231</v>
@@ -21629,7 +21615,7 @@
         <v>60</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>231</v>
@@ -21775,7 +21761,7 @@
         <v>60</v>
       </c>
       <c r="F153" s="37" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>231</v>
@@ -22134,7 +22120,7 @@
         <v>10</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>231</v>
@@ -22223,7 +22209,7 @@
         <v>10</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>231</v>
@@ -22312,7 +22298,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>231</v>
@@ -22383,7 +22369,7 @@
         <v>20</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>231</v>
@@ -22454,7 +22440,7 @@
         <v>20</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>231</v>
@@ -22525,7 +22511,7 @@
         <v>20</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G163" s="11" t="s">
         <v>231</v>
@@ -22596,7 +22582,7 @@
         <v>20</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G164" s="11" t="s">
         <v>231</v>
@@ -22669,7 +22655,7 @@
         <v>20</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>231</v>
@@ -22742,7 +22728,7 @@
         <v>20</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>231</v>
@@ -22815,7 +22801,7 @@
         <v>20</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>231</v>
@@ -22886,7 +22872,7 @@
         <v>20</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>231</v>
@@ -22959,7 +22945,7 @@
         <v>20</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>231</v>
@@ -23030,7 +23016,7 @@
         <v>20</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>231</v>
@@ -23107,7 +23093,7 @@
         <v>231</v>
       </c>
       <c r="H171" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I171" s="11">
         <v>4</v>
@@ -23178,7 +23164,7 @@
         <v>231</v>
       </c>
       <c r="H172" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I172" s="11">
         <v>6</v>
@@ -23456,7 +23442,7 @@
         <v>20</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>231</v>
@@ -23529,7 +23515,7 @@
         <v>20</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G177" s="11" t="s">
         <v>231</v>
@@ -23602,7 +23588,7 @@
         <v>20</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G178" s="11" t="s">
         <v>231</v>
@@ -23668,6 +23654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0482654D-1732-43E5-85EC-021407B07CE5}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23677,16 +23664,16 @@
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -29830,20 +29817,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D548CE7-BEAC-43FA-847F-FDE82E3A5926}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W129"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="T74" sqref="T74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -30921,7 +30909,7 @@
       </c>
       <c r="W21">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>30</v>
+        <v>48.000000000000007</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -35266,17 +35254,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4F541C-C22C-46EF-BD21-4F8C93ABA5A9}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.53125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1701" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61AC6022-B2DB-4B86-A5F8-C208B226DB98}"/>
+  <xr:revisionPtr revIDLastSave="1702" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FEEA60-60B1-467C-B8A6-B49E78182C89}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -9964,10 +9964,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomRight" activeCell="AG54" sqref="AG54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="J53" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>4.4800000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="K53" s="11">
         <v>1</v>
@@ -14162,14 +14162,14 @@
         <v>0.02</v>
       </c>
       <c r="AG53" s="20">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="AH53" s="20"/>
       <c r="AI53" s="20"/>
       <c r="AJ53" s="20"/>
       <c r="AK53" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="AL53" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
@@ -30909,7 +30909,7 @@
       </c>
       <c r="W21">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>48.000000000000007</v>
+        <v>30.000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:23">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1702" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FEEA60-60B1-467C-B8A6-B49E78182C89}"/>
+  <xr:revisionPtr revIDLastSave="1706" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B9F2E6-4A06-47F5-969A-25A16216E35F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -9964,27 +9964,27 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG54" sqref="AG54"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.7265625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7265625" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.1796875" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="29">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="30">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="D22" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -11724,12 +11724,12 @@
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="AC22" s="20">
+        <v>0.05</v>
+      </c>
       <c r="AD22" s="20"/>
       <c r="AE22" s="20"/>
-      <c r="AF22" s="20">
-        <v>0.05</v>
-      </c>
+      <c r="AF22" s="20"/>
       <c r="AG22" s="20"/>
       <c r="AH22" s="20"/>
       <c r="AI22" s="20"/>
@@ -11755,7 +11755,7 @@
       </c>
       <c r="D23" s="29">
         <f>INDEX(Table2[CA weight],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23" s="29">
         <f>INDEX(Table2[Credits],MATCH(Table1[[#This Row],[Module Code]],Table2[Module Code],0))</f>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="J23" s="11">
         <f>AVERAGE(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]])*4*Table1[[#This Row],[Credits]]</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="18"/>
@@ -11801,17 +11801,17 @@
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
       <c r="AH23" s="20">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AI23" s="20"/>
       <c r="AJ23" s="20"/>
       <c r="AK23" s="27">
         <f>IF(Table1[[#This Row],[Summative]]="Y",SUMIF(Table1[[#This Row],[Autumn Week 1]:[Spring Exams]],"&gt;0",Table1[[#This Row],[Autumn Week 1]:[Spring Exams]]),0)</f>
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AL23" s="27">
         <f>IF(Table1[[#This Row],[Hours]]&gt;0,Table1[[#This Row],[Hours]],Table1[[#This Row],[Nominal Hours]])*COUNTIF(Table1[[#This Row],[Autumn Week 1]:[Spring Week 12]],"&gt;0")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:38">
@@ -17069,7 +17069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" ht="28.5">
       <c r="A92" s="8" t="s">
         <v>21</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" ht="28.5">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
@@ -23664,16 +23664,16 @@
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7265625" style="16"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26995,7 +26995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -29820,18 +29820,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="T74" sqref="T74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -30347,15 +30347,15 @@
         <v>2</v>
       </c>
       <c r="U10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V10">
         <f>100-Table2[[#This Row],[Exam Weight (%)]]</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="W10">
         <f>IF(COUNTIF(Table1[Module Code],Table2[[#This Row],[Module Code]])&gt;0,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Module Code]],Table1[Summative],"Y")*100,SUMIFS(Table1[Sub-total],Table1[Module Code],Table2[[#This Row],[Alternative Module Code]],Table1[Summative],"Y")*100)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -31645,7 +31645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -35261,11 +35261,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -35489,7 +35489,7 @@
       </c>
       <c r="C12">
         <f>SUMIF(Table1[Module Code],Sheet2!A12,Table1[Total Hours])</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f>INDEX(Table14[Total],MATCH(Sheet2!A12,Table14[Module Code],0))</f>
@@ -35497,11 +35497,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1706" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43B9F2E6-4A06-47F5-969A-25A16216E35F}"/>
+  <xr:revisionPtr revIDLastSave="1710" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47FA5FF-87D4-4014-98E7-97A211EE0BFD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="26115" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -9964,27 +9964,27 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF22" sqref="AF22"/>
+      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.140625" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.140625" style="16"/>
+    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.73046875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.1328125" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="30">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="28.5">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="28.5">
+    <row r="92" spans="1:38">
       <c r="A92" s="8" t="s">
         <v>21</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="28.5">
+    <row r="93" spans="1:38">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>231</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I98" s="11">
         <v>4</v>
@@ -19768,7 +19768,7 @@
         <v>231</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I127" s="11">
         <v>3</v>
@@ -20544,9 +20544,7 @@
       <c r="U137" s="18"/>
       <c r="V137" s="18"/>
       <c r="W137" s="19"/>
-      <c r="X137" s="20">
-        <v>0.01</v>
-      </c>
+      <c r="X137" s="20"/>
       <c r="Y137" s="20">
         <v>0.01</v>
       </c>
@@ -20574,7 +20572,9 @@
       <c r="AG137" s="20">
         <v>0.01</v>
       </c>
-      <c r="AH137" s="20"/>
+      <c r="AH137" s="20">
+        <v>0.01</v>
+      </c>
       <c r="AI137" s="20"/>
       <c r="AJ137" s="20"/>
       <c r="AK137" s="27">
@@ -23664,16 +23664,16 @@
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.7109375" style="16"/>
+    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.73046875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26995,7 +26995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="28.5">
+    <row r="36" spans="1:31">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -29824,14 +29824,14 @@
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.86328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -31645,7 +31645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="28.5">
+    <row r="36" spans="1:23">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -35261,11 +35261,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1710" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A47FA5FF-87D4-4014-98E7-97A211EE0BFD}"/>
+  <xr:revisionPtr revIDLastSave="1713" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B40F84-9E68-4883-BCAF-AA9C16BA3DEC}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="-98" windowWidth="26115" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
@@ -9964,10 +9964,10 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17615,7 +17615,7 @@
         <v>231</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="I99" s="11">
         <v>2</v>
@@ -17901,7 +17901,7 @@
         <v>231</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I103" s="11">
         <v>11</v>
@@ -18189,7 +18189,7 @@
         <v>231</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I107" s="11">
         <v>4</v>

--- a/AssessmentSchedule_2526_v2.xlsx
+++ b/AssessmentSchedule_2526_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cf-my.sharepoint.com/personal/northce_cardiff_ac_uk/Documents/Documents/Cardiff/DUGS/Assessments/Schedule Modelling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1713" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B40F84-9E68-4883-BCAF-AA9C16BA3DEC}"/>
+  <xr:revisionPtr revIDLastSave="1716" documentId="8_{10702854-9EE2-4D67-90CE-85FDD07A66EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49EEAAE0-471A-47C0-9AB3-B72E4BBA97EE}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="26115" windowHeight="15675" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A20BCC1C-F123-4C76-9181-B345A7D760BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Assessments" sheetId="1" r:id="rId1"/>
@@ -9964,27 +9964,27 @@
   <dimension ref="A1:AL178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomRight" activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.73046875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.73046875" style="10" customWidth="1"/>
-    <col min="12" max="23" width="9.1328125" style="14" customWidth="1"/>
-    <col min="24" max="36" width="9.1328125" style="16"/>
+    <col min="6" max="6" width="21.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" style="10" customWidth="1"/>
+    <col min="12" max="23" width="9.140625" style="14" customWidth="1"/>
+    <col min="24" max="36" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="44" customFormat="1" ht="28.5">
+    <row r="1" spans="1:38" s="44" customFormat="1" ht="30">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -14310,10 +14310,10 @@
       </c>
       <c r="AD55" s="20"/>
       <c r="AE55" s="20"/>
-      <c r="AF55" s="20">
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20">
         <v>0.1</v>
       </c>
-      <c r="AG55" s="20"/>
       <c r="AH55" s="20"/>
       <c r="AI55" s="20"/>
       <c r="AJ55" s="20"/>
@@ -17069,7 +17069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:38" ht="28.5">
       <c r="A92" s="8" t="s">
         <v>21</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:38" ht="28.5">
       <c r="A93" s="8" t="s">
         <v>21</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>231</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I129" s="11">
         <v>1</v>
@@ -23664,16 +23664,16 @@
       <selection pane="bottomRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.73046875" style="10" customWidth="1"/>
-    <col min="7" max="15" width="16.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="17.265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="30" width="8.73046875" style="16"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="15" width="16.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="30" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -26995,7 +26995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -29824,14 +29824,14 @@
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.86328125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="5" customWidth="1"/>
   </cols>
@@ -31645,7 +31645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36" spans="1:23" ht="28.5">
       <c r="A36" s="8" t="s">
         <v>21</v>
       </c>
@@ -35261,11 +35261,11 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
